--- a/data/02_intermediate/cleaned_Younès_Boucif_songs.xlsx
+++ b/data/02_intermediate/cleaned_Younès_Boucif_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>So high you can not see it Gave it my best shot True love stays away When you're not Spent all of my savings Impossible to stop He's a wonderful Zen love On a photoed back A sliver lane A sliver lane I'm back again I'm back again So high you can not see it Gave it my best shot True love stays away When you're not Spent all of my savings Impossible to stop He said water falls And love will never turn back Sliver lane Sliver lane I'm back again I'm back again You might also likeSliver lane Sliver lane My old friend My old friend Aaah ah-aaah Ah-aaah ah-aaah Ah-ah-ah-aaaah Ah-ah-aaaaaaaah Ah-ah-aaah Ah-ah-ah-ah-ah-ah-ah-ah-ah-aaaaaaaah No need for a flashlight No need for a plan I remember the ride Like the back of my head This is where I came from Where I had been made Made my way back For this fatal relax on this trail Sliver lane Sliver lane I'm back again I'm back again Sliver lane Sliver lane My old friend My old friend 'Cause you got me marching You made me move Shadow boxing, wanna love The top of the prove, yeah You got me talking You know the truth You're a speechless crazy pantomine Priest without a tooth You got me walking You made me smooth Like a satellite plastic ping-pong ball Bouncing down at you Sliver Lane I'm back again</t>
+          <t>So high you can not see it Gave it my best shot True love stays away When you're not Spent all of my savings Impossible to stop He's a wonderful Zen love On a photoed back A sliver lane A sliver lane I'm back again I'm back again So high you can not see it Gave it my best shot True love stays away When you're not Spent all of my savings Impossible to stop He said water falls And love will never turn back Sliver lane Sliver lane I'm back again I'm back again Sliver lane Sliver lane My old friend My old friend Aaah ah-aaah Ah-aaah ah-aaah Ah-ah-ah-aaaah Ah-ah-aaaaaaaah Ah-ah-aaah Ah-ah-ah-ah-ah-ah-ah-ah-ah-aaaaaaaah No need for a flashlight No need for a plan I remember the ride Like the back of my head This is where I came from Where I had been made Made my way back For this fatal relax on this trail Sliver lane Sliver lane I'm back again I'm back again Sliver lane Sliver lane My old friend My old friend 'Cause you got me marching You made me move Shadow boxing, wanna love The top of the prove, yeah You got me talking You know the truth You're a speechless crazy pantomine Priest without a tooth You got me walking You made me smooth Like a satellite plastic ping-pong ball Bouncing down at you Sliver Lane I'm back again</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Il est 20h, bonsoir à tous. Voici les titres de l'actualité de ce vendredi Les flammes avancent déjà depuis plus de 2 semaines. Des centaines d'hectares de la forêt amazonienne, partis en fumée 46 degrés à Londres ? enregistrés le 28 juin, jamais pareille température n'avait été recensée sur le sol français J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants Moment charnière, j'travaille comme acharné La go est charmante, le péché est charnel J'écris sur le net et c'est indélébile Je paie la note même si j'ai pas 10 balles J'ai la ge-ra, j'ai la dalle, j'ai le spleen J'ai besoin d'la torah, du coran, d'la bible Sentier battu, j'prends le chemin de travers Aucun regret je deviens c'que je traverse On change pas les hommes, on s'habitue à eux La misère est tellement moins pénible à deux J'me jette à l'eau, y'a pas d'bonne manière Personne m'a dit comment faire carrière You might also likeQuand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte J'suis du continent le plus pillé du monde US président parle de pays de merde Ils nous punissent pour les attentats Les noirs sont riches qu'au Wakanda Ce monde d'élevage au poulet de batterie C'est tout c'que t'auras poto à bas prix Keufs dans l'virage, on est pas vus pas pris C'est tout c'que Paris dans l'métro m'a pris La veille j'étais sur scène en Tunisie J'me réveille, j'mange une amende dans le bus Quotidien atteint de schizophrénie J'me réveille, j'ai pris une année de plus J'me suis fait braquer la mort au bout du gun J'pense à mes parents, le brigadier gueule J'ai plus de chances de mourir par un flic Que par une grosse équipe, c'est dramatique Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte Les algériens manifestaient pour le 20ème vendredi d'affilée. Les revendications sont toujours les mêmes, le départ de l'équipe au pouvoir Désormais officiel, la chambre des représentants s'apprête à transmettre au Sénat l'acte d'accusation du procès en destitution de Donald Trump Les défauts d'hier me font mal aujourd'hui Mama t'avais raison, Miro l'a dit La couleur de peau fait pas l'fils de pute Mais l'fils de pute a une couleur de peau Levé du pied gauche, j'frappe la porte au pied d'biche J'essaie d'assumer donc il faut qu'jme détache J'ai un sac de sport et puis les gens ont peur Ils pensent à la mort, ils s'rappellent du 20h Dieu m'fait d'la peine comme un restaurant vide J'force le respect comme détenu qui s'évade J'réfléchis trop, j'serai jamais heureux J'ai trop d'défauts pour les énumérer Tu fais rien d'ta ie-v tu veux niquer la mienne Elle t'a trompé, tu veux niquer l'amant Dans l'roman la chaussure est italienne Dans la vraie vie le racisme est latent La vie était belle, maintenant elle m'emmerde Maintenant j'me démène pour trouver d'nouveaux jeux J'dois faire des expos, aller dans des restaus Tu prends de l'ecsta, moi j'écoute ? L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé J'mange du pain nature, j'imagine le beurre J'enchaîne les ratures, j'm'imagine auteur Aux grands hommes la nation reconnaissante Aux grandes sommes la nation est complaisante J'peux plus t'lâcher comme un bon livre J'suis attaché, t'as de belles lèvres J'suis pas pro-bouche j'suis du côté appache Je suis l'intello du fond de la classe J'suis rêveur comme Fantasio de Musset J'aime flâner dans les rues, les musées J'suis idiot comme le prince de Dostoïevski J'me sens vivre comme une après-midi au ski À part dans mes textes, j'raconterai pas ma vie Tu m'verras pas mettre des stories d'ma fille Les défauts d'hier me font mal aujourd'hui Mama t'avait raison Miro l'a dit L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé Youn</t>
+          <t>Il est 20h, bonsoir à tous. Voici les titres de l'actualité de ce vendredi Les flammes avancent déjà depuis plus de 2 semaines. Des centaines d'hectares de la forêt amazonienne, partis en fumée 46 degrés à Londres ? enregistrés le 28 juin, jamais pareille température n'avait été recensée sur le sol français J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants Moment charnière, j'travaille comme acharné La go est charmante, le péché est charnel J'écris sur le net et c'est indélébile Je paie la note même si j'ai pas 10 balles J'ai la ge-ra, j'ai la dalle, j'ai le spleen J'ai besoin d'la torah, du coran, d'la bible Sentier battu, j'prends le chemin de travers Aucun regret je deviens c'que je traverse On change pas les hommes, on s'habitue à eux La misère est tellement moins pénible à deux J'me jette à l'eau, y'a pas d'bonne manière Personne m'a dit comment faire carrière Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte J'suis du continent le plus pillé du monde US président parle de pays de merde Ils nous punissent pour les attentats Les noirs sont riches qu'au Wakanda Ce monde d'élevage au poulet de batterie C'est tout c'que t'auras poto à bas prix Keufs dans l'virage, on est pas vus pas pris C'est tout c'que Paris dans l'métro m'a pris La veille j'étais sur scène en Tunisie J'me réveille, j'mange une amende dans le bus Quotidien atteint de schizophrénie J'me réveille, j'ai pris une année de plus J'me suis fait braquer la mort au bout du gun J'pense à mes parents, le brigadier gueule J'ai plus de chances de mourir par un flic Que par une grosse équipe, c'est dramatique Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte Les algériens manifestaient pour le 20ème vendredi d'affilée. Les revendications sont toujours les mêmes, le départ de l'équipe au pouvoir Désormais officiel, la chambre des représentants s'apprête à transmettre au Sénat l'acte d'accusation du procès en destitution de Donald Trump Les défauts d'hier me font mal aujourd'hui Mama t'avais raison, Miro l'a dit La couleur de peau fait pas l'fils de pute Mais l'fils de pute a une couleur de peau Levé du pied gauche, j'frappe la porte au pied d'biche J'essaie d'assumer donc il faut qu'jme détache J'ai un sac de sport et puis les gens ont peur Ils pensent à la mort, ils s'rappellent du 20h Dieu m'fait d'la peine comme un restaurant vide J'force le respect comme détenu qui s'évade J'réfléchis trop, j'serai jamais heureux J'ai trop d'défauts pour les énumérer Tu fais rien d'ta ie-v tu veux niquer la mienne Elle t'a trompé, tu veux niquer l'amant Dans l'roman la chaussure est italienne Dans la vraie vie le racisme est latent La vie était belle, maintenant elle m'emmerde Maintenant j'me démène pour trouver d'nouveaux jeux J'dois faire des expos, aller dans des restaus Tu prends de l'ecsta, moi j'écoute ? L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé J'mange du pain nature, j'imagine le beurre J'enchaîne les ratures, j'm'imagine auteur Aux grands hommes la nation reconnaissante Aux grandes sommes la nation est complaisante J'peux plus t'lâcher comme un bon livre J'suis attaché, t'as de belles lèvres J'suis pas pro-bouche j'suis du côté appache Je suis l'intello du fond de la classe J'suis rêveur comme Fantasio de Musset J'aime flâner dans les rues, les musées J'suis idiot comme le prince de Dostoïevski J'me sens vivre comme une après-midi au ski À part dans mes textes, j'raconterai pas ma vie Tu m'verras pas mettre des stories d'ma fille Les défauts d'hier me font mal aujourd'hui Mama t'avait raison Miro l'a dit L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé Youn</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rappe ta vie, qu'elle soit héroïque ou banale Au final, qu'est-ce qu'il change, Obama ? Y a toujours des renois qui s'font plomber dans l'Oklahoma Y a toujours des drones de combat, drôle de combat Le renoi, c'est souvent l'meilleur ami mais rarement l'personnage principal ouais, ouais Et le monde va vite, on veut tous la suite et les cinq étoiles Trouver une femme belle, belle, si belle à la belle étoile Lui faire l'amour puis faire un tour juste elle et oim Lui faire l'amour tous les jours, tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'rappe ma vie, pas la tienne. Tu t'y reconnais ? À la tienne Si tu kiffes pas, renoi, t'écoutes pas et puis c'est tout Au final, j'ai jamais d'meufs mais j'ai plein d'ex J'agis mal à croire qu'j'la pousse à ce qu'elle me next Au final, le monde est faux donc, si j'suis vrai, c'est un défaut Au final, y a plus de social mais on a les réseaux sociaux J'ai un problème avec les femmes, on s'embrouille au téléphone De ma musique, elle est fan, mais, au final, je la rends folle tous les soirs You might also like Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! On parle d'euros, de ronds, d'avoir les bras longs On fait l'tour du de-mon mais qu'avec un ballon On parle de sommes au bord de la Seine, qu'on s'envole vers contrées lointaines On parle de sons, monter sur scène, de succès, modeste sans avoir la grosse tête On veut grosses fesses sans avoir la grossesse On veut grosses caisses, ils rêvent d'assiettes... grotesque ! L'indécence burlesque ! Vide de sens vulgaire ! On veut des sous pour des bulles d'airs, bordel ! Vivre sans père, c'est grandir sans modèle L'âme sur, c'est devenu démodé Les petits veulent une pute dans un motel Bienvenue dans l'époque moderne Tout se monnaye, liberté, mon il ! Tes rêves sont ceux des autres, eux-mêmes ceux des autres Et des autres et personne n'y voit plus clair dans ce désordre J'rêve d'atteindre les rêves de mes rêves Mais comment trouver de l'eau dans ce désert ? J'rêve de mes rêves pendant des heures Et je rêve que mes rêves soient mes désirs Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7 ? J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7, hein ? Yoon on the Moon, Rilès à la prod Héhéhé, c'est comment ? Gros big up à Semardhino sans qui j'aurais jamais fini ce texte Frère, celle-ci, elle est pour oit1</t>
+          <t>Rappe ta vie, qu'elle soit héroïque ou banale Au final, qu'est-ce qu'il change, Obama ? Y a toujours des renois qui s'font plomber dans l'Oklahoma Y a toujours des drones de combat, drôle de combat Le renoi, c'est souvent l'meilleur ami mais rarement l'personnage principal ouais, ouais Et le monde va vite, on veut tous la suite et les cinq étoiles Trouver une femme belle, belle, si belle à la belle étoile Lui faire l'amour puis faire un tour juste elle et oim Lui faire l'amour tous les jours, tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'rappe ma vie, pas la tienne. Tu t'y reconnais ? À la tienne Si tu kiffes pas, renoi, t'écoutes pas et puis c'est tout Au final, j'ai jamais d'meufs mais j'ai plein d'ex J'agis mal à croire qu'j'la pousse à ce qu'elle me next Au final, le monde est faux donc, si j'suis vrai, c'est un défaut Au final, y a plus de social mais on a les réseaux sociaux J'ai un problème avec les femmes, on s'embrouille au téléphone De ma musique, elle est fan, mais, au final, je la rends folle tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! On parle d'euros, de ronds, d'avoir les bras longs On fait l'tour du de-mon mais qu'avec un ballon On parle de sommes au bord de la Seine, qu'on s'envole vers contrées lointaines On parle de sons, monter sur scène, de succès, modeste sans avoir la grosse tête On veut grosses fesses sans avoir la grossesse On veut grosses caisses, ils rêvent d'assiettes... grotesque ! L'indécence burlesque ! Vide de sens vulgaire ! On veut des sous pour des bulles d'airs, bordel ! Vivre sans père, c'est grandir sans modèle L'âme sur, c'est devenu démodé Les petits veulent une pute dans un motel Bienvenue dans l'époque moderne Tout se monnaye, liberté, mon il ! Tes rêves sont ceux des autres, eux-mêmes ceux des autres Et des autres et personne n'y voit plus clair dans ce désordre J'rêve d'atteindre les rêves de mes rêves Mais comment trouver de l'eau dans ce désert ? J'rêve de mes rêves pendant des heures Et je rêve que mes rêves soient mes désirs Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7 ? J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7, hein ? Yoon on the Moon, Rilès à la prod Héhéhé, c'est comment ? Gros big up à Semardhino sans qui j'aurais jamais fini ce texte Frère, celle-ci, elle est pour oit1</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lo siento Carlito Mes couilles et moi on fait la paire Tout pleins d'plans qu'on élabore On veut bien sauver la Terre Mais on veut percer d'abord Y'a rien qui change à part les saisons et encore c'est vrai qu'maintenant euh... J'veux vous voir chanter mes chansons et en choeur J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah Des fautes d'hier blessure d'aujourd'hui Plaisir d'hier désirs d'aujourd'hui Demain c'est aujourd'hui j'remets les choses à aujourd'hui C'est moi qui gagne c'est Dieu qui donne J'suis matinal depuis qu'l'école c'est terminé Depuis qu'je charbonne pour ma pomme pas pour un mec des beaux quartiers J'me balade chez les riches comme dans un catalogue J'sors de mon sac un sandwich mayo thon catalane On tue l'ennui nos daronnes meurent d'inquiétudes On tourne en ville dans les poches zéro pécule Je m'auto-stimule y'a pas qu'au foot poto que les gens simulent Tout tout tout tout mettre de côtés pour finir manga Tout laisser tomber, arrêter l'pe-ra enfin J'ai peur de t'faire du mal J't'en fais encore plus ah mince Si l'rap est une fac La street c'est l'campus Fuck la langue de bois Viens on s'dit c'qu'on pense Est-ce qu'on fait le bien Que pour la récompense ? Partage des photos sans intérêts En quête d'un peu plus d'intérêt Ce comportement m'interroge J'l'observe même dans mon entourage J'sais c'qui m'fait du bien j'le fais pas J'aime pas quand ils me demandent mes papiers Reconnu sur Paname, j'suis toujours un peu surpris Pour l'instant c'est pas mal mais on verra ensuite Et j'me méfie des éloges encore plus que des critiques J'fais pas des punchlines mais des proverbes J'perce dans l'rap, ensuite j'irai me mettre au vert Vue sur la mer Potager, montagne, ma meuf et moi Ce sera cool You might also likeAller euh, tous ensemble J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah</t>
+          <t>Lo siento Carlito Mes couilles et moi on fait la paire Tout pleins d'plans qu'on élabore On veut bien sauver la Terre Mais on veut percer d'abord Y'a rien qui change à part les saisons et encore c'est vrai qu'maintenant euh... J'veux vous voir chanter mes chansons et en choeur J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah Des fautes d'hier blessure d'aujourd'hui Plaisir d'hier désirs d'aujourd'hui Demain c'est aujourd'hui j'remets les choses à aujourd'hui C'est moi qui gagne c'est Dieu qui donne J'suis matinal depuis qu'l'école c'est terminé Depuis qu'je charbonne pour ma pomme pas pour un mec des beaux quartiers J'me balade chez les riches comme dans un catalogue J'sors de mon sac un sandwich mayo thon catalane On tue l'ennui nos daronnes meurent d'inquiétudes On tourne en ville dans les poches zéro pécule Je m'auto-stimule y'a pas qu'au foot poto que les gens simulent Tout tout tout tout mettre de côtés pour finir manga Tout laisser tomber, arrêter l'pe-ra enfin J'ai peur de t'faire du mal J't'en fais encore plus ah mince Si l'rap est une fac La street c'est l'campus Fuck la langue de bois Viens on s'dit c'qu'on pense Est-ce qu'on fait le bien Que pour la récompense ? Partage des photos sans intérêts En quête d'un peu plus d'intérêt Ce comportement m'interroge J'l'observe même dans mon entourage J'sais c'qui m'fait du bien j'le fais pas J'aime pas quand ils me demandent mes papiers Reconnu sur Paname, j'suis toujours un peu surpris Pour l'instant c'est pas mal mais on verra ensuite Et j'me méfie des éloges encore plus que des critiques J'fais pas des punchlines mais des proverbes J'perce dans l'rap, ensuite j'irai me mettre au vert Vue sur la mer Potager, montagne, ma meuf et moi Ce sera cool Aller euh, tous ensemble J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hey, y'a pas d'autotune c'est du pe-ra zéro autotune Rah, putain j'aime trop ça j'aime trop ça J'vais m'isoler car j'ai pas envie qu'mes enfants jouent avec les tiens Écoute eh, eh Don Carlito J'vais m'isoler, car j'ai pas envie qu'mes enfants jouent avec les tiens cheh Arrête de pleurer, le seul remède à un amour perdu c'est le temps J'fais pas la fête, je fais le vestiaire, y'a ceux qui taffent, ceux qui espèrent Tu n'as pas le temps ou tu n'as pas envie ? Dis la vérité, ne sois pas mauvais Il parle bien pour un rebeu beh se disent ces bobos wouh wouh Ça commence bien, ça finit mieux Pas comme Naruto shippuden J'vais briser son corazón elle a raison, aujourd'hui elle pleure car c'est la saison Elle a voulu voir Vierzon, elle a vu Vierzon, elle voudrait les fleurs, la jolie maison Des histoires à dormir debout, chercher l'réconfort dans un film de boules Si tu kiffes pas, c'est qu'une histoire de goût, j'fais plus rire personne comme Jamel Debbouze J'en ai vu d'toutes les douleurs, j'capte plus toutes les couleurs On peut s'dire à tout à l'heure, s'faire faucher à toute allure You might also like J'suis à Venise, j'rêve de briser ta perche à selfie, de te la mettre dans le hmm J'suis en Vélib, j'rêve de tout quitter pour la Mongolie, j'me balade sur les T'es plutôt Kaaris ou t'es plutôt Booba ? Moi, mon rappeur préféré, c'est moi, eh Forcément 'ment, 'ment Si ma go' me trompe, mehlich, j'vais pas fouiller son tél, c'est khéné Les p'tits sur le net s'affichent, dans dix piges, des regrets J'aimerais payer mon ticket car frauder, c'est fatigant roh, c'est chiant On l'fait plus pour s'amuser, on a grandi depuis l'temps on est plus des tits-pe C'est du peu-ra, pas d'la funk, pour les caille-ra, pour les punks pour les voyous On est bientôt à la mode, Don Carlito à la prod' roh, j'aime trop ça</t>
+          <t>Hey, y'a pas d'autotune c'est du pe-ra zéro autotune Rah, putain j'aime trop ça j'aime trop ça J'vais m'isoler car j'ai pas envie qu'mes enfants jouent avec les tiens Écoute eh, eh Don Carlito J'vais m'isoler, car j'ai pas envie qu'mes enfants jouent avec les tiens cheh Arrête de pleurer, le seul remède à un amour perdu c'est le temps J'fais pas la fête, je fais le vestiaire, y'a ceux qui taffent, ceux qui espèrent Tu n'as pas le temps ou tu n'as pas envie ? Dis la vérité, ne sois pas mauvais Il parle bien pour un rebeu beh se disent ces bobos wouh wouh Ça commence bien, ça finit mieux Pas comme Naruto shippuden J'vais briser son corazón elle a raison, aujourd'hui elle pleure car c'est la saison Elle a voulu voir Vierzon, elle a vu Vierzon, elle voudrait les fleurs, la jolie maison Des histoires à dormir debout, chercher l'réconfort dans un film de boules Si tu kiffes pas, c'est qu'une histoire de goût, j'fais plus rire personne comme Jamel Debbouze J'en ai vu d'toutes les douleurs, j'capte plus toutes les couleurs On peut s'dire à tout à l'heure, s'faire faucher à toute allure J'suis à Venise, j'rêve de briser ta perche à selfie, de te la mettre dans le hmm J'suis en Vélib, j'rêve de tout quitter pour la Mongolie, j'me balade sur les T'es plutôt Kaaris ou t'es plutôt Booba ? Moi, mon rappeur préféré, c'est moi, eh Forcément 'ment, 'ment Si ma go' me trompe, mehlich, j'vais pas fouiller son tél, c'est khéné Les p'tits sur le net s'affichent, dans dix piges, des regrets J'aimerais payer mon ticket car frauder, c'est fatigant roh, c'est chiant On l'fait plus pour s'amuser, on a grandi depuis l'temps on est plus des tits-pe C'est du peu-ra, pas d'la funk, pour les caille-ra, pour les punks pour les voyous On est bientôt à la mode, Don Carlito à la prod' roh, j'aime trop ça</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Le métal, on peut le tordre, le fer, on peut le fondre. Alors que peut-on faire de l'homme avec la douleur ? Phrase terrible qui pourrait servir d'épitaphe à tous les disparus. J'ai marché si longtemps, j'ai appris à voler Au-dessus des gens, des brigands et des voleurs Avec le temps, je me suis moins donné J'suis d'venu distant pour éviter la douleur L'erreur est humaine, l'humain est une erreur C'est donc naturel de tomber dans la peur L'espoir nous emmène au delà de ces rumeurs C'est donc un remède d'avoir la main sur le cur J'ai les pieds sur terre, la tête dans les étoiles Pas étonnant, mon frère, si j'ai si mal aux entrailles Un jour, j'en ai rien à faire, un jour, j'veux la médaille Une fois, j'range mes affaires, une autre fois, je les déballe Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes You might also like J'marche et la vie suit son cours, le marché suit son cours Les traders font la course, jouent avec la bourse Engrangent des millions, des milliards En fait, t'es mignon mais ignare J'suis à Saint-Lazare, j'vois les gens courir Un train entre en gare, un autre vient de partir Le décès d'un vieillard, la naissance d'un avenir Ce n'est que de l'art mais c'est ce qui m'attire Que peut-on faire de la douleur ? Un morceau, une confidence ou contracter Alzheimer Que peut-on faire de la douleur ? On peut la transformer en haine, on peut la transformer en peine Moi, perso, quand la coupe est pleine J'préfère la transformer en thème Que peut-on faire de la douleur ? Un étendard, une bannière, une victoire, une manière Fier d'ton malheur, en faire un porte bonheur Que peut-on faire de la douleur ? Gros, tu choisis la couleur Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Des rencontres, des partages, des sourires Je raconte mes voyages, mes souvenirs J'me rends compte qu'on prend de l'âge, qu'on mûrit Le pe-ra, une image que j'écris Au moment où j'le vis, au moment où j'le vois Et tu sais c'que je crée, tu peux être sûr que j'le crois Au moment où j'le dis, au moment où j'le donne à ma feuille En effet, j'ai la foi mais faut qu'tu saches qu'la musique est figée J'sais pas si t'as pigé mais j'me sens obligé de t'en aviser J'te partage une vision à un moment visé C'est rien de plus que du son sur une production d'So Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Yoon on the Moon Auteur prudent, auditeur averti, auteur prudent, auditeur averti Auteur prudent, auditeur averti, auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance Tu le sais, frère, tu le sais Ce n'est que de l'art, n'en fais pas ton arme, gros Yoon on the Moon, gros Auteur prudent, auditeur averti, auteur prudent, auditeur averti Ce n'est que de l'art, auteur prudent, auditeur averti J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu où tout le monde a tort au royaume des menteurs J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu que tout le monde adore au royaume des menteurs</t>
+          <t>Le métal, on peut le tordre, le fer, on peut le fondre. Alors que peut-on faire de l'homme avec la douleur ? Phrase terrible qui pourrait servir d'épitaphe à tous les disparus. J'ai marché si longtemps, j'ai appris à voler Au-dessus des gens, des brigands et des voleurs Avec le temps, je me suis moins donné J'suis d'venu distant pour éviter la douleur L'erreur est humaine, l'humain est une erreur C'est donc naturel de tomber dans la peur L'espoir nous emmène au delà de ces rumeurs C'est donc un remède d'avoir la main sur le cur J'ai les pieds sur terre, la tête dans les étoiles Pas étonnant, mon frère, si j'ai si mal aux entrailles Un jour, j'en ai rien à faire, un jour, j'veux la médaille Une fois, j'range mes affaires, une autre fois, je les déballe Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes J'marche et la vie suit son cours, le marché suit son cours Les traders font la course, jouent avec la bourse Engrangent des millions, des milliards En fait, t'es mignon mais ignare J'suis à Saint-Lazare, j'vois les gens courir Un train entre en gare, un autre vient de partir Le décès d'un vieillard, la naissance d'un avenir Ce n'est que de l'art mais c'est ce qui m'attire Que peut-on faire de la douleur ? Un morceau, une confidence ou contracter Alzheimer Que peut-on faire de la douleur ? On peut la transformer en haine, on peut la transformer en peine Moi, perso, quand la coupe est pleine J'préfère la transformer en thème Que peut-on faire de la douleur ? Un étendard, une bannière, une victoire, une manière Fier d'ton malheur, en faire un porte bonheur Que peut-on faire de la douleur ? Gros, tu choisis la couleur Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Des rencontres, des partages, des sourires Je raconte mes voyages, mes souvenirs J'me rends compte qu'on prend de l'âge, qu'on mûrit Le pe-ra, une image que j'écris Au moment où j'le vis, au moment où j'le vois Et tu sais c'que je crée, tu peux être sûr que j'le crois Au moment où j'le dis, au moment où j'le donne à ma feuille En effet, j'ai la foi mais faut qu'tu saches qu'la musique est figée J'sais pas si t'as pigé mais j'me sens obligé de t'en aviser J'te partage une vision à un moment visé C'est rien de plus que du son sur une production d'So Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Yoon on the Moon Auteur prudent, auditeur averti, auteur prudent, auditeur averti Auteur prudent, auditeur averti, auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance Tu le sais, frère, tu le sais Ce n'est que de l'art, n'en fais pas ton arme, gros Yoon on the Moon, gros Auteur prudent, auditeur averti, auteur prudent, auditeur averti Ce n'est que de l'art, auteur prudent, auditeur averti J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu où tout le monde a tort au royaume des menteurs J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu que tout le monde adore au royaume des menteurs</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arwah Waseem Chérie coco passe ton number J'suis le poto d'Harry Potter On f'ra staycation à Poudlard Je n'prendrai jamais le boulard J'écoute du son dans la caisse Au fond d'nous qu'est-ce qu'on recherche ? Moi c'est le succès ma thèse C'est sur nous qu'j'ai mis la pièce En c'moment trop déçu Trop de vices j'suis trop déçu Trop de miss j'prends la prod je la r'tourne je la masse et ça glisse Dis moi y a qui dans la glace C'est pour ceux du fond d'la classe On veut plus connaître la hess Faut, faut que j'arrête de ne3ss Faut, faut que t'arrêtes de bédav Faut, faut que t'arrêtes de bédave, gros Regué regard tout dans l'regard Rebeu déter né en retard Par principe, posé pépère plein de pétards Tête de têtard, face de MM's Elle m'envoie des MMS De quoi tu parles, elle c'est Anissa Moi je m'appelle NES J'veux percer, plus faire de promo L'marketing pour moi c'est chromo Si tu perces en indé, ça fait contrôle Odeur de beuh, du moteur des pneus Posé sur l'parking avec mes rebeus Posé sur l'parking on aime pas les bleus On fume on oublie on rigole un peu et on rentre très tard super tôt Tout l'monde sait qu'j'aime trop la guitare J'fais des castins d'rôles de dealer Putain c'est vraiment des batards Pour un bon rôle dis leur J'attends qu'il s'fasse rach'ter par le Qatar bande de hmars, yeah Par le Qatar You might also like Wasseem à la prod, gros Rilès, Younès, bang</t>
+          <t>Arwah Waseem Chérie coco passe ton number J'suis le poto d'Harry Potter On f'ra staycation à Poudlard Je n'prendrai jamais le boulard J'écoute du son dans la caisse Au fond d'nous qu'est-ce qu'on recherche ? Moi c'est le succès ma thèse C'est sur nous qu'j'ai mis la pièce En c'moment trop déçu Trop de vices j'suis trop déçu Trop de miss j'prends la prod je la r'tourne je la masse et ça glisse Dis moi y a qui dans la glace C'est pour ceux du fond d'la classe On veut plus connaître la hess Faut, faut que j'arrête de ne3ss Faut, faut que t'arrêtes de bédav Faut, faut que t'arrêtes de bédave, gros Regué regard tout dans l'regard Rebeu déter né en retard Par principe, posé pépère plein de pétards Tête de têtard, face de MM's Elle m'envoie des MMS De quoi tu parles, elle c'est Anissa Moi je m'appelle NES J'veux percer, plus faire de promo L'marketing pour moi c'est chromo Si tu perces en indé, ça fait contrôle Odeur de beuh, du moteur des pneus Posé sur l'parking avec mes rebeus Posé sur l'parking on aime pas les bleus On fume on oublie on rigole un peu et on rentre très tard super tôt Tout l'monde sait qu'j'aime trop la guitare J'fais des castins d'rôles de dealer Putain c'est vraiment des batards Pour un bon rôle dis leur J'attends qu'il s'fasse rach'ter par le Qatar bande de hmars, yeah Par le Qatar Wasseem à la prod, gros Rilès, Younès, bang</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jrespecte le beatmaker Mais je viole linstru Ici cest ma demeure Mais je suis lintru Ils disent qu'ils sont les meilleurs ils sont ni meilleurs ni modestes Plus j'apprends à me connaître plus jreconnais que je progresse Heureux comme un sot Triste comme un zoo J'agis encore comme un gosse Tu lsauras si tu m'agaces Tu veux la vérité ? D'où viennent les berreta ? Le mensonge prend l'ascenseur La vérité fait lmarathon Tu veux la vérité, pas de généralités ? Le cauchemar indien cest le rêve américain ! Mon travail est un jeu J'arrête pas dtravailler J'me croyais paresseux Mais en fait cest pas vrai You might also like Passe trop dtemps de c'côté ci Où thésites pour un UGC On refait le monde avec des si Mais cest mieux si tu essaies On m'a dit tu progresses Je te remercie Si jamais je régresse Me le diras tu aussi ? Jdors pas j'suis affamé Mes rêves me tiennent debout On travaille en famille On fait d'une pierre deux coups Nos jeux sont nos métiers Et nos métiers sont des jeux On te prendra au sérieux quand tu feras de largent J'suis plus proche du collégien que de l'adulte J'suis surveillant dans un bahut et j'me la donne J'suis plus proche de mon EP que de lalbum J'en dis plus à mon public quà ma daronne ×2 Ça va vite vite vite car j'ai plus ltemps Rapport 4 5 6 comme un bulletin Et cest dur de reprendre après la mi-temps Nous on vise la montée pas le maintien J'suis pas parti de rien Nan j'suis parti dchez mes darons J'suis pas parti pour rien J'suis parti comme Elisa Parron Paré comme le parrain J'rappe mes paroles a Opéra Refus d'obtempérer j'vais pas rester sur le perron Mes ratures deviennent des rapports Que deviennent les rappeurs ? Jmonte la température le pied sur laccélérateur Et J'veux plus qu'ils s'inquiètent j'veux voir papa serein Jveux plus quon sprenne la tête j'ai trop vu papa serré Moins je parle et plus je rappe J'suis un arabe en Europe Et plus jconnais le rap Plus j'écoute le rock Faut se méfier des motards Parce que c'est souvent des keufs Chez moi il ny a pas de menteurs Mais on y va souvent au bluff Quand la bouche ne parle pas Les yeux font des confidences Jfais pas dpera Jorganise des conférences J'suis rincé mais jcontinue J'veux faire ltour du continent Cest du pera pas un sketch Du coca pas du scotch Un jogging, une capuche, que des punchs dans les poches Des rimes secs dans mon sac, cest lrapport numéro 5</t>
+          <t>Jrespecte le beatmaker Mais je viole linstru Ici cest ma demeure Mais je suis lintru Ils disent qu'ils sont les meilleurs ils sont ni meilleurs ni modestes Plus j'apprends à me connaître plus jreconnais que je progresse Heureux comme un sot Triste comme un zoo J'agis encore comme un gosse Tu lsauras si tu m'agaces Tu veux la vérité ? D'où viennent les berreta ? Le mensonge prend l'ascenseur La vérité fait lmarathon Tu veux la vérité, pas de généralités ? Le cauchemar indien cest le rêve américain ! Mon travail est un jeu J'arrête pas dtravailler J'me croyais paresseux Mais en fait cest pas vrai Passe trop dtemps de c'côté ci Où thésites pour un UGC On refait le monde avec des si Mais cest mieux si tu essaies On m'a dit tu progresses Je te remercie Si jamais je régresse Me le diras tu aussi ? Jdors pas j'suis affamé Mes rêves me tiennent debout On travaille en famille On fait d'une pierre deux coups Nos jeux sont nos métiers Et nos métiers sont des jeux On te prendra au sérieux quand tu feras de largent J'suis plus proche du collégien que de l'adulte J'suis surveillant dans un bahut et j'me la donne J'suis plus proche de mon EP que de lalbum J'en dis plus à mon public quà ma daronne ×2 Ça va vite vite vite car j'ai plus ltemps Rapport 4 5 6 comme un bulletin Et cest dur de reprendre après la mi-temps Nous on vise la montée pas le maintien J'suis pas parti de rien Nan j'suis parti dchez mes darons J'suis pas parti pour rien J'suis parti comme Elisa Parron Paré comme le parrain J'rappe mes paroles a Opéra Refus d'obtempérer j'vais pas rester sur le perron Mes ratures deviennent des rapports Que deviennent les rappeurs ? Jmonte la température le pied sur laccélérateur Et J'veux plus qu'ils s'inquiètent j'veux voir papa serein Jveux plus quon sprenne la tête j'ai trop vu papa serré Moins je parle et plus je rappe J'suis un arabe en Europe Et plus jconnais le rap Plus j'écoute le rock Faut se méfier des motards Parce que c'est souvent des keufs Chez moi il ny a pas de menteurs Mais on y va souvent au bluff Quand la bouche ne parle pas Les yeux font des confidences Jfais pas dpera Jorganise des conférences J'suis rincé mais jcontinue J'veux faire ltour du continent Cest du pera pas un sketch Du coca pas du scotch Un jogging, une capuche, que des punchs dans les poches Des rimes secs dans mon sac, cest lrapport numéro 5</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yo, that shit catches, Senpaï Olala, Shaz I don't wanna wanna be with you Now I would care for you Stay, if you want like But you wanna me Or you wanna all that shit that comes with the coupe This money, this glowy, come on worries But I swear I will never fall fall, bad bad À cliques on a rowrow I ain't about to stop stop, now? We shoot for the throne Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème You might also like J'sais pas c'que j'cherche mais j'le cherche quand même J'ai pas d'talent, à part te dire c'que j'pense constamment Trop d'sentiments, trop d'sentiments, trop d'sentiments J'perds des followers, ça m'touche un peu, j'suis tombé bien bas Les rires et les pleurs semblent frères Les cris et les fleurs, chrysanthèmes But I swear I will never fall back À cliques on the road I ain't about to stop We shoot for the throne Big drip, Gucci pour ton birthday Saucé, ok, faut pas s'cracher, j'aime ton parfum Suis-moi, rien qu'on s'attache, ne prends pas trop d'time Nous deux, c'est l'classico, fuck les conséquences, trahis pas, c'est la honda Ton m'fait trop d'choses Profitons, j'ai qu'une seule vie Dans l'bat des on-dit, mais on vend la drogua Houdini, pas vu, pas pris Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème But I swear I'll never fall back À cliques on the road I ain't about to stop We shoot for the throne3</t>
+          <t>Yo, that shit catches, Senpaï Olala, Shaz I don't wanna wanna be with you Now I would care for you Stay, if you want like But you wanna me Or you wanna all that shit that comes with the coupe This money, this glowy, come on worries But I swear I will never fall fall, bad bad À cliques on a rowrow I ain't about to stop stop, now? We shoot for the throne Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème J'sais pas c'que j'cherche mais j'le cherche quand même J'ai pas d'talent, à part te dire c'que j'pense constamment Trop d'sentiments, trop d'sentiments, trop d'sentiments J'perds des followers, ça m'touche un peu, j'suis tombé bien bas Les rires et les pleurs semblent frères Les cris et les fleurs, chrysanthèmes But I swear I will never fall back À cliques on the road I ain't about to stop We shoot for the throne Big drip, Gucci pour ton birthday Saucé, ok, faut pas s'cracher, j'aime ton parfum Suis-moi, rien qu'on s'attache, ne prends pas trop d'time Nous deux, c'est l'classico, fuck les conséquences, trahis pas, c'est la honda Ton m'fait trop d'choses Profitons, j'ai qu'une seule vie Dans l'bat des on-dit, mais on vend la drogua Houdini, pas vu, pas pris Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème But I swear I'll never fall back À cliques on the road I ain't about to stop We shoot for the throne3</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Olala, Shaz On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Jm'en bats les couilles de la street cred, moi, jveux être crédible avec moi-même Ils diront qucest grâce à Rilès ouais, leurs avis, jmen les peanuts Cest pas ton image qui te définit, cest toi qui définis ton image Jaime ton corps, jaime ton cur, mais cque jpréfère cest ton visage Ce que je suis parle tellement fort quon en oublie ce que je dis Mais jvais rapper tellement fort quon en oubliera cque je suis Ça pue la pisse comme les quais d'Seine, le temps passe et on se questionne Ça pue la tise comme excès d'zèle, le temps passe et on sisole Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre You might also like Je charbonne comme un Uber Eats, fais pas ta pince, laisse un pourboire Jsuis solitaire comme un artiste, jveux percer juste pour voir La jalousie, cest mauvais, faut quon soccupe de nos vies yeah Nous, on augmente le niveau, eux, ils sont morts dans lmovie Jsuis dans lbât', dans lplacard, il ny a que des pâtes, le frigo est vide Lavenir est vague, que Dieu nous guide, quil nous garde Ça mfait dla peine les darons pauvres qui vendent des tél' à la sauvette Rêves échoués comme des épaves et qui, malgré tout, restent honnêtes Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre</t>
+          <t>Olala, Shaz On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Jm'en bats les couilles de la street cred, moi, jveux être crédible avec moi-même Ils diront qucest grâce à Rilès ouais, leurs avis, jmen les peanuts Cest pas ton image qui te définit, cest toi qui définis ton image Jaime ton corps, jaime ton cur, mais cque jpréfère cest ton visage Ce que je suis parle tellement fort quon en oublie ce que je dis Mais jvais rapper tellement fort quon en oubliera cque je suis Ça pue la pisse comme les quais d'Seine, le temps passe et on se questionne Ça pue la tise comme excès d'zèle, le temps passe et on sisole Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Je charbonne comme un Uber Eats, fais pas ta pince, laisse un pourboire Jsuis solitaire comme un artiste, jveux percer juste pour voir La jalousie, cest mauvais, faut quon soccupe de nos vies yeah Nous, on augmente le niveau, eux, ils sont morts dans lmovie Jsuis dans lbât', dans lplacard, il ny a que des pâtes, le frigo est vide Lavenir est vague, que Dieu nous guide, quil nous garde Ça mfait dla peine les darons pauvres qui vendent des tél' à la sauvette Rêves échoués comme des épaves et qui, malgré tout, restent honnêtes Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D'où le simple physique d'une meuf va t'suffire. D'où ? D'où ? D'où frère ? D'où ? On est où là, chez les animaux ? Wesh faut s'réveiller wAllah J'étais sur Insta', j'me baladais à fond, envers les pétards, j'étais grave à l'affut Il était p't-être tard, j'avoue j'm'en souviens plus, quand j'suis tombé sur toi, t'avais un profil de fou J'ai liké direct, t'as liké direct, c'était mon jour de chance comme bug à la tirette J'en prends plein les mirettes, elle m'fait mal à la tête, j'veux enlevr ses vêtements, lui laissr ses lunettes Alors on papote, on sait très bien qu'on ne sera pas potes, c'est pas l'projet, c'est pas l'humeur On va pas faire de gosses, on va tester nos appareils reproducteurs On parle comme des bêtes, il nous reste que les puces, dis-moi bébé quand tu veux, je passe J'connais toutes tes photos, t'es bonne comme un cur, comme le cul de Kim K, j'suis obligé d'cliquer, j'peux pas me l'expliquer Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est des putains d'photos C'est tes photos, c'est ça qui cloche, c'est tes photos C'est tes photos, c'est pas toi qu'j'aime c'est tes photos You might also like Premier date, tu m'as dit tout sauf un verre, j't'ai dis donne-moi ton adresse et une heure J'vais pas t'la mettre à l'envers, toc toc toc, t'as ouvert la porte, on n'a pas fait d'détails On n'a pas fait semblant, j'avais la dalle de fou, t'es v'nue t'mettre sous ma dent On s'connait même pas mais on est super intime, c'est eux les méchants, nous on est dans la même team Rétine dans rétine, on peut plus s'arrêter mais un truc me chagrine, m'empêche de savourer Deuxième date rebellotte, on r'met les couverts, y a toujours pas de verre Nan, on s'y met direct mais dès l'début, y a un truc qui m'embête On fait l'amour mais moins bien qu'sur le net, j'suis dans son lit mais pourtant, j'me sens bête C'est comme si en fait, attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car dégage C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est tes tofs C'est tes photos, c'est les pellicules, c'est pas ta faute c'est les filtres C'est tes photos, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos c'est tes photos, c'est juste les photos C'est pas toi qu'j'aime, c'est tes photos c'est ton profil, c'est tes photos C'est tes photos reviens, c'est tes photos reviens C'est tes photos bébé, c'est pas toi qu'j'aime bébé, c'est tes photos wouh</t>
+          <t>D'où le simple physique d'une meuf va t'suffire. D'où ? D'où ? D'où frère ? D'où ? On est où là, chez les animaux ? Wesh faut s'réveiller wAllah J'étais sur Insta', j'me baladais à fond, envers les pétards, j'étais grave à l'affut Il était p't-être tard, j'avoue j'm'en souviens plus, quand j'suis tombé sur toi, t'avais un profil de fou J'ai liké direct, t'as liké direct, c'était mon jour de chance comme bug à la tirette J'en prends plein les mirettes, elle m'fait mal à la tête, j'veux enlevr ses vêtements, lui laissr ses lunettes Alors on papote, on sait très bien qu'on ne sera pas potes, c'est pas l'projet, c'est pas l'humeur On va pas faire de gosses, on va tester nos appareils reproducteurs On parle comme des bêtes, il nous reste que les puces, dis-moi bébé quand tu veux, je passe J'connais toutes tes photos, t'es bonne comme un cur, comme le cul de Kim K, j'suis obligé d'cliquer, j'peux pas me l'expliquer Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est des putains d'photos C'est tes photos, c'est ça qui cloche, c'est tes photos C'est tes photos, c'est pas toi qu'j'aime c'est tes photos Premier date, tu m'as dit tout sauf un verre, j't'ai dis donne-moi ton adresse et une heure J'vais pas t'la mettre à l'envers, toc toc toc, t'as ouvert la porte, on n'a pas fait d'détails On n'a pas fait semblant, j'avais la dalle de fou, t'es v'nue t'mettre sous ma dent On s'connait même pas mais on est super intime, c'est eux les méchants, nous on est dans la même team Rétine dans rétine, on peut plus s'arrêter mais un truc me chagrine, m'empêche de savourer Deuxième date rebellotte, on r'met les couverts, y a toujours pas de verre Nan, on s'y met direct mais dès l'début, y a un truc qui m'embête On fait l'amour mais moins bien qu'sur le net, j'suis dans son lit mais pourtant, j'me sens bête C'est comme si en fait, attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car dégage C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est tes tofs C'est tes photos, c'est les pellicules, c'est pas ta faute c'est les filtres C'est tes photos, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos c'est tes photos, c'est juste les photos C'est pas toi qu'j'aime, c'est tes photos c'est ton profil, c'est tes photos C'est tes photos reviens, c'est tes photos reviens C'est tes photos bébé, c'est pas toi qu'j'aime bébé, c'est tes photos wouh</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Younès Odeur de weed Du moteur de lhuile Jai pris la route Avec mes kabyles Jai pris la route, avec mes kheys direction lsoleil on a pas doseille donc code coco , carrote lhôtel une chambre siouplait mais on est 5 potos ! 5 potos dans une fiat punto Leone Si ça tire on est 5 fautifs Younès On est 5 potos yen a 4 pétés Leone Faire largent cest le seul motif ! Younès 5 dans la gova on fait que sclasher Mets lui dlalu si y a plus dsachets Si tu nous cherch on est au QG Rappelle plus tard là jsuis occupé Jsuis avc petite parisienne Petite pasta italienne Jai des copains dans la rue Qui rêvent de quitter la hess You might also likeLeone Jsuis avec petite parisienne Si tas tes cops jai mes kheys Quelques losa dans la rue Baby girl joublie la hess Refrain Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Chicha dans lauto allo senorita Des potes en moto et des potes à meda Des potes intellos et des potes au mitar Moi jécris un son sur un air de guitare Leone Chicha dans lauto moi je rentre il est tard Des potes à la ville et des potes à la barre Jai cramé tes vices pour nous gratter du buzz Le cur sadoucit sur le chant de guitare Jsuis dans ltieks Ca vise gros capital, si ca sort le fer, nai pas peur, pute on capitule que des millions zer dans les mains, bisous pour ta reus et bisous dans ses seins On peut te faire du mal même taillé comme un cintre Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Jai des admirateurs et des amis rappeurs Frères de tous parts avec qui jfais la paire Comme Big et Tupac se fera t-on la guerre ? Jarrive à 13H passe me prendre à la gare Leone Jarrive pour 13h tu connais à la bourre Je nvois personne mériter le boug Leone laisse nous écouter la basse Sacoche doudoune et Canada Goose Younès Jsuis dans ltruc, ça vise la tête daffiche Si ça prends du temps, nai pas peur ! Jmets tout dans la niche, je serais riche dans 10 ans ! Leone Ptet après, aujourdhui la guerre, on envie la paix Fais comme nous, si cest chaud dans ltruc, garde la tête au frais Younès Chicha dans lauto en hiver en été Avec mes khos de la fac au CP Lécole on était, en mauvais état On carrotait pour des bons résultats Jcrois quy à quelque chose qui va pas Jcrois quy à des jaloux chez moi Jcrois que jsuis bien entouré Jcrois quon va bien y arriver Leone Jsuis dans ltruc, tu crois la faire à qui ? Cest bien nous, les boss de la ville Chicha adalia, becane dans la tess, panoplie Younès Jsuis dans le truc jte demande pas ton avis Cest bien Yoon, Leone on tas dit, on parle pas, nous on agit On parle pas, nous on agit</t>
+          <t>Younès Odeur de weed Du moteur de lhuile Jai pris la route Avec mes kabyles Jai pris la route, avec mes kheys direction lsoleil on a pas doseille donc code coco , carrote lhôtel une chambre siouplait mais on est 5 potos ! 5 potos dans une fiat punto Leone Si ça tire on est 5 fautifs Younès On est 5 potos yen a 4 pétés Leone Faire largent cest le seul motif ! Younès 5 dans la gova on fait que sclasher Mets lui dlalu si y a plus dsachets Si tu nous cherch on est au QG Rappelle plus tard là jsuis occupé Jsuis avc petite parisienne Petite pasta italienne Jai des copains dans la rue Qui rêvent de quitter la hess Leone Jsuis avec petite parisienne Si tas tes cops jai mes kheys Quelques losa dans la rue Baby girl joublie la hess Refrain Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Chicha dans lauto allo senorita Des potes en moto et des potes à meda Des potes intellos et des potes au mitar Moi jécris un son sur un air de guitare Leone Chicha dans lauto moi je rentre il est tard Des potes à la ville et des potes à la barre Jai cramé tes vices pour nous gratter du buzz Le cur sadoucit sur le chant de guitare Jsuis dans ltieks Ca vise gros capital, si ca sort le fer, nai pas peur, pute on capitule que des millions zer dans les mains, bisous pour ta reus et bisous dans ses seins On peut te faire du mal même taillé comme un cintre Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Jai des admirateurs et des amis rappeurs Frères de tous parts avec qui jfais la paire Comme Big et Tupac se fera t-on la guerre ? Jarrive à 13H passe me prendre à la gare Leone Jarrive pour 13h tu connais à la bourre Je nvois personne mériter le boug Leone laisse nous écouter la basse Sacoche doudoune et Canada Goose Younès Jsuis dans ltruc, ça vise la tête daffiche Si ça prends du temps, nai pas peur ! Jmets tout dans la niche, je serais riche dans 10 ans ! Leone Ptet après, aujourdhui la guerre, on envie la paix Fais comme nous, si cest chaud dans ltruc, garde la tête au frais Younès Chicha dans lauto en hiver en été Avec mes khos de la fac au CP Lécole on était, en mauvais état On carrotait pour des bons résultats Jcrois quy à quelque chose qui va pas Jcrois quy à des jaloux chez moi Jcrois que jsuis bien entouré Jcrois quon va bien y arriver Leone Jsuis dans ltruc, tu crois la faire à qui ? Cest bien nous, les boss de la ville Chicha adalia, becane dans la tess, panoplie Younès Jsuis dans le truc jte demande pas ton avis Cest bien Yoon, Leone on tas dit, on parle pas, nous on agit On parle pas, nous on agit</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jvais pas tdemander pour qutu mrembourses nan Soit tu lfais toi-même, soit jte prête plus simple Jvais pas tdemander pour un service nan Jfais les choses moi-même, je suis têtu simple Ils font pas dpunchlines, ils font des jeux d'mots marrant Jme lève, jai la dalle, jvais déjeuner miam Et jme sens bien quand jte dis non non Quand jreste chez moi pour dîner miam Ma meilleure amie sappelle Fanny love Ça fait 24 piges je la connais waouh Ma jamais donné, jamais trahi never On va fêter ça au japonais miam Les rappeurs sont tristes ou capitalistes Me plaindre sur la piste gros, cest plus sur ma liste Faire la victime, piano qui pleure Chialer dans loreille des auditeurs ouin ouin Jai ni ltemps, ni lenvie non non Jte jure, ça mennuie Je cherche la merde comme un couple mixte krkr Je cherche lamour sur un site X mouais Jattire les regards comme une meuf bonne Jai le cur noir comme les Ray Ban Cest pas des rappeurs, cest des panneaux dpub' On a mis dloseille mais cest pas notre thune You might also like Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Deux labels donc deux fois plus doseille Deux fois plus de conseils mais Deux fois plus de problèmes, feux fois plus davis Deux fois plus dhabits, deux fois plus damis deux fois plus Journée remplie, wallet rempli, jveux pas ramper Jveux mourir en paix Jaime quand jme réveille, jme rendors snooze Quand jkiffe le son, jle mets encore repeat Jmennuie en soirée donc jvais pas en soirée Jy allais pour serrer, jy ai jamais serré never Parler pour rien, je le fais plus almost Le daron va bien mais il faiblit Trop dboules sur Paname, cest pénible roooh Jsais plus où r'garder, cest terrible roooh Dans ta caisse, tu tcrois en sécurité Quand on sort, tu mets la sécurité Des jeunes dehors allô sécurité Jpréfère être libre quêtre en sécurité Jsuis surveillant, jmoccupe des tits-pe petits À la récré', jleur mets des ptits ponts hop la Y a ceux qui y croient, ceux qui traînent dans le lit Moi, jai fait une croix sur mon ancienne vie Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Jme fais rare comme les rappeurs ah bon ? Qui connaissent leurs textes par cur rohh On sbagarre ensemble, on se défoule la bagarre En cas dembrouille, je me défends la bagarre Cest pas parce quelle est belle que vous faites un beau couple Si on sfait du mal, cest parce quon saime beaucoup Tu fais pitié quand timites les rappeurs Cest cliché et puis cest révélateur boloss Jrentre dans ma ville, on me salue salut Jsuis à laise comme dans mon salon salon Faire dla musique, cest culotté Jveux voyager pas que lété Jaime pas la fausse modestie jaime pas Si je suis fort, je le dis jsuis fort Si jsuis khené, je le dis jsuis moyen Hop la Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ?</t>
+          <t>Jvais pas tdemander pour qutu mrembourses nan Soit tu lfais toi-même, soit jte prête plus simple Jvais pas tdemander pour un service nan Jfais les choses moi-même, je suis têtu simple Ils font pas dpunchlines, ils font des jeux d'mots marrant Jme lève, jai la dalle, jvais déjeuner miam Et jme sens bien quand jte dis non non Quand jreste chez moi pour dîner miam Ma meilleure amie sappelle Fanny love Ça fait 24 piges je la connais waouh Ma jamais donné, jamais trahi never On va fêter ça au japonais miam Les rappeurs sont tristes ou capitalistes Me plaindre sur la piste gros, cest plus sur ma liste Faire la victime, piano qui pleure Chialer dans loreille des auditeurs ouin ouin Jai ni ltemps, ni lenvie non non Jte jure, ça mennuie Je cherche la merde comme un couple mixte krkr Je cherche lamour sur un site X mouais Jattire les regards comme une meuf bonne Jai le cur noir comme les Ray Ban Cest pas des rappeurs, cest des panneaux dpub' On a mis dloseille mais cest pas notre thune Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Deux labels donc deux fois plus doseille Deux fois plus de conseils mais Deux fois plus de problèmes, feux fois plus davis Deux fois plus dhabits, deux fois plus damis deux fois plus Journée remplie, wallet rempli, jveux pas ramper Jveux mourir en paix Jaime quand jme réveille, jme rendors snooze Quand jkiffe le son, jle mets encore repeat Jmennuie en soirée donc jvais pas en soirée Jy allais pour serrer, jy ai jamais serré never Parler pour rien, je le fais plus almost Le daron va bien mais il faiblit Trop dboules sur Paname, cest pénible roooh Jsais plus où r'garder, cest terrible roooh Dans ta caisse, tu tcrois en sécurité Quand on sort, tu mets la sécurité Des jeunes dehors allô sécurité Jpréfère être libre quêtre en sécurité Jsuis surveillant, jmoccupe des tits-pe petits À la récré', jleur mets des ptits ponts hop la Y a ceux qui y croient, ceux qui traînent dans le lit Moi, jai fait une croix sur mon ancienne vie Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Jme fais rare comme les rappeurs ah bon ? Qui connaissent leurs textes par cur rohh On sbagarre ensemble, on se défoule la bagarre En cas dembrouille, je me défends la bagarre Cest pas parce quelle est belle que vous faites un beau couple Si on sfait du mal, cest parce quon saime beaucoup Tu fais pitié quand timites les rappeurs Cest cliché et puis cest révélateur boloss Jrentre dans ma ville, on me salue salut Jsuis à laise comme dans mon salon salon Faire dla musique, cest culotté Jveux voyager pas que lété Jaime pas la fausse modestie jaime pas Si je suis fort, je le dis jsuis fort Si jsuis khené, je le dis jsuis moyen Hop la Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ?</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 You might also likeFévrier - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3</t>
+          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous J'veux tout savoir, ne cache plus rien Ce que t'as sur le cur Tu peux le mettre sur le mien Je veux tout savoir si ça t'est utile Entre nous, j'veux plus jamais rien d'futil Je sais que t'es fort ouais Bien plus que moi J'aimerais te porter, rien qu'une fois Je sais qu'au fond, t'as des douleurs Dont tu parles même pas à ta mère You might also like Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous Est-ce que c'était glacé Ou au contraire, brûlant comme l'enfer ? Hein ? Est-ce que tu veux qu'j'm'en occupe ? Qu'j'y aille avec mon équipe ? On peut l'faire, on peut l'tuer devant sa mère s'il le faut Je te l'ai dit, pour toi je deviendrais fou Ce qu'il t'a fait, il va le payer x200 Dis-moi go T'es ma go' T'es ma femme Toi et moi, c'est mieux que les films Ce qu'il t'a fait C'est infâme Dis-moi go Dans tes yeux, dans ta voix Je vois, j'entends ce que tu vis Dans ton silence, dans tes bras Je sens, comprends, ce qu'on t'a pris Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous</t>
+          <t>Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous J'veux tout savoir, ne cache plus rien Ce que t'as sur le cur Tu peux le mettre sur le mien Je veux tout savoir si ça t'est utile Entre nous, j'veux plus jamais rien d'futil Je sais que t'es fort ouais Bien plus que moi J'aimerais te porter, rien qu'une fois Je sais qu'au fond, t'as des douleurs Dont tu parles même pas à ta mère Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous Est-ce que c'était glacé Ou au contraire, brûlant comme l'enfer ? Hein ? Est-ce que tu veux qu'j'm'en occupe ? Qu'j'y aille avec mon équipe ? On peut l'faire, on peut l'tuer devant sa mère s'il le faut Je te l'ai dit, pour toi je deviendrais fou Ce qu'il t'a fait, il va le payer x200 Dis-moi go T'es ma go' T'es ma femme Toi et moi, c'est mieux que les films Ce qu'il t'a fait C'est infâme Dis-moi go Dans tes yeux, dans ta voix Je vois, j'entends ce que tu vis Dans ton silence, dans tes bras Je sens, comprends, ce qu'on t'a pris Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hey yo, that shit catches, Senpaï Olala, Shaz Mon frère c'est l'manager Ma mère elle récupère la money Et mon père il avait peur Maintenant il voit qu'on fait d'la money J'vais au bureau mais c'est pas vraiment un bureau C'est mon boulot mais c'est pas vraiment un boulot Et j'me d'mandais au début Si mélanger la miff, le bif c'était une bonne idée Des mauvais côtés des bons, c'est comme tout Pour l'instant c'est validé, RSDZ calibré C'qu'on a on l'a mérité et c'est tout We do, we do sing till mañana That's why we got the chance It's on family business We do, w do sing till mañana That's why we got the paper Its on family gang gang, gang Pay back all racks no tax just tax I don't want chang Blue prints i'm switch habid too simple Rilès, Younès, okay, ça l'fait Family Business j'encaisse ça m'plaît santé On l'faisait avant l'bénéfice sa mère Et le f'rra pour nos fils bah ouais On l'faisait avant le bénéfice Dans la street, dans la caisse Sans le bif, dans le tieks You might also like We do, we do sing till mañana That's why we got the chance It's on family business We do, we do sing till mañana That's why we got the paper Its on family gang gang, gang1</t>
+          <t>Hey yo, that shit catches, Senpaï Olala, Shaz Mon frère c'est l'manager Ma mère elle récupère la money Et mon père il avait peur Maintenant il voit qu'on fait d'la money J'vais au bureau mais c'est pas vraiment un bureau C'est mon boulot mais c'est pas vraiment un boulot Et j'me d'mandais au début Si mélanger la miff, le bif c'était une bonne idée Des mauvais côtés des bons, c'est comme tout Pour l'instant c'est validé, RSDZ calibré C'qu'on a on l'a mérité et c'est tout We do, we do sing till mañana That's why we got the chance It's on family business We do, w do sing till mañana That's why we got the paper Its on family gang gang, gang Pay back all racks no tax just tax I don't want chang Blue prints i'm switch habid too simple Rilès, Younès, okay, ça l'fait Family Business j'encaisse ça m'plaît santé On l'faisait avant l'bénéfice sa mère Et le f'rra pour nos fils bah ouais On l'faisait avant le bénéfice Dans la street, dans la caisse Sans le bif, dans le tieks We do, we do sing till mañana That's why we got the chance It's on family business We do, we do sing till mañana That's why we got the paper Its on family gang gang, gang1</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Harraga Harraga Harraga Harraga J'habite à Arzew, banlieue de Oran C'est beau l'Algérie mais ici c'est pourri Des barres d'immeubles délabrées Couleur vieux gris délavé La nuit avec mes amis On rêve d'ailleurs on refait la vie Plutôt bon vivant j'aime rigoler Je connais tout le quartier, tout le quartier me connait Je suis diplômé mais j'ai pas de boulot Avec ma famille on vit dans un studio J'aimerais leur offrir un avenir meilleur Un rêve qui me tient à cur Un soir on s'st mis d'accord Avec mes gars on s'est cotisé Pour payr le babor, ce sera le trois A la nuit tombée, à l'entrée du port Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit You might also likeTu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Je suis parti, une nuit d'été Avec mes kheys on s'est endetté Et la famille ? Je ne veux pas l'inquiéter Donc j'ai rien dis et j'ai tout quitté Ma mère croit que je dors chez ma sur En vérité je vais rejoindre le passeur J'ai préféré partir en douceur La nuit du départ, la mer est agitée Tant pis c'est trop tard, on ne peut plus reculer Le passeur a peur on a insisté Je suis monté à bord, puis j'ai prié Deux semaines plus tard, toujours pas de nouvelles Au quartier des rumeurs, on espère un appel Un jour enfin, le téléphone sonne Et c'est mon prénom qui s'affiche sur le phone Yemma tremble elle décroche plein d'espoir Elle a bien fait d'y croire Mais au bout du fil, c'est la police On vient de retrouver le corps de son fils Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit J'ai quitté ma famille, j'ai quitté mes amis, j'ai quitté ma ville Je suis monté à bord, j'ai pris le navire, j'ai perdu la vie1</t>
+          <t>Harraga Harraga Harraga Harraga J'habite à Arzew, banlieue de Oran C'est beau l'Algérie mais ici c'est pourri Des barres d'immeubles délabrées Couleur vieux gris délavé La nuit avec mes amis On rêve d'ailleurs on refait la vie Plutôt bon vivant j'aime rigoler Je connais tout le quartier, tout le quartier me connait Je suis diplômé mais j'ai pas de boulot Avec ma famille on vit dans un studio J'aimerais leur offrir un avenir meilleur Un rêve qui me tient à cur Un soir on s'st mis d'accord Avec mes gars on s'est cotisé Pour payr le babor, ce sera le trois A la nuit tombée, à l'entrée du port Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Je suis parti, une nuit d'été Avec mes kheys on s'est endetté Et la famille ? Je ne veux pas l'inquiéter Donc j'ai rien dis et j'ai tout quitté Ma mère croit que je dors chez ma sur En vérité je vais rejoindre le passeur J'ai préféré partir en douceur La nuit du départ, la mer est agitée Tant pis c'est trop tard, on ne peut plus reculer Le passeur a peur on a insisté Je suis monté à bord, puis j'ai prié Deux semaines plus tard, toujours pas de nouvelles Au quartier des rumeurs, on espère un appel Un jour enfin, le téléphone sonne Et c'est mon prénom qui s'affiche sur le phone Yemma tremble elle décroche plein d'espoir Elle a bien fait d'y croire Mais au bout du fil, c'est la police On vient de retrouver le corps de son fils Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit J'ai quitté ma famille, j'ai quitté mes amis, j'ai quitté ma ville Je suis monté à bord, j'ai pris le navire, j'ai perdu la vie1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger J'suis attendu comme une phrase en suspens Le rap est mort j'ai la tête du suspect Jrêve de rencontrer les racistes du net Les faire répéter démarrer ltête à tête J'arrive concentré jrepars dans un sourire J'arrive dans cette vie jrepars dans un soupir J'ai des réflexions que jmapplique même pas Comme les citations dans les bio insta Ça y est les majors s'intéressent à moi Mais la question c'est est ce qu'ils m'intéressent ? On travaille sur le projet depuis des mois Dis-moi pourquoi tu ramasserais les pièces ? You might also likeViens on s'embrouille si on peut mieux s'entendre Viens on se débrouille on va pas les attendre Me donne pas d'ordres j'ai envie de désobéir On a grandi avec b20ba Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger Les meilleurs adultes ont su restés enfants Mes parents sont venus ils sont restés en France À part en vacances j'ai pas ltemps d'faire du son À part le week-end mais c'est pas suffisant Après l'embrouille j'me remets en question J'attends un peu j'me remets dmes émotions Mon Compte mérite mon attention Cque m'dis ma banque sur mon application Y a des gosses qui meurent pour le coltan Des péchés qu'on ignore qu'on se coltine Ça pue la pisse comme les quais d'seine Le temps passe et on se questionne À quoi pensent toutes ces têtes ? J'ai lvertige quand j'y pense Tous le premier rôle dans même lplan séquence C'est l'huitième rapport J'n'ai plus rien à perdre J'ai sorti le corps reste les pieds dans la merde Nos vies se croisent mais ne se rencontrent pas Nos yeux se toisent mais ne s'regardent pas J'ai plus d'idées donc je fonce dans le tas Comme la fourmi je travaille tout l'été J'me demande si mes amitiés sont solides Ou si la vie n'les a pas éprouvés Et j'me demande si notre amour est torride Ou si on essaye juste de sle prouver La force c'est dfaire cque tu veux Et pas cquon attends de toi Peur de faire du rap qui nparle que de rap Peur de faire du rap qui nparle que de moi On srends compte toujours après du bonheur qu'on avait Donc je suppose qu'aujourd'hui j'suis heureux À la base le son moi jvoulais pas m'y consacrer J'voulais sauver le monde comme les héros Yoon</t>
+          <t>Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger J'suis attendu comme une phrase en suspens Le rap est mort j'ai la tête du suspect Jrêve de rencontrer les racistes du net Les faire répéter démarrer ltête à tête J'arrive concentré jrepars dans un sourire J'arrive dans cette vie jrepars dans un soupir J'ai des réflexions que jmapplique même pas Comme les citations dans les bio insta Ça y est les majors s'intéressent à moi Mais la question c'est est ce qu'ils m'intéressent ? On travaille sur le projet depuis des mois Dis-moi pourquoi tu ramasserais les pièces ? Viens on s'embrouille si on peut mieux s'entendre Viens on se débrouille on va pas les attendre Me donne pas d'ordres j'ai envie de désobéir On a grandi avec b20ba Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger Les meilleurs adultes ont su restés enfants Mes parents sont venus ils sont restés en France À part en vacances j'ai pas ltemps d'faire du son À part le week-end mais c'est pas suffisant Après l'embrouille j'me remets en question J'attends un peu j'me remets dmes émotions Mon Compte mérite mon attention Cque m'dis ma banque sur mon application Y a des gosses qui meurent pour le coltan Des péchés qu'on ignore qu'on se coltine Ça pue la pisse comme les quais d'seine Le temps passe et on se questionne À quoi pensent toutes ces têtes ? J'ai lvertige quand j'y pense Tous le premier rôle dans même lplan séquence C'est l'huitième rapport J'n'ai plus rien à perdre J'ai sorti le corps reste les pieds dans la merde Nos vies se croisent mais ne se rencontrent pas Nos yeux se toisent mais ne s'regardent pas J'ai plus d'idées donc je fonce dans le tas Comme la fourmi je travaille tout l'été J'me demande si mes amitiés sont solides Ou si la vie n'les a pas éprouvés Et j'me demande si notre amour est torride Ou si on essaye juste de sle prouver La force c'est dfaire cque tu veux Et pas cquon attends de toi Peur de faire du rap qui nparle que de rap Peur de faire du rap qui nparle que de moi On srends compte toujours après du bonheur qu'on avait Donc je suppose qu'aujourd'hui j'suis heureux À la base le son moi jvoulais pas m'y consacrer J'voulais sauver le monde comme les héros Yoon</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jsuis parti dchez moi, cest ma top line préféré Mes potes en rigolent, faut croire que jen suis fier Jsuis parti dchez moi, sans savoir cque jespérais Jai quitté lécole, jai khedem comme mon père Et quand jbouge pas, je voyage dans ma tête Et on se couche tard mais cest pas la fête Jregarde par la fenêtre, mon frère roule un pet Et jle juge pas, il sait cque jen pense.. Il sait cque jen pense, quest-ce que jfouds en France Jpense à mon enfance, à mon futur fils, à de lappeler fiston jen ai déjà des frissons Parfois jme parle tout seul, je prépare nos discussions Jai fraudé le train, ils ont mis des barrières électriques Paris pour faire mon trou et maintenant jsuis dans le truc J'ai dit frérot à la légère un peu trop Donc maintenant je dois faire le tri J'ai fraudé le métro nos députés connaissent pas le prix J'ai rencontré une meuf c'est peut-être la mère de mes enfants Indécis je suis pas sûr j'ai demandé à maman Elle m'a dit tu le sauras quand c'est elle normalement Mais moi je me pose des questions tout le temps tout le temps Tellement que ma belle elle est partie en courant Et depuis elle me manque et je me demande si je me mens Et je me demande si je me mens Elle est plus là, sa mère, j'entends encore ses rires J'ai besoin d'un sérum C'est pas carré c'est rond Je fais que recommencer c'est ma vie que je te raconte Je fais que romancer Perdu dans mes pensées tu sais très bien que ça va pas À la base, j'suis sympa mais ce soir, je le sens pas Je fais bien plus que 100 pas et les soucis s'empilent 1000 euros le cachet, avant, j'comptais les centimes Au grec et au libanais, au CROUS à la cantine Et je repense à papa s'il te plaît ne part pas Je ne suis pas encore prêt Je crois qu'on sait pas tout dit J'aime plus souffler les bougies depuis que je vois que tu vieillis Depuis que tu prends de l'âge Nouvelle génération Le fils de mon grand frère putain, j'l'aime comme never Je savais pas qu'on pouvait aimer autant, j'te jure Le sourire de mes nièces Quand elles sont dans la pièce et qu'on se réveille ensemble Ma famille est soudée, mon Dieu, faites que ça dure Les appels sur WhatsApp, je crois que nos liens, ils sont purs Faites que rien nous sépare J'ai des projets d'carrière, j'ai des projets d'bonheur Hors de question mon frère que ça bouffe mon honneur On va se dire ce qu'on dit pas Je me souviens, j'étais petit, ça m'a plu dans le pe-ra Il y aura pas de langue de bois On va se parler franchement Les tits-pe sont trix-ma quand ils disent vrai de vrai Mais moi, je sais qu'ils font semblant You might also likeÀ l'heure où j'écris ce texte, j'hésite à signer un contrat Entre les uns et les autres, j'entends tout et son contraire Entre le daron et la daronne, j'ai pas manqué de fournitures Entre le tarot et la parole, il manque juste la signature À l'époque j'avais 20 ans et des rêves grands comme une grue Je trouvais les adultes aigris J'aimais pas leur simagrée Je voulais pas le ressembler Taf de bureau, pas question Je préfère être heureux sans blé Je préfère être heureux sans blé Je suis français à ce qu'il paraît Je suis arabe à ce qui paraît Je suis coincé en vérité En vérité je suis le fils de Senouci et Fatiha J'essaie d'apaiser mon cur je récite la Fatiha Y'a ceux qu'ont des excuses et ceux qu'ont charbonné J'ai pas le choix d'être généreux car on m'a grave donné Et le soir je demande à Dieu de me pardonner Si tu kiffes pas renoi tu peux te désabonner Je suis en retard même en visio Je vais percer j'ai des visions Je dis ce que je pense comme un idiot Je tourne ma peine en dérision Je suis pudique dans la vraie vie mais je dévoile tout sur Vevo Je vis ma vie comme une série, c'est pas sûr que j'en sois le héros Faut que j'apprenne à pas répondre quand j'ai pas envie de parler Même si c'est ma daronne Non il vaut mieux la rappeler Faut que j'apprenne à dire non À pas avoir peur de blesser Même si c'est mon poto si c'est mon poto il sait Faut que j'apprenne à quitter Faut que j'apprenne à choisir Faut que j'apprenne à changer Faut que j'apprenne à revenir Et je voulais devenir fort tu sais comme dans les mangas Rester le même peu importe devant quel gars Je me sens bien quand je laisse pas maman tout faire Je suis parti de chez maman car je sentais que j'ai tout fait Et maintenant je me sens mieux Je mets la main la pâte Et parfois, je me sens vieux quand je vois les petits faire du rap Je fais du rap car y a des choses que je dois dire Des choses qui peuvent pas rester dans mes notes Car on peut pas se contenter de dire que des mondanités Je rappe vrai, je rappe fort, c'est toute une mentalité C'est presque une fatalité Parfois devant le gardien tu sais j'hésite à marquer Cet album sera comme un putain de bon film que tu hésites à mater Car tu sais que ça peut te changer mais tu sais pas comment Identité remarquable car je suis pas comme eux Younes Premier album Fin de l'histoire</t>
+          <t>Jsuis parti dchez moi, cest ma top line préféré Mes potes en rigolent, faut croire que jen suis fier Jsuis parti dchez moi, sans savoir cque jespérais Jai quitté lécole, jai khedem comme mon père Et quand jbouge pas, je voyage dans ma tête Et on se couche tard mais cest pas la fête Jregarde par la fenêtre, mon frère roule un pet Et jle juge pas, il sait cque jen pense.. Il sait cque jen pense, quest-ce que jfouds en France Jpense à mon enfance, à mon futur fils, à de lappeler fiston jen ai déjà des frissons Parfois jme parle tout seul, je prépare nos discussions Jai fraudé le train, ils ont mis des barrières électriques Paris pour faire mon trou et maintenant jsuis dans le truc J'ai dit frérot à la légère un peu trop Donc maintenant je dois faire le tri J'ai fraudé le métro nos députés connaissent pas le prix J'ai rencontré une meuf c'est peut-être la mère de mes enfants Indécis je suis pas sûr j'ai demandé à maman Elle m'a dit tu le sauras quand c'est elle normalement Mais moi je me pose des questions tout le temps tout le temps Tellement que ma belle elle est partie en courant Et depuis elle me manque et je me demande si je me mens Et je me demande si je me mens Elle est plus là, sa mère, j'entends encore ses rires J'ai besoin d'un sérum C'est pas carré c'est rond Je fais que recommencer c'est ma vie que je te raconte Je fais que romancer Perdu dans mes pensées tu sais très bien que ça va pas À la base, j'suis sympa mais ce soir, je le sens pas Je fais bien plus que 100 pas et les soucis s'empilent 1000 euros le cachet, avant, j'comptais les centimes Au grec et au libanais, au CROUS à la cantine Et je repense à papa s'il te plaît ne part pas Je ne suis pas encore prêt Je crois qu'on sait pas tout dit J'aime plus souffler les bougies depuis que je vois que tu vieillis Depuis que tu prends de l'âge Nouvelle génération Le fils de mon grand frère putain, j'l'aime comme never Je savais pas qu'on pouvait aimer autant, j'te jure Le sourire de mes nièces Quand elles sont dans la pièce et qu'on se réveille ensemble Ma famille est soudée, mon Dieu, faites que ça dure Les appels sur WhatsApp, je crois que nos liens, ils sont purs Faites que rien nous sépare J'ai des projets d'carrière, j'ai des projets d'bonheur Hors de question mon frère que ça bouffe mon honneur On va se dire ce qu'on dit pas Je me souviens, j'étais petit, ça m'a plu dans le pe-ra Il y aura pas de langue de bois On va se parler franchement Les tits-pe sont trix-ma quand ils disent vrai de vrai Mais moi, je sais qu'ils font semblant À l'heure où j'écris ce texte, j'hésite à signer un contrat Entre les uns et les autres, j'entends tout et son contraire Entre le daron et la daronne, j'ai pas manqué de fournitures Entre le tarot et la parole, il manque juste la signature À l'époque j'avais 20 ans et des rêves grands comme une grue Je trouvais les adultes aigris J'aimais pas leur simagrée Je voulais pas le ressembler Taf de bureau, pas question Je préfère être heureux sans blé Je préfère être heureux sans blé Je suis français à ce qu'il paraît Je suis arabe à ce qui paraît Je suis coincé en vérité En vérité je suis le fils de Senouci et Fatiha J'essaie d'apaiser mon cur je récite la Fatiha Y'a ceux qu'ont des excuses et ceux qu'ont charbonné J'ai pas le choix d'être généreux car on m'a grave donné Et le soir je demande à Dieu de me pardonner Si tu kiffes pas renoi tu peux te désabonner Je suis en retard même en visio Je vais percer j'ai des visions Je dis ce que je pense comme un idiot Je tourne ma peine en dérision Je suis pudique dans la vraie vie mais je dévoile tout sur Vevo Je vis ma vie comme une série, c'est pas sûr que j'en sois le héros Faut que j'apprenne à pas répondre quand j'ai pas envie de parler Même si c'est ma daronne Non il vaut mieux la rappeler Faut que j'apprenne à dire non À pas avoir peur de blesser Même si c'est mon poto si c'est mon poto il sait Faut que j'apprenne à quitter Faut que j'apprenne à choisir Faut que j'apprenne à changer Faut que j'apprenne à revenir Et je voulais devenir fort tu sais comme dans les mangas Rester le même peu importe devant quel gars Je me sens bien quand je laisse pas maman tout faire Je suis parti de chez maman car je sentais que j'ai tout fait Et maintenant je me sens mieux Je mets la main la pâte Et parfois, je me sens vieux quand je vois les petits faire du rap Je fais du rap car y a des choses que je dois dire Des choses qui peuvent pas rester dans mes notes Car on peut pas se contenter de dire que des mondanités Je rappe vrai, je rappe fort, c'est toute une mentalité C'est presque une fatalité Parfois devant le gardien tu sais j'hésite à marquer Cet album sera comme un putain de bon film que tu hésites à mater Car tu sais que ça peut te changer mais tu sais pas comment Identité remarquable car je suis pas comme eux Younes Premier album Fin de l'histoire</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La nuque ploie sous une force immense et invisible Elle nous pousse à labsurde, ça en devient risible Smartphone, iPhone, on en devient aphone Ça sonne, jmabonne, ça sonne Jmabonne, jmabonne, jmabonne Ça sonne, ça sonne, ça sonne Ça sonne, ça sonne, ça sonne J'm'affole, ça sonne, ça sonne Massomme, ça sonne, ça sonne Jmabonne, jmisole, jmabonne, jmisole Ça sonne, jmisole, ça sonne, ça sonne Le monde est virtuelYou might also like</t>
+          <t>La nuque ploie sous une force immense et invisible Elle nous pousse à labsurde, ça en devient risible Smartphone, iPhone, on en devient aphone Ça sonne, jmabonne, ça sonne Jmabonne, jmabonne, jmabonne Ça sonne, ça sonne, ça sonne Ça sonne, ça sonne, ça sonne J'm'affole, ça sonne, ça sonne Massomme, ça sonne, ça sonne Jmabonne, jmisole, jmabonne, jmisole Ça sonne, jmisole, ça sonne, ça sonne Le monde est virtuel</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Daron rebeu ne pleure pas Daron rebeu ne parle pas Daron rebeu est dans le salon, il regarde la télé, il bouge pas Tu sais moi, je savais pas que j'ferais du pe-ra Nan j'savais pas En plus c'est haram putain de sa mère d'après les prêcheurs d'internet et puis d'après plein d'autre gens Tu sais parfois j'me sens vraiment fatigué Comme ci j'cours après un truc qui sert à rien C'est l'ennui qui me bouge Qui me fait fair des trucs de ouf, putain C'est l'nnui qui me fait courir après le butin Putain, putain, putain, j'cogne ma tête contre l'appuie tête Dón Carlito me répond pas, ça me prend la tête Il devait m'envoyer des prods, putain Comment on va faire pour percer si il m'envoi pas de prods Percer, percer j'y pense depuis l'CP Bercer, bercer par le culte de la célébrité J'suis avec alex et leone au studio On cherche à faire des hit gros ah ah ah Mais moi je sais pas vraiment faire des hits, non Moi je sais que faire du putain de rap, ça mère ouais En plus à ce qu'il parait Il faut pas chercher à en faire Pour faire des hits il faut juste faire ce que t'aime, et après Inshallah ça fait un hit Tant mieux, je vais faire ce que j'aime maintenant Et on verra bien Et si je perce pas, bah C'est peut être pour mon bien J'aime trop ma nana putain je m'y attendais pas Olala ça fausse tous mes plans, putain Je ne vais pas pouvoir me mettre bien Ou peut être que, si enfaite je vais me mettre bien Mes deux parents sont algérien, je suis algérien et je suis français aussi à ce qu'il parait Je sais pas tropYou might also like</t>
+          <t>Daron rebeu ne pleure pas Daron rebeu ne parle pas Daron rebeu est dans le salon, il regarde la télé, il bouge pas Tu sais moi, je savais pas que j'ferais du pe-ra Nan j'savais pas En plus c'est haram putain de sa mère d'après les prêcheurs d'internet et puis d'après plein d'autre gens Tu sais parfois j'me sens vraiment fatigué Comme ci j'cours après un truc qui sert à rien C'est l'ennui qui me bouge Qui me fait fair des trucs de ouf, putain C'est l'nnui qui me fait courir après le butin Putain, putain, putain, j'cogne ma tête contre l'appuie tête Dón Carlito me répond pas, ça me prend la tête Il devait m'envoyer des prods, putain Comment on va faire pour percer si il m'envoi pas de prods Percer, percer j'y pense depuis l'CP Bercer, bercer par le culte de la célébrité J'suis avec alex et leone au studio On cherche à faire des hit gros ah ah ah Mais moi je sais pas vraiment faire des hits, non Moi je sais que faire du putain de rap, ça mère ouais En plus à ce qu'il parait Il faut pas chercher à en faire Pour faire des hits il faut juste faire ce que t'aime, et après Inshallah ça fait un hit Tant mieux, je vais faire ce que j'aime maintenant Et on verra bien Et si je perce pas, bah C'est peut être pour mon bien J'aime trop ma nana putain je m'y attendais pas Olala ça fausse tous mes plans, putain Je ne vais pas pouvoir me mettre bien Ou peut être que, si enfaite je vais me mettre bien Mes deux parents sont algérien, je suis algérien et je suis français aussi à ce qu'il parait Je sais pas trop</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cest mon premier ptêtre mon dernier album Demain jarrête Jaime plus le rap depuis que je sais que la promo sachète Mon premier son, jparlais de mon ex Javais mal au cur, jen ai fait un complexe Jespérais quelle revienne, au moins quelle me comprenne, après lécoute de mon texte ça sappelait Yoon on the moon 1, cétait chaud Elle ma jamais rappelé, mais la vie la kiffé Donc jai continué Jsais plus pourquoi jle fais Jveux partir comme Luffy, après ce morceau tu sauras pourquoi jai fuis Jveux rester moi même mais ya beaucoup trop davis Le but dun label cest quoi à ton avis ? Cest faire de loseille avant tout mon amis après cest aussi à moi jpense de savoir comment me battre pour ce truc là si jy crois vraiment Cest mon premier ptêtre mon dernier album Je suis pas sûr de vouloir continuer De toute façon jai mon contrat qui sarrête Je commence à fatiguer 10 ans que jfais du rap je commence à paniquer 10 ans que jfais du rap je sais plus pourquoi jle fais Sur de rien je sais même pas si jai déjà connu lamour Et vas-y change daccord que je vois si ça me fait de leffet Sur de rien je sais pas si ça mfait de leffet You might also likeJai arrêté les études A mon père jai dit tinquiète pas jassume Et cest vrai jassume, jdemande rien Jsuis fière jsuis algérien Jsuis rappeur, jsuis écrivain Jsuis acteur, jsuis comédien Aller ferme ta gueule Arrête de faire crari Les défauts que javais petit sont les mêmes quaujourdhui, ptêtre pire Mama tavais raison Et tavais même raison quand tu me disais que je dirais que tavais raison Je croyais je taffais pas, parce que lécole jaimais pas Aujourdhui jfais ce que jaime et cest le même résultat Jsuis un putain de branleur, la putain de sa mère Ya lheure qui défile, ma vie qui se fout en lair Jai tellement livres à lire, tellement films à voir Tellement villes à vivre, jsuis quau début de lhistoire Jai un album à faire, des projets à accomplir Des textes à tourner puis des textes à écrire Jme sens seul Quand jsuis seul je vois du monde, avec eux jveux être seul Je kiffe les meufs dans la rue et puis les meufs sur insta Je les trouve belles, intéressantes, je les connais même pas Jimagine lhistoire damour quon pourrait vivre à lhôtel Je néglige celles qui sont là et qui maiment, elles Jai plus confiance en moi Jai plus confiance en moi, jai plus confiance en mon art Je crois plus les compliments, je lis les mauvais commentaires Je sais plus comment faire, ma carrière tient quà un fil Et jaime pas les rappeurs conseillés sous mon profil Limpression de stagner, davancer doucement 10 ans que je rappe mais Quai-je fais de tout ce temps ? Jai peur de me lancer, de my mettre vraiment Si jmy mets vraiment bah jpeux rater vraiment Et percer ça veut rien dire Ya toute sorte de publique Si cest que faire des vues, autant faire la pute a cliques Autant faire linfluenceur, des vidéos sur youtube Leur montrer mon life style, jpeux même leur faire une routine Je sais plus trop ce que je cherche Moi je le faisais par besoin Cétait pas pour buzzer Jcrois que tout ça me bousille Je sors mon album et bisous En ce moment jsuis grave busy Jsuis tout le temps sur mon bigo Mais jai limpression de rien faire Jsuis même dans la presse people Jai hâte de jeter mon tel Ça fait 10 pige que jen parle Je métais dit dabord je perce, et ensuite je pars Jaime plus lrap, cest plus de mon âge Je sais que cest des acteurs, je sais que cest des tournages Jaime plus lrap, cest plus de mon âge Je sais que cest des menteurs, je sais que cest des montages Ils ont pas de style, ils ont des stylistes Ils ont pas de bonnes idées nan, ils ont des DA Ils ont pas de flow, ils ont des top liner Ils savent pas ce quils font, on leur dit quoi faire Jaime plus lrap, jveux plus rapper mes problèmes Jaime plus lrap, nan jai envie de les résoudre Jaime plus lrap, cest pas une phrase de vieux con Jaime plus lrap, cétait pas mieux avant Jaime plus lrap, leurs idées leurs méthodes Jaime plus lrap, je préfère écouter des prod Jaime plus lrap, ils mapprennent rien de nouveau Jaime plus lrap, je préfère écouter piano</t>
+          <t>Cest mon premier ptêtre mon dernier album Demain jarrête Jaime plus le rap depuis que je sais que la promo sachète Mon premier son, jparlais de mon ex Javais mal au cur, jen ai fait un complexe Jespérais quelle revienne, au moins quelle me comprenne, après lécoute de mon texte ça sappelait Yoon on the moon 1, cétait chaud Elle ma jamais rappelé, mais la vie la kiffé Donc jai continué Jsais plus pourquoi jle fais Jveux partir comme Luffy, après ce morceau tu sauras pourquoi jai fuis Jveux rester moi même mais ya beaucoup trop davis Le but dun label cest quoi à ton avis ? Cest faire de loseille avant tout mon amis après cest aussi à moi jpense de savoir comment me battre pour ce truc là si jy crois vraiment Cest mon premier ptêtre mon dernier album Je suis pas sûr de vouloir continuer De toute façon jai mon contrat qui sarrête Je commence à fatiguer 10 ans que jfais du rap je commence à paniquer 10 ans que jfais du rap je sais plus pourquoi jle fais Sur de rien je sais même pas si jai déjà connu lamour Et vas-y change daccord que je vois si ça me fait de leffet Sur de rien je sais pas si ça mfait de leffet Jai arrêté les études A mon père jai dit tinquiète pas jassume Et cest vrai jassume, jdemande rien Jsuis fière jsuis algérien Jsuis rappeur, jsuis écrivain Jsuis acteur, jsuis comédien Aller ferme ta gueule Arrête de faire crari Les défauts que javais petit sont les mêmes quaujourdhui, ptêtre pire Mama tavais raison Et tavais même raison quand tu me disais que je dirais que tavais raison Je croyais je taffais pas, parce que lécole jaimais pas Aujourdhui jfais ce que jaime et cest le même résultat Jsuis un putain de branleur, la putain de sa mère Ya lheure qui défile, ma vie qui se fout en lair Jai tellement livres à lire, tellement films à voir Tellement villes à vivre, jsuis quau début de lhistoire Jai un album à faire, des projets à accomplir Des textes à tourner puis des textes à écrire Jme sens seul Quand jsuis seul je vois du monde, avec eux jveux être seul Je kiffe les meufs dans la rue et puis les meufs sur insta Je les trouve belles, intéressantes, je les connais même pas Jimagine lhistoire damour quon pourrait vivre à lhôtel Je néglige celles qui sont là et qui maiment, elles Jai plus confiance en moi Jai plus confiance en moi, jai plus confiance en mon art Je crois plus les compliments, je lis les mauvais commentaires Je sais plus comment faire, ma carrière tient quà un fil Et jaime pas les rappeurs conseillés sous mon profil Limpression de stagner, davancer doucement 10 ans que je rappe mais Quai-je fais de tout ce temps ? Jai peur de me lancer, de my mettre vraiment Si jmy mets vraiment bah jpeux rater vraiment Et percer ça veut rien dire Ya toute sorte de publique Si cest que faire des vues, autant faire la pute a cliques Autant faire linfluenceur, des vidéos sur youtube Leur montrer mon life style, jpeux même leur faire une routine Je sais plus trop ce que je cherche Moi je le faisais par besoin Cétait pas pour buzzer Jcrois que tout ça me bousille Je sors mon album et bisous En ce moment jsuis grave busy Jsuis tout le temps sur mon bigo Mais jai limpression de rien faire Jsuis même dans la presse people Jai hâte de jeter mon tel Ça fait 10 pige que jen parle Je métais dit dabord je perce, et ensuite je pars Jaime plus lrap, cest plus de mon âge Je sais que cest des acteurs, je sais que cest des tournages Jaime plus lrap, cest plus de mon âge Je sais que cest des menteurs, je sais que cest des montages Ils ont pas de style, ils ont des stylistes Ils ont pas de bonnes idées nan, ils ont des DA Ils ont pas de flow, ils ont des top liner Ils savent pas ce quils font, on leur dit quoi faire Jaime plus lrap, jveux plus rapper mes problèmes Jaime plus lrap, nan jai envie de les résoudre Jaime plus lrap, cest pas une phrase de vieux con Jaime plus lrap, cétait pas mieux avant Jaime plus lrap, leurs idées leurs méthodes Jaime plus lrap, je préfère écouter des prod Jaime plus lrap, ils mapprennent rien de nouveau Jaime plus lrap, je préfère écouter piano</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dans ma tête c'est bagdad khey Y a que des problèmes Pas d'solutions Pendant qu'je traine l'daron pète les plombs Que fait son fiston Si peu de bonnes nouvelles Où tout cela nous mène On le trouvera nous même Y en a ils font les beaux De la vie moi j'ai tout vu Ce sont des rigolos Aux doutes inattendus J'reste imperturbable Indéboulonnable Inaliénable dans leurs clichés et leurs peurs In-impressionnabls par leurs bureaux leurs odurs Tous des hommes et la camisole on s'la met tout seul Au fil des sommes sans que l'on s'raisonne Et en douceur! J'vois les jaloux jacter après un verre de jack D J'vois mes gars vendre la D des gueushla en acheter... Oui j'ai trainé j'ai trainé j'ai trainé Et j'ai trainé j'ai trainé j'ai trainé Oui j'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé You might also likeJ'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai vu, des mecs fêlés La grâce des félins Vas-y fais le, fais le, m'ont dit mes fréros T'as l'phrasé la fougue La forme d'la foudre Donc fais le fais le ! Et moi j'suis àl J'ai peur d'mal agir alors j'agis mal Man J'vis tel un marginal L'âme en peine on a pas la mentale Rien qu'ca m'gene je trouve ça lamentable Wesh ma gueule On a pas la dalh Suffit pas qu'on l'a veuille pour qu'on nous passe la balle On est ni en chien Ni confortables Donc on n'fait rien et ça devient comme d'hab Et je pète un cable l'inaction me tue! Renverse la table laisse tomber le thé! C'est pas ma came les vacances que l'été Booba madame j'ai bien trop écouté Procrastiner C'était ça l'idée Faut s'activer Assez saliver Facilité défaut d'mes qualités Donc pour tilter j'attendais d'paniquer Résultat refré du gachis pur! Maitre de son reflet? c'est archi dur Du gachis pur C'est archi dur J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé Papa est déçu je le lis dans ses yeux Je n'ai pas su réaliser ses vux J'suis bon qu'à remettre les choses à demain J'n'ai jamais pris mon courage à demain J'ai traîne j'ai traîne j'ai perdu mon temps Entraîné entrainé j'ai peur du montant Où tout cela nous mène? On va le trouver D'jours en semaines puis de mois en années</t>
+          <t>Dans ma tête c'est bagdad khey Y a que des problèmes Pas d'solutions Pendant qu'je traine l'daron pète les plombs Que fait son fiston Si peu de bonnes nouvelles Où tout cela nous mène On le trouvera nous même Y en a ils font les beaux De la vie moi j'ai tout vu Ce sont des rigolos Aux doutes inattendus J'reste imperturbable Indéboulonnable Inaliénable dans leurs clichés et leurs peurs In-impressionnabls par leurs bureaux leurs odurs Tous des hommes et la camisole on s'la met tout seul Au fil des sommes sans que l'on s'raisonne Et en douceur! J'vois les jaloux jacter après un verre de jack D J'vois mes gars vendre la D des gueushla en acheter... Oui j'ai trainé j'ai trainé j'ai trainé Et j'ai trainé j'ai trainé j'ai trainé Oui j'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai vu, des mecs fêlés La grâce des félins Vas-y fais le, fais le, m'ont dit mes fréros T'as l'phrasé la fougue La forme d'la foudre Donc fais le fais le ! Et moi j'suis àl J'ai peur d'mal agir alors j'agis mal Man J'vis tel un marginal L'âme en peine on a pas la mentale Rien qu'ca m'gene je trouve ça lamentable Wesh ma gueule On a pas la dalh Suffit pas qu'on l'a veuille pour qu'on nous passe la balle On est ni en chien Ni confortables Donc on n'fait rien et ça devient comme d'hab Et je pète un cable l'inaction me tue! Renverse la table laisse tomber le thé! C'est pas ma came les vacances que l'été Booba madame j'ai bien trop écouté Procrastiner C'était ça l'idée Faut s'activer Assez saliver Facilité défaut d'mes qualités Donc pour tilter j'attendais d'paniquer Résultat refré du gachis pur! Maitre de son reflet? c'est archi dur Du gachis pur C'est archi dur J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé Papa est déçu je le lis dans ses yeux Je n'ai pas su réaliser ses vux J'suis bon qu'à remettre les choses à demain J'n'ai jamais pris mon courage à demain J'ai traîne j'ai traîne j'ai perdu mon temps Entraîné entrainé j'ai peur du montant Où tout cela nous mène? On va le trouver D'jours en semaines puis de mois en années</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'suis cliché comme la sacoche, comme des vacances à Marrakech Pas la langue au fond de ma poche, je crache du feu comme Salamèche On passe nos vies sur téléphones, on vérifie cque mettent les fans Du mal à choisir mes journées, faudrait que jchoisisse ma femme Y'a des gens qujconnais même pas qui font plus pour moi qumes potos Y a des gens que jconnais même plus, pour m'en rappeler, mfaut des photos Et j'suis fan d'une de mes fans, elle est pertinente, elle est fine Jchange de rimes sans préambule, t'as pas vu vnir la parabole J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Un arabe qui fait du rap y'a pas grand chose d'original On sattache puis se sépare comme le cordon ombilical Les années passent comme semaines, les mêmes places sous semelles J'me demande toujours cque j'aime, il serait temps que jm'en rappelle Je partage ce qui me plait, aucune punchline pour meubler Jle fais aussi pour le blé, pour les rebeus, les noirs, les blancs J'écris ctexte en cinq minutes mais cest ltravail de toute une vie Jchoisis mes rimes dans mes notes et j'ai l'impression qutout me va Pour certains, j'suis nul à chier, pour dautres, j'suis super bon Jprends tout ça avec du recul car ils écoutent tous les mêmes sons Tu fais trop dstories à mon goût, graine de café à mon cou Tu veux prouver quoi, ma gueule ? Moi, je n'en fais qu'à ma guise You might also like J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Et jvoulais sauver le monde mais là, j'essaye de m'en sortir Entre la mif, le taff, les projets, je sors tôt, je rentre tard Tassumes pas cque taimes vraiment, tu fais en fonction des autres Et j'essaye de faire au mieux, je fais en fonction des nôtres Jme bats contre moi-même, jai pas d'ennemi dans lrap game Jaime les gens qui sassument, on perd de vue les médecines Un délit en entraîne un autre, sans religion, j'vendrais la coke Jsors du taff et je taff, fuck les keufs, vive la caf Toi, tu parles dassisté, cest ton papa qui paye loyer Et je parle des cistes-ra car jen ai déjà côtoyé Jai quitté la lune pour Saturne, j'ai quitté Saturne pour un autre système solaire Jhésite à confier mon futur gosse à leur système scolaire J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles</t>
+          <t>J'suis cliché comme la sacoche, comme des vacances à Marrakech Pas la langue au fond de ma poche, je crache du feu comme Salamèche On passe nos vies sur téléphones, on vérifie cque mettent les fans Du mal à choisir mes journées, faudrait que jchoisisse ma femme Y'a des gens qujconnais même pas qui font plus pour moi qumes potos Y a des gens que jconnais même plus, pour m'en rappeler, mfaut des photos Et j'suis fan d'une de mes fans, elle est pertinente, elle est fine Jchange de rimes sans préambule, t'as pas vu vnir la parabole J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Un arabe qui fait du rap y'a pas grand chose d'original On sattache puis se sépare comme le cordon ombilical Les années passent comme semaines, les mêmes places sous semelles J'me demande toujours cque j'aime, il serait temps que jm'en rappelle Je partage ce qui me plait, aucune punchline pour meubler Jle fais aussi pour le blé, pour les rebeus, les noirs, les blancs J'écris ctexte en cinq minutes mais cest ltravail de toute une vie Jchoisis mes rimes dans mes notes et j'ai l'impression qutout me va Pour certains, j'suis nul à chier, pour dautres, j'suis super bon Jprends tout ça avec du recul car ils écoutent tous les mêmes sons Tu fais trop dstories à mon goût, graine de café à mon cou Tu veux prouver quoi, ma gueule ? Moi, je n'en fais qu'à ma guise J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Et jvoulais sauver le monde mais là, j'essaye de m'en sortir Entre la mif, le taff, les projets, je sors tôt, je rentre tard Tassumes pas cque taimes vraiment, tu fais en fonction des autres Et j'essaye de faire au mieux, je fais en fonction des nôtres Jme bats contre moi-même, jai pas d'ennemi dans lrap game Jaime les gens qui sassument, on perd de vue les médecines Un délit en entraîne un autre, sans religion, j'vendrais la coke Jsors du taff et je taff, fuck les keufs, vive la caf Toi, tu parles dassisté, cest ton papa qui paye loyer Et je parle des cistes-ra car jen ai déjà côtoyé Jai quitté la lune pour Saturne, j'ai quitté Saturne pour un autre système solaire Jhésite à confier mon futur gosse à leur système scolaire J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jai marché longtemps, rester sur place, ouais ça me réussit peu pendant le confinement Pour me sentir bien, je changeais dadress IP. Les racistes ici me disnt rentre chez toi comme cest ici chez moi. Bah, on est déjà daccord. Jai des objectifs, jai des plans que jélabore On calcule les apports, comme nos ministres et les emplois fictifs cest ma famille dabord La violence est économique, satellite tourne autour de la terre, la terre tourne autour du fric, tout commence par lAfrique. Ils mentent sur les frontières Jai fait v'la d'kilomètres j'ai parcouru le monde comme pour vérifier que la terre est bien ronde. Jsuis passé à Paname, jai chéké la Joconde Jsuis allé à Wahran, jai rencontré mon oncle Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, jai plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh 18 piges, jsuis arrivé en France, javais que mon BAC, ma fougue genau. Jécris 2fik avec un 2 comme le blase de Tupac Shakur genau Jpense au bateau tout les jours que dieu fait en me disant que la vie sera pas facile à bord Jpars taffer au pays qui diffuse Malcolm, avec dans la tête cest ma famille dabord. Une fille blanche apeurée parce quon mange en Lacoste pas ouvert ma gueule comme un alligator Tas un don pour oublier le bien quon tas fait. Moi je manie la plume, toi tu manies la gomme. Ils veulent encore nous mettre une cinquième. Oh non! Du coup, la maman sinquiète. Oh non! Elle multiplie ses cinq prières aller retour berra, jsuis plus le même quhier. Oh non Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, c'est plus bénef, jsuis comme Marine, jsuis QLF You might also like Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh</t>
+          <t>Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jai marché longtemps, rester sur place, ouais ça me réussit peu pendant le confinement Pour me sentir bien, je changeais dadress IP. Les racistes ici me disnt rentre chez toi comme cest ici chez moi. Bah, on est déjà daccord. Jai des objectifs, jai des plans que jélabore On calcule les apports, comme nos ministres et les emplois fictifs cest ma famille dabord La violence est économique, satellite tourne autour de la terre, la terre tourne autour du fric, tout commence par lAfrique. Ils mentent sur les frontières Jai fait v'la d'kilomètres j'ai parcouru le monde comme pour vérifier que la terre est bien ronde. Jsuis passé à Paname, jai chéké la Joconde Jsuis allé à Wahran, jai rencontré mon oncle Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, jai plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh 18 piges, jsuis arrivé en France, javais que mon BAC, ma fougue genau. Jécris 2fik avec un 2 comme le blase de Tupac Shakur genau Jpense au bateau tout les jours que dieu fait en me disant que la vie sera pas facile à bord Jpars taffer au pays qui diffuse Malcolm, avec dans la tête cest ma famille dabord. Une fille blanche apeurée parce quon mange en Lacoste pas ouvert ma gueule comme un alligator Tas un don pour oublier le bien quon tas fait. Moi je manie la plume, toi tu manies la gomme. Ils veulent encore nous mettre une cinquième. Oh non! Du coup, la maman sinquiète. Oh non! Elle multiplie ses cinq prières aller retour berra, jsuis plus le même quhier. Oh non Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, c'est plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Salam aleikoum, aujourd'hui cest le premier enregistrement... Nous sommes le dimanche 3 octobre et je pars au Kirghizistan dans 24 heures... Nani Ca fait dix piges qu'j'suis dedans wow Cest plus qu'un doctorat ouh J'reviens du Kirghizistan wow Sac à dos comme Dora backpack J'vis dans les beaux quartiers Mais dans une chambre de bonne Diplômé d'la Sorbonne mmh C'est pour Papa que j'l'ai fait pour Papa que jlai fait Premier concert booké complet Là j'écris un bouquin je gratte Jécris même pas beaucoup hm hm T'imagins si je bossais ? pah Quand je croise un 2002 hm hm Qui voit qu je suis certifié t'es certifié toi d'ailleurs ? Gros ça le fait grave kiffer hm hm Il sait même pas ce que jfais bolosse Dans ma chambre on est trois on est plein Parfois c'est un peu étroit ça casse les couilles En plus personne nettoie oh non putain Mais y a vue sur les toits oh oui ça va Des fois même on est quatre quatre Dans 14 mètres carrés quatorze C'est vraiment pas carré quatorze Mais c'est comme ça Paris ah, c'est la rue, wesh J'ai fait mes 500 heures wouh Du coup on me doit des e J'appelle l'ANPE allô, brr Je suis un artiste yes J'ai testé le RS6 vroum Je ne suis plus le même Je veux plus être lyriciste Je veux faire de l'oseille vroum File-moi ton 07 allô Y a pas de femme parfaite non Mais je la cherche quand même t'es où ? Du coup j'ai grave d'la peine Diplômé de Paris 8 L'amour ça dure trois ans D'abord c'est les croissants Ensuite c'est décroissant ahahah Wesh mon vieux quoi de neuf quoi ? Là j'suis sur mon album quoi ? J'parle à mon dictaphone ouais Younès t'es fort On m'regarde comme un fou ahahah You might also like Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers toutoutou Mais dans une chambre de bonne toutoutou Diplômé d'la Sorbonne C'est pour Papa que j'l'ai fait wow Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers mh Mais dans une chambre de bonne un studio wesh Diplômé d'la Sorbonne hé C'est pour Papa que j'l'ai fait nani You, you, younès là You, you, younès là You, you, younès là Et le ? pour les backs Jour 1 à Bichkek... Je suis arrivé ce matin vers 9 heures à l'hôtel, je suis parti faire un petit tour... Ca m'a permis de constater que j'aime pas Bichkek...</t>
+          <t>Salam aleikoum, aujourd'hui cest le premier enregistrement... Nous sommes le dimanche 3 octobre et je pars au Kirghizistan dans 24 heures... Nani Ca fait dix piges qu'j'suis dedans wow Cest plus qu'un doctorat ouh J'reviens du Kirghizistan wow Sac à dos comme Dora backpack J'vis dans les beaux quartiers Mais dans une chambre de bonne Diplômé d'la Sorbonne mmh C'est pour Papa que j'l'ai fait pour Papa que jlai fait Premier concert booké complet Là j'écris un bouquin je gratte Jécris même pas beaucoup hm hm T'imagins si je bossais ? pah Quand je croise un 2002 hm hm Qui voit qu je suis certifié t'es certifié toi d'ailleurs ? Gros ça le fait grave kiffer hm hm Il sait même pas ce que jfais bolosse Dans ma chambre on est trois on est plein Parfois c'est un peu étroit ça casse les couilles En plus personne nettoie oh non putain Mais y a vue sur les toits oh oui ça va Des fois même on est quatre quatre Dans 14 mètres carrés quatorze C'est vraiment pas carré quatorze Mais c'est comme ça Paris ah, c'est la rue, wesh J'ai fait mes 500 heures wouh Du coup on me doit des e J'appelle l'ANPE allô, brr Je suis un artiste yes J'ai testé le RS6 vroum Je ne suis plus le même Je veux plus être lyriciste Je veux faire de l'oseille vroum File-moi ton 07 allô Y a pas de femme parfaite non Mais je la cherche quand même t'es où ? Du coup j'ai grave d'la peine Diplômé de Paris 8 L'amour ça dure trois ans D'abord c'est les croissants Ensuite c'est décroissant ahahah Wesh mon vieux quoi de neuf quoi ? Là j'suis sur mon album quoi ? J'parle à mon dictaphone ouais Younès t'es fort On m'regarde comme un fou ahahah Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers toutoutou Mais dans une chambre de bonne toutoutou Diplômé d'la Sorbonne C'est pour Papa que j'l'ai fait wow Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers mh Mais dans une chambre de bonne un studio wesh Diplômé d'la Sorbonne hé C'est pour Papa que j'l'ai fait nani You, you, younès là You, you, younès là You, you, younès là Et le ? pour les backs Jour 1 à Bichkek... Je suis arrivé ce matin vers 9 heures à l'hôtel, je suis parti faire un petit tour... Ca m'a permis de constater que j'aime pas Bichkek...</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Olala, Shaz Jsuis rappeur, jsuis écrivain, jsuis acteur, jsuis comédien Jserais peut être autre chose demain, moi, jveux changer lquotidien Plusieurs cagoules, les écoute pas, tu f'ras cque tu veux, mon grand Moi, si jles avais écouté, jaurais des regrets depuis ltemps Si j'vis de mon art, jpourrais mourir de bonheur Une routine de bonhomme, une routine de maman Et jme souviens, y a trois ans, jsuis parti dchez mes parents Le soir dans lappartement, je rappais doucement Jme demande toujours cque jaime, cque j'veux faire de ma life Ma mâchoire tendue me gêne et jen deviens malade Quand jsuis triste, la haine me fait du charme En somme, quand jsuis seul, je pense à faire du sale Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Le ciel est gris, moi, jsuis aigri, jécris des mots qui deviennent des cris Jrange mon écrin, éteins mon écran, on sourit moins depuis quon est grands À part ça, jsors dun partiel, jme sens seul seul, seul Hamdoullah, jai la santé, cest lessentiel Jsuis indécis, ça en devient indécent, je ne me décide que quand le choix est pressant limite incandescent, jvais pas te faire un dessin ni le langage des signes, gros, jai foiré lessai Foiré lessai, jai pas réussi, les auditions, je suis pas reçu Nique sa mère, on lfera seul, on tombe à terre, on remonte en selle You might also like Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets</t>
+          <t>Olala, Shaz Jsuis rappeur, jsuis écrivain, jsuis acteur, jsuis comédien Jserais peut être autre chose demain, moi, jveux changer lquotidien Plusieurs cagoules, les écoute pas, tu f'ras cque tu veux, mon grand Moi, si jles avais écouté, jaurais des regrets depuis ltemps Si j'vis de mon art, jpourrais mourir de bonheur Une routine de bonhomme, une routine de maman Et jme souviens, y a trois ans, jsuis parti dchez mes parents Le soir dans lappartement, je rappais doucement Jme demande toujours cque jaime, cque j'veux faire de ma life Ma mâchoire tendue me gêne et jen deviens malade Quand jsuis triste, la haine me fait du charme En somme, quand jsuis seul, je pense à faire du sale Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Le ciel est gris, moi, jsuis aigri, jécris des mots qui deviennent des cris Jrange mon écrin, éteins mon écran, on sourit moins depuis quon est grands À part ça, jsors dun partiel, jme sens seul seul, seul Hamdoullah, jai la santé, cest lessentiel Jsuis indécis, ça en devient indécent, je ne me décide que quand le choix est pressant limite incandescent, jvais pas te faire un dessin ni le langage des signes, gros, jai foiré lessai Foiré lessai, jai pas réussi, les auditions, je suis pas reçu Nique sa mère, on lfera seul, on tombe à terre, on remonte en selle Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Woow, woow Yoon on the Moon La vie est merveilleuse Du fin fond de la Creuse à la beauté de tes yeuz De la cime des arbres à la force des montagnes De l'ingéniosité de lhomme à la perfection de l'animal J'aime tout cque la nature a fait, du couscous au mafé J'aime la cuisine maison, l'odeur d'la cuisson Le frémissement des oignons sur la poêle Le frottement du pinceau sur la toile La puissance d'un sourire, quelle porte va s'ouvrir ? Le parfum, un souvenir qu'on ne voit pas venir La beauté des paupières, de l'esprit, les frontières La vie est merveilleuse, ouais, la vie est merveilleuse Suffit douvrir les yeuz, ouais, suffit douvrir les yeuz Et moi, j'aimerais que tu connaisses ce morceau par cur Quon puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Ya ya ya ya, ya ya ya ya écoute, écoute Ya ya ya ya, ya ya ya ya voilà Ya ya ya ya mes gars sont chauds, ya ya ya ya Ya ya ya ya, ya ya ya ya c'est pas fini, cest pas fini Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais You might also like Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Car quand tu chantes mes versets Je me sens heureux, je comprends ma valeur Mon frère le sait, ma mère le sait mais veut pas se l'avouer Mon père le sait, si seulement vous saviez J'suis fait pour la performance, le rythme, la cadence J'veux faire le tour de la France J'suis fait pour l'partage, les tournages, le paquetage Petit nombre au grand âge Car le sourire de mes frères me met du baume au cur Et si la vie t'effraie, viens par-là, mon cur Viens, parle à mon cur, qu'on oublie nos corps Et qu'on chante en chur ce refrain encore Car moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure On est au square, pas à Rio, moi, j'suis de Rouen On traîne entre frérots, on traîne en riant Y a que le Très-Haut qui a le pouvoir de trier J'parle avec brio de c'que j'trouve brillant J'parle de tes yeux, j'parle de ton sourire J'parle de ton rire que personne n'a vu venir J'parle à mes vieux, ils me parlent de leurs souvenirs Tant à se dire avant le dernier soupir Et moi, j'aimerais sourire, gros, juste avant de mourir, ouais Car ça voudrait dire que j'ai trouvé la paix Et moi, j'aimerais, et moi, j'aimerais, et moi, j'aimerais Et moi, j'aimerais que ce son plaise à nos mamans Qu'elles l'écoutent doucement, en chantonnant tendrement Comme elles savent le faire depuis qu'on est tits-pe On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Je ne pose pas, je ne pose pas si le beat m'écure Ça fait Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Ye ne pose pas, ye ne pose pas si le beat m'écure</t>
+          <t>Woow, woow Yoon on the Moon La vie est merveilleuse Du fin fond de la Creuse à la beauté de tes yeuz De la cime des arbres à la force des montagnes De l'ingéniosité de lhomme à la perfection de l'animal J'aime tout cque la nature a fait, du couscous au mafé J'aime la cuisine maison, l'odeur d'la cuisson Le frémissement des oignons sur la poêle Le frottement du pinceau sur la toile La puissance d'un sourire, quelle porte va s'ouvrir ? Le parfum, un souvenir qu'on ne voit pas venir La beauté des paupières, de l'esprit, les frontières La vie est merveilleuse, ouais, la vie est merveilleuse Suffit douvrir les yeuz, ouais, suffit douvrir les yeuz Et moi, j'aimerais que tu connaisses ce morceau par cur Quon puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Ya ya ya ya, ya ya ya ya écoute, écoute Ya ya ya ya, ya ya ya ya voilà Ya ya ya ya mes gars sont chauds, ya ya ya ya Ya ya ya ya, ya ya ya ya c'est pas fini, cest pas fini Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Car quand tu chantes mes versets Je me sens heureux, je comprends ma valeur Mon frère le sait, ma mère le sait mais veut pas se l'avouer Mon père le sait, si seulement vous saviez J'suis fait pour la performance, le rythme, la cadence J'veux faire le tour de la France J'suis fait pour l'partage, les tournages, le paquetage Petit nombre au grand âge Car le sourire de mes frères me met du baume au cur Et si la vie t'effraie, viens par-là, mon cur Viens, parle à mon cur, qu'on oublie nos corps Et qu'on chante en chur ce refrain encore Car moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure On est au square, pas à Rio, moi, j'suis de Rouen On traîne entre frérots, on traîne en riant Y a que le Très-Haut qui a le pouvoir de trier J'parle avec brio de c'que j'trouve brillant J'parle de tes yeux, j'parle de ton sourire J'parle de ton rire que personne n'a vu venir J'parle à mes vieux, ils me parlent de leurs souvenirs Tant à se dire avant le dernier soupir Et moi, j'aimerais sourire, gros, juste avant de mourir, ouais Car ça voudrait dire que j'ai trouvé la paix Et moi, j'aimerais, et moi, j'aimerais, et moi, j'aimerais Et moi, j'aimerais que ce son plaise à nos mamans Qu'elles l'écoutent doucement, en chantonnant tendrement Comme elles savent le faire depuis qu'on est tits-pe On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Je ne pose pas, je ne pose pas si le beat m'écure Ça fait Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Ye ne pose pas, ye ne pose pas si le beat m'écure</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Oh lalalalala, cest terrible c'qui est en train d'se passer, cest terrible Cest leffondrement Alex Grox à la prod, Younès au piano On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdviendra humain Fuck les baleins lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Jveux juste un yacht et la meuf qui va avec celle qui va avec le yacht Elle ou une autre tant qula plastique est impec Cest pas mon dos si mes baskets sont faites par des petits nameks chacun ses problèmes La planète va très très bien, cest juste nous qui sommes dans la merde qui sommes dans la mierda Qui sommes dans la mierda ouais ouais, ouais ouais Jveux juste baraque sur la mer, la villa , le jet avec le chauffeur, le pilote Ça marrange quon réchauffe lair, ça marrange, jpayerai moins cher le chauffage, bénéf' Jveux juste faire mon safari, moi aussi, jveux être heureux Si on meurt tous, ça fait rien You might also like On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdeviendra humain Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Greta elle casse trop lambiance, si la banquise fond, on sen fout Nous, on vit en France en France nous vivons Ça f'ra plus deau dans la mer pour les vacances plouf Et les ours polaires, ils savent nager, la chance ouf Traîne pas dehors si jpars à la chasse piou touché On sauve pas l'monde en f'sant du tri nan nan nan, les écolos ils sont déprimants ouais ouais La viande, cest plein dnutriments Hmm hmm, moi aussi jveux faire du traîneau Mes ptits enfants, jles connais pas, jvais quand même pas m'battre pour eux Leffondrement et cætera pour moi, cest pour les peureux Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Oh lalalalala, cest terrible ce qui vient d'se passer, cest terrible Alex Grox à la prod, Younès au piano, leffondrement</t>
+          <t>Oh lalalalala, cest terrible c'qui est en train d'se passer, cest terrible Cest leffondrement Alex Grox à la prod, Younès au piano On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdviendra humain Fuck les baleins lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Jveux juste un yacht et la meuf qui va avec celle qui va avec le yacht Elle ou une autre tant qula plastique est impec Cest pas mon dos si mes baskets sont faites par des petits nameks chacun ses problèmes La planète va très très bien, cest juste nous qui sommes dans la merde qui sommes dans la mierda Qui sommes dans la mierda ouais ouais, ouais ouais Jveux juste baraque sur la mer, la villa , le jet avec le chauffeur, le pilote Ça marrange quon réchauffe lair, ça marrange, jpayerai moins cher le chauffage, bénéf' Jveux juste faire mon safari, moi aussi, jveux être heureux Si on meurt tous, ça fait rien On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdeviendra humain Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Greta elle casse trop lambiance, si la banquise fond, on sen fout Nous, on vit en France en France nous vivons Ça f'ra plus deau dans la mer pour les vacances plouf Et les ours polaires, ils savent nager, la chance ouf Traîne pas dehors si jpars à la chasse piou touché On sauve pas l'monde en f'sant du tri nan nan nan, les écolos ils sont déprimants ouais ouais La viande, cest plein dnutriments Hmm hmm, moi aussi jveux faire du traîneau Mes ptits enfants, jles connais pas, jvais quand même pas m'battre pour eux Leffondrement et cætera pour moi, cest pour les peureux Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Oh lalalalala, cest terrible ce qui vient d'se passer, cest terrible Alex Grox à la prod, Younès au piano, leffondrement</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Le grand remplacement ? Cest ta fille qui me kiffe Qui va m'faire des enfants et ils auront mon pif Jdéboule dans ta vie comme les trottinettes à Paris Jveux largent des Qataris, m'sieur lagent sur ltatami Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants, cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois You might also like Tu peux vivre ta vie ou r'garder la leur sur le net Pour une bagarre ou un date, jy vais toujours sans lunettes Jme fais rare comme les blancs à Gare du Nord Éphémère comme la vie dun garde du corps Si jmets replay, le son est bon, sinon, me demande pas Elles sont belles, jen deviens débile, jsuis trop matrixé, gars Quand jte dis je taime, cest toi ou ton pétard Je sais plus, je sais pas pourquoi on sest plu au départ Dans mes rêves, un keuf me shoote, jhésite à bicrave du shit Dans mes rêves, un peu de doute, jhésite pas quand jai des dettes Génération internet, jamais aimé quon me note J'vais percer dans deux minutes, le décollage est imminent Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois</t>
+          <t>Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Le grand remplacement ? Cest ta fille qui me kiffe Qui va m'faire des enfants et ils auront mon pif Jdéboule dans ta vie comme les trottinettes à Paris Jveux largent des Qataris, m'sieur lagent sur ltatami Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants, cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois Tu peux vivre ta vie ou r'garder la leur sur le net Pour une bagarre ou un date, jy vais toujours sans lunettes Jme fais rare comme les blancs à Gare du Nord Éphémère comme la vie dun garde du corps Si jmets replay, le son est bon, sinon, me demande pas Elles sont belles, jen deviens débile, jsuis trop matrixé, gars Quand jte dis je taime, cest toi ou ton pétard Je sais plus, je sais pas pourquoi on sest plu au départ Dans mes rêves, un keuf me shoote, jhésite à bicrave du shit Dans mes rêves, un peu de doute, jhésite pas quand jai des dettes Génération internet, jamais aimé quon me note J'vais percer dans deux minutes, le décollage est imminent Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Le monde est virtuel, la réalité nous échappe Comme Kendrick Lamar, j'en ai marre du Photoshop Et je snap ma vie au lieu de vivre ma vie Je vous donne ma vie mais on s'en bat les claouis On me siffle comme un chien et je rapplique Ah nan, ce sont les notifs de mon appli' Ma liberté fait la taille de mon chargeur portable On est sur la paille, on a la dernière play Si internet disparaît je disparais avec On va pas séparer, on va filmer ouais mec On fait des selfies, on cherche le meilleur profil On veut la wifi, on cherche les meilleurs mobiles Ta mère l'influenceuse, ton père le YouTubeur Tu cherches à faire le buzz même quand ton poto meurt Rester seul avec sa conscience ça sfait presque plus On préfère scroller les tendances sur le fil dactu À quoi bon aller au resto si jai plus de batterie ? Si je peux pas faire de photos pour nourrir ma story ? Bientôt, on fera des gosses pour obtenir plus de likes On fait déjà des gosses pour confectionner nos Nike On sourit pendant le Snap puis arrête de s'amuser Ma vie est un spectacle, mon historique un musée H24 connecté donc j'suis déconnecté Écouteurs vissés, yeux baissés, bouche plissée Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél You might also like On le prend sans raison, addictif comme la résine J'alimente mes réseaux, attentif quand ça résonne Le cerveau saccagé, perdu sans la 4G Je poste donc je suis, je te suis donc je sais Jrecommence à vivre quand j'ai fini ma batterie Jrecommence pas ma vie à la fin de la partie Retiens bien bientôt les téléphones seront greffés sur nos mains Tout est programmé comme le destin Cest pas elle qui me manque, cest ses textos On partage ce qu'on vit, est-c'qu'on vit pleinement ? Jinterdis les téléphones à mon enterrement J'suis pas face à mon pote mais face au dos dson portable On détruit lien social à coup de réseau social On sembrouille sur Snap, on discute sur Messenger On sretrouve sur Skype, on srejoint en Uber Youn'</t>
+          <t>Le monde est virtuel, la réalité nous échappe Comme Kendrick Lamar, j'en ai marre du Photoshop Et je snap ma vie au lieu de vivre ma vie Je vous donne ma vie mais on s'en bat les claouis On me siffle comme un chien et je rapplique Ah nan, ce sont les notifs de mon appli' Ma liberté fait la taille de mon chargeur portable On est sur la paille, on a la dernière play Si internet disparaît je disparais avec On va pas séparer, on va filmer ouais mec On fait des selfies, on cherche le meilleur profil On veut la wifi, on cherche les meilleurs mobiles Ta mère l'influenceuse, ton père le YouTubeur Tu cherches à faire le buzz même quand ton poto meurt Rester seul avec sa conscience ça sfait presque plus On préfère scroller les tendances sur le fil dactu À quoi bon aller au resto si jai plus de batterie ? Si je peux pas faire de photos pour nourrir ma story ? Bientôt, on fera des gosses pour obtenir plus de likes On fait déjà des gosses pour confectionner nos Nike On sourit pendant le Snap puis arrête de s'amuser Ma vie est un spectacle, mon historique un musée H24 connecté donc j'suis déconnecté Écouteurs vissés, yeux baissés, bouche plissée Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél On le prend sans raison, addictif comme la résine J'alimente mes réseaux, attentif quand ça résonne Le cerveau saccagé, perdu sans la 4G Je poste donc je suis, je te suis donc je sais Jrecommence à vivre quand j'ai fini ma batterie Jrecommence pas ma vie à la fin de la partie Retiens bien bientôt les téléphones seront greffés sur nos mains Tout est programmé comme le destin Cest pas elle qui me manque, cest ses textos On partage ce qu'on vit, est-c'qu'on vit pleinement ? Jinterdis les téléphones à mon enterrement J'suis pas face à mon pote mais face au dos dson portable On détruit lien social à coup de réseau social On sembrouille sur Snap, on discute sur Messenger On sretrouve sur Skype, on srejoint en Uber Youn'</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Olala, Shaz On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Tu mas déçu comme la neige qui tient pas, pas Je ferai tout pour rendre fier, papa On saime beaucoup, on se parle peu On fait beaucoup sans bou- Quand la weed sera légale, quest-ce quon dira aux dealers en prison ? Quand la vie est inégale, on refait nous-même la répartition On change pas les hommes on shabitue à eux, on peut pas arrêter dun coup la beuh Ils suivent la tendance ils sont pas dans mon camp, jvais les quitter ils vont pas me manquer Chacun ses défis, ses défauts, ses défunts, on est tous le mauvais rappeur de quelquun Tous les jours, je lis qula terre est foutue, tu la trouves jolie mais cest qu'une photo Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie You might also like Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Me donne pas damour si cest pour le reprendre, on ma déjà eu, on va pas my reprendre Je donne, je rends, jeu dangereux, je prends, je donne, je rends heureux Nos différences se ressentent, la même histoire quon récite On cherche le bouton reset, pour appuyer, on hésite Quand on srhabille, jme demande si cest la bonne, le ciel nest pas bleu mais la couleur est belle On a mis du temps pour que cela fonctionne, maintenant que ça fonctionne, on va prendre notre temps Les petites coupures pour la haute couture, en cas de coup dur, y aura pas de coupure Au pied du mur, je trouverai la serrure, ici, cest la hess mais cest pas la Syrie Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident</t>
+          <t>Olala, Shaz On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Tu mas déçu comme la neige qui tient pas, pas Je ferai tout pour rendre fier, papa On saime beaucoup, on se parle peu On fait beaucoup sans bou- Quand la weed sera légale, quest-ce quon dira aux dealers en prison ? Quand la vie est inégale, on refait nous-même la répartition On change pas les hommes on shabitue à eux, on peut pas arrêter dun coup la beuh Ils suivent la tendance ils sont pas dans mon camp, jvais les quitter ils vont pas me manquer Chacun ses défis, ses défauts, ses défunts, on est tous le mauvais rappeur de quelquun Tous les jours, je lis qula terre est foutue, tu la trouves jolie mais cest qu'une photo Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Me donne pas damour si cest pour le reprendre, on ma déjà eu, on va pas my reprendre Je donne, je rends, jeu dangereux, je prends, je donne, je rends heureux Nos différences se ressentent, la même histoire quon récite On cherche le bouton reset, pour appuyer, on hésite Quand on srhabille, jme demande si cest la bonne, le ciel nest pas bleu mais la couleur est belle On a mis du temps pour que cela fonctionne, maintenant que ça fonctionne, on va prendre notre temps Les petites coupures pour la haute couture, en cas de coup dur, y aura pas de coupure Au pied du mur, je trouverai la serrure, ici, cest la hess mais cest pas la Syrie Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Waseem à la prod Respecte le beatmaker, je n'pose pas si le beat m'écure Yoon on the Moon, ça fait Yoon on the Moon L'inspi, l'inspi, l'inspi Dans ma tête, c'est Bagdad, khey Y a que des problèmes, pas d'solutions Pendant qu'je traîne, l'daron pète les plombs Ouais, l'daron pète les plombs pendant qu'j'fais du son J'vais jamais percer, j'ai pas l'profil Et j'suis trop vrai pour faire du marketing Et tu m'regardes, t'es qui ? S'il te plaît, reste tranquille S'il te plaît, reste tranquille Moi, j'suis gentil, mais mon poto peut t'kill Ouais, mon poto peut t'kill Mon poto peut t'kill, ouais, mon poto peut t'kill breh, breh Mon poto peut t'kill, ouais, mon poto peut t'kill - Hé, dis-moi Younès, comment tu fais pour avoir de l'inspi comme ça ? C'est grave cool c'que tu fais mais comment tu fais ? T'écris comment tes textes ? Comment tu fais pour avoir de l'inspi ? - L'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça Ouais, l'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça What up, Moon?You might also like</t>
+          <t>Waseem à la prod Respecte le beatmaker, je n'pose pas si le beat m'écure Yoon on the Moon, ça fait Yoon on the Moon L'inspi, l'inspi, l'inspi Dans ma tête, c'est Bagdad, khey Y a que des problèmes, pas d'solutions Pendant qu'je traîne, l'daron pète les plombs Ouais, l'daron pète les plombs pendant qu'j'fais du son J'vais jamais percer, j'ai pas l'profil Et j'suis trop vrai pour faire du marketing Et tu m'regardes, t'es qui ? S'il te plaît, reste tranquille S'il te plaît, reste tranquille Moi, j'suis gentil, mais mon poto peut t'kill Ouais, mon poto peut t'kill Mon poto peut t'kill, ouais, mon poto peut t'kill breh, breh Mon poto peut t'kill, ouais, mon poto peut t'kill - Hé, dis-moi Younès, comment tu fais pour avoir de l'inspi comme ça ? C'est grave cool c'que tu fais mais comment tu fais ? T'écris comment tes textes ? Comment tu fais pour avoir de l'inspi ? - L'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça Ouais, l'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça What up, Moon?</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wooow Yoon on the Moon, ça fait Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Mes mots, mes mots, mes mots Yoon on the Moon, ça fait Yoon on the Moon Les rappeurs sont claqués, j'préfère écouter des instrus, niveau désastreux Ils sont aux pâquerettes, j'suis au niveau des astres Dans l'rap, j'suis l'intrus, t'as kiffé l'intro et c'était que l'entrée Juste après l'entracte, t'inquiète, tu vas manger C'est pas de l'afro trap, c'est du Yoon on the Moon Tu m'appelles, j'réponds ap, j'suis barré sur la lune Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon T'es la copie d'une copie d'une copie, t'es raté La tendance, tu la suis, tu la suis, tu la suis sans jamais l'attraper Oh, où est Juliette ? Je suis Roméo Mieux mieux, j'suis une aventure, un rodéo Ah j'ai rodé, gros, dans divers milieux sociaux Maison d'hiver, maison ghetto J'suis riche de mes khos, tellement riche de mes khos J'suis riche de mes khos, tellement riche de mes khos Et Yoon on the Moon aime les mots Il aime leur sens, il aime leur peau, leur naissance, leur tempo Depuis tit-pe, on fait équipe et si j'ai du biff C'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Depuis tit-pe, on fait équipe et si j'ai du biff Bah, c'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Les mots sont limités, la vie, elle, est illimitée Parfois, on manque de mots donc on parle avec les poings Parfois, on manque de humhum donc on parle avec les tchoins Haha, on la garde celle-là, ah les bâtards ! Mes mots, je vais pas les mâcher, je vais pas les gâcher Hé gros, tu peux bien te fâcher, je vais pas me cacher Mes mots, j'vais les assumer et, si il faut, j'vais les répéter Mes mots, j'vais les assumer et, si il faut, je vais m'excuser Mes mots, j'les note dans des mémos mais je garde en mémoire Que j'dois sincérité comme gage de qualité Mais surtout de santé pour ma mentalité Oui, pour l'intégrité de mon identité-té-té T'es fou, dans le micro, je vais pas vous mytho J'aime les mots, j'aime les lettres, c'est c'qui remplit mon être J'aime mon kho, j'aime mes kheys, c'est c'qui remplit mon âtre Mes mots m'ont mené au rap et c'morceau est mémorable Parfois, par lâcheté, je me mens à moi-même Je n'dis pas les mots donc je mens à ma belle L'inspi' est telle que je reprends mon tél' Pourtant il est tard mais je suis dans mon dél' Le sommeil m'appelle et un il bat de l'aile Le soleil m'appelle, j'me barre avec les kheys... on s'barre ! Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Et quand les mots me font défaut Je dis des mots que je regrette Il m'faut les mots qui me rachètent Mais parfois les mots sont obsolètes You might also like Yoon on the Moon, ça fait Yoon on the Moon Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Auteur prudent, auditeur averti Auteur prudent, auditeur averti Auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance</t>
+          <t>Wooow Yoon on the Moon, ça fait Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Mes mots, mes mots, mes mots Yoon on the Moon, ça fait Yoon on the Moon Les rappeurs sont claqués, j'préfère écouter des instrus, niveau désastreux Ils sont aux pâquerettes, j'suis au niveau des astres Dans l'rap, j'suis l'intrus, t'as kiffé l'intro et c'était que l'entrée Juste après l'entracte, t'inquiète, tu vas manger C'est pas de l'afro trap, c'est du Yoon on the Moon Tu m'appelles, j'réponds ap, j'suis barré sur la lune Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon T'es la copie d'une copie d'une copie, t'es raté La tendance, tu la suis, tu la suis, tu la suis sans jamais l'attraper Oh, où est Juliette ? Je suis Roméo Mieux mieux, j'suis une aventure, un rodéo Ah j'ai rodé, gros, dans divers milieux sociaux Maison d'hiver, maison ghetto J'suis riche de mes khos, tellement riche de mes khos J'suis riche de mes khos, tellement riche de mes khos Et Yoon on the Moon aime les mots Il aime leur sens, il aime leur peau, leur naissance, leur tempo Depuis tit-pe, on fait équipe et si j'ai du biff C'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Depuis tit-pe, on fait équipe et si j'ai du biff Bah, c'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Les mots sont limités, la vie, elle, est illimitée Parfois, on manque de mots donc on parle avec les poings Parfois, on manque de humhum donc on parle avec les tchoins Haha, on la garde celle-là, ah les bâtards ! Mes mots, je vais pas les mâcher, je vais pas les gâcher Hé gros, tu peux bien te fâcher, je vais pas me cacher Mes mots, j'vais les assumer et, si il faut, j'vais les répéter Mes mots, j'vais les assumer et, si il faut, je vais m'excuser Mes mots, j'les note dans des mémos mais je garde en mémoire Que j'dois sincérité comme gage de qualité Mais surtout de santé pour ma mentalité Oui, pour l'intégrité de mon identité-té-té T'es fou, dans le micro, je vais pas vous mytho J'aime les mots, j'aime les lettres, c'est c'qui remplit mon être J'aime mon kho, j'aime mes kheys, c'est c'qui remplit mon âtre Mes mots m'ont mené au rap et c'morceau est mémorable Parfois, par lâcheté, je me mens à moi-même Je n'dis pas les mots donc je mens à ma belle L'inspi' est telle que je reprends mon tél' Pourtant il est tard mais je suis dans mon dél' Le sommeil m'appelle et un il bat de l'aile Le soleil m'appelle, j'me barre avec les kheys... on s'barre ! Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Et quand les mots me font défaut Je dis des mots que je regrette Il m'faut les mots qui me rachètent Mais parfois les mots sont obsolètes Yoon on the Moon, ça fait Yoon on the Moon Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Auteur prudent, auditeur averti Auteur prudent, auditeur averti Auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yoon on the Moon J'manie lvers, langue de Molière, j'ai des rimes sous les molaires J'ai du son dans les artères et le rap me désaltère Je npousse pas beaucoup d'haltères, je n'pose pas genou à terre Il en faut peu pour être heureux, il en faut beaucoup pour me satisfaire Rimes en R, paire d'Nike Air, frère, y a R, ça galère On s'enfuit au bord de la mer car l'ennui, c'est le nerf de la guerre Une allumette, une forêt brûle, un mec s'immole, le monde sallume Un mec simmole, le monde s'allume On est conséquences et causes de causes et conséquences Tu causes, y a conséquences, texploses, y a conséquences J'expose tes manigances pendant qu'mes mans dansent Le monde, une immense danse, danse, danse ! J'ai perdu mon temps mais est-ce vraiment mon temps ? Jcrois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Fond d'la classe, tu connais tu connais, tu connais Fac, CP, abonné abonné, abonné J'fais du rap dans l'amphi, avec mots, je m'enfuis car la prof m'ennuie blablabla, blablabla J'suis pas un robot, une machine machine J'les vois comme robots et machines machines Taper en chur sur leur Mac leurs machins machins, hein Où sont passées nos valeurs, le partage, les sourires ? Mais où ? Mais où ? Les gens sont crâneurs, sont à l'heure, ont des têtes à mourir J'ai une vie à nourrir, des rêves à accomplir Gros, j'ai pas le temps de perdre mon temps C'est c'que j'ai d'plus précieux, va falloir que j't'apprécie You might also like J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps bien trop souvent Posé sur l'banc dans ma bre-cham, ma che-bran MP3 de ché-bran, t'écoutes sans cher-bron T'as pigé que j'suis bon, c'est pas du ciné non, non Mon temps, j'l'ai passé à l'rapper ouais, ouais Mon temps, j'l'ai passé à l'rapper ouais, ouais Pourtant j'suis toujours pas prêt car, car, car Yoon on the Moon aime les mots et Yoon on the Moon est réglo et Yoon on the Moon manque de courage Ma force, j'la puise dans mon entourage J'ai pas le prochain vers donc dommage À mon temps perdu, je rends hommage rest in peace Des mauvais choix m'ont conduit sur des chemins glissants Ça fait partie de moi, j'suis c'que j'ai fait de mon temps Ah, de mon temps, y avait pas tous ces écrans Notre réseau social, c'était l'moment présent J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Maman, j'suis pressé, mes rêves sont stressés, sé sé sé J'me sens oppressé, à bout de nerfs sont les geôliers Ils vont s'échapper et c'est pas bien joli Geôliers lassés, rêves prisonniers, ils vont tous s'échapper Gros, c'est réel, ça sort pas d'mon écran J'suis la plume de ma vie, kho, mon écrit J'trempe mon doigt dans les larmes, la sueur, le sang Puis l'range dans ma poche, mon écrin Suis-je c'que j'écris ou est-ce que j'écris c'que je suis, tu me suis ? Je t'aime, tu me fuis, c'est plus de mon temps Je t'aime, tu m'aimes, j'reste indifférent... hein, indifférent Yoon on the Moon, mon temps</t>
+          <t>Yoon on the Moon J'manie lvers, langue de Molière, j'ai des rimes sous les molaires J'ai du son dans les artères et le rap me désaltère Je npousse pas beaucoup d'haltères, je n'pose pas genou à terre Il en faut peu pour être heureux, il en faut beaucoup pour me satisfaire Rimes en R, paire d'Nike Air, frère, y a R, ça galère On s'enfuit au bord de la mer car l'ennui, c'est le nerf de la guerre Une allumette, une forêt brûle, un mec s'immole, le monde sallume Un mec simmole, le monde s'allume On est conséquences et causes de causes et conséquences Tu causes, y a conséquences, texploses, y a conséquences J'expose tes manigances pendant qu'mes mans dansent Le monde, une immense danse, danse, danse ! J'ai perdu mon temps mais est-ce vraiment mon temps ? Jcrois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Fond d'la classe, tu connais tu connais, tu connais Fac, CP, abonné abonné, abonné J'fais du rap dans l'amphi, avec mots, je m'enfuis car la prof m'ennuie blablabla, blablabla J'suis pas un robot, une machine machine J'les vois comme robots et machines machines Taper en chur sur leur Mac leurs machins machins, hein Où sont passées nos valeurs, le partage, les sourires ? Mais où ? Mais où ? Les gens sont crâneurs, sont à l'heure, ont des têtes à mourir J'ai une vie à nourrir, des rêves à accomplir Gros, j'ai pas le temps de perdre mon temps C'est c'que j'ai d'plus précieux, va falloir que j't'apprécie J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps bien trop souvent Posé sur l'banc dans ma bre-cham, ma che-bran MP3 de ché-bran, t'écoutes sans cher-bron T'as pigé que j'suis bon, c'est pas du ciné non, non Mon temps, j'l'ai passé à l'rapper ouais, ouais Mon temps, j'l'ai passé à l'rapper ouais, ouais Pourtant j'suis toujours pas prêt car, car, car Yoon on the Moon aime les mots et Yoon on the Moon est réglo et Yoon on the Moon manque de courage Ma force, j'la puise dans mon entourage J'ai pas le prochain vers donc dommage À mon temps perdu, je rends hommage rest in peace Des mauvais choix m'ont conduit sur des chemins glissants Ça fait partie de moi, j'suis c'que j'ai fait de mon temps Ah, de mon temps, y avait pas tous ces écrans Notre réseau social, c'était l'moment présent J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Maman, j'suis pressé, mes rêves sont stressés, sé sé sé J'me sens oppressé, à bout de nerfs sont les geôliers Ils vont s'échapper et c'est pas bien joli Geôliers lassés, rêves prisonniers, ils vont tous s'échapper Gros, c'est réel, ça sort pas d'mon écran J'suis la plume de ma vie, kho, mon écrit J'trempe mon doigt dans les larmes, la sueur, le sang Puis l'range dans ma poche, mon écrin Suis-je c'que j'écris ou est-ce que j'écris c'que je suis, tu me suis ? Je t'aime, tu me fuis, c'est plus de mon temps Je t'aime, tu m'aimes, j'reste indifférent... hein, indifférent Yoon on the Moon, mon temps</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Désabusé je suis Jsouris cest que dlironie Jvous regarde, je ris je ris je ris Jaune ! Je ris je ris je ris Rouge ! Est la rose de mon jardin Rose ! Est le poumon dcet enfant syrien La vraie vie cest pas un manga ! Si y a ggare-ba dégât y aura Dégage, conard Nous oblige pas à foutre en lair la paix quon essaye dinstaurer dans nos veau-cer Le respect se perds à la pelle on le sert ! La force du Lion Et la noblesse du Cerf Vous pouvez être des millions Tant que jai toujours mes frères ! Bande de bouffons ! On est tous dans la même de-mer, on vit tous dans la même demeure et on a tous le mal de mer Jme sens ni dans mon pays, ni sur ma planète Tes à quelques iencli daller bicrave ta plaquette Bah ouais ty penses de plus en plus en ce moment.. Cqui tretiens cest maman ! Lui faire du mal oh bah nan On ne veut pas finir au ballon ! Chez moi jsais pas cqui va pas Jai la haine haine dun apache Wesh, quest ce tu veux quon sattache ? Lamour est un étang Et Jai bu jai bu la tasse Les Rébus rébus magacent Alors parles sah Y a dilemme là On mdit dchoisir cé-fran ou pas Oran ou pas Moi jveux tout lplat ! Cest ça mon choix Tes triste ? Mouche-toi ! Jsuis seul jfais des doigts Si ce nest pas la haine qui mguide là Dis-moi donc qui cest ! Ce nest quune esquisse et Il est temps de mesquiver Pour lodyssée Ça va arriver ! 2 You might also likeYoon on the moon Yoon on the moon</t>
+          <t>Désabusé je suis Jsouris cest que dlironie Jvous regarde, je ris je ris je ris Jaune ! Je ris je ris je ris Rouge ! Est la rose de mon jardin Rose ! Est le poumon dcet enfant syrien La vraie vie cest pas un manga ! Si y a ggare-ba dégât y aura Dégage, conard Nous oblige pas à foutre en lair la paix quon essaye dinstaurer dans nos veau-cer Le respect se perds à la pelle on le sert ! La force du Lion Et la noblesse du Cerf Vous pouvez être des millions Tant que jai toujours mes frères ! Bande de bouffons ! On est tous dans la même de-mer, on vit tous dans la même demeure et on a tous le mal de mer Jme sens ni dans mon pays, ni sur ma planète Tes à quelques iencli daller bicrave ta plaquette Bah ouais ty penses de plus en plus en ce moment.. Cqui tretiens cest maman ! Lui faire du mal oh bah nan On ne veut pas finir au ballon ! Chez moi jsais pas cqui va pas Jai la haine haine dun apache Wesh, quest ce tu veux quon sattache ? Lamour est un étang Et Jai bu jai bu la tasse Les Rébus rébus magacent Alors parles sah Y a dilemme là On mdit dchoisir cé-fran ou pas Oran ou pas Moi jveux tout lplat ! Cest ça mon choix Tes triste ? Mouche-toi ! Jsuis seul jfais des doigts Si ce nest pas la haine qui mguide là Dis-moi donc qui cest ! Ce nest quune esquisse et Il est temps de mesquiver Pour lodyssée Ça va arriver ! 2 Yoon on the moon Yoon on the moon</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>- Ah, dans quels jolis draps - Oh, toi, tu vas grogner - Enfin, tu conviendras qu'assassiner toujours la chance passagère devient exagéré - Et bien, oui, jexagère - Ah ! - Mais pour le principe, et pour lexemple aussi, je trouve quil est bon dexagérer ainsi - Mais si tu laissais un peu ton âme mousquetaire, la fortune et la gloire - Et que faudrait-il faire ?! Quest-ce tu voudrais quje fasse ? Prendre un patron ? Ça mtente pas trop Un protecteur puissant ? Nan, gros, on fait pas ça Faire des dédicaces à ceux qui pèsent, devenir lami de ceux qui plaisent Tenir compagnie de ceux du biz, devenir amis juste pour le buzz ? Devenir un bouffon dans lespoir quenfin, ça fasse de leffet ? Avoir un ptit rond qui va mentourer que par intérêt ? Déjeuner avec des bobos, parler pour rien faire des photos Les genoux sales sous le bureau, le ventre usé par la rando Faire moins de rap que de promo, être terrorisé par les journaux Tout pour lClique de Momo ou le JDR de Toto Calculer, avoir peur, être blême Aimer mieux faire une visite quun poème Demander des faveurs, se faire présenter Moi jfais pas du pe-ra pour plaisanter You might also like Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Pas dplagiat pas dghostwriter, je sors que cque jécris Et je reste modeste dailleurs, je me dis, mon petit Sois satisfait des fleurs des fruits Même des feuilles, même des feuilles Si cest dans ton jardin à toi Que tu les cueilles, que tu les cueilles Le travail paye jsuis moins sur la paille Mon oseille, y a qu'moi qui le graille Et puis mes kheys avec moi qui bataillent Rilèsundayz Yoon the moon, Wagram Quest ce tu voudrais quje fasse ? Accepter quon mparle mal Quon mprenne de haut pour la maille ? Jfais pas du rap pour quon maime Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Puis, si il advient dun peu triompher par hasard Ne pas être obligé den rien rendre à César Vis à vis de soi-même, en garder le mérite Bref, dédaignant dêtre le lierre parasite Lors même quon nest pas le chêne ou le tilleul Ne pas monter bien haut peut être Mais tout seul</t>
+          <t>- Ah, dans quels jolis draps - Oh, toi, tu vas grogner - Enfin, tu conviendras qu'assassiner toujours la chance passagère devient exagéré - Et bien, oui, jexagère - Ah ! - Mais pour le principe, et pour lexemple aussi, je trouve quil est bon dexagérer ainsi - Mais si tu laissais un peu ton âme mousquetaire, la fortune et la gloire - Et que faudrait-il faire ?! Quest-ce tu voudrais quje fasse ? Prendre un patron ? Ça mtente pas trop Un protecteur puissant ? Nan, gros, on fait pas ça Faire des dédicaces à ceux qui pèsent, devenir lami de ceux qui plaisent Tenir compagnie de ceux du biz, devenir amis juste pour le buzz ? Devenir un bouffon dans lespoir quenfin, ça fasse de leffet ? Avoir un ptit rond qui va mentourer que par intérêt ? Déjeuner avec des bobos, parler pour rien faire des photos Les genoux sales sous le bureau, le ventre usé par la rando Faire moins de rap que de promo, être terrorisé par les journaux Tout pour lClique de Momo ou le JDR de Toto Calculer, avoir peur, être blême Aimer mieux faire une visite quun poème Demander des faveurs, se faire présenter Moi jfais pas du pe-ra pour plaisanter Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Pas dplagiat pas dghostwriter, je sors que cque jécris Et je reste modeste dailleurs, je me dis, mon petit Sois satisfait des fleurs des fruits Même des feuilles, même des feuilles Si cest dans ton jardin à toi Que tu les cueilles, que tu les cueilles Le travail paye jsuis moins sur la paille Mon oseille, y a qu'moi qui le graille Et puis mes kheys avec moi qui bataillent Rilèsundayz Yoon the moon, Wagram Quest ce tu voudrais quje fasse ? Accepter quon mparle mal Quon mprenne de haut pour la maille ? Jfais pas du rap pour quon maime Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Puis, si il advient dun peu triompher par hasard Ne pas être obligé den rien rendre à César Vis à vis de soi-même, en garder le mérite Bref, dédaignant dêtre le lierre parasite Lors même quon nest pas le chêne ou le tilleul Ne pas monter bien haut peut être Mais tout seul</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Body count keep it on the low Dont think about it you dont wanna know Imma go where you wanna go Shawty fine make em go wooooh Boys dont cry what they say Nobody I can say Got me feeling this way yeah yeah I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Regarde la money, les embrouilles, je taime Une balade, ton body, ten va pas, je saigne Jai de quoi tfaire kiffer, te sortir dla cité Jaurais beau toublier mais cest toi que jaime Love those electric vibes De retour ce soir ma lova Love your eclectic style Je n'cherche quà taimer comme Sosa You might also like I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Tes ma numero uno Jai beau aller voir ailleurs, cest toi qui fait lmeilleur boulot On sembrouille exprès car on aime faire la paix Jai vu de toi quun extrait mais direct ça ma plu Direct ça ma touché, direct ça ma eu Jte quitte bien vite, jte retrouve plus tôt Jsuis amnésique, jpeux tcroiser de nouveau Tes belle à mes yeux qu'importe leurs avis Tu s'ras numéro 2 quand tu port'ras ma fille I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine</t>
+          <t>Body count keep it on the low Dont think about it you dont wanna know Imma go where you wanna go Shawty fine make em go wooooh Boys dont cry what they say Nobody I can say Got me feeling this way yeah yeah I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Regarde la money, les embrouilles, je taime Une balade, ton body, ten va pas, je saigne Jai de quoi tfaire kiffer, te sortir dla cité Jaurais beau toublier mais cest toi que jaime Love those electric vibes De retour ce soir ma lova Love your eclectic style Je n'cherche quà taimer comme Sosa I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Tes ma numero uno Jai beau aller voir ailleurs, cest toi qui fait lmeilleur boulot On sembrouille exprès car on aime faire la paix Jai vu de toi quun extrait mais direct ça ma plu Direct ça ma touché, direct ça ma eu Jte quitte bien vite, jte retrouve plus tôt Jsuis amnésique, jpeux tcroiser de nouveau Tes belle à mes yeux qu'importe leurs avis Tu s'ras numéro 2 quand tu port'ras ma fille I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hein Terrence à la prod Yoon on the Moon Paris la nuit Paris, Paris, Paris Paris, Paris, Paris C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées, oh C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées bah non Mais ce jeune ange assoupi sur bouche d'aération pour se réchauffer et oui Mais oui, tu sais, mais oui, tu sais Ces grilles au plancher que, nous, on préfère éviter On s'rend compte d'leur valeur quand on les quitte, donc J'prends soin d'mes frères, j'prends soin d'mon équipe, honte Toi qui préfère le liquide à l'éthique, hmm Dans l'rap, j'ai un profil athlétique, ouf ouf Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit Paris, Paris, Paris, Paris Paris, Paris, Paris, Paris Hein, Paris You might also like Qu'des gens seuls sur Paname Paname Pas un bruit dans ma rame tch, tch J'm'assoie bonjour madame bonjour, bonjour Pas d'réponse, j'm'y prends mal Bonjour madame, j'ai dit bonjour madame Blase sur Paname, vraiment blase sur Paname L'innocence de l'enfant, j'aime hein J'me balade dans Paris même hein J'apprécie les Parisiennes hein Toutes ces histoires qui, au final, n'en sont qu'une hein Tous ensemble, c'est comme ça qu'on comble nos lacunes hein Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit, hein Tu connais ou pas le bus de nuit, est-ce que tu l'connais ? Le N02, le N03, le N04, hein ? Cet ange assoupi sur bouche d'aération pour se réchauffer C'qui m'a choqué, c'est qu'on finisse par s'y habituer J'veux pas m'habituer à voir ces jeunes tituber Pas pris de photo, gros, comme dans Safari C'est gravé dans ma tête, kho, à jamais écrit À Paris ou au tieks, oh, la tête est mée-cra Yoon on the Moon</t>
+          <t>Hein Terrence à la prod Yoon on the Moon Paris la nuit Paris, Paris, Paris Paris, Paris, Paris C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées, oh C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées bah non Mais ce jeune ange assoupi sur bouche d'aération pour se réchauffer et oui Mais oui, tu sais, mais oui, tu sais Ces grilles au plancher que, nous, on préfère éviter On s'rend compte d'leur valeur quand on les quitte, donc J'prends soin d'mes frères, j'prends soin d'mon équipe, honte Toi qui préfère le liquide à l'éthique, hmm Dans l'rap, j'ai un profil athlétique, ouf ouf Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit Paris, Paris, Paris, Paris Paris, Paris, Paris, Paris Hein, Paris Qu'des gens seuls sur Paname Paname Pas un bruit dans ma rame tch, tch J'm'assoie bonjour madame bonjour, bonjour Pas d'réponse, j'm'y prends mal Bonjour madame, j'ai dit bonjour madame Blase sur Paname, vraiment blase sur Paname L'innocence de l'enfant, j'aime hein J'me balade dans Paris même hein J'apprécie les Parisiennes hein Toutes ces histoires qui, au final, n'en sont qu'une hein Tous ensemble, c'est comme ça qu'on comble nos lacunes hein Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit, hein Tu connais ou pas le bus de nuit, est-ce que tu l'connais ? Le N02, le N03, le N04, hein ? Cet ange assoupi sur bouche d'aération pour se réchauffer C'qui m'a choqué, c'est qu'on finisse par s'y habituer J'veux pas m'habituer à voir ces jeunes tituber Pas pris de photo, gros, comme dans Safari C'est gravé dans ma tête, kho, à jamais écrit À Paris ou au tieks, oh, la tête est mée-cra Yoon on the Moon</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Ouais, frérot Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais j'me barre à Marseille ciao Assez d'la doudoune, j'veux sortir le marcel Ma copine m'harcèle, j'la prends pour une martienne Jusqu'à c'que les rôles s'inversent Qu'elle pleure comme l'averse ouin, ouin Qu'elle décide de remettre sa veste En vrai, c'est même pas ma hess En vrai, c'est même pas ma hess J'aime ton rire et ta bonne humeur Ton sourire, tes fesses dans c'tailleur D'ailleurs, j't'ai vue danser t'à l'heure T'as du talent sur ces hauts talons T'es ma jument, j'suis ton étalon J'ai saisi tes intentions, ton désir de séduction Mais j'tombe dedans comme un con Ouais, j'tombe dedans comme un pion Au fait, faut qu'j'arrête ce boulot bah ouais À l'école, j'foutais l'dawa, comment être réglo ? J'aime pas la CPE, j'aime toujours pas l'dirlo Il me regarde de haut, veut pas me serrer la pince Il m'prend pour un idiot, attends que le temps passe, j'trace... You might also like Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais je n'pense qu'à rapper Mon orientation, gros, je crois que j'ai raté Je n'fais qu'déraper, courir comme dératé J'pense à tous mes rates-pi ayant le doigt levé J'pense à Rilès ayant déjà tout niqué Motherfuck, motherfuck, ça m'remplit de fierté Motherfuck, motherfuck, ça m'remplit de fierté J'suis en partiels mais j'me barre en concert Rejoindre ma mif, mes frères, mes compères 160 sur l'compteur, on dépasse ton père Mes frères boivent la liqueur mais c'est pas du Dom Pér' non Non, c'est pas du Dom Pér' Mais de l'alcool de merde sur un parking de merde ouais, hein Ouais, de l'alcool de merde sur un parking de merde, à la tienne Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Yoon on the Moon, Terrence à la prod Respecte le beatmaker car tu le sais, car tu le sais Je n'pose pas si le beat m'écure</t>
+          <t>Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Ouais, frérot Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais j'me barre à Marseille ciao Assez d'la doudoune, j'veux sortir le marcel Ma copine m'harcèle, j'la prends pour une martienne Jusqu'à c'que les rôles s'inversent Qu'elle pleure comme l'averse ouin, ouin Qu'elle décide de remettre sa veste En vrai, c'est même pas ma hess En vrai, c'est même pas ma hess J'aime ton rire et ta bonne humeur Ton sourire, tes fesses dans c'tailleur D'ailleurs, j't'ai vue danser t'à l'heure T'as du talent sur ces hauts talons T'es ma jument, j'suis ton étalon J'ai saisi tes intentions, ton désir de séduction Mais j'tombe dedans comme un con Ouais, j'tombe dedans comme un pion Au fait, faut qu'j'arrête ce boulot bah ouais À l'école, j'foutais l'dawa, comment être réglo ? J'aime pas la CPE, j'aime toujours pas l'dirlo Il me regarde de haut, veut pas me serrer la pince Il m'prend pour un idiot, attends que le temps passe, j'trace... Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais je n'pense qu'à rapper Mon orientation, gros, je crois que j'ai raté Je n'fais qu'déraper, courir comme dératé J'pense à tous mes rates-pi ayant le doigt levé J'pense à Rilès ayant déjà tout niqué Motherfuck, motherfuck, ça m'remplit de fierté Motherfuck, motherfuck, ça m'remplit de fierté J'suis en partiels mais j'me barre en concert Rejoindre ma mif, mes frères, mes compères 160 sur l'compteur, on dépasse ton père Mes frères boivent la liqueur mais c'est pas du Dom Pér' non Non, c'est pas du Dom Pér' Mais de l'alcool de merde sur un parking de merde ouais, hein Ouais, de l'alcool de merde sur un parking de merde, à la tienne Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Yoon on the Moon, Terrence à la prod Respecte le beatmaker car tu le sais, car tu le sais Je n'pose pas si le beat m'écure</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Que des chefs-d'uvre à la Tarantino J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Fuck l'industrie, fuck la radio, fuck la télé Faut que j'sois plus speed charbonner comme un intello Que des chefs-d'uvre à la Tarantino Pour le moment, on ne fait que trottiner Le jogging est jdid, la démarche assurée Faire du liquide, mettre bien la surette Principes s'arrêtent quand l'intérêt grandit Facile d'être honnête quand ça change pas ta vie Voiture banalisée et le flic me mate Il me fait chier comme trafic le matin Rilès a du biff donc c'est lui qui paie On faisait des clips sans être équipés Chacun son rythme comme sortie du ciné Chacun son rythme pour trouver dulcinée Si jai pas percé, cest que j'le mérite pas Jvais pas pleurer sur les résultats C'est beau l'amour quand ça dure woo Solide comme une ossature ouais J'ai quitté la Terre pour la Lune ciao Jai quitté la Lune pour Saturne You might also like L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore Elle a un boule à faire un accident À ses faveurs j'aimerais accéder J'suis excellent dans mes excès Pardonne-moi si je t'ai vexée Ils font des selfies, cherchent leur meilleur profil Ils cherchent l'amour comme le meilleur profit Adopte un mec sur Tinder Choisis-le comme un Kinder Rapide et efficace comme la 14 T'es lent et tu te la pètes comme un carrosse Ils jurent sur le Coran, finissent pas une BD, merde J'écris des textes et puis, toi, tu danses Poto, on est causes et conséquences J'déchaîne mes vers qui étaient enchaînés Ce que j'peux pas dire, bah, je vais le rapper Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le... vive le rap ! Vive le... vive le rap ! Alors vive le... vive le rap ! Vive le... vive le rap !</t>
+          <t>J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Que des chefs-d'uvre à la Tarantino J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Fuck l'industrie, fuck la radio, fuck la télé Faut que j'sois plus speed charbonner comme un intello Que des chefs-d'uvre à la Tarantino Pour le moment, on ne fait que trottiner Le jogging est jdid, la démarche assurée Faire du liquide, mettre bien la surette Principes s'arrêtent quand l'intérêt grandit Facile d'être honnête quand ça change pas ta vie Voiture banalisée et le flic me mate Il me fait chier comme trafic le matin Rilès a du biff donc c'est lui qui paie On faisait des clips sans être équipés Chacun son rythme comme sortie du ciné Chacun son rythme pour trouver dulcinée Si jai pas percé, cest que j'le mérite pas Jvais pas pleurer sur les résultats C'est beau l'amour quand ça dure woo Solide comme une ossature ouais J'ai quitté la Terre pour la Lune ciao Jai quitté la Lune pour Saturne L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore Elle a un boule à faire un accident À ses faveurs j'aimerais accéder J'suis excellent dans mes excès Pardonne-moi si je t'ai vexée Ils font des selfies, cherchent leur meilleur profil Ils cherchent l'amour comme le meilleur profit Adopte un mec sur Tinder Choisis-le comme un Kinder Rapide et efficace comme la 14 T'es lent et tu te la pètes comme un carrosse Ils jurent sur le Coran, finissent pas une BD, merde J'écris des textes et puis, toi, tu danses Poto, on est causes et conséquences J'déchaîne mes vers qui étaient enchaînés Ce que j'peux pas dire, bah, je vais le rapper Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le... vive le rap ! Vive le... vive le rap ! Alors vive le... vive le rap ! Vive le... vive le rap !</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Lucas est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Tu veux savoir cest quoi les bails ? Jsuis entre deux mondes et jai trop la dalle Elle est sur la ligne, jai pas poussé la balle, le repas est prêt, jai pas posé la table J'viens dSeine-Maritime et personne marrêtera, d'la salle du coin à la Kindarena Jreçois pas dprod donc j'vais les chercher, les beatmakers, gros, je vais les faire chier Jfaisais de la musique dans mon coin et y avait des gens qui smoquaient Ils seront jamais dans mon camp mais maintenant, cest mes copains Kinkinkin, trop des barres, tiens, tiens, tiens, jprends un vélo Uber Facture, acteur, la vie drappeur, jvois plus ma mif, quelle vie dbâtard Baskets toutes neuves, vieux manteau Moi, jfais lson, toi, les commentaires Retournée dans la lulu, jvais pas mendier sur Ulule Jsuis à Paris comme au boulot, à Rouen comme à la maison chez moi Embrouille entre potos, jsuis du côté de la raison You might also like Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Carlo est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Je suis pas riche, jai un peu plus de maille, si jfais pas gaffe, je retombe sur la paille Jfais plus lservice, jfais plus la caisse, dix euros dlheure, cest plus la peine Cent pompes par jour comme Saitama, il tfait la cour comme sil taimait Lactivité entraîne lactivité, inspire-toi mais faut pas imiter Les journées sont longues, les nuits sont courtes, les projets sont épicés Plein les poches, Médicament, le son est déguisé Ça sent la percée, oui, je laperçois et moi, perso, je ne suce personne Jrappe ce que je vis, jfais ce que je veux, jrappe dans lTGV, tu mas déjà vu Studio, photos, interviews, contrat, stylo, intérêts Jtire mon épingle du jeu, jmène la danse comme le DJ Nabil Anis, rue Mouffetard, chicha ethay, jrentre tard Jmontre peu, je fais beaucoup, dplus en plus fort comme Goku Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Leone est au courant Il est pas là, il est retard hahaha Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning</t>
+          <t>Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Lucas est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Tu veux savoir cest quoi les bails ? Jsuis entre deux mondes et jai trop la dalle Elle est sur la ligne, jai pas poussé la balle, le repas est prêt, jai pas posé la table J'viens dSeine-Maritime et personne marrêtera, d'la salle du coin à la Kindarena Jreçois pas dprod donc j'vais les chercher, les beatmakers, gros, je vais les faire chier Jfaisais de la musique dans mon coin et y avait des gens qui smoquaient Ils seront jamais dans mon camp mais maintenant, cest mes copains Kinkinkin, trop des barres, tiens, tiens, tiens, jprends un vélo Uber Facture, acteur, la vie drappeur, jvois plus ma mif, quelle vie dbâtard Baskets toutes neuves, vieux manteau Moi, jfais lson, toi, les commentaires Retournée dans la lulu, jvais pas mendier sur Ulule Jsuis à Paris comme au boulot, à Rouen comme à la maison chez moi Embrouille entre potos, jsuis du côté de la raison Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Carlo est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Je suis pas riche, jai un peu plus de maille, si jfais pas gaffe, je retombe sur la paille Jfais plus lservice, jfais plus la caisse, dix euros dlheure, cest plus la peine Cent pompes par jour comme Saitama, il tfait la cour comme sil taimait Lactivité entraîne lactivité, inspire-toi mais faut pas imiter Les journées sont longues, les nuits sont courtes, les projets sont épicés Plein les poches, Médicament, le son est déguisé Ça sent la percée, oui, je laperçois et moi, perso, je ne suce personne Jrappe ce que je vis, jfais ce que je veux, jrappe dans lTGV, tu mas déjà vu Studio, photos, interviews, contrat, stylo, intérêts Jtire mon épingle du jeu, jmène la danse comme le DJ Nabil Anis, rue Mouffetard, chicha ethay, jrentre tard Jmontre peu, je fais beaucoup, dplus en plus fort comme Goku Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Leone est au courant Il est pas là, il est retard hahaha Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart J'ai grandi parmi des blancs Il y a peu d'arabe dans ma classe Au début je m'en bas la race Peu à peu ça prend de la place On me regarde différemment On me pousse à jouer un rôle, inconsciemment Adolescent s'construit dans le regard des gens Et on me regarde comme un méchant Ok, je vais leur en donner J'ai passé moitié de ma vie à jouer un rôle, l'autre moitié à l'abandonner J'vois qu'ils ont peur et je compte pas les rassurer Non, j'compte même à m'en amuser Quitte à risquer d'oublier Qui je suis Plus je grandi, plus je sens mon âme s'user Mes amis c'est ceux qui m'parle vraiment Moi pas à l'arabe et ça se voit carrément Alors je fais l'tri, je choisi Moi c'est les gens que j'étudie Un regard dans son regard, on s'est tout dit J'me souviens j'avais honte auprès des miens L'impression d'être trop bien quand eux galère Aujourd'hui je me rencontre que c'était rien qu'une zone pavillonnaire You might also like Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Plus tard j'ai fait la paix avec moi même J'ai compris, j'suis qui j'suis Personne d'autre vie ma vie Et ça c'est précieux Ça s'apprécie, ouais C'est chacun sa mission Rebeu des pavillons et puis j'ai déménagé Sur paname, porte de cli, Port-Royal J'voulais faire comme mon daron Donc j'suis venu sans un rond J'ai charbonné sans arrêt Et j'connais des gens d'la rue J'en connais qui mange dans le marais Parfois c'est les même d'ailleurs C'est ça qui me fait bien marrer Quand on surprend l'adversaire, feinte de corp, passement de jambe Transversale, changement de coté Ils sont tout déboussolé quant ils voient Younes sans jogging Parler mieux que Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Donc j'me suis pris pour un voyou avec ma gueule d'arabe, ouais J'ai volé, j'ai vendu, j'ai trainé en bande car c'est ce que font les gueules d'arabe Fallait bien que j'm'y essaie C'était mon rôle, c'était dans tous leurs regards J'me suis battu, j'aimais même pas la bagarre À part en dernier recours J'arrive en retard en cours Elle m'parle comme ci j'étais le gérant du four Tu m'as enfermé dans un rôle, mais j'ai trouvé les clefs Sur leur télé ça pue ça mère, j'suis venu crever l'écran Tu peux être ce que tu veux, sans renier qui tu es Devenir sois même c'est long ma gueule C'est pour ça qu'on vit longtemps Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille</t>
+          <t>Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart J'ai grandi parmi des blancs Il y a peu d'arabe dans ma classe Au début je m'en bas la race Peu à peu ça prend de la place On me regarde différemment On me pousse à jouer un rôle, inconsciemment Adolescent s'construit dans le regard des gens Et on me regarde comme un méchant Ok, je vais leur en donner J'ai passé moitié de ma vie à jouer un rôle, l'autre moitié à l'abandonner J'vois qu'ils ont peur et je compte pas les rassurer Non, j'compte même à m'en amuser Quitte à risquer d'oublier Qui je suis Plus je grandi, plus je sens mon âme s'user Mes amis c'est ceux qui m'parle vraiment Moi pas à l'arabe et ça se voit carrément Alors je fais l'tri, je choisi Moi c'est les gens que j'étudie Un regard dans son regard, on s'est tout dit J'me souviens j'avais honte auprès des miens L'impression d'être trop bien quand eux galère Aujourd'hui je me rencontre que c'était rien qu'une zone pavillonnaire Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Plus tard j'ai fait la paix avec moi même J'ai compris, j'suis qui j'suis Personne d'autre vie ma vie Et ça c'est précieux Ça s'apprécie, ouais C'est chacun sa mission Rebeu des pavillons et puis j'ai déménagé Sur paname, porte de cli, Port-Royal J'voulais faire comme mon daron Donc j'suis venu sans un rond J'ai charbonné sans arrêt Et j'connais des gens d'la rue J'en connais qui mange dans le marais Parfois c'est les même d'ailleurs C'est ça qui me fait bien marrer Quand on surprend l'adversaire, feinte de corp, passement de jambe Transversale, changement de coté Ils sont tout déboussolé quant ils voient Younes sans jogging Parler mieux que Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Donc j'me suis pris pour un voyou avec ma gueule d'arabe, ouais J'ai volé, j'ai vendu, j'ai trainé en bande car c'est ce que font les gueules d'arabe Fallait bien que j'm'y essaie C'était mon rôle, c'était dans tous leurs regards J'me suis battu, j'aimais même pas la bagarre À part en dernier recours J'arrive en retard en cours Elle m'parle comme ci j'étais le gérant du four Tu m'as enfermé dans un rôle, mais j'ai trouvé les clefs Sur leur télé ça pue ça mère, j'suis venu crever l'écran Tu peux être ce que tu veux, sans renier qui tu es Devenir sois même c'est long ma gueule C'est pour ça qu'on vit longtemps Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'suis dans mes dièses, j'apporte la dose On sait qui dort, on sait qui mène la danse J'rallume mon teh, du bon matos Négro, t'étais pas là quand j'étais broke J'suis dans l'airport, j'te tolère pas Ma grand-mère pense que j'suis en lère-ga Niquez vos mères tous ceux qui commèrent sale J'suis en colère, gars, tu me connais pas Ta meuf est douce, elle veut droit dans sa fouf' J'vois tous mes p'tits qui jump dans la fosse J'suis dans ma trix-ma, pardon, ma puce J'me sens comme Banner, j'me sens comme Bruce, hey, hey, hey, hey J'suis dans le Uber, ils sont dans l'bus J'm'en occupe plus tard, gros, là, j'suis busy J'veux faire du bif et là, j'en veux plus Chose promise, chose due, j''prends l'cro-mi, j'pose dur Beaucoup d'thos-my dans c'truc codé', taga, j'pense plus J'suis dans mon bendo, j'attends la paye J'dois faire des euros, des dollars, hey Ils font que du copiercoller J'suis pas dans le bon pays, slay, slay J'ai mis la nitro, t'as calé Vrai négro martiniquais, sénégalais, hey Oui, tout est beau, tout est carré, hey Toi, t'étais pas prêt, à c'qu'il paraît Viens pas ici pour comparer T'inquiète pas, le succès, j'vais m'l'accaparer J'vise que le top 1, comprendra qui pourra J'oublie pas les fils de putain qu'on parlé, slay You might also like J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine, hein J'essaie de bien m'entourer, mettre de côté les J'vois la réussite comme un Grec j'sais qu'à la fin, ils voudront tous un bout Que des jaloux, des hypocrites, hein, zerma, ça débite mais gratte des oints-j Moi, fils d'immigré, toi, fils de tain-p', négro, y a du boulot, j'retrousse mes manches Pas d'ces négros à franges, j'côtoie des négros étranges D'ici, y a l'étranger, mais ici, y a les tranchées, le sang tout Négro, pas d'tête-à-tête, que des métaux Tu t'couches tard, les condés te lèvent tôt T'es venu trop tard, j'suis parti trop tôt Fais des doha et je baise tout au micro Nitro, trop de-spi, c'qui nous ralenti, c'est l'shit et la beuh Pas d'mytho auprès d'nous, pas d'p'tits cons qui pensent la rue On a à peu près tout tout tout tout vu, ils diront qu'ils ont tout tout tout tout fait Change de flow, t'as reconnu l'équipe hein, CE45, c'est chaud, ça brille, hein J'ai commencé l'rap à treize piges, à peu près, j'donnais d'jà des vertiges Des phases qui causent des litiges, rien à foutre j'suis qu'un môme un peu révolté Un môme un peu révolté qui s'envoie les flics à force de ballon au pied Un môme un peu révolté qui s'envoie les flics à force de parler de hockey ? J'fais que progresser, allez suivre, écoutez, j'vais régresser Sont morts dans le me-fil, ont le trou d'balle ouvert comme un muffin J'y rentre mon cross et ma gova, j'y rentre mon cross et mon gova Han, ok J'suis pas venu gratter, j'suis venu prendre des sous J'y suis p't-être y aller fort, j'reviens prendre beaucoup J'y vais car j'connais l'domaine, devant y a l'artiste, derrière les Sangoku Jaloux enviant quantité, normal, l'artiste est d'qualité T'as pas idée, c'est inné, moi-même, j'suis pas conscient en vérité J'suis partout sauf dans les partouzes, j'mets mes mains partout comme un cleptomane Et j't'avoue que si j'trouve la recette, j'vais pas réfléchir dix ans, je prendrai tout Nécessité nous pousse dans l'délit, malheureusement, trop souvent cause des dégâts Nécessité nous pousse dans l'délit, j'suis bon comme Messi, ils veulent faire la Evra Et pour en arriver là, il a fallu uvrer, pourtant, j'suis pas arrivé De Paris à Evreux, la ppe-fra m'a sommé, j'devais déjà atteindre le sommet Ralenti par quelques fils de pute, j'ai pa-pa-pa-pa-paniqué Ralenti par quelques fils de pute, j'ai dû m'é-m'é-m'é-m'équiper Et j'suis revenu avec des sons lourds Et des sons lourds qui sortent du four J'ai dû taffer, j'ai dû taffer J'ai dû taffer, j'vais quitter la zone J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine sentiments entiers sont coupés en deux Y a un plan, on est plein On s'aime, on se haït, on s'lave, on se salit mais on gratte mieux à deux Du plaisir au désir, t'es tenté d'nous trahir Avant ça, Judas La chance est partie, j'sais pas si elle va revenir Là, j'suis en D1, j'khalass le baveux Le dada, le dada, le taga, la beuh-beuh, du pollen dans l' Dans la merde, on s'balade, ouais, t'es où ? T'es pas là On attend des parloirs pour caler l'écho J'rentre dans la mêlée sous et , ça fait ra, ra, ra Les nous , tu tires plus à Phuket Nous, sur un coup d'tête, on monte au braco 32, j'suis à Alicante, gros traficante rentre dans la chambre, qui fait la danse du ventre La street me manque mais j'ai pas envie de rentrer Rosé, caliente, passement de jambes Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Passé glacé, pas assez brassé Je souris, j'suis fâché, j'fais l'tour du pâté Par le million, appâté, solide comme Guette mon gang, que des battants, pour faire la guerre, on est partants Les anciens, ils m'ont tout dit, moi, si j'te l'dis, on a tout fait Cur de ice, la suite au frais Je sors de la violence si j'rentre en prison Viens pas m'casser les couilles, poilu comme un bison Refait comme les seins d'ta mère si j'touche un million J'm'arrête, j'redémarre, starter, stop dans leur fion J'ai pas l'temps pour leurs conneries, j'lis les commentaires, ils m'font gole-ri sur Paris, j'ai autant d'likes qu'il y a d'grains dans mon bol de riz Hé, poussez-vous, ouais, nique ta mère et c'est tout Hein, viens pas pompez mon flow, han, la rue, la vraie, c'est nous Les BACqueux ont les ch'veux longs comme Tito, ouais Non, bats les couilles, khey, d'assumer les coups R8 V10 posé sur les roues, khey, dose Je casse la baraque, tu t'es cassé l'cul dans mon ADN, on retrouve la rue J'suis en mode éco', j'suis à gyro chargé, j'te vois plus disparu Je compte les paires, je compte les gains, ça tourne en rond comme une grosse ampèrée Si j't'ai choqué, je peux rien faire, c'est pas fait pour toi, retourne faire tes manif' On voit pas un mec sous la pluie mais on voit un mec qui a pris d'la poudre T'es bouché comme ta tuyauterie, j'rappe, j't'éblouis, appelle-moi la foudre Tu me vois, tu bouges plus comme une photo, j'suis un DZ, couleur choco Je mange des putain de resto comme dans la vie de tous les jours, hé ouais, mon gros J'rappe les images plus que la télé, khey, dose J'dis la vérité, j'suis pas iTélé, hein, khey, dose Un coup de canon pour les éclairer, han, khey, dose T'as laissé l'pilon pour les voies ferrées, khey, dose Putain, c'est chaud pour moi, ma belle, si t'as des flammes dans les yeux Ah ouais, j'assume pas, mon cur est bre-som, le tien est mieux J'suis perdu dans mes choix donc c'est Uber qui va dire adieu J'ai pas dormi dans la soie, j'vaux plus cher, j'suis capricieux J'me fais pas recale parce que j'vais pas en boîte On n'est pas potes, t'es là que pour les snaps Superficiels comme les hommes et les sapes Artificiel comme le taf à la fac Si le monde va vite, c'est qu'on est tous pressés Si tu paniques, c'est que t'es trop stressé J'prends du recul pour aller de l'avant Petit, recule, tu pourrais te faire laver Quand j'pars en couilles, mes gars me rassurent Quand j'pars à ied-p, ils me ramènent en voiture On a fait du mal, on va pas s'en vanter On a du vécu alors pourquoi s'inventer ? T'effaces l'historique, t'effaces pas tes péchés Toujours en retard, j'fais que me dépêcher Tu fais le fou car t'espères qu'on sépare On sait tout mais tu crois qu'on sait pas J'lui envoie des mots doux même si c'est démodé J'évite les on-dit et les soirées mondaines J'bois pas d'alcool, j'fume pas de beuh Ça, c'est ma vie, toi, fais comme tu veux J'suis sur tes côtes, c'est que j'suis à tes côtés On peut répéter, répéter, répéter Mais on entend que ce qu'on peut écouter Voilà pourquoi les profs sont dégoûtés Pavé dans la mare ou goutte d'eau dans la mer T'apprécies le caviar quand t'as goûté la merde On est causes de conséquences Tout est écrit, même les coïncidences J'me laisse aller comme descente en vélo Tenue de soirée, j'mets jogging en velours J'aime pas les keufs, négro, c'est culturel Mais j'fais effort comme intellectuel On est différents mais on se respecte En cas de différend, y a pas de spectacle J'vois pas mes potes une semaine, ils me manquent Aujourd'hui du foot, demain de la pétanque J'rêvais de voler et, maintenant, j'ai le vertige J'ai le droit de voler quand ils refusent le partage J'suis un grand rappeur mais j'suis le seul à le savoir Partage ton plat et il change de saveur J'ai qu'une parole mais plusieurs langages J'ai qu'une daronne et elle prend de l'âge Milliers de rêves et parfois j'paresse Milliers de kheys et parfois j'parais seul Depuis Rilès, gros, j'ai plein de notifs Des gens me parlent mais j'connais le motif On devient séduisant quand on fait ce qui nous plait Tu gagnes ou t'apprends, tu peux jamais te louper Pourquoi remettre à demain ce qu'on peut faire tout de suite ? Pourquoi remettre à quelqu'un ce qu'on peut faire tout seul ? L'ai-je échappé belle ou s'est-elle échappée ? On se faisait courser, mon pote s'est fait chopé Dans ma te-tê, j'ai des questions qui fusent Comme pour un feu d'artifice La médiocrité je refuse Comme un père avec son fils J'veux reconnaissance, moi, j'veux pas être connu Y a une différence, est-ce que tu la connais ? On te prend pas au sérieux quand t'es un rappeur Moi, j'suis chercheur, c'est mon premier rapport Yoon on the Moon, hein C'est du pe-ra, pas un sketch et j'rentre dans le Cercle comme un switch, frère, breh !</t>
+          <t>J'suis dans mes dièses, j'apporte la dose On sait qui dort, on sait qui mène la danse J'rallume mon teh, du bon matos Négro, t'étais pas là quand j'étais broke J'suis dans l'airport, j'te tolère pas Ma grand-mère pense que j'suis en lère-ga Niquez vos mères tous ceux qui commèrent sale J'suis en colère, gars, tu me connais pas Ta meuf est douce, elle veut droit dans sa fouf' J'vois tous mes p'tits qui jump dans la fosse J'suis dans ma trix-ma, pardon, ma puce J'me sens comme Banner, j'me sens comme Bruce, hey, hey, hey, hey J'suis dans le Uber, ils sont dans l'bus J'm'en occupe plus tard, gros, là, j'suis busy J'veux faire du bif et là, j'en veux plus Chose promise, chose due, j''prends l'cro-mi, j'pose dur Beaucoup d'thos-my dans c'truc codé', taga, j'pense plus J'suis dans mon bendo, j'attends la paye J'dois faire des euros, des dollars, hey Ils font que du copiercoller J'suis pas dans le bon pays, slay, slay J'ai mis la nitro, t'as calé Vrai négro martiniquais, sénégalais, hey Oui, tout est beau, tout est carré, hey Toi, t'étais pas prêt, à c'qu'il paraît Viens pas ici pour comparer T'inquiète pas, le succès, j'vais m'l'accaparer J'vise que le top 1, comprendra qui pourra J'oublie pas les fils de putain qu'on parlé, slay J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine, hein J'essaie de bien m'entourer, mettre de côté les J'vois la réussite comme un Grec j'sais qu'à la fin, ils voudront tous un bout Que des jaloux, des hypocrites, hein, zerma, ça débite mais gratte des oints-j Moi, fils d'immigré, toi, fils de tain-p', négro, y a du boulot, j'retrousse mes manches Pas d'ces négros à franges, j'côtoie des négros étranges D'ici, y a l'étranger, mais ici, y a les tranchées, le sang tout Négro, pas d'tête-à-tête, que des métaux Tu t'couches tard, les condés te lèvent tôt T'es venu trop tard, j'suis parti trop tôt Fais des doha et je baise tout au micro Nitro, trop de-spi, c'qui nous ralenti, c'est l'shit et la beuh Pas d'mytho auprès d'nous, pas d'p'tits cons qui pensent la rue On a à peu près tout tout tout tout vu, ils diront qu'ils ont tout tout tout tout fait Change de flow, t'as reconnu l'équipe hein, CE45, c'est chaud, ça brille, hein J'ai commencé l'rap à treize piges, à peu près, j'donnais d'jà des vertiges Des phases qui causent des litiges, rien à foutre j'suis qu'un môme un peu révolté Un môme un peu révolté qui s'envoie les flics à force de ballon au pied Un môme un peu révolté qui s'envoie les flics à force de parler de hockey ? J'fais que progresser, allez suivre, écoutez, j'vais régresser Sont morts dans le me-fil, ont le trou d'balle ouvert comme un muffin J'y rentre mon cross et ma gova, j'y rentre mon cross et mon gova Han, ok J'suis pas venu gratter, j'suis venu prendre des sous J'y suis p't-être y aller fort, j'reviens prendre beaucoup J'y vais car j'connais l'domaine, devant y a l'artiste, derrière les Sangoku Jaloux enviant quantité, normal, l'artiste est d'qualité T'as pas idée, c'est inné, moi-même, j'suis pas conscient en vérité J'suis partout sauf dans les partouzes, j'mets mes mains partout comme un cleptomane Et j't'avoue que si j'trouve la recette, j'vais pas réfléchir dix ans, je prendrai tout Nécessité nous pousse dans l'délit, malheureusement, trop souvent cause des dégâts Nécessité nous pousse dans l'délit, j'suis bon comme Messi, ils veulent faire la Evra Et pour en arriver là, il a fallu uvrer, pourtant, j'suis pas arrivé De Paris à Evreux, la ppe-fra m'a sommé, j'devais déjà atteindre le sommet Ralenti par quelques fils de pute, j'ai pa-pa-pa-pa-paniqué Ralenti par quelques fils de pute, j'ai dû m'é-m'é-m'é-m'équiper Et j'suis revenu avec des sons lourds Et des sons lourds qui sortent du four J'ai dû taffer, j'ai dû taffer J'ai dû taffer, j'vais quitter la zone J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine sentiments entiers sont coupés en deux Y a un plan, on est plein On s'aime, on se haït, on s'lave, on se salit mais on gratte mieux à deux Du plaisir au désir, t'es tenté d'nous trahir Avant ça, Judas La chance est partie, j'sais pas si elle va revenir Là, j'suis en D1, j'khalass le baveux Le dada, le dada, le taga, la beuh-beuh, du pollen dans l' Dans la merde, on s'balade, ouais, t'es où ? T'es pas là On attend des parloirs pour caler l'écho J'rentre dans la mêlée sous et , ça fait ra, ra, ra Les nous , tu tires plus à Phuket Nous, sur un coup d'tête, on monte au braco 32, j'suis à Alicante, gros traficante rentre dans la chambre, qui fait la danse du ventre La street me manque mais j'ai pas envie de rentrer Rosé, caliente, passement de jambes Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Passé glacé, pas assez brassé Je souris, j'suis fâché, j'fais l'tour du pâté Par le million, appâté, solide comme Guette mon gang, que des battants, pour faire la guerre, on est partants Les anciens, ils m'ont tout dit, moi, si j'te l'dis, on a tout fait Cur de ice, la suite au frais Je sors de la violence si j'rentre en prison Viens pas m'casser les couilles, poilu comme un bison Refait comme les seins d'ta mère si j'touche un million J'm'arrête, j'redémarre, starter, stop dans leur fion J'ai pas l'temps pour leurs conneries, j'lis les commentaires, ils m'font gole-ri sur Paris, j'ai autant d'likes qu'il y a d'grains dans mon bol de riz Hé, poussez-vous, ouais, nique ta mère et c'est tout Hein, viens pas pompez mon flow, han, la rue, la vraie, c'est nous Les BACqueux ont les ch'veux longs comme Tito, ouais Non, bats les couilles, khey, d'assumer les coups R8 V10 posé sur les roues, khey, dose Je casse la baraque, tu t'es cassé l'cul dans mon ADN, on retrouve la rue J'suis en mode éco', j'suis à gyro chargé, j'te vois plus disparu Je compte les paires, je compte les gains, ça tourne en rond comme une grosse ampèrée Si j't'ai choqué, je peux rien faire, c'est pas fait pour toi, retourne faire tes manif' On voit pas un mec sous la pluie mais on voit un mec qui a pris d'la poudre T'es bouché comme ta tuyauterie, j'rappe, j't'éblouis, appelle-moi la foudre Tu me vois, tu bouges plus comme une photo, j'suis un DZ, couleur choco Je mange des putain de resto comme dans la vie de tous les jours, hé ouais, mon gros J'rappe les images plus que la télé, khey, dose J'dis la vérité, j'suis pas iTélé, hein, khey, dose Un coup de canon pour les éclairer, han, khey, dose T'as laissé l'pilon pour les voies ferrées, khey, dose Putain, c'est chaud pour moi, ma belle, si t'as des flammes dans les yeux Ah ouais, j'assume pas, mon cur est bre-som, le tien est mieux J'suis perdu dans mes choix donc c'est Uber qui va dire adieu J'ai pas dormi dans la soie, j'vaux plus cher, j'suis capricieux J'me fais pas recale parce que j'vais pas en boîte On n'est pas potes, t'es là que pour les snaps Superficiels comme les hommes et les sapes Artificiel comme le taf à la fac Si le monde va vite, c'est qu'on est tous pressés Si tu paniques, c'est que t'es trop stressé J'prends du recul pour aller de l'avant Petit, recule, tu pourrais te faire laver Quand j'pars en couilles, mes gars me rassurent Quand j'pars à ied-p, ils me ramènent en voiture On a fait du mal, on va pas s'en vanter On a du vécu alors pourquoi s'inventer ? T'effaces l'historique, t'effaces pas tes péchés Toujours en retard, j'fais que me dépêcher Tu fais le fou car t'espères qu'on sépare On sait tout mais tu crois qu'on sait pas J'lui envoie des mots doux même si c'est démodé J'évite les on-dit et les soirées mondaines J'bois pas d'alcool, j'fume pas de beuh Ça, c'est ma vie, toi, fais comme tu veux J'suis sur tes côtes, c'est que j'suis à tes côtés On peut répéter, répéter, répéter Mais on entend que ce qu'on peut écouter Voilà pourquoi les profs sont dégoûtés Pavé dans la mare ou goutte d'eau dans la mer T'apprécies le caviar quand t'as goûté la merde On est causes de conséquences Tout est écrit, même les coïncidences J'me laisse aller comme descente en vélo Tenue de soirée, j'mets jogging en velours J'aime pas les keufs, négro, c'est culturel Mais j'fais effort comme intellectuel On est différents mais on se respecte En cas de différend, y a pas de spectacle J'vois pas mes potes une semaine, ils me manquent Aujourd'hui du foot, demain de la pétanque J'rêvais de voler et, maintenant, j'ai le vertige J'ai le droit de voler quand ils refusent le partage J'suis un grand rappeur mais j'suis le seul à le savoir Partage ton plat et il change de saveur J'ai qu'une parole mais plusieurs langages J'ai qu'une daronne et elle prend de l'âge Milliers de rêves et parfois j'paresse Milliers de kheys et parfois j'parais seul Depuis Rilès, gros, j'ai plein de notifs Des gens me parlent mais j'connais le motif On devient séduisant quand on fait ce qui nous plait Tu gagnes ou t'apprends, tu peux jamais te louper Pourquoi remettre à demain ce qu'on peut faire tout de suite ? Pourquoi remettre à quelqu'un ce qu'on peut faire tout seul ? L'ai-je échappé belle ou s'est-elle échappée ? On se faisait courser, mon pote s'est fait chopé Dans ma te-tê, j'ai des questions qui fusent Comme pour un feu d'artifice La médiocrité je refuse Comme un père avec son fils J'veux reconnaissance, moi, j'veux pas être connu Y a une différence, est-ce que tu la connais ? On te prend pas au sérieux quand t'es un rappeur Moi, j'suis chercheur, c'est mon premier rapport Yoon on the Moon, hein C'est du pe-ra, pas un sketch et j'rentre dans le Cercle comme un switch, frère, breh !</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>007 j'arrive comme un headshot On mentend mieux que toi-même quand je chuchote 5 dans l'auto 5 dans la couchette On aide ta daronne a porter la poussette Lavenir est vague je surfe dessus Jsuis pas prêt à tout pour faire des sous Jveux rester décent, lciel fait des dessins Cest le Seigneur là-haut qui nous envoie des signes Jreviens plus fort après période de doute Jai trop la dalh comme après match de foot On gagnera, sans faire de faute On gardera, serrés nos futs Jattends rien des autres pour ne pas être déçu Plus j'fais des fautes plus je deviens précis Jattends rien des autres le reste c du bonus Jlis juste mes notes le reste cest du tonus On pense pas à écrire on écrit ce qu'on pense J'fais le bien le mal et le tout se compense Jai choisi la banque j'ai choisi mes complices Jvais voir ma tante jlui fais plaiz quand je passe On na pas raté l'école mais l'école nous a raté Pas intéressé donc j'suis parti rapper Jsuis super fort et j'fais même pas exprès Tu kiff les rapports, cest qu'un extrait ! You might also likeQuand j'étais petit Jvoulais faire les grands Maintenant que j'suis grand Jvoudrais faire comme les petits Lproblème cest que jveux tout faire en même temps Mais en même temps cest ma force aussi Jvous remercie pour rentre dans lcercle Prochaine étape on fait Colors show Tu veux la suite tiens lrapport 7 On brûle les étapes car on est trop chaud Les rues sont vides comme à l'heure du ftor Les vainqueurs écrivent et racontent l'histoire Toutes sorte de bolide Jpars faire une ballade Toutes sortes de bobines de Rouen à Panam Ma meuf et mon ex seraient de très bonnes copines j'ai des copains kabyles et des copains habiles Jaime quand l'ascenseur est la quand j'arrive Quand on sconnait bien et que tu mraconte ta ive Jaime pas les hipster, ni Hollister Jaime pas lépicier, ni les contrôleurs Jaime les mangas, les lire à la Fnac Jaime quand mes gars, mappellent à la fenêtre Jaime le rap, jaime la campagne Jaime pas la fac encore moins la comptable Jfais plaisir comme de largent dans des vieilles poches Bizarrement j'suis distant avec mes proches Pour que ça me tombe dessus, jme suis mis en dessous J'suis moche comme Jay z où est Beyoncé ? Jsuis dans lnégatif la moitié de l'année Quand j'suis actif jle fais pas qu'à moitié Jai mouillé le maillot, jai séché les cours Jai lavé la prod, puis je l'ai plié Le bon pera, cest comme l'amour La forme qui attire, le fond qui fait rester</t>
+          <t>007 j'arrive comme un headshot On mentend mieux que toi-même quand je chuchote 5 dans l'auto 5 dans la couchette On aide ta daronne a porter la poussette Lavenir est vague je surfe dessus Jsuis pas prêt à tout pour faire des sous Jveux rester décent, lciel fait des dessins Cest le Seigneur là-haut qui nous envoie des signes Jreviens plus fort après période de doute Jai trop la dalh comme après match de foot On gagnera, sans faire de faute On gardera, serrés nos futs Jattends rien des autres pour ne pas être déçu Plus j'fais des fautes plus je deviens précis Jattends rien des autres le reste c du bonus Jlis juste mes notes le reste cest du tonus On pense pas à écrire on écrit ce qu'on pense J'fais le bien le mal et le tout se compense Jai choisi la banque j'ai choisi mes complices Jvais voir ma tante jlui fais plaiz quand je passe On na pas raté l'école mais l'école nous a raté Pas intéressé donc j'suis parti rapper Jsuis super fort et j'fais même pas exprès Tu kiff les rapports, cest qu'un extrait ! Quand j'étais petit Jvoulais faire les grands Maintenant que j'suis grand Jvoudrais faire comme les petits Lproblème cest que jveux tout faire en même temps Mais en même temps cest ma force aussi Jvous remercie pour rentre dans lcercle Prochaine étape on fait Colors show Tu veux la suite tiens lrapport 7 On brûle les étapes car on est trop chaud Les rues sont vides comme à l'heure du ftor Les vainqueurs écrivent et racontent l'histoire Toutes sorte de bolide Jpars faire une ballade Toutes sortes de bobines de Rouen à Panam Ma meuf et mon ex seraient de très bonnes copines j'ai des copains kabyles et des copains habiles Jaime quand l'ascenseur est la quand j'arrive Quand on sconnait bien et que tu mraconte ta ive Jaime pas les hipster, ni Hollister Jaime pas lépicier, ni les contrôleurs Jaime les mangas, les lire à la Fnac Jaime quand mes gars, mappellent à la fenêtre Jaime le rap, jaime la campagne Jaime pas la fac encore moins la comptable Jfais plaisir comme de largent dans des vieilles poches Bizarrement j'suis distant avec mes proches Pour que ça me tombe dessus, jme suis mis en dessous J'suis moche comme Jay z où est Beyoncé ? Jsuis dans lnégatif la moitié de l'année Quand j'suis actif jle fais pas qu'à moitié Jai mouillé le maillot, jai séché les cours Jai lavé la prod, puis je l'ai plié Le bon pera, cest comme l'amour La forme qui attire, le fond qui fait rester</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J'suis rentré dans l'cle-cer comme une feuille dans l'classeur C'est devenu facile disons que c'est naturel C'était diffcile on m'disait là tu rêves J'vends des tee shirts j'vends des cd Y a que pour mes projets que j'suis assidu Même budget serré tu peux faire une série Faut rester serein, croire en ses rêves J'mordille tes seins comme si j'voulais du lait On aura d'la peine une fois sortis du lit C'est quand rien ne va plus que j'ai envie de l'appeler Quand rien ne va plus j'ai envie d'rapper J'veux pas perdre ma vie avant même de mourir J'crois en mes rêves j'suis resté téméraire Taff de bureau j'en ai trop peu l'envie J'suis infidèle j'veux que tromper l'ennui Attendre la fin d'lannée Pour moi c'est pas la vie J'me fous d'la fin d'l'année Pour moi c'est l'début d'ma vie Tu me donne pas envie comme les fruits dans l'métro Chacun sa vie c'est pas chronométré On n'se choisit pas à la couleur de peau Mes amis ont des valeurs du respect You might also like J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires Pas de mariage mais on bouge en cortège Plein de messages donc on bouge à carthage Ouvre les volets j'aime la lumière du jour J'vais m'en aller loin d'ces gens qui font genre J'préfère parler seul que parler avec toi Bloqué sur le seuil on passera par les toits On fait tout nous même on est autodidacte Pas besoin de ton prof pas besoin de la fac Je fous le zbeul comme un geste technique Réalisé par un nouveau dans l'équipe Depuis qu'ils font carrières ils sont à chié Répondent à la demande du marché J'parle pas d'un problème avant qu'il soit réglé J'tavance de la 3em je saurais si t'es réglo Je prends pas de drogue qu'elle soit dur ou douce Qu'elle vienne du Maroc ou d'Europe de l'Est Et les sites pornos nous ont volés l'amour Après l'amour j'ai ce goût amer Du coup elle pleure Elle pensait me plaire Passer les pleurs Il faut panser nos plaies J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice</t>
+          <t>J'suis rentré dans l'cle-cer comme une feuille dans l'classeur C'est devenu facile disons que c'est naturel C'était diffcile on m'disait là tu rêves J'vends des tee shirts j'vends des cd Y a que pour mes projets que j'suis assidu Même budget serré tu peux faire une série Faut rester serein, croire en ses rêves J'mordille tes seins comme si j'voulais du lait On aura d'la peine une fois sortis du lit C'est quand rien ne va plus que j'ai envie de l'appeler Quand rien ne va plus j'ai envie d'rapper J'veux pas perdre ma vie avant même de mourir J'crois en mes rêves j'suis resté téméraire Taff de bureau j'en ai trop peu l'envie J'suis infidèle j'veux que tromper l'ennui Attendre la fin d'lannée Pour moi c'est pas la vie J'me fous d'la fin d'l'année Pour moi c'est l'début d'ma vie Tu me donne pas envie comme les fruits dans l'métro Chacun sa vie c'est pas chronométré On n'se choisit pas à la couleur de peau Mes amis ont des valeurs du respect J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires Pas de mariage mais on bouge en cortège Plein de messages donc on bouge à carthage Ouvre les volets j'aime la lumière du jour J'vais m'en aller loin d'ces gens qui font genre J'préfère parler seul que parler avec toi Bloqué sur le seuil on passera par les toits On fait tout nous même on est autodidacte Pas besoin de ton prof pas besoin de la fac Je fous le zbeul comme un geste technique Réalisé par un nouveau dans l'équipe Depuis qu'ils font carrières ils sont à chié Répondent à la demande du marché J'parle pas d'un problème avant qu'il soit réglé J'tavance de la 3em je saurais si t'es réglo Je prends pas de drogue qu'elle soit dur ou douce Qu'elle vienne du Maroc ou d'Europe de l'Est Et les sites pornos nous ont volés l'amour Après l'amour j'ai ce goût amer Du coup elle pleure Elle pensait me plaire Passer les pleurs Il faut panser nos plaies J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai les deux yeux sur la route, jai une main sur le volant Jai mis dcôté mes doutes, je viens de quitter Rouen Jai grandi dans quartier aisé puis jsuis parti de la maison Sur mes rêves, jai misé, le futur me donnera raison Pour eux, jsuis un rebeu, pour ma mère, jsuis un rubis Pour eux, jsuis amoureux, moi, je pense que cest une lubie Jaime quand tout lmonde dort, que jpilote, la musique pour copilote Jaime quand jme réveille, quon arrive, la tête encore pleine de rêves Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal You might also like Jai une main sur le volant, jai les deux yeux sur le rivage Une main qui fend le vent, dans le rétro, y a mon village Avec mon kho dans lauto, on se balade, cest lété On vit lmoment présent, on mange du poisson braisé Ma sur, cest la meilleure, cest mon frère qui me la dit Ma mère, cest mon trésor, mon père en connaît le prix Mon pote, cest mon reuf, mon reuf, cest ma famille Ma meuf, cest ma meuf et cest ma meilleure amie Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime par message subliminal</t>
+          <t>Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai les deux yeux sur la route, jai une main sur le volant Jai mis dcôté mes doutes, je viens de quitter Rouen Jai grandi dans quartier aisé puis jsuis parti de la maison Sur mes rêves, jai misé, le futur me donnera raison Pour eux, jsuis un rebeu, pour ma mère, jsuis un rubis Pour eux, jsuis amoureux, moi, je pense que cest une lubie Jaime quand tout lmonde dort, que jpilote, la musique pour copilote Jaime quand jme réveille, quon arrive, la tête encore pleine de rêves Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai une main sur le volant, jai les deux yeux sur le rivage Une main qui fend le vent, dans le rétro, y a mon village Avec mon kho dans lauto, on se balade, cest lété On vit lmoment présent, on mange du poisson braisé Ma sur, cest la meilleure, cest mon frère qui me la dit Ma mère, cest mon trésor, mon père en connaît le prix Mon pote, cest mon reuf, mon reuf, cest ma famille Ma meuf, cest ma meuf et cest ma meilleure amie Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime par message subliminal</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ouais Ouais Younes Instru Don Carlito Et la voiture démarre, jsuis sur un classico écoute Instru Don Carlito, et la voiture démarre Jsuis sur un classico jme prépare au départ Place à quatre au fond du bus, benef Personne sassoit La mort le terminus poto tout le monde descend Jfais des clips, jdonne le clap, jlis des tweets Pas de quotas dans mon équipe que des braves brefs Toute la nuit sur mon tel mes yeux sont devenus violets Tu fais le lion sur ton tel dans la vraie vie tu miaulais Parfois joublie les gens me rappellent à quoi je leur fais penser Jaime bien passer pour un con ensuite les faire danser Jrêve toute la journée la nuit jréalise mes rêves Zenith complet jme demande ce qui marrive Cest facile de dénoncer cest difficile de comprendre Facile de renoncer plus difficile de reprendre Ya des chauffards sur les ponts et sous les ponts ya plein de clochard Dans le mal ya du bon et dans lbon ya plein dconnards Chez moi tout le monde sembrouille pour diriger la maison Le cur, la tête, les coups wesh dis-moi qui a raison Les adultes cest juste des enfants ayant pris de lâge Et on shabitue à tout surtout aux privilèges Jvoulais jeter mon tel jen ai acheté un autre Ouais bien joué Younes maintenant ten a deux Je sais cqui mfait du bien, au final jle fais pas Jfais crari jmen bats les reins, au fond ça mtouche un peu On peut vivre ensemble mais on meurt seuls Jte laisse sur ces pensées jai fini lmorceau You might also likeDéjà huit piges quon a passé le bac Des potes seuls, des potes ont des gosses Jsuis rentré, jvois mes gars, ma miff Les années passent ya rien de neuf Elle me manque cest triste mais la fierté fait rage Et on aime prendre des risques tracés dans les virages Ya toujours rien de neuf Lintelligence ouais cest pas savoir nan Cest ce que tu fais ouais quand tu sais pas Et le silence hen cest pas se taire nan Cest écouter ouais ce que tu dis pas Younes</t>
+          <t>Ouais Ouais Younes Instru Don Carlito Et la voiture démarre, jsuis sur un classico écoute Instru Don Carlito, et la voiture démarre Jsuis sur un classico jme prépare au départ Place à quatre au fond du bus, benef Personne sassoit La mort le terminus poto tout le monde descend Jfais des clips, jdonne le clap, jlis des tweets Pas de quotas dans mon équipe que des braves brefs Toute la nuit sur mon tel mes yeux sont devenus violets Tu fais le lion sur ton tel dans la vraie vie tu miaulais Parfois joublie les gens me rappellent à quoi je leur fais penser Jaime bien passer pour un con ensuite les faire danser Jrêve toute la journée la nuit jréalise mes rêves Zenith complet jme demande ce qui marrive Cest facile de dénoncer cest difficile de comprendre Facile de renoncer plus difficile de reprendre Ya des chauffards sur les ponts et sous les ponts ya plein de clochard Dans le mal ya du bon et dans lbon ya plein dconnards Chez moi tout le monde sembrouille pour diriger la maison Le cur, la tête, les coups wesh dis-moi qui a raison Les adultes cest juste des enfants ayant pris de lâge Et on shabitue à tout surtout aux privilèges Jvoulais jeter mon tel jen ai acheté un autre Ouais bien joué Younes maintenant ten a deux Je sais cqui mfait du bien, au final jle fais pas Jfais crari jmen bats les reins, au fond ça mtouche un peu On peut vivre ensemble mais on meurt seuls Jte laisse sur ces pensées jai fini lmorceau Déjà huit piges quon a passé le bac Des potes seuls, des potes ont des gosses Jsuis rentré, jvois mes gars, ma miff Les années passent ya rien de neuf Elle me manque cest triste mais la fierté fait rage Et on aime prendre des risques tracés dans les virages Ya toujours rien de neuf Lintelligence ouais cest pas savoir nan Cest ce que tu fais ouais quand tu sais pas Et le silence hen cest pas se taire nan Cest écouter ouais ce que tu dis pas Younes</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie, mon amoureuse Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Ell est verte là, où on l'arros On est plus ensemble dpuis un bout de temps Alors pourquoi j'ai l'impression de te tromper quand je parle à une autre que toi? J'continuais de chercher un truc que j'avais déjà trouvé J'voulais l'amour, le grand le vrai il était au bout de mon nez On s'est séparé plein de fois, mais c'était jamais la fin Quand ça a été la fin, on a continué de se séparer plein de fois Ça m'rend fou depuis qu'elle a fui je parle à des filles dont je me fous J'sais plus ce que j'fais, je roule à fond, peur de la fin Y'a comme un feu qui brûle en moi mais qui s'éteint Et c'est pas une bonne nouvelle non, non Et c'est pas une bonne nouvelle non Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là, où on l'arrose Tous comptes faits Ouais tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse ouais j'la rends pas heureuse Elle dit que j'la rends pas heureuse Elle dit que j'la rends pas heureuse non, mon amoureuse non j'la rends pas heureuse, non Et l'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là où on l'arrose ouais j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs Ou plus de fleurs Non elle est verte là où on l'arrose elle est verte là où on l'arrose You might also likeTous comptes faits les comptes de fée... Tous comptes fait les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs, plus de fleurs Elle est verte là, où on l'arrose ouais Tous comptes faits, tous comptes faits, les comptes de fée c'est pas tout rose1</t>
+          <t>Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie, mon amoureuse Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Ell est verte là, où on l'arros On est plus ensemble dpuis un bout de temps Alors pourquoi j'ai l'impression de te tromper quand je parle à une autre que toi? J'continuais de chercher un truc que j'avais déjà trouvé J'voulais l'amour, le grand le vrai il était au bout de mon nez On s'est séparé plein de fois, mais c'était jamais la fin Quand ça a été la fin, on a continué de se séparer plein de fois Ça m'rend fou depuis qu'elle a fui je parle à des filles dont je me fous J'sais plus ce que j'fais, je roule à fond, peur de la fin Y'a comme un feu qui brûle en moi mais qui s'éteint Et c'est pas une bonne nouvelle non, non Et c'est pas une bonne nouvelle non Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là, où on l'arrose Tous comptes faits Ouais tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse ouais j'la rends pas heureuse Elle dit que j'la rends pas heureuse Elle dit que j'la rends pas heureuse non, mon amoureuse non j'la rends pas heureuse, non Et l'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là où on l'arrose ouais j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs Ou plus de fleurs Non elle est verte là où on l'arrose elle est verte là où on l'arrose Tous comptes faits les comptes de fée... Tous comptes fait les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs, plus de fleurs Elle est verte là, où on l'arrose ouais Tous comptes faits, tous comptes faits, les comptes de fée c'est pas tout rose1</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi le taré qui a salit le rap Quest-ce que je men bats les couilles de leur saloperie de soirées de merde Moi jveux que les petits bicravent de la drogue même à cet enfoiré de maire La liberté cest quune statue, pour lobserver je fume une plaquette H24 sur le rain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Donne un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el hanout Dahwa cest ça qui fait le goût Khouya, demande à mon soce Baroud On se barre où cet été ha des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer du zbars Ou à sembrouiller avec ces batards de hessess qui nous font ié-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tar-bas Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, Je finis par WOOGATAGA Dans les constructions élevées Le juge d'instruction il t'fait bé-tom L'maton bah il est pas là pour trelever Frisson, incitation à la revendé civile Voyous victime qui dit lagaffe d'avoir fait c'big deal Hachiche en nne-to Siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff Surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kheief, on s'la kiffe Dès qu'ya les stup on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics M'annoncent de l'argent Jrêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chef, hormis celui d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre à 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'a Biff Tannen J'irais voir l'orphelin j'lui dirais c'est pas ta mère c'est tanneurs Malheur! Faut juste une balle car nan On nest pas des mecs qui tractent! Golf R32, pneu qui bloque, vitesse brisée par la lenteur des mecs qui trottent Les mains qui tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les contron Les millions nous les compterons Ne m'écouterons que les siste-gro patron formés sur le goudron On invite les loups garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sait tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connue canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte J'pourrais être ton père, rien à perdre Quand ça braque faut qu'sa raque shab le tabac tah auber Quand faut être franc jsuis céfran Mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon quà fermer la porte de ma cellule Demain c'est loin demain c'est nul Sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune D'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Hollande bah comptez pas sur lui Demain dès l'aube à l'heure où blanchi la campagne on partira Où ça ? Oh pas très loin car pour l'instant ya pas d'dirhams Si t'a pas tu mendieras Si t'aime pas tu mentiras Des nouvelles tu m'en diras J'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a voler tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, ma profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécire Donc ma vie crotte ah putin dsa mère Et c'est chaud ahahaha WOOGATAGA You might also like On dit qu'jsuis trop deuss car ma bécane est débridée Les premiers parloirs, jmentrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre ou on n'fait pousser que dla beuh-er J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais dû m'taire lorsque le juge s'est mis à m'parler Il ma demandé est-ce que tu fumes ? J'lui ai dis plus que Bob Marley Younes, RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces batards, les matons, jouent les mafieux srab les rital 3 mojitos, j'suis khayif Jlâche une porteuse vers le matard, dis-lui elle décoffre dans ma guitare J'ressors du mitard, baffe le gradé fait demi-tour 45jours au marché dFleury crois moi Les carottes sont chères Si t'en mange une jte dis cheh Pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu jte donne 3petits et jte dis gère Demande à mon pote Souris on rêve tous dun monde meilleur Jme sens comme une fourmi quand jvois la grandeur du Seigneur Jsuis comme la chèvre de monsieur Seguin dehwa jkifferai gambadé Jaimerai toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que lchameau il critique le dromadaire Jai lil du tigre, et autour du cou jai ma panthère Cest Mister Y.O tu connais la suite Là jsuis au Sofitel tigresse tu connais ma suite Toi pourquoi tu fais lours ? Pourquoi thiberne ? Pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Jsuis dans ma grotte et comme Sopra jsuis la colombe et le corbeau Jleur ai dit cque jvoulais, que du platine et que de lor gros Dans lpeu-ra jai létiquette du traficanté Mais jme sens chez moi comme un serpent a Kaimana Grande Tout ce que jsais, cest quil faut briser les chaines Que vaut mieux rester en chien que de se comporté comme une chienne Face aux hyènes faut être un loup, on nest pas né dans un chou Face aux renards faut être lun de nous, Hougata zoo A lécole jmarchai tordu mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre OK dehwa jtinforme quà Paris cest pire quà Atlanta Sort un 11.43 tu fais courir les mecs par 30 ah Hougataga ils ont boycotté mon son Si sa marche ap dans lrap jai plus dun litron dans l'4 motion Bref jemmerde la France parce quelle écoute pas mes écrits Parce quelle ma appris que lignorance était lplus beau des mépris La, si on nique létat cest parce quils mont envoyé en son-pri Donc armé dun gros Beretta on est venu reprendre ce quil nous prit Akhi quil aille niquer leurs mères les enfants dla république Et ouais men fous dêtre vulgaire tant qujsuis suivi par mon public Nique tout le gouvernement parce quils sont là pour étouffé le talent Jle crie ouvertement quils aillent donc niquer leurs mamans La liberté elle donne pas rencart à leau chaude Et ouais un immigré au placard cest comme un trou dballe aux chiottes Jparchoque pour les braves et jleurs big up celle-ci Demande à Lass pour ldedicassé jai pas attendu quil signe à Chelsea Jsuis un dces MC qui a vendu dla gue-dro Quand jprends lmicro bah jsuis obligé dfaire du pe-pro Jsuis pas clodo mais avant den faire jen ai bu des tonneaux Jen suis devenu alcolo hé venait pas mparler Conio Sah Antonio Montana moi jrap comme Sosa Jme verrai bien à Punta Cana eh ouais jrêve que dlehssa Abderrazak el merhaoui avec un visa pour lrap français Men bas les klaouis, men fou dsavoir cque vous penser Le micro jlesquinte, jle baise NoTime Records Ta l'brelan j'te sors une quinte, tu veux t'pendre, j'te sors une corde Quand jprends lvolant cest pas pour jouer au badminton Wesh petite barrette de merde te compare pas avec la demi-tonne Dehwa pour lprochain clip faudra Paris Hilton Ouais histoire quelle mtaille une pipe parce que jsuis un peu comme Bill Clinton Fuck toutes les matonnes appelez-moi Don Corleone Jgarde la tête sur les épaules même quand jai trop picolé Ljuge cest quun batard, le proc cest juste un pd Jsuis présumé coupable donc cest pas innocent qujai plaidé Hougataga rien na foutre hépépép Pour moi lpeu-ra cest comme le foot quand jprends lstylo jécris avec mes ieds-p Ca fait fin dcrochet passement djambes suivi dun grand pont Marche pas sur lherbe elle sfume grand con retire tes crampons Nique les jambons ouais, la rue et le card-pla cest parallèle Moi quand jcroise un porc, jlui rappelle quil est pas halal Quand l'étau se resserre t'es comme un veau-cer dans le crâne d'un Doberman On veut pas voir le docteur Leserman nan nous on a besoin d'un barman Quand on va au parloir et qu'on voit Casper on devient tout pâle man Quand y a pas de pilons et bah y a pas de mal à s'faire une Pal-Mall Pour se rincer l'il on fonce à l'infirmerie, on va voir les petites infirmières on prémédite nos fourberies Moi j'fais t'miniques j'ai mal aux dents elles m'prescrivent des Efferalgan J'croise Halim, on s'tapent des barres en s'demandant on sortira quand A force de m'chercher des nois' un jour la chef en verra le gland Elle goutera ma viennoise, elle criera Oh putain c'est grand, oh c'est bon, oh c'est cool, j'veux plus que le temps s'écoule J'lui répondrai Salope, fuck aller, baisse toi, et bouffe moi les couilles Woogataga nique sa mère leur justice, j'fume le taga mais je sniff pas pour être speed moi juste je tise Parlez pas de ma rue et parlez pas de mon enfer, parlez pas de ma vie nan parlez pas de mon affaire Les frères c'est pas de ma faute si toutes leurs meufs elles veulent me ré-sse C'est parce quelles savent qu'avec oi-m à l'hôtel ça va pas néhèss Elles connaissent l'animal dahwa elles connaissent le palmarès J'représente Rébeval et qu'est-ce que j'kiff me faire lehèss Moi il me faut de l'oseille c'est à peu près tout ce qui m'intéresse J'suis faya j'plane dans les airs, j'côtoie qu'des extra-terrestres J'représente pas les suceurs, qu'veulent des bites et des caresses Moi j'rap pour les connaisseurs pour Bazou, Siabou et Karéx Les pieds encrés sur le pavé j'ai l'impression de faire du sur-place Il m'arrive que des trucs de taré j'ai l'air d'un mec perdu sur Mars Faut que j'me surpasse, là j'suis en train d'observer les terriens J'considérais les mecs comme mes frères et jai vu que pour eux j'n'étais rien Maintenant que je sais que ça les instruit j'parle plus du tout avec les cons Pour éviter de péter les plombs, bah il vaut mieux couper les ponts J'préfère être seul avec ma mère que d'être guidé par 10 blondes Après avoir côtoyé la merde, t'inquiètes j'sais qui sont les bons Au hebs les frères tenez bon y a que les matons qui restent là-bas La liberté elle est bandante tu m'crois pas caresse la barre Ahaha Woogataga faut quil sbarre tous ses batards Faudra bien que j'm'empare du rap dahwa il sera jamais trop tard Gamberge d'un mec au mitard parti pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défauts de 6.35 faut pas finir déjanté Crew de 9.1.6.3.5, 42 Rue de la Fonce-dé On dit que l'amitié elle est sacrée ha, moi elle m'a trop déçu, donc maintenant même mon meilleur pote si y a hèja j'lui tire dessus Pour bien gagner sa vie ouai j'crois faut s'ouet au travail Mais quand c'est oi-t qui sert de cible bah c'est l'Etat qui t'rafale Passionné par la sique-mu j'y ai consacré tout mon temps J'sais que quand on s'pisse dessus bah on n'a pas chaud très longtemps J'fais du boucan même au card-pla les concurrents ils ont les boules J'préfère jeuner avec les corbeaux que d'picorer avec les poules Un zdéh fuck Marlboro Light, j'réponds à Skyrock qui m'appelle J'ai déjà rappé toute la night j'pourrai freestylé toute ma peine Ma belle nan c'est pas oi-t c'est les autres que j'traite de pute Maintenant quand ça frappe à ma porte c'est plus les keufs c'est quand y a un but Ca lève l'illeton ça m'dit Wesh You alors comment va la famille ? Et ta besoin de rien c'est bon ? J'répond Non ci-mer Manny, j'ai du shit, des feuille, des clopes, ma peau sent le Giorgio Armani J'ai tellement les crocs dahwa qu'elles sont cariées mes canines Si j'avais écouté la conseillère j'aurai fait d'la mécanique Taffer tout le mois pour 200 ? Jpréfère dire à l'Etat Nique ta Grand-mère la salope et laisse-moi dans ma lulle-cé Héssess ferme la porte batard toi-même tu sais Ok même si tes broliqué bah tu vas tfaire niquer Eh poto là jsors ma teille donc faut rappliquer Jrêve que dliasse, de grosse caisse, de Audemars Piguet Niveau gonzesses jai les mêmes goûts que Gérard Piquet 2003 au D4 avec Bigdil de Barbès Dans la grotte sa sfume des gros zbar On spète le crâne dès lsbah Cest la que jrencontre Lacrim en promenade au shtar Donc mine de rien sa fait 10 piges, trinquons à la vie de star Toujours le même Sono, Idris, Iam, ?? ou Bachir On parle pas on préfère agir Pour nous butez faudra lGIR Le G.I.R ouais, le Groupe dIntervention Régional Gueh même le G.I.G.N, gueh même le Front National Eh gros next Younes Men bas les cokhoness Moi jrap 20 minutes en Show Case Jgagne de quoi macheter une Rolex Eh gros laisse tombé ils sont pas à Manhattan les expert Ils sont dans le zoo à côté de Bazoo en train dse lé-rou des zdéh A cout de rasoir fuck demain on réglera ça ce soir La concurrence jlui ai tellement mise quelle peut même plus sassoir Jgarde la pèche, pas le citron mais jte lâche des rimes amer Dans tous ce bas monde ya que lImam qui a le droit de faire pleurer ma mère Cest vrai qule succès monte à la tête Mais faut pas se prendre pour jsais pas qui Deux ou trois quets-pa de cigarettes Une ou deux quette-pla de paki Comme dit Nessbeal mieux perdre la vue que la raison Rêve de changer dhorizon Marre des barreaux de prison Faut faire plaisir à la Mama lui offrir une belle maison Jtransfert au FC Ketama à la prochaine saison Jai niqué lRap Game dehwa, jlui ai fait perdre ses os Demande pas à Khider ou à Ferrara ce quil ferait avec une paire de ciseaux Ok cest le Zoogata Yougata wesh mon suisse Tous les jours sa frôle la cour dassise Normal que nos reufs mincisse Niveau détude catastrophique on a tous un Bac -6 Ya trop de Vodka dans loasis donc nos haltères moisisse Moi cest Mister jarrive tout de suite jprends lnuméro dta miss Eh vient pas mfatigué lcrane si un dmes shab tla mise Big la miff tranquille jarrive et jaugmente la mise De Fabio Lucci à chez Gucci, in sha Allah jpartirai en Kamis Là jfume toujours du cannabis Jbaise toujours la police A lheure ou tout es meu-fer, faut quand même quon salcoolise La vérité sa crève lil donc les 3eineur agonise Vu quon reste vrai toujours le même le con a pas besoin quon vise Educateur dla street moi tu mécoute tu passes le BAFA Jai du sang sur les bras va Dehwa jrap pour les braves Hoogata Yougata What mutherfucka A3mel lkhir yanssah a3mal lchar ytfakar Jsuis dans mon quartier jgalère jregarde en lair Jsuis en train de cogité jsuis défoncé sa mère Jarrive chargé une porteuse à Tanger Apres mon passage au terfé bah il treste plus grand chose à manger Jroule un zdéh pour me perché Et rejoindre létoile du Bergé Cest plus de couilles que jai nan cest des gros oeufs de Fabergé Jsuis overbooké ok Zoogataga Jai appris une chose chez Ruquier, cest lmot rutabaga Jrêve que de pouvoir et comme vous avez pu le voir Bah lrap français cest pas vraiment ltruc teh Audrey Pulvar Mon point commun avec Natasha cest mes chico de devant Sauf que moi même sans mes 32 dents bah jleur fait du rentre dedans Attend eh bien sûr que lavenir est inquiétant Pour des barrettes ils nous mettent 8 huit ans Wesh monsieur lPrésident dites leurs bien que Jreprésente les 3arbi le négeuz moi Jsuis plus riche queux donc pourquoi jirai fouiller leurs keu-ss Eux ils sont en pleine crise moi jsuis en plein dans les 30 glorieuse Mais jsais que ma liberté bah elle vaut pas grand chose à leur yeu-z Demande à Lacrim quand jétais à lécole cétait pour gratter les remises de peine Du dispatching au disque de platine Dla fiche de recherche à la fiche de paye Jai pété tous les barrages mais je nai jamais été odieux Comment idolâtrer la vache quand lunivers est à Dieu Dites leurs bien que men bas les couilles de leurs baratin Là jsuis en promenade troisième tour khabta dans un bar à timpe Nique létat cest chméta ils rêvent que de nous foutre dans la de-mer Donc jvais mbranler et même cracher sur leur putin de système de merde Woogata kha tfou Rap teh les fous Qui préfère sacheter une raffleuse que de faire du Kung-fu La Mecque jsuis de ceux qui sbaissent et qui tousse mec Allah y 3efou Jte lai déjà dit on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez nous pour quon sarrête Les 3eineur m'ont trop à l'il dites-leur d'niqué leurs mères les chouettes Moi jm'occupe d'la vodka vous hougataga gardez la Schweppes Eh psss, daprès mon entourage Je reste un brave et cest pour ça quil mencourage Apres la pluie ya pas le beau temps ya lorage Cest vrai que les ptits ont hardcord on était pareil à leur âge A deux sur un scooteur on vivait que de vol à larrache Puis on a connu la crave-bi on a vite tourné la page On sest mis a coupé des barrettes Ensuite à vendre des plaquettes Puis dla coke et de galettes Jusquà ce que les keufs nous arrêtent Un jour jétais dans l19 Le lendemain un hessess fermait ma porte Un soir jetais avec une meuf Le lendemain elle était avec mon pote La vie cest dur Pas de plainte nous tout ce quon porte cest des flingue Et ya pas de vice de procédure gros cest la loi de la jungle Cest pas de ma faute dehwa jcrois bien que jsuis taré de naissance Jme reconnais pas moi-même des fois jsuis ravi de faire ma connaissance Et quand jpart au chtar bah tinquiete pas que jreçois des mandats Et jai toujours la frappe tah le Hollanda et teh Belhanda Jsuis khabta Zoogataga sous ma véranda Et jglisse mes doigts dans les cheveux teh Esméralda Jemmerde lEtat, jemmerde les stups, jemmerde les gendarmes Trafiquant de rime, trafiquant de stup ou trafiquant darmes Je suis comment vous dites paranoïaque ouais Men bas les yeu-k madame la juge baraniyék Tayah sa3dek jte lavais dit qujavais de projets Là jgraille des brochettes jinsulte ta mère et jtouche des gros chèques Jmachète des trucs qui valent cher tient rien quavant-hier Jme suis acheter 3 4 t-shirt jai dépensé ton salaire Jme suis roulé un gros zdéh Puis jai repensé à la misère à cet été à cet hiver Alicante au Val dIsère Au mitard teh la Santé, les promenades en camembert Au mitard teh Fleury quand jrevois les toilettes jme dis beurk Ah les batard comment ils ont pu me faire ça Ils mlon mise jleur ai remise Hoogata vise et versa Ye zeh obligé de se faire remarqué Obligé de se faire embarqué et hop déféré au parquet Direction les grillages bon trêves denfantillage Yeah i speak a little english mother fucking biatch Ouald el kehba what you gonna do ?! Ok jcontinue tout doux Jre big up le rot Mamadou Ok yougata yougata gangst to gangst Tu connais la musique celui qui veux m'test je le baise ah1</t>
+          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi le taré qui a salit le rap Quest-ce que je men bats les couilles de leur saloperie de soirées de merde Moi jveux que les petits bicravent de la drogue même à cet enfoiré de maire La liberté cest quune statue, pour lobserver je fume une plaquette H24 sur le rain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Donne un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el hanout Dahwa cest ça qui fait le goût Khouya, demande à mon soce Baroud On se barre où cet été ha des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer du zbars Ou à sembrouiller avec ces batards de hessess qui nous font ié-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tar-bas Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, Je finis par WOOGATAGA Dans les constructions élevées Le juge d'instruction il t'fait bé-tom L'maton bah il est pas là pour trelever Frisson, incitation à la revendé civile Voyous victime qui dit lagaffe d'avoir fait c'big deal Hachiche en nne-to Siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff Surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kheief, on s'la kiffe Dès qu'ya les stup on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics M'annoncent de l'argent Jrêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chef, hormis celui d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre à 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'a Biff Tannen J'irais voir l'orphelin j'lui dirais c'est pas ta mère c'est tanneurs Malheur! Faut juste une balle car nan On nest pas des mecs qui tractent! Golf R32, pneu qui bloque, vitesse brisée par la lenteur des mecs qui trottent Les mains qui tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les contron Les millions nous les compterons Ne m'écouterons que les siste-gro patron formés sur le goudron On invite les loups garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sait tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connue canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte J'pourrais être ton père, rien à perdre Quand ça braque faut qu'sa raque shab le tabac tah auber Quand faut être franc jsuis céfran Mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon quà fermer la porte de ma cellule Demain c'est loin demain c'est nul Sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune D'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Hollande bah comptez pas sur lui Demain dès l'aube à l'heure où blanchi la campagne on partira Où ça ? Oh pas très loin car pour l'instant ya pas d'dirhams Si t'a pas tu mendieras Si t'aime pas tu mentiras Des nouvelles tu m'en diras J'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a voler tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, ma profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécire Donc ma vie crotte ah putin dsa mère Et c'est chaud ahahaha WOOGATAGA On dit qu'jsuis trop deuss car ma bécane est débridée Les premiers parloirs, jmentrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre ou on n'fait pousser que dla beuh-er J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais dû m'taire lorsque le juge s'est mis à m'parler Il ma demandé est-ce que tu fumes ? J'lui ai dis plus que Bob Marley Younes, RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces batards, les matons, jouent les mafieux srab les rital 3 mojitos, j'suis khayif Jlâche une porteuse vers le matard, dis-lui elle décoffre dans ma guitare J'ressors du mitard, baffe le gradé fait demi-tour 45jours au marché dFleury crois moi Les carottes sont chères Si t'en mange une jte dis cheh Pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu jte donne 3petits et jte dis gère Demande à mon pote Souris on rêve tous dun monde meilleur Jme sens comme une fourmi quand jvois la grandeur du Seigneur Jsuis comme la chèvre de monsieur Seguin dehwa jkifferai gambadé Jaimerai toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que lchameau il critique le dromadaire Jai lil du tigre, et autour du cou jai ma panthère Cest Mister Y.O tu connais la suite Là jsuis au Sofitel tigresse tu connais ma suite Toi pourquoi tu fais lours ? Pourquoi thiberne ? Pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Jsuis dans ma grotte et comme Sopra jsuis la colombe et le corbeau Jleur ai dit cque jvoulais, que du platine et que de lor gros Dans lpeu-ra jai létiquette du traficanté Mais jme sens chez moi comme un serpent a Kaimana Grande Tout ce que jsais, cest quil faut briser les chaines Que vaut mieux rester en chien que de se comporté comme une chienne Face aux hyènes faut être un loup, on nest pas né dans un chou Face aux renards faut être lun de nous, Hougata zoo A lécole jmarchai tordu mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre OK dehwa jtinforme quà Paris cest pire quà Atlanta Sort un 11.43 tu fais courir les mecs par 30 ah Hougataga ils ont boycotté mon son Si sa marche ap dans lrap jai plus dun litron dans l'4 motion Bref jemmerde la France parce quelle écoute pas mes écrits Parce quelle ma appris que lignorance était lplus beau des mépris La, si on nique létat cest parce quils mont envoyé en son-pri Donc armé dun gros Beretta on est venu reprendre ce quil nous prit Akhi quil aille niquer leurs mères les enfants dla république Et ouais men fous dêtre vulgaire tant qujsuis suivi par mon public Nique tout le gouvernement parce quils sont là pour étouffé le talent Jle crie ouvertement quils aillent donc niquer leurs mamans La liberté elle donne pas rencart à leau chaude Et ouais un immigré au placard cest comme un trou dballe aux chiottes Jparchoque pour les braves et jleurs big up celle-ci Demande à Lass pour ldedicassé jai pas attendu quil signe à Chelsea Jsuis un dces MC qui a vendu dla gue-dro Quand jprends lmicro bah jsuis obligé dfaire du pe-pro Jsuis pas clodo mais avant den faire jen ai bu des tonneaux Jen suis devenu alcolo hé venait pas mparler Conio Sah Antonio Montana moi jrap comme Sosa Jme verrai bien à Punta Cana eh ouais jrêve que dlehssa Abderrazak el merhaoui avec un visa pour lrap français Men bas les klaouis, men fou dsavoir cque vous penser Le micro jlesquinte, jle baise NoTime Records Ta l'brelan j'te sors une quinte, tu veux t'pendre, j'te sors une corde Quand jprends lvolant cest pas pour jouer au badminton Wesh petite barrette de merde te compare pas avec la demi-tonne Dehwa pour lprochain clip faudra Paris Hilton Ouais histoire quelle mtaille une pipe parce que jsuis un peu comme Bill Clinton Fuck toutes les matonnes appelez-moi Don Corleone Jgarde la tête sur les épaules même quand jai trop picolé Ljuge cest quun batard, le proc cest juste un pd Jsuis présumé coupable donc cest pas innocent qujai plaidé Hougataga rien na foutre hépépép Pour moi lpeu-ra cest comme le foot quand jprends lstylo jécris avec mes ieds-p Ca fait fin dcrochet passement djambes suivi dun grand pont Marche pas sur lherbe elle sfume grand con retire tes crampons Nique les jambons ouais, la rue et le card-pla cest parallèle Moi quand jcroise un porc, jlui rappelle quil est pas halal Quand l'étau se resserre t'es comme un veau-cer dans le crâne d'un Doberman On veut pas voir le docteur Leserman nan nous on a besoin d'un barman Quand on va au parloir et qu'on voit Casper on devient tout pâle man Quand y a pas de pilons et bah y a pas de mal à s'faire une Pal-Mall Pour se rincer l'il on fonce à l'infirmerie, on va voir les petites infirmières on prémédite nos fourberies Moi j'fais t'miniques j'ai mal aux dents elles m'prescrivent des Efferalgan J'croise Halim, on s'tapent des barres en s'demandant on sortira quand A force de m'chercher des nois' un jour la chef en verra le gland Elle goutera ma viennoise, elle criera Oh putain c'est grand, oh c'est bon, oh c'est cool, j'veux plus que le temps s'écoule J'lui répondrai Salope, fuck aller, baisse toi, et bouffe moi les couilles Woogataga nique sa mère leur justice, j'fume le taga mais je sniff pas pour être speed moi juste je tise Parlez pas de ma rue et parlez pas de mon enfer, parlez pas de ma vie nan parlez pas de mon affaire Les frères c'est pas de ma faute si toutes leurs meufs elles veulent me ré-sse C'est parce quelles savent qu'avec oi-m à l'hôtel ça va pas néhèss Elles connaissent l'animal dahwa elles connaissent le palmarès J'représente Rébeval et qu'est-ce que j'kiff me faire lehèss Moi il me faut de l'oseille c'est à peu près tout ce qui m'intéresse J'suis faya j'plane dans les airs, j'côtoie qu'des extra-terrestres J'représente pas les suceurs, qu'veulent des bites et des caresses Moi j'rap pour les connaisseurs pour Bazou, Siabou et Karéx Les pieds encrés sur le pavé j'ai l'impression de faire du sur-place Il m'arrive que des trucs de taré j'ai l'air d'un mec perdu sur Mars Faut que j'me surpasse, là j'suis en train d'observer les terriens J'considérais les mecs comme mes frères et jai vu que pour eux j'n'étais rien Maintenant que je sais que ça les instruit j'parle plus du tout avec les cons Pour éviter de péter les plombs, bah il vaut mieux couper les ponts J'préfère être seul avec ma mère que d'être guidé par 10 blondes Après avoir côtoyé la merde, t'inquiètes j'sais qui sont les bons Au hebs les frères tenez bon y a que les matons qui restent là-bas La liberté elle est bandante tu m'crois pas caresse la barre Ahaha Woogataga faut quil sbarre tous ses batards Faudra bien que j'm'empare du rap dahwa il sera jamais trop tard Gamberge d'un mec au mitard parti pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défauts de 6.35 faut pas finir déjanté Crew de 9.1.6.3.5, 42 Rue de la Fonce-dé On dit que l'amitié elle est sacrée ha, moi elle m'a trop déçu, donc maintenant même mon meilleur pote si y a hèja j'lui tire dessus Pour bien gagner sa vie ouai j'crois faut s'ouet au travail Mais quand c'est oi-t qui sert de cible bah c'est l'Etat qui t'rafale Passionné par la sique-mu j'y ai consacré tout mon temps J'sais que quand on s'pisse dessus bah on n'a pas chaud très longtemps J'fais du boucan même au card-pla les concurrents ils ont les boules J'préfère jeuner avec les corbeaux que d'picorer avec les poules Un zdéh fuck Marlboro Light, j'réponds à Skyrock qui m'appelle J'ai déjà rappé toute la night j'pourrai freestylé toute ma peine Ma belle nan c'est pas oi-t c'est les autres que j'traite de pute Maintenant quand ça frappe à ma porte c'est plus les keufs c'est quand y a un but Ca lève l'illeton ça m'dit Wesh You alors comment va la famille ? Et ta besoin de rien c'est bon ? J'répond Non ci-mer Manny, j'ai du shit, des feuille, des clopes, ma peau sent le Giorgio Armani J'ai tellement les crocs dahwa qu'elles sont cariées mes canines Si j'avais écouté la conseillère j'aurai fait d'la mécanique Taffer tout le mois pour 200 ? Jpréfère dire à l'Etat Nique ta Grand-mère la salope et laisse-moi dans ma lulle-cé Héssess ferme la porte batard toi-même tu sais Ok même si tes broliqué bah tu vas tfaire niquer Eh poto là jsors ma teille donc faut rappliquer Jrêve que dliasse, de grosse caisse, de Audemars Piguet Niveau gonzesses jai les mêmes goûts que Gérard Piquet 2003 au D4 avec Bigdil de Barbès Dans la grotte sa sfume des gros zbar On spète le crâne dès lsbah Cest la que jrencontre Lacrim en promenade au shtar Donc mine de rien sa fait 10 piges, trinquons à la vie de star Toujours le même Sono, Idris, Iam, ?? ou Bachir On parle pas on préfère agir Pour nous butez faudra lGIR Le G.I.R ouais, le Groupe dIntervention Régional Gueh même le G.I.G.N, gueh même le Front National Eh gros next Younes Men bas les cokhoness Moi jrap 20 minutes en Show Case Jgagne de quoi macheter une Rolex Eh gros laisse tombé ils sont pas à Manhattan les expert Ils sont dans le zoo à côté de Bazoo en train dse lé-rou des zdéh A cout de rasoir fuck demain on réglera ça ce soir La concurrence jlui ai tellement mise quelle peut même plus sassoir Jgarde la pèche, pas le citron mais jte lâche des rimes amer Dans tous ce bas monde ya que lImam qui a le droit de faire pleurer ma mère Cest vrai qule succès monte à la tête Mais faut pas se prendre pour jsais pas qui Deux ou trois quets-pa de cigarettes Une ou deux quette-pla de paki Comme dit Nessbeal mieux perdre la vue que la raison Rêve de changer dhorizon Marre des barreaux de prison Faut faire plaisir à la Mama lui offrir une belle maison Jtransfert au FC Ketama à la prochaine saison Jai niqué lRap Game dehwa, jlui ai fait perdre ses os Demande pas à Khider ou à Ferrara ce quil ferait avec une paire de ciseaux Ok cest le Zoogata Yougata wesh mon suisse Tous les jours sa frôle la cour dassise Normal que nos reufs mincisse Niveau détude catastrophique on a tous un Bac -6 Ya trop de Vodka dans loasis donc nos haltères moisisse Moi cest Mister jarrive tout de suite jprends lnuméro dta miss Eh vient pas mfatigué lcrane si un dmes shab tla mise Big la miff tranquille jarrive et jaugmente la mise De Fabio Lucci à chez Gucci, in sha Allah jpartirai en Kamis Là jfume toujours du cannabis Jbaise toujours la police A lheure ou tout es meu-fer, faut quand même quon salcoolise La vérité sa crève lil donc les 3eineur agonise Vu quon reste vrai toujours le même le con a pas besoin quon vise Educateur dla street moi tu mécoute tu passes le BAFA Jai du sang sur les bras va Dehwa jrap pour les braves Hoogata Yougata What mutherfucka A3mel lkhir yanssah a3mal lchar ytfakar Jsuis dans mon quartier jgalère jregarde en lair Jsuis en train de cogité jsuis défoncé sa mère Jarrive chargé une porteuse à Tanger Apres mon passage au terfé bah il treste plus grand chose à manger Jroule un zdéh pour me perché Et rejoindre létoile du Bergé Cest plus de couilles que jai nan cest des gros oeufs de Fabergé Jsuis overbooké ok Zoogataga Jai appris une chose chez Ruquier, cest lmot rutabaga Jrêve que de pouvoir et comme vous avez pu le voir Bah lrap français cest pas vraiment ltruc teh Audrey Pulvar Mon point commun avec Natasha cest mes chico de devant Sauf que moi même sans mes 32 dents bah jleur fait du rentre dedans Attend eh bien sûr que lavenir est inquiétant Pour des barrettes ils nous mettent 8 huit ans Wesh monsieur lPrésident dites leurs bien que Jreprésente les 3arbi le négeuz moi Jsuis plus riche queux donc pourquoi jirai fouiller leurs keu-ss Eux ils sont en pleine crise moi jsuis en plein dans les 30 glorieuse Mais jsais que ma liberté bah elle vaut pas grand chose à leur yeu-z Demande à Lacrim quand jétais à lécole cétait pour gratter les remises de peine Du dispatching au disque de platine Dla fiche de recherche à la fiche de paye Jai pété tous les barrages mais je nai jamais été odieux Comment idolâtrer la vache quand lunivers est à Dieu Dites leurs bien que men bas les couilles de leurs baratin Là jsuis en promenade troisième tour khabta dans un bar à timpe Nique létat cest chméta ils rêvent que de nous foutre dans la de-mer Donc jvais mbranler et même cracher sur leur putin de système de merde Woogata kha tfou Rap teh les fous Qui préfère sacheter une raffleuse que de faire du Kung-fu La Mecque jsuis de ceux qui sbaissent et qui tousse mec Allah y 3efou Jte lai déjà dit on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez nous pour quon sarrête Les 3eineur m'ont trop à l'il dites-leur d'niqué leurs mères les chouettes Moi jm'occupe d'la vodka vous hougataga gardez la Schweppes Eh psss, daprès mon entourage Je reste un brave et cest pour ça quil mencourage Apres la pluie ya pas le beau temps ya lorage Cest vrai que les ptits ont hardcord on était pareil à leur âge A deux sur un scooteur on vivait que de vol à larrache Puis on a connu la crave-bi on a vite tourné la page On sest mis a coupé des barrettes Ensuite à vendre des plaquettes Puis dla coke et de galettes Jusquà ce que les keufs nous arrêtent Un jour jétais dans l19 Le lendemain un hessess fermait ma porte Un soir jetais avec une meuf Le lendemain elle était avec mon pote La vie cest dur Pas de plainte nous tout ce quon porte cest des flingue Et ya pas de vice de procédure gros cest la loi de la jungle Cest pas de ma faute dehwa jcrois bien que jsuis taré de naissance Jme reconnais pas moi-même des fois jsuis ravi de faire ma connaissance Et quand jpart au chtar bah tinquiete pas que jreçois des mandats Et jai toujours la frappe tah le Hollanda et teh Belhanda Jsuis khabta Zoogataga sous ma véranda Et jglisse mes doigts dans les cheveux teh Esméralda Jemmerde lEtat, jemmerde les stups, jemmerde les gendarmes Trafiquant de rime, trafiquant de stup ou trafiquant darmes Je suis comment vous dites paranoïaque ouais Men bas les yeu-k madame la juge baraniyék Tayah sa3dek jte lavais dit qujavais de projets Là jgraille des brochettes jinsulte ta mère et jtouche des gros chèques Jmachète des trucs qui valent cher tient rien quavant-hier Jme suis acheter 3 4 t-shirt jai dépensé ton salaire Jme suis roulé un gros zdéh Puis jai repensé à la misère à cet été à cet hiver Alicante au Val dIsère Au mitard teh la Santé, les promenades en camembert Au mitard teh Fleury quand jrevois les toilettes jme dis beurk Ah les batard comment ils ont pu me faire ça Ils mlon mise jleur ai remise Hoogata vise et versa Ye zeh obligé de se faire remarqué Obligé de se faire embarqué et hop déféré au parquet Direction les grillages bon trêves denfantillage Yeah i speak a little english mother fucking biatch Ouald el kehba what you gonna do ?! Ok jcontinue tout doux Jre big up le rot Mamadou Ok yougata yougata gangst to gangst Tu connais la musique celui qui veux m'test je le baise ah1</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Laisse tomber mon frère, ils étaient complètement chauds... Moi j'ai cru qu'on allait mourir hein ! 'fin, moi j'ai vraiment cru, moi dans ma tête ma première truc c'était on va mourir.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, ouh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Le motard est derrière, nous dans la clairière Allô sergent j'ai deux p'tits chats dans l'viseur Ils sont chargés, l mec changeait sont chargeur Ds moustaches de blédard, un bigot, un pétard Ouais c'est pas des blagueurs J'les prends en filoche Là j'suis au feu rouge On prend le vieux pont direction le cinoche.. J'suis à 50 mètres derrière eux, voiture rouge, deux individus armés, je répète Ok bien reçu, garde-les en visu les lâche pas d'une semelle On va s'les faire pour commencer la semaine Ok les gars on y va on a deux p'tits chats armés dans la ville, on va s'les faire ! On démarre, fourgon Ok, c'est bon Opération Petits chatons You might also likeOn démarre, fourgon Ok, c'est bon Opération Petits chatons Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Ça y est, on y va On sort les guitares On s'fait les p'tits chats La mort ou l'mitard Let's go on descend x2 Toi ferme ta gueule, lève les mains et ferme ta gueule Il est où ton gun, un faux mouvement je dégaine, okay ? C'est un faux, vous me faites peur ! Tirez pas, c'est un faux ! Ça c'est pas un faux, m'prends pas pour un fou J'connais mon métier, j'suis gardien de la paix Deux suspects en joue Y'en a un troisième, un chaton tout noir ! Trois p'tits chats, sans clichés, ils feront même pas le JT Une bavure policière, ils seront couverts, nique sa mère ! Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça..</t>
+          <t>Laisse tomber mon frère, ils étaient complètement chauds... Moi j'ai cru qu'on allait mourir hein ! 'fin, moi j'ai vraiment cru, moi dans ma tête ma première truc c'était on va mourir.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, ouh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Le motard est derrière, nous dans la clairière Allô sergent j'ai deux p'tits chats dans l'viseur Ils sont chargés, l mec changeait sont chargeur Ds moustaches de blédard, un bigot, un pétard Ouais c'est pas des blagueurs J'les prends en filoche Là j'suis au feu rouge On prend le vieux pont direction le cinoche.. J'suis à 50 mètres derrière eux, voiture rouge, deux individus armés, je répète Ok bien reçu, garde-les en visu les lâche pas d'une semelle On va s'les faire pour commencer la semaine Ok les gars on y va on a deux p'tits chats armés dans la ville, on va s'les faire ! On démarre, fourgon Ok, c'est bon Opération Petits chatons On démarre, fourgon Ok, c'est bon Opération Petits chatons Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Ça y est, on y va On sort les guitares On s'fait les p'tits chats La mort ou l'mitard Let's go on descend x2 Toi ferme ta gueule, lève les mains et ferme ta gueule Il est où ton gun, un faux mouvement je dégaine, okay ? C'est un faux, vous me faites peur ! Tirez pas, c'est un faux ! Ça c'est pas un faux, m'prends pas pour un fou J'connais mon métier, j'suis gardien de la paix Deux suspects en joue Y'en a un troisième, un chaton tout noir ! Trois p'tits chats, sans clichés, ils feront même pas le JT Une bavure policière, ils seront couverts, nique sa mère ! Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça..</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ouh, ouh Ah Oh, oh V'là les problèmes Younès fois Médine LH, Rouen, RILESUNDAYZ, Din Records V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus t Franciscopolis Oui J'étais tit-pe, j'écoutais Médine, aujourd'hui, on feat ensemble Bsahtek C'que je dis pas, j'en fais des comptines, ensuite, on les chante ensemble Sale Éric Zemmour, c'est un hmar mais qu'est-ce qu'il parle bien Masha'Allah J'peux pas m'empêcher d'être fier qu'il soit Algérien Vrai visage de l'homme est dans l'anonymat, le moins bon d'entre nous, c'est p't-être le meilleur Capable du pire et du mieux comme Twitter, j'viens faire mon trou comme les boules au billard Sale Des choses qu'on t'apprend que tu comprends plus tard, ils font pas des punchlines mais des blagues Carambar Dans la cabine, antivol au cutter, on n'aime pas les Arabes à part ceux du Qatar Pah-pah-pah-pah You might also like J'ai croisé un flic, il était sympa, ça m'a fait bizarre Ça m'a fait tout drôle Il voulait ma carte et un autographe sur sa matraque Dis WAllah J'ai croisé Médine, j'lui ai dit Salam, il m'a dit Bonsoir Nhar Sheitan Putain, y a Younès, t'es chaud pour un feat ? On verra plus tard Ah l'bâtard V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus et Franciscopolis Oui J'suis rassuré depuis qu'j'ai su Ouh que l'Père Noël est noir comme Jésus Ah ouais J'suis beau comme un Arabe qui s'accuse Oh, comme une Algérienne qui s'excuse Okay Les fes-keu ont remonté ma puce Han, j'l'avais mise au nom de Bismuth Merde Quand le français perd sa beauté Oui, c'est tous les autres qu'il défigure Han Demande à ton gosse de dessiner Hein un terroriste ou bien un méchant Méchant, méchant Y a de fortes probabilités Hein pour que le personnage me ressemble Merde Mais le taureau n's'fatigue pas d'porter ses cornes Jamais, jamais Et la nièce de Ben Laden vote Donald Trump No, oh my God Plus rien n'm'étonne, mes diplômes, c'est l'top album J'rentre en cure de désintoxe pour vendre aux clickos plus de doses Ouh J'couperai pas la PlayStation même quand Cheez Nan perdra les eaux V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus et Franciscopolis Ouh, ouh Younès, Médine, Borat Azamat Younès, Médine, Borat Azamat Médine, Younès, chorba, crème fraîche Le rrain-te reste ouvert de Jumu'ah à Chabbat Han, la vache Mont-Saint', Maromme, Rouen, LH Tou-tou-tou-touh Je n'accuse personne mais c'est tout d'même curieux Ah ouais ? Bien, mec</t>
+          <t>Ouh, ouh Ah Oh, oh V'là les problèmes Younès fois Médine LH, Rouen, RILESUNDAYZ, Din Records V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus t Franciscopolis Oui J'étais tit-pe, j'écoutais Médine, aujourd'hui, on feat ensemble Bsahtek C'que je dis pas, j'en fais des comptines, ensuite, on les chante ensemble Sale Éric Zemmour, c'est un hmar mais qu'est-ce qu'il parle bien Masha'Allah J'peux pas m'empêcher d'être fier qu'il soit Algérien Vrai visage de l'homme est dans l'anonymat, le moins bon d'entre nous, c'est p't-être le meilleur Capable du pire et du mieux comme Twitter, j'viens faire mon trou comme les boules au billard Sale Des choses qu'on t'apprend que tu comprends plus tard, ils font pas des punchlines mais des blagues Carambar Dans la cabine, antivol au cutter, on n'aime pas les Arabes à part ceux du Qatar Pah-pah-pah-pah J'ai croisé un flic, il était sympa, ça m'a fait bizarre Ça m'a fait tout drôle Il voulait ma carte et un autographe sur sa matraque Dis WAllah J'ai croisé Médine, j'lui ai dit Salam, il m'a dit Bonsoir Nhar Sheitan Putain, y a Younès, t'es chaud pour un feat ? On verra plus tard Ah l'bâtard V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus et Franciscopolis Oui J'suis rassuré depuis qu'j'ai su Ouh que l'Père Noël est noir comme Jésus Ah ouais J'suis beau comme un Arabe qui s'accuse Oh, comme une Algérienne qui s'excuse Okay Les fes-keu ont remonté ma puce Han, j'l'avais mise au nom de Bismuth Merde Quand le français perd sa beauté Oui, c'est tous les autres qu'il défigure Han Demande à ton gosse de dessiner Hein un terroriste ou bien un méchant Méchant, méchant Y a de fortes probabilités Hein pour que le personnage me ressemble Merde Mais le taureau n's'fatigue pas d'porter ses cornes Jamais, jamais Et la nièce de Ben Laden vote Donald Trump No, oh my God Plus rien n'm'étonne, mes diplômes, c'est l'top album J'rentre en cure de désintoxe pour vendre aux clickos plus de doses Ouh J'couperai pas la PlayStation même quand Cheez Nan perdra les eaux V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus et Franciscopolis Ouh, ouh Younès, Médine, Borat Azamat Younès, Médine, Borat Azamat Médine, Younès, chorba, crème fraîche Le rrain-te reste ouvert de Jumu'ah à Chabbat Han, la vache Mont-Saint', Maromme, Rouen, LH Tou-tou-tou-touh Je n'accuse personne mais c'est tout d'même curieux Ah ouais ? Bien, mec</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Younès_Boucif_songs.xlsx
+++ b/data/02_intermediate/cleaned_Younès_Boucif_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tango Hawaï</t>
+          <t>2019 : LA DALLE, LA RAGE, LE SPLEEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Il est 20h, bonsoir à tous. Voici les titres de l'actualité de ce vendredi Les flammes avancent déjà depuis plus de 2 semaines. Des centaines d'hectares de la forêt amazonienne, partis en fumée 46 degrés à Londres ? enregistrés le 28 juin, jamais pareille température n'avait été recensée sur le sol français J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants Moment charnière, j'travaille comme acharné La go est charmante, le péché est charnel J'écris sur le net et c'est indélébile Je paie la note même si j'ai pas 10 balles J'ai la ge-ra, j'ai la dalle, j'ai le spleen J'ai besoin d'la torah, du coran, d'la bible Sentier battu, j'prends le chemin de travers Aucun regret je deviens c'que je traverse On change pas les hommes, on s'habitue à eux La misère est tellement moins pénible à deux J'me jette à l'eau, y'a pas d'bonne manière Personne m'a dit comment faire carrière Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte J'suis du continent le plus pillé du monde US président parle de pays de merde Ils nous punissent pour les attentats Les noirs sont riches qu'au Wakanda Ce monde d'élevage au poulet de batterie C'est tout c'que t'auras poto à bas prix Keufs dans l'virage, on est pas vus pas pris C'est tout c'que Paris dans l'métro m'a pris La veille j'étais sur scène en Tunisie J'me réveille, j'mange une amende dans le bus Quotidien atteint de schizophrénie J'me réveille, j'ai pris une année de plus J'me suis fait braquer la mort au bout du gun J'pense à mes parents, le brigadier gueule J'ai plus de chances de mourir par un flic Que par une grosse équipe, c'est dramatique Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte Les algériens manifestaient pour le 20ème vendredi d'affilée. Les revendications sont toujours les mêmes, le départ de l'équipe au pouvoir Désormais officiel, la chambre des représentants s'apprête à transmettre au Sénat l'acte d'accusation du procès en destitution de Donald Trump Les défauts d'hier me font mal aujourd'hui Mama t'avais raison, Miro l'a dit La couleur de peau fait pas l'fils de pute Mais l'fils de pute a une couleur de peau Levé du pied gauche, j'frappe la porte au pied d'biche J'essaie d'assumer donc il faut qu'jme détache J'ai un sac de sport et puis les gens ont peur Ils pensent à la mort, ils s'rappellent du 20h Dieu m'fait d'la peine comme un restaurant vide J'force le respect comme détenu qui s'évade J'réfléchis trop, j'serai jamais heureux J'ai trop d'défauts pour les énumérer Tu fais rien d'ta ie-v tu veux niquer la mienne Elle t'a trompé, tu veux niquer l'amant Dans l'roman la chaussure est italienne Dans la vraie vie le racisme est latent La vie était belle, maintenant elle m'emmerde Maintenant j'me démène pour trouver d'nouveaux jeux J'dois faire des expos, aller dans des restaus Tu prends de l'ecsta, moi j'écoute ? L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé J'mange du pain nature, j'imagine le beurre J'enchaîne les ratures, j'm'imagine auteur Aux grands hommes la nation reconnaissante Aux grandes sommes la nation est complaisante J'peux plus t'lâcher comme un bon livre J'suis attaché, t'as de belles lèvres J'suis pas pro-bouche j'suis du côté appache Je suis l'intello du fond de la classe J'suis rêveur comme Fantasio de Musset J'aime flâner dans les rues, les musées J'suis idiot comme le prince de Dostoïevski J'me sens vivre comme une après-midi au ski À part dans mes textes, j'raconterai pas ma vie Tu m'verras pas mettre des stories d'ma fille Les défauts d'hier me font mal aujourd'hui Mama t'avait raison Miro l'a dit L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé Youn</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019 : LA DALLE, LA RAGE, LE SPLEEN</t>
+          <t>Au final</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Il est 20h, bonsoir à tous. Voici les titres de l'actualité de ce vendredi Les flammes avancent déjà depuis plus de 2 semaines. Des centaines d'hectares de la forêt amazonienne, partis en fumée 46 degrés à Londres ? enregistrés le 28 juin, jamais pareille température n'avait été recensée sur le sol français J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants J'enchaîne les échecs, j'ai une collection L'moral à zéro, l'compte à -200 J'enchaîne les rapports, j'fais des connexions J'questionne la société comme les mendiants Moment charnière, j'travaille comme acharné La go est charmante, le péché est charnel J'écris sur le net et c'est indélébile Je paie la note même si j'ai pas 10 balles J'ai la ge-ra, j'ai la dalle, j'ai le spleen J'ai besoin d'la torah, du coran, d'la bible Sentier battu, j'prends le chemin de travers Aucun regret je deviens c'que je traverse On change pas les hommes, on s'habitue à eux La misère est tellement moins pénible à deux J'me jette à l'eau, y'a pas d'bonne manière Personne m'a dit comment faire carrière Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte J'suis du continent le plus pillé du monde US président parle de pays de merde Ils nous punissent pour les attentats Les noirs sont riches qu'au Wakanda Ce monde d'élevage au poulet de batterie C'est tout c'que t'auras poto à bas prix Keufs dans l'virage, on est pas vus pas pris C'est tout c'que Paris dans l'métro m'a pris La veille j'étais sur scène en Tunisie J'me réveille, j'mange une amende dans le bus Quotidien atteint de schizophrénie J'me réveille, j'ai pris une année de plus J'me suis fait braquer la mort au bout du gun J'pense à mes parents, le brigadier gueule J'ai plus de chances de mourir par un flic Que par une grosse équipe, c'est dramatique Quand je l'ai j'en veux plus, désolé j'me replis Soudainement j'suis repu, j'ai envie d'un répit Quand tu t'enfuis les autres filles je m'en fous On s'est séparés plein de fois, c'est jamais la fin J'répète les erreurs comme un amnésique C'est plus l'même nom mais c'est la même musique Avant qu'la haine s'insinue qu'on se pique La meilleure décision c'est qu'on se quitte Les algériens manifestaient pour le 20ème vendredi d'affilée. Les revendications sont toujours les mêmes, le départ de l'équipe au pouvoir Désormais officiel, la chambre des représentants s'apprête à transmettre au Sénat l'acte d'accusation du procès en destitution de Donald Trump Les défauts d'hier me font mal aujourd'hui Mama t'avais raison, Miro l'a dit La couleur de peau fait pas l'fils de pute Mais l'fils de pute a une couleur de peau Levé du pied gauche, j'frappe la porte au pied d'biche J'essaie d'assumer donc il faut qu'jme détache J'ai un sac de sport et puis les gens ont peur Ils pensent à la mort, ils s'rappellent du 20h Dieu m'fait d'la peine comme un restaurant vide J'force le respect comme détenu qui s'évade J'réfléchis trop, j'serai jamais heureux J'ai trop d'défauts pour les énumérer Tu fais rien d'ta ie-v tu veux niquer la mienne Elle t'a trompé, tu veux niquer l'amant Dans l'roman la chaussure est italienne Dans la vraie vie le racisme est latent La vie était belle, maintenant elle m'emmerde Maintenant j'me démène pour trouver d'nouveaux jeux J'dois faire des expos, aller dans des restaus Tu prends de l'ecsta, moi j'écoute ? L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé J'mange du pain nature, j'imagine le beurre J'enchaîne les ratures, j'm'imagine auteur Aux grands hommes la nation reconnaissante Aux grandes sommes la nation est complaisante J'peux plus t'lâcher comme un bon livre J'suis attaché, t'as de belles lèvres J'suis pas pro-bouche j'suis du côté appache Je suis l'intello du fond de la classe J'suis rêveur comme Fantasio de Musset J'aime flâner dans les rues, les musées J'suis idiot comme le prince de Dostoïevski J'me sens vivre comme une après-midi au ski À part dans mes textes, j'raconterai pas ma vie Tu m'verras pas mettre des stories d'ma fille Les défauts d'hier me font mal aujourd'hui Mama t'avait raison Miro l'a dit L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé L'ami d'mon ami n'est pas forcément l'mien Quand c'est pas mal c'est pas forcément bien Courir après l'bonheur, trouver la paix Devenir cambrioleur, trouver la clé Youn</t>
+          <t>Rappe ta vie, qu'elle soit héroïque ou banale Au final, qu'est-ce qu'il change, Obama ? Y a toujours des renois qui s'font plomber dans l'Oklahoma Y a toujours des drones de combat, drôle de combat Le renoi, c'est souvent l'meilleur ami mais rarement l'personnage principal ouais, ouais Et le monde va vite, on veut tous la suite et les cinq étoiles Trouver une femme belle, belle, si belle à la belle étoile Lui faire l'amour puis faire un tour juste elle et oim Lui faire l'amour tous les jours, tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'rappe ma vie, pas la tienne. Tu t'y reconnais ? À la tienne Si tu kiffes pas, renoi, t'écoutes pas et puis c'est tout Au final, j'ai jamais d'meufs mais j'ai plein d'ex J'agis mal à croire qu'j'la pousse à ce qu'elle me next Au final, le monde est faux donc, si j'suis vrai, c'est un défaut Au final, y a plus de social mais on a les réseaux sociaux J'ai un problème avec les femmes, on s'embrouille au téléphone De ma musique, elle est fan, mais, au final, je la rends folle tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! On parle d'euros, de ronds, d'avoir les bras longs On fait l'tour du de-mon mais qu'avec un ballon On parle de sommes au bord de la Seine, qu'on s'envole vers contrées lointaines On parle de sons, monter sur scène, de succès, modeste sans avoir la grosse tête On veut grosses fesses sans avoir la grossesse On veut grosses caisses, ils rêvent d'assiettes... grotesque ! L'indécence burlesque ! Vide de sens vulgaire ! On veut des sous pour des bulles d'airs, bordel ! Vivre sans père, c'est grandir sans modèle L'âme sur, c'est devenu démodé Les petits veulent une pute dans un motel Bienvenue dans l'époque moderne Tout se monnaye, liberté, mon il ! Tes rêves sont ceux des autres, eux-mêmes ceux des autres Et des autres et personne n'y voit plus clair dans ce désordre J'rêve d'atteindre les rêves de mes rêves Mais comment trouver de l'eau dans ce désert ? J'rêve de mes rêves pendant des heures Et je rêve que mes rêves soient mes désirs Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7 ? J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7, hein ? Yoon on the Moon, Rilès à la prod Héhéhé, c'est comment ? Gros big up à Semardhino sans qui j'aurais jamais fini ce texte Frère, celle-ci, elle est pour oit1</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Au final</t>
+          <t>Beaux quartiers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rappe ta vie, qu'elle soit héroïque ou banale Au final, qu'est-ce qu'il change, Obama ? Y a toujours des renois qui s'font plomber dans l'Oklahoma Y a toujours des drones de combat, drôle de combat Le renoi, c'est souvent l'meilleur ami mais rarement l'personnage principal ouais, ouais Et le monde va vite, on veut tous la suite et les cinq étoiles Trouver une femme belle, belle, si belle à la belle étoile Lui faire l'amour puis faire un tour juste elle et oim Lui faire l'amour tous les jours, tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'rappe ma vie, pas la tienne. Tu t'y reconnais ? À la tienne Si tu kiffes pas, renoi, t'écoutes pas et puis c'est tout Au final, j'ai jamais d'meufs mais j'ai plein d'ex J'agis mal à croire qu'j'la pousse à ce qu'elle me next Au final, le monde est faux donc, si j'suis vrai, c'est un défaut Au final, y a plus de social mais on a les réseaux sociaux J'ai un problème avec les femmes, on s'embrouille au téléphone De ma musique, elle est fan, mais, au final, je la rends folle tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! On parle d'euros, de ronds, d'avoir les bras longs On fait l'tour du de-mon mais qu'avec un ballon On parle de sommes au bord de la Seine, qu'on s'envole vers contrées lointaines On parle de sons, monter sur scène, de succès, modeste sans avoir la grosse tête On veut grosses fesses sans avoir la grossesse On veut grosses caisses, ils rêvent d'assiettes... grotesque ! L'indécence burlesque ! Vide de sens vulgaire ! On veut des sous pour des bulles d'airs, bordel ! Vivre sans père, c'est grandir sans modèle L'âme sur, c'est devenu démodé Les petits veulent une pute dans un motel Bienvenue dans l'époque moderne Tout se monnaye, liberté, mon il ! Tes rêves sont ceux des autres, eux-mêmes ceux des autres Et des autres et personne n'y voit plus clair dans ce désordre J'rêve d'atteindre les rêves de mes rêves Mais comment trouver de l'eau dans ce désert ? J'rêve de mes rêves pendant des heures Et je rêve que mes rêves soient mes désirs Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour Les promesses tenues la nuit voient rarement le jour Car c'est sous whisky que mes amis t'ont fait la cour tous les soirs Tous les soirs, avec mes kheys Tous les soirs, on est ensemble Tous les soirs, viens pas nous test Tous les soirs, posés au tieks Tous les soirs, on s'ambiance Tous les soirs, Yoon on the Moon Tous les soirs, tous les soirs, tous les soirs ! J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7 ? J'suis avec la sist', le neveu fait la sieste Est-ce que la réussite a une gueule d'Audi A7, hein ? Yoon on the Moon, Rilès à la prod Héhéhé, c'est comment ? Gros big up à Semardhino sans qui j'aurais jamais fini ce texte Frère, celle-ci, elle est pour oit1</t>
+          <t>Lo siento Carlito Mes couilles et moi on fait la paire Tout pleins d'plans qu'on élabore On veut bien sauver la Terre Mais on veut percer d'abord Y'a rien qui change à part les saisons et encore c'est vrai qu'maintenant euh... J'veux vous voir chanter mes chansons et en choeur J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah Des fautes d'hier blessure d'aujourd'hui Plaisir d'hier désirs d'aujourd'hui Demain c'est aujourd'hui j'remets les choses à aujourd'hui C'est moi qui gagne c'est Dieu qui donne J'suis matinal depuis qu'l'école c'est terminé Depuis qu'je charbonne pour ma pomme pas pour un mec des beaux quartiers J'me balade chez les riches comme dans un catalogue J'sors de mon sac un sandwich mayo thon catalane On tue l'ennui nos daronnes meurent d'inquiétudes On tourne en ville dans les poches zéro pécule Je m'auto-stimule y'a pas qu'au foot poto que les gens simulent Tout tout tout tout mettre de côtés pour finir manga Tout laisser tomber, arrêter l'pe-ra enfin J'ai peur de t'faire du mal J't'en fais encore plus ah mince Si l'rap est une fac La street c'est l'campus Fuck la langue de bois Viens on s'dit c'qu'on pense Est-ce qu'on fait le bien Que pour la récompense ? Partage des photos sans intérêts En quête d'un peu plus d'intérêt Ce comportement m'interroge J'l'observe même dans mon entourage J'sais c'qui m'fait du bien j'le fais pas J'aime pas quand ils me demandent mes papiers Reconnu sur Paname, j'suis toujours un peu surpris Pour l'instant c'est pas mal mais on verra ensuite Et j'me méfie des éloges encore plus que des critiques J'fais pas des punchlines mais des proverbes J'perce dans l'rap, ensuite j'irai me mettre au vert Vue sur la mer Potager, montagne, ma meuf et moi Ce sera cool Aller euh, tous ensemble J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beaux quartiers</t>
+          <t>Bientôt à la mode</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lo siento Carlito Mes couilles et moi on fait la paire Tout pleins d'plans qu'on élabore On veut bien sauver la Terre Mais on veut percer d'abord Y'a rien qui change à part les saisons et encore c'est vrai qu'maintenant euh... J'veux vous voir chanter mes chansons et en choeur J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah Des fautes d'hier blessure d'aujourd'hui Plaisir d'hier désirs d'aujourd'hui Demain c'est aujourd'hui j'remets les choses à aujourd'hui C'est moi qui gagne c'est Dieu qui donne J'suis matinal depuis qu'l'école c'est terminé Depuis qu'je charbonne pour ma pomme pas pour un mec des beaux quartiers J'me balade chez les riches comme dans un catalogue J'sors de mon sac un sandwich mayo thon catalane On tue l'ennui nos daronnes meurent d'inquiétudes On tourne en ville dans les poches zéro pécule Je m'auto-stimule y'a pas qu'au foot poto que les gens simulent Tout tout tout tout mettre de côtés pour finir manga Tout laisser tomber, arrêter l'pe-ra enfin J'ai peur de t'faire du mal J't'en fais encore plus ah mince Si l'rap est une fac La street c'est l'campus Fuck la langue de bois Viens on s'dit c'qu'on pense Est-ce qu'on fait le bien Que pour la récompense ? Partage des photos sans intérêts En quête d'un peu plus d'intérêt Ce comportement m'interroge J'l'observe même dans mon entourage J'sais c'qui m'fait du bien j'le fais pas J'aime pas quand ils me demandent mes papiers Reconnu sur Paname, j'suis toujours un peu surpris Pour l'instant c'est pas mal mais on verra ensuite Et j'me méfie des éloges encore plus que des critiques J'fais pas des punchlines mais des proverbes J'perce dans l'rap, ensuite j'irai me mettre au vert Vue sur la mer Potager, montagne, ma meuf et moi Ce sera cool Aller euh, tous ensemble J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah J'suis dans les beaux quartiers, on m'regarde moyen Les jambes écartées, j'lui glisse le ballon yeah</t>
+          <t>Hey, y'a pas d'autotune c'est du pe-ra zéro autotune Rah, putain j'aime trop ça j'aime trop ça J'vais m'isoler car j'ai pas envie qu'mes enfants jouent avec les tiens Écoute eh, eh Don Carlito J'vais m'isoler, car j'ai pas envie qu'mes enfants jouent avec les tiens cheh Arrête de pleurer, le seul remède à un amour perdu c'est le temps J'fais pas la fête, je fais le vestiaire, y'a ceux qui taffent, ceux qui espèrent Tu n'as pas le temps ou tu n'as pas envie ? Dis la vérité, ne sois pas mauvais Il parle bien pour un rebeu beh se disent ces bobos wouh wouh Ça commence bien, ça finit mieux Pas comme Naruto shippuden J'vais briser son corazón elle a raison, aujourd'hui elle pleure car c'est la saison Elle a voulu voir Vierzon, elle a vu Vierzon, elle voudrait les fleurs, la jolie maison Des histoires à dormir debout, chercher l'réconfort dans un film de boules Si tu kiffes pas, c'est qu'une histoire de goût, j'fais plus rire personne comme Jamel Debbouze J'en ai vu d'toutes les douleurs, j'capte plus toutes les couleurs On peut s'dire à tout à l'heure, s'faire faucher à toute allure J'suis à Venise, j'rêve de briser ta perche à selfie, de te la mettre dans le hmm J'suis en Vélib, j'rêve de tout quitter pour la Mongolie, j'me balade sur les T'es plutôt Kaaris ou t'es plutôt Booba ? Moi, mon rappeur préféré, c'est moi, eh Forcément 'ment, 'ment Si ma go' me trompe, mehlich, j'vais pas fouiller son tél, c'est khéné Les p'tits sur le net s'affichent, dans dix piges, des regrets J'aimerais payer mon ticket car frauder, c'est fatigant roh, c'est chiant On l'fait plus pour s'amuser, on a grandi depuis l'temps on est plus des tits-pe C'est du peu-ra, pas d'la funk, pour les caille-ra, pour les punks pour les voyous On est bientôt à la mode, Don Carlito à la prod' roh, j'aime trop ça</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bientôt à la mode</t>
+          <t>Ce n’est que de l’art</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hey, y'a pas d'autotune c'est du pe-ra zéro autotune Rah, putain j'aime trop ça j'aime trop ça J'vais m'isoler car j'ai pas envie qu'mes enfants jouent avec les tiens Écoute eh, eh Don Carlito J'vais m'isoler, car j'ai pas envie qu'mes enfants jouent avec les tiens cheh Arrête de pleurer, le seul remède à un amour perdu c'est le temps J'fais pas la fête, je fais le vestiaire, y'a ceux qui taffent, ceux qui espèrent Tu n'as pas le temps ou tu n'as pas envie ? Dis la vérité, ne sois pas mauvais Il parle bien pour un rebeu beh se disent ces bobos wouh wouh Ça commence bien, ça finit mieux Pas comme Naruto shippuden J'vais briser son corazón elle a raison, aujourd'hui elle pleure car c'est la saison Elle a voulu voir Vierzon, elle a vu Vierzon, elle voudrait les fleurs, la jolie maison Des histoires à dormir debout, chercher l'réconfort dans un film de boules Si tu kiffes pas, c'est qu'une histoire de goût, j'fais plus rire personne comme Jamel Debbouze J'en ai vu d'toutes les douleurs, j'capte plus toutes les couleurs On peut s'dire à tout à l'heure, s'faire faucher à toute allure J'suis à Venise, j'rêve de briser ta perche à selfie, de te la mettre dans le hmm J'suis en Vélib, j'rêve de tout quitter pour la Mongolie, j'me balade sur les T'es plutôt Kaaris ou t'es plutôt Booba ? Moi, mon rappeur préféré, c'est moi, eh Forcément 'ment, 'ment Si ma go' me trompe, mehlich, j'vais pas fouiller son tél, c'est khéné Les p'tits sur le net s'affichent, dans dix piges, des regrets J'aimerais payer mon ticket car frauder, c'est fatigant roh, c'est chiant On l'fait plus pour s'amuser, on a grandi depuis l'temps on est plus des tits-pe C'est du peu-ra, pas d'la funk, pour les caille-ra, pour les punks pour les voyous On est bientôt à la mode, Don Carlito à la prod' roh, j'aime trop ça</t>
+          <t>Le métal, on peut le tordre, le fer, on peut le fondre. Alors que peut-on faire de l'homme avec la douleur ? Phrase terrible qui pourrait servir d'épitaphe à tous les disparus. J'ai marché si longtemps, j'ai appris à voler Au-dessus des gens, des brigands et des voleurs Avec le temps, je me suis moins donné J'suis d'venu distant pour éviter la douleur L'erreur est humaine, l'humain est une erreur C'est donc naturel de tomber dans la peur L'espoir nous emmène au delà de ces rumeurs C'est donc un remède d'avoir la main sur le cur J'ai les pieds sur terre, la tête dans les étoiles Pas étonnant, mon frère, si j'ai si mal aux entrailles Un jour, j'en ai rien à faire, un jour, j'veux la médaille Une fois, j'range mes affaires, une autre fois, je les déballe Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes J'marche et la vie suit son cours, le marché suit son cours Les traders font la course, jouent avec la bourse Engrangent des millions, des milliards En fait, t'es mignon mais ignare J'suis à Saint-Lazare, j'vois les gens courir Un train entre en gare, un autre vient de partir Le décès d'un vieillard, la naissance d'un avenir Ce n'est que de l'art mais c'est ce qui m'attire Que peut-on faire de la douleur ? Un morceau, une confidence ou contracter Alzheimer Que peut-on faire de la douleur ? On peut la transformer en haine, on peut la transformer en peine Moi, perso, quand la coupe est pleine J'préfère la transformer en thème Que peut-on faire de la douleur ? Un étendard, une bannière, une victoire, une manière Fier d'ton malheur, en faire un porte bonheur Que peut-on faire de la douleur ? Gros, tu choisis la couleur Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Des rencontres, des partages, des sourires Je raconte mes voyages, mes souvenirs J'me rends compte qu'on prend de l'âge, qu'on mûrit Le pe-ra, une image que j'écris Au moment où j'le vis, au moment où j'le vois Et tu sais c'que je crée, tu peux être sûr que j'le crois Au moment où j'le dis, au moment où j'le donne à ma feuille En effet, j'ai la foi mais faut qu'tu saches qu'la musique est figée J'sais pas si t'as pigé mais j'me sens obligé de t'en aviser J'te partage une vision à un moment visé C'est rien de plus que du son sur une production d'So Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Yoon on the Moon Auteur prudent, auditeur averti, auteur prudent, auditeur averti Auteur prudent, auditeur averti, auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance Tu le sais, frère, tu le sais Ce n'est que de l'art, n'en fais pas ton arme, gros Yoon on the Moon, gros Auteur prudent, auditeur averti, auteur prudent, auditeur averti Ce n'est que de l'art, auteur prudent, auditeur averti J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu où tout le monde a tort au royaume des menteurs J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu que tout le monde adore au royaume des menteurs</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ce n’est que de l’art</t>
+          <t>CHÉRIE COCO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Le métal, on peut le tordre, le fer, on peut le fondre. Alors que peut-on faire de l'homme avec la douleur ? Phrase terrible qui pourrait servir d'épitaphe à tous les disparus. J'ai marché si longtemps, j'ai appris à voler Au-dessus des gens, des brigands et des voleurs Avec le temps, je me suis moins donné J'suis d'venu distant pour éviter la douleur L'erreur est humaine, l'humain est une erreur C'est donc naturel de tomber dans la peur L'espoir nous emmène au delà de ces rumeurs C'est donc un remède d'avoir la main sur le cur J'ai les pieds sur terre, la tête dans les étoiles Pas étonnant, mon frère, si j'ai si mal aux entrailles Un jour, j'en ai rien à faire, un jour, j'veux la médaille Une fois, j'range mes affaires, une autre fois, je les déballe Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes J'marche et la vie suit son cours, le marché suit son cours Les traders font la course, jouent avec la bourse Engrangent des millions, des milliards En fait, t'es mignon mais ignare J'suis à Saint-Lazare, j'vois les gens courir Un train entre en gare, un autre vient de partir Le décès d'un vieillard, la naissance d'un avenir Ce n'est que de l'art mais c'est ce qui m'attire Que peut-on faire de la douleur ? Un morceau, une confidence ou contracter Alzheimer Que peut-on faire de la douleur ? On peut la transformer en haine, on peut la transformer en peine Moi, perso, quand la coupe est pleine J'préfère la transformer en thème Que peut-on faire de la douleur ? Un étendard, une bannière, une victoire, une manière Fier d'ton malheur, en faire un porte bonheur Que peut-on faire de la douleur ? Gros, tu choisis la couleur Ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, j'ai mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Et ce n'est que de l'art, n'en fais pas ton arme Ça s'écoute tard le soir pour en apprécier le charme J'ai pris un faux départ, mangé quelques lames Laissez-moi ma part, il ne reste que quelques larmes Des rencontres, des partages, des sourires Je raconte mes voyages, mes souvenirs J'me rends compte qu'on prend de l'âge, qu'on mûrit Le pe-ra, une image que j'écris Au moment où j'le vis, au moment où j'le vois Et tu sais c'que je crée, tu peux être sûr que j'le crois Au moment où j'le dis, au moment où j'le donne à ma feuille En effet, j'ai la foi mais faut qu'tu saches qu'la musique est figée J'sais pas si t'as pigé mais j'me sens obligé de t'en aviser J'te partage une vision à un moment visé C'est rien de plus que du son sur une production d'So Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Ce n'est que de l'art, pas la vérité N'en fais pas ton arme, j'suis pas sûr de l'mériter Ça s'écoute tard le soir, en matant la Lune briller Pour en apprécier le charme, et me sentir à tes côtés Yoon on the Moon Auteur prudent, auditeur averti, auteur prudent, auditeur averti Auteur prudent, auditeur averti, auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance Tu le sais, frère, tu le sais Ce n'est que de l'art, n'en fais pas ton arme, gros Yoon on the Moon, gros Auteur prudent, auditeur averti, auteur prudent, auditeur averti Ce n'est que de l'art, auteur prudent, auditeur averti J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu où tout le monde a tort au royaume des menteurs J'crois bien que l'art, c'est nos âmes qui se parlent, pour ça qu'des frissons nous parcourent le corps et nous réchauffent le cur Un lieu que tout le monde adore au royaume des menteurs</t>
+          <t>Arwah Waseem Chérie coco passe ton number J'suis le poto d'Harry Potter On f'ra staycation à Poudlard Je n'prendrai jamais le boulard J'écoute du son dans la caisse Au fond d'nous qu'est-ce qu'on recherche ? Moi c'est le succès ma thèse C'est sur nous qu'j'ai mis la pièce En c'moment trop déçu Trop de vices j'suis trop déçu Trop de miss j'prends la prod je la r'tourne je la masse et ça glisse Dis moi y a qui dans la glace C'est pour ceux du fond d'la classe On veut plus connaître la hess Faut, faut que j'arrête de ne3ss Faut, faut que t'arrêtes de bédav Faut, faut que t'arrêtes de bédave, gros Regué regard tout dans l'regard Rebeu déter né en retard Par principe, posé pépère plein de pétards Tête de têtard, face de MM's Elle m'envoie des MMS De quoi tu parles, elle c'est Anissa Moi je m'appelle NES J'veux percer, plus faire de promo L'marketing pour moi c'est chromo Si tu perces en indé, ça fait contrôle Odeur de beuh, du moteur des pneus Posé sur l'parking avec mes rebeus Posé sur l'parking on aime pas les bleus On fume on oublie on rigole un peu et on rentre très tard super tôt Tout l'monde sait qu'j'aime trop la guitare J'fais des castins d'rôles de dealer Putain c'est vraiment des batards Pour un bon rôle dis leur J'attends qu'il s'fasse rach'ter par le Qatar bande de hmars, yeah Par le Qatar Wasseem à la prod, gros Rilès, Younès, bang</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHÉRIE COCO</t>
+          <t>Cinquième Rapport</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arwah Waseem Chérie coco passe ton number J'suis le poto d'Harry Potter On f'ra staycation à Poudlard Je n'prendrai jamais le boulard J'écoute du son dans la caisse Au fond d'nous qu'est-ce qu'on recherche ? Moi c'est le succès ma thèse C'est sur nous qu'j'ai mis la pièce En c'moment trop déçu Trop de vices j'suis trop déçu Trop de miss j'prends la prod je la r'tourne je la masse et ça glisse Dis moi y a qui dans la glace C'est pour ceux du fond d'la classe On veut plus connaître la hess Faut, faut que j'arrête de ne3ss Faut, faut que t'arrêtes de bédav Faut, faut que t'arrêtes de bédave, gros Regué regard tout dans l'regard Rebeu déter né en retard Par principe, posé pépère plein de pétards Tête de têtard, face de MM's Elle m'envoie des MMS De quoi tu parles, elle c'est Anissa Moi je m'appelle NES J'veux percer, plus faire de promo L'marketing pour moi c'est chromo Si tu perces en indé, ça fait contrôle Odeur de beuh, du moteur des pneus Posé sur l'parking avec mes rebeus Posé sur l'parking on aime pas les bleus On fume on oublie on rigole un peu et on rentre très tard super tôt Tout l'monde sait qu'j'aime trop la guitare J'fais des castins d'rôles de dealer Putain c'est vraiment des batards Pour un bon rôle dis leur J'attends qu'il s'fasse rach'ter par le Qatar bande de hmars, yeah Par le Qatar Wasseem à la prod, gros Rilès, Younès, bang</t>
+          <t>Jrespecte le beatmaker Mais je viole linstru Ici cest ma demeure Mais je suis lintru Ils disent qu'ils sont les meilleurs ils sont ni meilleurs ni modestes Plus j'apprends à me connaître plus jreconnais que je progresse Heureux comme un sot Triste comme un zoo J'agis encore comme un gosse Tu lsauras si tu m'agaces Tu veux la vérité ? D'où viennent les berreta ? Le mensonge prend l'ascenseur La vérité fait lmarathon Tu veux la vérité, pas de généralités ? Le cauchemar indien cest le rêve américain ! Mon travail est un jeu J'arrête pas dtravailler J'me croyais paresseux Mais en fait cest pas vrai Passe trop dtemps de c'côté ci Où thésites pour un UGC On refait le monde avec des si Mais cest mieux si tu essaies On m'a dit tu progresses Je te remercie Si jamais je régresse Me le diras tu aussi ? Jdors pas j'suis affamé Mes rêves me tiennent debout On travaille en famille On fait d'une pierre deux coups Nos jeux sont nos métiers Et nos métiers sont des jeux On te prendra au sérieux quand tu feras de largent J'suis plus proche du collégien que de l'adulte J'suis surveillant dans un bahut et j'me la donne J'suis plus proche de mon EP que de lalbum J'en dis plus à mon public quà ma daronne ×2 Ça va vite vite vite car j'ai plus ltemps Rapport 4 5 6 comme un bulletin Et cest dur de reprendre après la mi-temps Nous on vise la montée pas le maintien J'suis pas parti de rien Nan j'suis parti dchez mes darons J'suis pas parti pour rien J'suis parti comme Elisa Parron Paré comme le parrain J'rappe mes paroles a Opéra Refus d'obtempérer j'vais pas rester sur le perron Mes ratures deviennent des rapports Que deviennent les rappeurs ? Jmonte la température le pied sur laccélérateur Et J'veux plus qu'ils s'inquiètent j'veux voir papa serein Jveux plus quon sprenne la tête j'ai trop vu papa serré Moins je parle et plus je rappe J'suis un arabe en Europe Et plus jconnais le rap Plus j'écoute le rock Faut se méfier des motards Parce que c'est souvent des keufs Chez moi il ny a pas de menteurs Mais on y va souvent au bluff Quand la bouche ne parle pas Les yeux font des confidences Jfais pas dpera Jorganise des conférences J'suis rincé mais jcontinue J'veux faire ltour du continent Cest du pera pas un sketch Du coca pas du scotch Un jogging, une capuche, que des punchs dans les poches Des rimes secs dans mon sac, cest lrapport numéro 5</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cinquième Rapport</t>
+          <t>CLIQUE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jrespecte le beatmaker Mais je viole linstru Ici cest ma demeure Mais je suis lintru Ils disent qu'ils sont les meilleurs ils sont ni meilleurs ni modestes Plus j'apprends à me connaître plus jreconnais que je progresse Heureux comme un sot Triste comme un zoo J'agis encore comme un gosse Tu lsauras si tu m'agaces Tu veux la vérité ? D'où viennent les berreta ? Le mensonge prend l'ascenseur La vérité fait lmarathon Tu veux la vérité, pas de généralités ? Le cauchemar indien cest le rêve américain ! Mon travail est un jeu J'arrête pas dtravailler J'me croyais paresseux Mais en fait cest pas vrai Passe trop dtemps de c'côté ci Où thésites pour un UGC On refait le monde avec des si Mais cest mieux si tu essaies On m'a dit tu progresses Je te remercie Si jamais je régresse Me le diras tu aussi ? Jdors pas j'suis affamé Mes rêves me tiennent debout On travaille en famille On fait d'une pierre deux coups Nos jeux sont nos métiers Et nos métiers sont des jeux On te prendra au sérieux quand tu feras de largent J'suis plus proche du collégien que de l'adulte J'suis surveillant dans un bahut et j'me la donne J'suis plus proche de mon EP que de lalbum J'en dis plus à mon public quà ma daronne ×2 Ça va vite vite vite car j'ai plus ltemps Rapport 4 5 6 comme un bulletin Et cest dur de reprendre après la mi-temps Nous on vise la montée pas le maintien J'suis pas parti de rien Nan j'suis parti dchez mes darons J'suis pas parti pour rien J'suis parti comme Elisa Parron Paré comme le parrain J'rappe mes paroles a Opéra Refus d'obtempérer j'vais pas rester sur le perron Mes ratures deviennent des rapports Que deviennent les rappeurs ? Jmonte la température le pied sur laccélérateur Et J'veux plus qu'ils s'inquiètent j'veux voir papa serein Jveux plus quon sprenne la tête j'ai trop vu papa serré Moins je parle et plus je rappe J'suis un arabe en Europe Et plus jconnais le rap Plus j'écoute le rock Faut se méfier des motards Parce que c'est souvent des keufs Chez moi il ny a pas de menteurs Mais on y va souvent au bluff Quand la bouche ne parle pas Les yeux font des confidences Jfais pas dpera Jorganise des conférences J'suis rincé mais jcontinue J'veux faire ltour du continent Cest du pera pas un sketch Du coca pas du scotch Un jogging, une capuche, que des punchs dans les poches Des rimes secs dans mon sac, cest lrapport numéro 5</t>
+          <t>Yo, that shit catches, Senpaï Olala, Shaz I don't wanna wanna be with you Now I would care for you Stay, if you want like But you wanna me Or you wanna all that shit that comes with the coupe This money, this glowy, come on worries But I swear I will never fall fall, bad bad À cliques on a rowrow I ain't about to stop stop, now? We shoot for the throne Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème J'sais pas c'que j'cherche mais j'le cherche quand même J'ai pas d'talent, à part te dire c'que j'pense constamment Trop d'sentiments, trop d'sentiments, trop d'sentiments J'perds des followers, ça m'touche un peu, j'suis tombé bien bas Les rires et les pleurs semblent frères Les cris et les fleurs, chrysanthèmes But I swear I will never fall back À cliques on the road I ain't about to stop We shoot for the throne Big drip, Gucci pour ton birthday Saucé, ok, faut pas s'cracher, j'aime ton parfum Suis-moi, rien qu'on s'attache, ne prends pas trop d'time Nous deux, c'est l'classico, fuck les conséquences, trahis pas, c'est la honda Ton m'fait trop d'choses Profitons, j'ai qu'une seule vie Dans l'bat des on-dit, mais on vend la drogua Houdini, pas vu, pas pris Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème But I swear I'll never fall back À cliques on the road I ain't about to stop We shoot for the throne3</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLIQUE</t>
+          <t>Comme si</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yo, that shit catches, Senpaï Olala, Shaz I don't wanna wanna be with you Now I would care for you Stay, if you want like But you wanna me Or you wanna all that shit that comes with the coupe This money, this glowy, come on worries But I swear I will never fall fall, bad bad À cliques on a rowrow I ain't about to stop stop, now? We shoot for the throne Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème J'sais pas c'que j'cherche mais j'le cherche quand même J'ai pas d'talent, à part te dire c'que j'pense constamment Trop d'sentiments, trop d'sentiments, trop d'sentiments J'perds des followers, ça m'touche un peu, j'suis tombé bien bas Les rires et les pleurs semblent frères Les cris et les fleurs, chrysanthèmes But I swear I will never fall back À cliques on the road I ain't about to stop We shoot for the throne Big drip, Gucci pour ton birthday Saucé, ok, faut pas s'cracher, j'aime ton parfum Suis-moi, rien qu'on s'attache, ne prends pas trop d'time Nous deux, c'est l'classico, fuck les conséquences, trahis pas, c'est la honda Ton m'fait trop d'choses Profitons, j'ai qu'une seule vie Dans l'bat des on-dit, mais on vend la drogua Houdini, pas vu, pas pris Protège nos arrières protège nos arrières Vivre à l'arrière c'est ça l'thème mmh Protégeons nos arrières Vivre à l'arrière c'est ça l'thème But I swear I'll never fall back À cliques on the road I ain't about to stop We shoot for the throne3</t>
+          <t>Olala, Shaz On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Jm'en bats les couilles de la street cred, moi, jveux être crédible avec moi-même Ils diront qucest grâce à Rilès ouais, leurs avis, jmen les peanuts Cest pas ton image qui te définit, cest toi qui définis ton image Jaime ton corps, jaime ton cur, mais cque jpréfère cest ton visage Ce que je suis parle tellement fort quon en oublie ce que je dis Mais jvais rapper tellement fort quon en oubliera cque je suis Ça pue la pisse comme les quais d'Seine, le temps passe et on se questionne Ça pue la tise comme excès d'zèle, le temps passe et on sisole Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Je charbonne comme un Uber Eats, fais pas ta pince, laisse un pourboire Jsuis solitaire comme un artiste, jveux percer juste pour voir La jalousie, cest mauvais, faut quon soccupe de nos vies yeah Nous, on augmente le niveau, eux, ils sont morts dans lmovie Jsuis dans lbât', dans lplacard, il ny a que des pâtes, le frigo est vide Lavenir est vague, que Dieu nous guide, quil nous garde Ça mfait dla peine les darons pauvres qui vendent des tél' à la sauvette Rêves échoués comme des épaves et qui, malgré tout, restent honnêtes Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Comme si</t>
+          <t>C T PHOTOS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Olala, Shaz On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Jm'en bats les couilles de la street cred, moi, jveux être crédible avec moi-même Ils diront qucest grâce à Rilès ouais, leurs avis, jmen les peanuts Cest pas ton image qui te définit, cest toi qui définis ton image Jaime ton corps, jaime ton cur, mais cque jpréfère cest ton visage Ce que je suis parle tellement fort quon en oublie ce que je dis Mais jvais rapper tellement fort quon en oubliera cque je suis Ça pue la pisse comme les quais d'Seine, le temps passe et on se questionne Ça pue la tise comme excès d'zèle, le temps passe et on sisole Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre Je charbonne comme un Uber Eats, fais pas ta pince, laisse un pourboire Jsuis solitaire comme un artiste, jveux percer juste pour voir La jalousie, cest mauvais, faut quon soccupe de nos vies yeah Nous, on augmente le niveau, eux, ils sont morts dans lmovie Jsuis dans lbât', dans lplacard, il ny a que des pâtes, le frigo est vide Lavenir est vague, que Dieu nous guide, quil nous garde Ça mfait dla peine les darons pauvres qui vendent des tél' à la sauvette Rêves échoués comme des épaves et qui, malgré tout, restent honnêtes Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner Jai trop zoné j'ai trop zoné, jai trop traîné j'ai trop traîné Jvais tout donner, ouais, jte jure, jvais tout donner On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On senchaîne dès lplus jeune âge, on met une vie à séchapper On est le gardien d'la cage, on est aussi le prisonnier On vit comme si on avait rien à faire, comme si on avait rien à perdre yeah Comme si on avait rien à faire frère, comme si on avait rien à perdre On vit comme si on avait rien à faire yeah, comme si on avait rien à perdre Comme si on avait rien à faire frère, comme si on avait rien à perdre</t>
+          <t>D'où le simple physique d'une meuf va t'suffire. D'où ? D'où ? D'où frère ? D'où ? On est où là, chez les animaux ? Wesh faut s'réveiller wAllah J'étais sur Insta', j'me baladais à fond, envers les pétards, j'étais grave à l'affut Il était p't-être tard, j'avoue j'm'en souviens plus, quand j'suis tombé sur toi, t'avais un profil de fou J'ai liké direct, t'as liké direct, c'était mon jour de chance comme bug à la tirette J'en prends plein les mirettes, elle m'fait mal à la tête, j'veux enlevr ses vêtements, lui laissr ses lunettes Alors on papote, on sait très bien qu'on ne sera pas potes, c'est pas l'projet, c'est pas l'humeur On va pas faire de gosses, on va tester nos appareils reproducteurs On parle comme des bêtes, il nous reste que les puces, dis-moi bébé quand tu veux, je passe J'connais toutes tes photos, t'es bonne comme un cur, comme le cul de Kim K, j'suis obligé d'cliquer, j'peux pas me l'expliquer Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est des putains d'photos C'est tes photos, c'est ça qui cloche, c'est tes photos C'est tes photos, c'est pas toi qu'j'aime c'est tes photos Premier date, tu m'as dit tout sauf un verre, j't'ai dis donne-moi ton adresse et une heure J'vais pas t'la mettre à l'envers, toc toc toc, t'as ouvert la porte, on n'a pas fait d'détails On n'a pas fait semblant, j'avais la dalle de fou, t'es v'nue t'mettre sous ma dent On s'connait même pas mais on est super intime, c'est eux les méchants, nous on est dans la même team Rétine dans rétine, on peut plus s'arrêter mais un truc me chagrine, m'empêche de savourer Deuxième date rebellotte, on r'met les couverts, y a toujours pas de verre Nan, on s'y met direct mais dès l'début, y a un truc qui m'embête On fait l'amour mais moins bien qu'sur le net, j'suis dans son lit mais pourtant, j'me sens bête C'est comme si en fait, attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car dégage C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est tes tofs C'est tes photos, c'est les pellicules, c'est pas ta faute c'est les filtres C'est tes photos, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos c'est tes photos, c'est juste les photos C'est pas toi qu'j'aime, c'est tes photos c'est ton profil, c'est tes photos C'est tes photos reviens, c'est tes photos reviens C'est tes photos bébé, c'est pas toi qu'j'aime bébé, c'est tes photos wouh</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C T PHOTOS</t>
+          <t>Dans le truc</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D'où le simple physique d'une meuf va t'suffire. D'où ? D'où ? D'où frère ? D'où ? On est où là, chez les animaux ? Wesh faut s'réveiller wAllah J'étais sur Insta', j'me baladais à fond, envers les pétards, j'étais grave à l'affut Il était p't-être tard, j'avoue j'm'en souviens plus, quand j'suis tombé sur toi, t'avais un profil de fou J'ai liké direct, t'as liké direct, c'était mon jour de chance comme bug à la tirette J'en prends plein les mirettes, elle m'fait mal à la tête, j'veux enlevr ses vêtements, lui laissr ses lunettes Alors on papote, on sait très bien qu'on ne sera pas potes, c'est pas l'projet, c'est pas l'humeur On va pas faire de gosses, on va tester nos appareils reproducteurs On parle comme des bêtes, il nous reste que les puces, dis-moi bébé quand tu veux, je passe J'connais toutes tes photos, t'es bonne comme un cur, comme le cul de Kim K, j'suis obligé d'cliquer, j'peux pas me l'expliquer Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est des putains d'photos C'est tes photos, c'est ça qui cloche, c'est tes photos C'est tes photos, c'est pas toi qu'j'aime c'est tes photos Premier date, tu m'as dit tout sauf un verre, j't'ai dis donne-moi ton adresse et une heure J'vais pas t'la mettre à l'envers, toc toc toc, t'as ouvert la porte, on n'a pas fait d'détails On n'a pas fait semblant, j'avais la dalle de fou, t'es v'nue t'mettre sous ma dent On s'connait même pas mais on est super intime, c'est eux les méchants, nous on est dans la même team Rétine dans rétine, on peut plus s'arrêter mais un truc me chagrine, m'empêche de savourer Deuxième date rebellotte, on r'met les couverts, y a toujours pas de verre Nan, on s'y met direct mais dès l'début, y a un truc qui m'embête On fait l'amour mais moins bien qu'sur le net, j'suis dans son lit mais pourtant, j'me sens bête C'est comme si en fait, attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Attend bébé, j'ai un truc à te dire, j'suis un mec bien donc j'peux pas te mentir Alors avant qu'j'me tire, écoute bien mon amour, j'aime ton profil, les photos qu'tu postes On ne compte plus tous les mecs qu'tu ghost, au téléphone, ouais c'était l'big love Et quand on s'voit, y a un truc qui cloche car dégage C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos, c'est pas toi qu'j'aime bébé, c'est tes photos c'est tes tofs C'est tes photos, c'est les pellicules, c'est pas ta faute c'est les filtres C'est tes photos, c'est tes photos C'est pas toi qu'j'aime, c'est tes photos c'est tes photos, c'est juste les photos C'est pas toi qu'j'aime, c'est tes photos c'est ton profil, c'est tes photos C'est tes photos reviens, c'est tes photos reviens C'est tes photos bébé, c'est pas toi qu'j'aime bébé, c'est tes photos wouh</t>
+          <t>Younès Odeur de weed Du moteur de lhuile Jai pris la route Avec mes kabyles Jai pris la route, avec mes kheys direction lsoleil on a pas doseille donc code coco , carrote lhôtel une chambre siouplait mais on est 5 potos ! 5 potos dans une fiat punto Leone Si ça tire on est 5 fautifs Younès On est 5 potos yen a 4 pétés Leone Faire largent cest le seul motif ! Younès 5 dans la gova on fait que sclasher Mets lui dlalu si y a plus dsachets Si tu nous cherch on est au QG Rappelle plus tard là jsuis occupé Jsuis avc petite parisienne Petite pasta italienne Jai des copains dans la rue Qui rêvent de quitter la hess Leone Jsuis avec petite parisienne Si tas tes cops jai mes kheys Quelques losa dans la rue Baby girl joublie la hess Refrain Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Chicha dans lauto allo senorita Des potes en moto et des potes à meda Des potes intellos et des potes au mitar Moi jécris un son sur un air de guitare Leone Chicha dans lauto moi je rentre il est tard Des potes à la ville et des potes à la barre Jai cramé tes vices pour nous gratter du buzz Le cur sadoucit sur le chant de guitare Jsuis dans ltieks Ca vise gros capital, si ca sort le fer, nai pas peur, pute on capitule que des millions zer dans les mains, bisous pour ta reus et bisous dans ses seins On peut te faire du mal même taillé comme un cintre Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Jai des admirateurs et des amis rappeurs Frères de tous parts avec qui jfais la paire Comme Big et Tupac se fera t-on la guerre ? Jarrive à 13H passe me prendre à la gare Leone Jarrive pour 13h tu connais à la bourre Je nvois personne mériter le boug Leone laisse nous écouter la basse Sacoche doudoune et Canada Goose Younès Jsuis dans ltruc, ça vise la tête daffiche Si ça prends du temps, nai pas peur ! Jmets tout dans la niche, je serais riche dans 10 ans ! Leone Ptet après, aujourdhui la guerre, on envie la paix Fais comme nous, si cest chaud dans ltruc, garde la tête au frais Younès Chicha dans lauto en hiver en été Avec mes khos de la fac au CP Lécole on était, en mauvais état On carrotait pour des bons résultats Jcrois quy à quelque chose qui va pas Jcrois quy à des jaloux chez moi Jcrois que jsuis bien entouré Jcrois quon va bien y arriver Leone Jsuis dans ltruc, tu crois la faire à qui ? Cest bien nous, les boss de la ville Chicha adalia, becane dans la tess, panoplie Younès Jsuis dans le truc jte demande pas ton avis Cest bien Yoon, Leone on tas dit, on parle pas, nous on agit On parle pas, nous on agit</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dans le truc</t>
+          <t>Deux fois plus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Younès Odeur de weed Du moteur de lhuile Jai pris la route Avec mes kabyles Jai pris la route, avec mes kheys direction lsoleil on a pas doseille donc code coco , carrote lhôtel une chambre siouplait mais on est 5 potos ! 5 potos dans une fiat punto Leone Si ça tire on est 5 fautifs Younès On est 5 potos yen a 4 pétés Leone Faire largent cest le seul motif ! Younès 5 dans la gova on fait que sclasher Mets lui dlalu si y a plus dsachets Si tu nous cherch on est au QG Rappelle plus tard là jsuis occupé Jsuis avc petite parisienne Petite pasta italienne Jai des copains dans la rue Qui rêvent de quitter la hess Leone Jsuis avec petite parisienne Si tas tes cops jai mes kheys Quelques losa dans la rue Baby girl joublie la hess Refrain Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Chicha dans lauto allo senorita Des potes en moto et des potes à meda Des potes intellos et des potes au mitar Moi jécris un son sur un air de guitare Leone Chicha dans lauto moi je rentre il est tard Des potes à la ville et des potes à la barre Jai cramé tes vices pour nous gratter du buzz Le cur sadoucit sur le chant de guitare Jsuis dans ltieks Ca vise gros capital, si ca sort le fer, nai pas peur, pute on capitule que des millions zer dans les mains, bisous pour ta reus et bisous dans ses seins On peut te faire du mal même taillé comme un cintre Holà Holà Holà Chica como està ? Jfais du sale on svoit ce soir laisse nous faire tout est carré 2 Younès Jai des admirateurs et des amis rappeurs Frères de tous parts avec qui jfais la paire Comme Big et Tupac se fera t-on la guerre ? Jarrive à 13H passe me prendre à la gare Leone Jarrive pour 13h tu connais à la bourre Je nvois personne mériter le boug Leone laisse nous écouter la basse Sacoche doudoune et Canada Goose Younès Jsuis dans ltruc, ça vise la tête daffiche Si ça prends du temps, nai pas peur ! Jmets tout dans la niche, je serais riche dans 10 ans ! Leone Ptet après, aujourdhui la guerre, on envie la paix Fais comme nous, si cest chaud dans ltruc, garde la tête au frais Younès Chicha dans lauto en hiver en été Avec mes khos de la fac au CP Lécole on était, en mauvais état On carrotait pour des bons résultats Jcrois quy à quelque chose qui va pas Jcrois quy à des jaloux chez moi Jcrois que jsuis bien entouré Jcrois quon va bien y arriver Leone Jsuis dans ltruc, tu crois la faire à qui ? Cest bien nous, les boss de la ville Chicha adalia, becane dans la tess, panoplie Younès Jsuis dans le truc jte demande pas ton avis Cest bien Yoon, Leone on tas dit, on parle pas, nous on agit On parle pas, nous on agit</t>
+          <t>Jvais pas tdemander pour qutu mrembourses nan Soit tu lfais toi-même, soit jte prête plus simple Jvais pas tdemander pour un service nan Jfais les choses moi-même, je suis têtu simple Ils font pas dpunchlines, ils font des jeux d'mots marrant Jme lève, jai la dalle, jvais déjeuner miam Et jme sens bien quand jte dis non non Quand jreste chez moi pour dîner miam Ma meilleure amie sappelle Fanny love Ça fait 24 piges je la connais waouh Ma jamais donné, jamais trahi never On va fêter ça au japonais miam Les rappeurs sont tristes ou capitalistes Me plaindre sur la piste gros, cest plus sur ma liste Faire la victime, piano qui pleure Chialer dans loreille des auditeurs ouin ouin Jai ni ltemps, ni lenvie non non Jte jure, ça mennuie Je cherche la merde comme un couple mixte krkr Je cherche lamour sur un site X mouais Jattire les regards comme une meuf bonne Jai le cur noir comme les Ray Ban Cest pas des rappeurs, cest des panneaux dpub' On a mis dloseille mais cest pas notre thune Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Deux labels donc deux fois plus doseille Deux fois plus de conseils mais Deux fois plus de problèmes, feux fois plus davis Deux fois plus dhabits, deux fois plus damis deux fois plus Journée remplie, wallet rempli, jveux pas ramper Jveux mourir en paix Jaime quand jme réveille, jme rendors snooze Quand jkiffe le son, jle mets encore repeat Jmennuie en soirée donc jvais pas en soirée Jy allais pour serrer, jy ai jamais serré never Parler pour rien, je le fais plus almost Le daron va bien mais il faiblit Trop dboules sur Paname, cest pénible roooh Jsais plus où r'garder, cest terrible roooh Dans ta caisse, tu tcrois en sécurité Quand on sort, tu mets la sécurité Des jeunes dehors allô sécurité Jpréfère être libre quêtre en sécurité Jsuis surveillant, jmoccupe des tits-pe petits À la récré', jleur mets des ptits ponts hop la Y a ceux qui y croient, ceux qui traînent dans le lit Moi, jai fait une croix sur mon ancienne vie Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Jme fais rare comme les rappeurs ah bon ? Qui connaissent leurs textes par cur rohh On sbagarre ensemble, on se défoule la bagarre En cas dembrouille, je me défends la bagarre Cest pas parce quelle est belle que vous faites un beau couple Si on sfait du mal, cest parce quon saime beaucoup Tu fais pitié quand timites les rappeurs Cest cliché et puis cest révélateur boloss Jrentre dans ma ville, on me salue salut Jsuis à laise comme dans mon salon salon Faire dla musique, cest culotté Jveux voyager pas que lété Jaime pas la fausse modestie jaime pas Si je suis fort, je le dis jsuis fort Si jsuis khené, je le dis jsuis moyen Hop la Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ?</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Deux fois plus</t>
+          <t>ENTRE NOUS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jvais pas tdemander pour qutu mrembourses nan Soit tu lfais toi-même, soit jte prête plus simple Jvais pas tdemander pour un service nan Jfais les choses moi-même, je suis têtu simple Ils font pas dpunchlines, ils font des jeux d'mots marrant Jme lève, jai la dalle, jvais déjeuner miam Et jme sens bien quand jte dis non non Quand jreste chez moi pour dîner miam Ma meilleure amie sappelle Fanny love Ça fait 24 piges je la connais waouh Ma jamais donné, jamais trahi never On va fêter ça au japonais miam Les rappeurs sont tristes ou capitalistes Me plaindre sur la piste gros, cest plus sur ma liste Faire la victime, piano qui pleure Chialer dans loreille des auditeurs ouin ouin Jai ni ltemps, ni lenvie non non Jte jure, ça mennuie Je cherche la merde comme un couple mixte krkr Je cherche lamour sur un site X mouais Jattire les regards comme une meuf bonne Jai le cur noir comme les Ray Ban Cest pas des rappeurs, cest des panneaux dpub' On a mis dloseille mais cest pas notre thune Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Deux labels donc deux fois plus doseille Deux fois plus de conseils mais Deux fois plus de problèmes, feux fois plus davis Deux fois plus dhabits, deux fois plus damis deux fois plus Journée remplie, wallet rempli, jveux pas ramper Jveux mourir en paix Jaime quand jme réveille, jme rendors snooze Quand jkiffe le son, jle mets encore repeat Jmennuie en soirée donc jvais pas en soirée Jy allais pour serrer, jy ai jamais serré never Parler pour rien, je le fais plus almost Le daron va bien mais il faiblit Trop dboules sur Paname, cest pénible roooh Jsais plus où r'garder, cest terrible roooh Dans ta caisse, tu tcrois en sécurité Quand on sort, tu mets la sécurité Des jeunes dehors allô sécurité Jpréfère être libre quêtre en sécurité Jsuis surveillant, jmoccupe des tits-pe petits À la récré', jleur mets des ptits ponts hop la Y a ceux qui y croient, ceux qui traînent dans le lit Moi, jai fait une croix sur mon ancienne vie Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Jme fais rare comme les rappeurs ah bon ? Qui connaissent leurs textes par cur rohh On sbagarre ensemble, on se défoule la bagarre En cas dembrouille, je me défends la bagarre Cest pas parce quelle est belle que vous faites un beau couple Si on sfait du mal, cest parce quon saime beaucoup Tu fais pitié quand timites les rappeurs Cest cliché et puis cest révélateur boloss Jrentre dans ma ville, on me salue salut Jsuis à laise comme dans mon salon salon Faire dla musique, cest culotté Jveux voyager pas que lété Jaime pas la fausse modestie jaime pas Si je suis fort, je le dis jsuis fort Si jsuis khené, je le dis jsuis moyen Hop la Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ? Pour devenir quelquun vaut mieux rester soi-même reste toi même Jveux devenir quelquun pour savoir qui jsuis putain qui suis-je ?</t>
+          <t>Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous J'veux tout savoir, ne cache plus rien Ce que t'as sur le cur Tu peux le mettre sur le mien Je veux tout savoir si ça t'est utile Entre nous, j'veux plus jamais rien d'futil Je sais que t'es fort ouais Bien plus que moi J'aimerais te porter, rien qu'une fois Je sais qu'au fond, t'as des douleurs Dont tu parles même pas à ta mère Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous Est-ce que c'était glacé Ou au contraire, brûlant comme l'enfer ? Hein ? Est-ce que tu veux qu'j'm'en occupe ? Qu'j'y aille avec mon équipe ? On peut l'faire, on peut l'tuer devant sa mère s'il le faut Je te l'ai dit, pour toi je deviendrais fou Ce qu'il t'a fait, il va le payer x200 Dis-moi go T'es ma go' T'es ma femme Toi et moi, c'est mieux que les films Ce qu'il t'a fait C'est infâme Dis-moi go Dans tes yeux, dans ta voix Je vois, j'entends ce que tu vis Dans ton silence, dans tes bras Je sens, comprends, ce qu'on t'a pris Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deuxième Rapport</t>
+          <t>FAMILY BUSINESS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0201 Klem - Mort vivant - 0201 LIM - Gamberge - 0301 Afro S - Mode demo - 0301 Hipo - Comeback - 0301 Jwles - Trop gentil - 0301 Klem - PAS DU MEME MONDE - 0401 Gambino la MG - Freestyle No Hook - 0401 Kenyon - Shatta - 0401 SAM - Dans le noir - 0501 Cinco - Entier - 0501 Fadah - Bocal - 0501 Gen - Solaris - 0501 Henri Bleu - Dragon sans ailes - 0501 Klem - L'HIVER - 0501 Le Juiice - ICONIQUE - 0501 Mouk - Tartin 1 - 0501 Oumar - Trauma Drill 1 Parabellum - 0601 6rano - DrillB - 0601 Jazzy Bazz - Panorama ft. Alpha Wann - 0601 Le 3ème il - Renaissance - 0601 Maka - Joujoux - 0601 Riski - Free Zelda - 0601 Simony - A13 - 0701 BEENDO Z - . INSPIRÉ DE FAITS RÉELS 4 - 0701 Bené - RS ft. Capo Plaza - 0701 Benjamin Epps - BMW BOYZ - 0701 Djeiz - Vilain ft. Bolémvn - 0701 Elias B4C - Bat4Clan - 0701 Faelix - Maintenant - 0701 JSX - Anarchie - 0701 Kaaris Kalash Criminel - Tu dois des sous - 0701 Laeti - La route est longue - 0701 La Honda - Réel 5 - 0701 La Peee - Phénomène 4 - 0701 Lucio Bukowski x Oster Lapwass - Ls dieux ne jouent plus au billard élctrique. - 0701 Moha K - Regarde-moi - 0701 Negrito - Kel bail - 0701 Nouwane - Martini - 0701 Rémy - 97 mesures - 0701 SONBEST - strAnge - 0701 Vald - Anunnaki - 0801 Klem - PAS COMME LES AUTRES HUMAINS - 0801 Timal - Freestyle Tarmac - 0901 JuL - À la russe - 0901 JuL - La recette - 0901 Klem - LE DERNIER - 0901 La Honda 19 - Docteur Lamaze 1 - 0901 LIM - Combattant - 0901 LP2.0 - Eric Zemmour - 1001 So La Lune - Tsukinatra ft. Dawg Sinatra - 1101 DIL - Cramé - 1101 Dmh - Quartiers Nord 11 La semi - 1101 Slkrack - Opensea - 1201 A2H - Solo - 1201 Cheu-B - Extendo - 1201 Julio Goba - Freestyle ploutocratie, Pt. 6 - 1201 Kai du M - GTA 23 - 1201 Kemmler - Dimitri Payet - 1201 Les Grands Enfants - Melancholy Hill - 1201 Luni - Tout pour moi ft. Mister V - 1201 Medja - Lil Devil King Harv - Calogero ft. Purp 1201 OMR - 75-91 ft. Chicaille Argenté - 1201 Smahlo - Horizon - 1201 Sto - STARDUST REMIX - 1201 Tommy Isaac - Big Fish ft. DYPE - 1301 Benjamin Epps - CE QUE LE PIPS DEMANDE - 1301 BRK - Shooter 3 ft. L2B Gang - 1301 Doria - Triste époque - 1301 Jey Brownie - Trop de love ft. Roissy - 1301 La Smala - Dans les mémoires ft. Scred Connexion - 1301 Les Frères Bizzy - 34 ft. Junior Bvndo - 1301 Nahir - Adriano - 1301 Nessbeal - La Dem ft. ZKR - 1301 Norsacce - Aller-retour Part.1 - 1301 P-dro - Journal intime, pt. 3 - 1301 Riski - OK PETASSE ft. Yuri J - 1401 Alkpote - Éteins la lumière ft. Francky Vincent - 1401 Atro Boi - Maux d'amour ft. Tallisker - 1401 Blaiz - Môme - 1401 Brvmsoo - Best Friend - 1401 Chanje - Canette - 1401 Cinco - Level - 1401 Elaka - Jurassic Park - 1401 Frenetik - RDP - 1401 Gotti Maras - En Brr - 1401 i300 - No Hook - 1401 Jonny Vegas - Noir - 1401 Josas - Khamsa - 1401 Kaeles - Questions - 1401 Kery James - LE POETE NOIR - 1401 Leonis - Bloqué en bas - Sherhood 5 - 1401 Lyms - Menottés ft. Negrito - 1401 Mini - Goddamn ft. Zaky 8ruki 1401 Monkey D - Bonne voix ft. Georgio - 1401 NTH - Low ft. Jaekers - 1401 Omar Syco - Négocie pas - 1401 Ramses - Quelle vie - 1401 Realo - 2 SEC 1401 Sizlac - Calibre - 1401 Solray - 1899 - 1401 Vves - Neymar Mbappé ft. ALP - 1401 Yanslo - Aicha - 1401 yung g - adversaires - 1501 Cheval Blanc - Sitcom - 1601 JOHEM - MAUVAISE DRILL 1 Je les aimes pas - 1701 Bob Marlich - Lundi - 1701 Jazzy Bazz - 1989 Freestyle - 1701 Luv Resval - S2 - 5 Shadow - 1801 Rocca - Mash Up ft. Souffrance - 1801 Squall p - Amsterdame - 1801 yswanj - Come Over On Top Björk Cambiar - 1901 8Ruki - Interlude 1901 Black D - Pefra - 1901 DOR - Authentique - 1901 Gemen - WHO ASKED? - 1901 Heskis - Temps mort - 1901 Jwles - Hors-jeu 1901 Rémy - Le moteur - 1901 ouley - Cry me a river - 1901 Venom - 998 - 2001 Allebou - Quidam - 2001 Chad de la Cour - EMO - 2001 Dmh - Quartiers Nord 12 Traficanté - 2001 Fresh - Freestyle Le cachot - 2001 Green Montana - WALDORF ASTORIA - 2001 J9ueve - Melody - 2001 Jazzy Bazz - Élément 115 ft. Nekfeu - 2001 Lamatrix - Maestro - 2001 LIM - Tourne en rond - 2001 Matheos - Le dernier des fainéants - 2001 Moha MMZ - CAUCHEMAR - 2001 Nero Dee - Cur noir - 2101 Booba - Pablo - 2101 Genezio - Elle m'appelle - 2101 Jayel - Perle rare - 2101 Kamas Skuh - Bienvenue à Ris 5 - 2101 Kaza - Sincère - 2101 MadeInParis - Baby ft. Squidji - 2101 Malty 2BZ - Gangsta ft. Tiitof - 2101 Niaks - Ninetta - 2101 OldPee - Dur - 2101 Popey - White Mauvais choix ft. DA Uzi - 2101 Rethno - Popelson - 2101 roseboy666 - Paradis ft. AnNie .Adaa - 2101 Triple Z - Passe à lépice 8 Capri-Sun - 2101 Voquab - Tourne pas rond Marchandage - 2101 YL - Prières ft. ISK - 2301 Baby Neelou - 20Janvier - 2301 Dmh - Quartiers Nord 13 Sans budget - 2301 Jolagreen23 - 3945 - 2301 Mac Seamus - Reset - 2301 Ozkar - Cinderella - 2301 Yanso - BX Capitale 5 ft. ZVdu17, Le M, Sky, Elengi Ya Trafic Jones Cruipy - 2401 Gouap - Switch 4 - 2401 La Smala - Hors du temps - 2601 Dany Dan - Pop Style libre - 2601 Jason Voriz - Jean Lou ft. Reta - 2601 Kaneki - Maison ft. DA Uzi - 2601 Kodes - Trop mabé 4 - 2601 Maka - Minimum - 2601 Théodore - Loco - 2601 Zamdane - Le monde par ma fenêtre 2601 Zidi - XY Part. 3 Ciel - 2701 Babysolo33 - LnlyBby - 2701 Chanceko - Y E S M A N !!! - 2701 Cinco - Booska Sacrifices - 2701 DerK16 - Alim6 - Signature - 2701 Freeze Corleone Ashe 22 - SCELLÉ PART. 4 - 2701 Gius - NO BLEM! - 2701 Juice - La lumière des spots - 2701 Oklmava - À quel prix ? - 2701 Skia - Verre d'eau - 2701 Slkrack - Hazi Life 5 Fuego - 2701 Tsew The Kid - Polaroïd 1 Blessé - 2801 4.4.2 - R8 ft. Hamza Alonzo - 2801 99 Wolfkid - Lean On ft. Chanceko EDGE - 2801 Aketo - Frais comme un daron - 2801 Biffty - Le temps passe - 2801 Billy la Ure - Délit ft. Key Largo - 2801 Celestino - Poisse - 2801 FrenchCali - Ciel - 2801 Fresh - La Douille 6 - 2801 GLK - Bizarre ft. Nahir Waïv - 2801 HV Manyy - Bloqué ft. Sasso - 2801 Jackmaboy - Le man il est gang - warra bang 1 - 2801 Kanoé - Hiver - 2801 La F - Appel manqué 10 - 2801 Larry - EN PÉPÉ 1 2801 Lemon Haze - Chronos - 2801 Nans - Serein - 2801 Rea - Amoroso - 2801 Rim'K - Iceberg - 2801 Rimkus - MAYDAY ft. Doria - 2801 Sicario - Bipolaire - 2801 Sinik - Balles perdues - 2801 Susanoô - Silence - 2801 Tyranik - Notifs - 2801 Uzi - Rotterdam ft. OBOY - 3001 JMK - BOSSY - 3001 LIM - Putain - 3001 Rim'4 - Repeat - 3001 Stony Stone - Step 2 - Angèle - 3101 F430 - Effet papillon 2 - 3101 Kenyon - Détails - 3101 Moji x Sboy - ELLE PLEURE EN HIVER 3101 Pirate - RS DRILL 4 Février - 0202 Araujo - SAC CHANEL - 0202 Beendo Z - GTA 24 - 0202 Bné - Ça recommence - 0202 Djalito - Oublie - 0202 Gotti Maras - Bx Drill 6 ft. Fresh la Douille - 0202 Henri Bleu - Wonderland - 0202 Les Grands Enfants - ride or die - 0202 Lotus - Lts 03 - Nike - 0202 Medja - Lil Devil King Harv - Shooter Clan ft. Purp 0202 Moubarak - L'espoir - 0202 Vilk - Phoque - 0302 313 - Oublier - 0302 Draviss - Tout donner - 0302 Ekloz - WAVES - 0302 Kpri - Volant - 0302 Simony - RSA Gris Nardo - 0302 thaHomey - SKIP TO MY LOU - 0302 TIF - Emoji DZ - 0302 Veerus - Wu-Tang ft. Limsa d'Aulnay - 0302 winnterzuko Skuna - PGM 0402 Bigor - Triple S - 0402 Bolémvn - Cho Na Cho ft. Alonzo - 0402 Cappuccino - La location - 0402 Coyote Jo Bastard - Booska CNLPG - 0402 Croma619 - Malin comme un singe - 0402 Dixon - D'autres filles - 0402 Gambino La MG - À tout moment - 0402 Gueule d'Ange - Mi Amor - 0402 i300 - Tookah 4 - 0402 JEUNESAINT - Babymama - 0402 Keeqaid - Freestyle x1 - 0402 Keeqaid - Freestyle x2 - 0402 Landy - R.A.S ft. SDM - 0402 La Rumeur - Saturé - 0402 SOPA - Mort - 0402 Vves - Trou noir - 0402 Yaro - Ma nana - 0402 yung g - Amulette - 0502 Osirus Jack - Ron Van Clief - 0602 6rano - Tupac Shakur 2 - 0602 Alkpote - Après minuit ft. Ouss Wayne - 0602 DIL - Représailles - 0602 Implaccable - Chap Chap Chap - 0602 Mapess - DEMI TOUR - 0602 Soumeya - Tout ce temps - 0702 Richi - DÉSERT - 0802 Kerchak - NH 2 - 0802 YUNG POOR ALO - Freestyle Psychoklaw - 0902 Dala - Serum - 0902 Dmh - Quartiers Nord 14 Héritage - 0902 Don Max FullBaz - WAVY - 0902 Josas - UEFA 0902 Le Croc - BAW 6 - 1002 Dabs - Billie Jean - 1002 leith - différent - 1002 Makala - Boss - 1002 Zamdane - Incomplet comme février - 1002 Yuzmv - Avenue de l'impasse - 1102 Bebew - Laisse nous faire ft. Elams - 1102 Bludelta - Maladie - 1102 Bolémvn - Boosk'atterrissage - 1102 Chanje - Miracle ft. EDGE - 1102 C.Sen Le Chimiste - Humain - 1102 Elflaco - Elle dit - 1102 Emraz - SOUS LA PLUIE - 1102 Freeze Corleone Ashe 22 - DÉGRADÉ - 1102 Frenetik - Déjà vu - 1102 La Miellerie - Écailles ft. Tawsen JeanJass - 1102 Lefa - Mise à jour - 1102 Leonis - Allô - 1102 Lorage - Mirage - 1102 Lujipeka - Pas à ma place ft. Lil Tooom - 1102 Naza - Vie de rêve ft. Imen Es - 1102 Omar Syco - Mina - 1102 Realo - PARTY ft. Zaky - 1102 Romy Rose - Joli Chéri ft. Negrito - 1102 Timal - Filtré ft. Gazo - 1102 YL - Tata Fatima - 1102 Yuzmv - Docteur - 1202 34murphy - 95 - 1302 BabySolo33, Bricksy 3G - Love Story ft. Azur - 1302 Mocaris - Fleur du ghetto - 1402 Aketo - Pas volé - 1402 Bné - Control - 1402 Jok'Air - Sorry not sorry ft. Tayc - 1402 Kima - Fake Love - 1402 Le7ept - Muse - 1402 Lyre - Ivresse - 1402 Sneazzy - Dernière fois - 1402 Max D. Carter - Finesse - 1602 A2H - Walou ft. Bakari - 1602 Bob Marlich - L'Haÿssien - 1602 GLK - Sadness, Pt. 1 Santé - 1602 Implaccable - 2.6M - 1602 Leto - Mozart Capitaine Jackson Episode 2 - 1602 Neskoo - Révolution - 1702 Amine Farsi - Suzuki ft. Le Risque - 1702 AnNie . Adaa - UN JOUR - 1702 Eline - Chute - 1702 Juice - CALLS Missed - 1702 Nahir - Boosk'Araï 2 - 1702 Tovaritch - Atmosphère - 1802 Coyote Jo Bastard Bhavi - Tchagala - 1802 Damys - TRAPU - 1802 DA Uzi - Hmmm Laisse tomber - 1802 Elh Kmer - K2 - 1802 Elvieto - Chronique ardente 3 - 1802 ISHA - La réincarnation de Biggie - 1802 Kai du M - Ça débite ft. SDM - 1802 Kanoé - Hiver 2 ft. La F - 1802 Kodes - Trop mabé 5 - 1802 K.S.A - Grand Prix - 1802 Mehdi YZ - Quiller - 1802 Naps - Le p'tit Marseillais - 1802 Saamou Skuu - Drill Of France 3 - 1802 Salek - ADRENALINE - 1802 Sam - Black - 1802 Stony Stone - Step 3 - NXM - 1802 Sysa - Tripoli - 1802 Voquab - Sang dencre Acceptation - 1802 YNG Trvpboy - Quattro - 2002 Mougli - Freestyle Hors-Série 2 - 2002 Slim C - PLF - 2102 Dwen - Milano - 2102 Tisco - Dans la sauce 3 ft. Ruby Nikara Yoro - 2102 Uzi - Arc-en-ciel - 2102 ZKR - Les gentils bandits - 2202 13Mini - Petit con - 2202 Djalito - Idées noires ft. So La Lune - 2202 Faelix - Détailler - 2202 thaHomey - 10BRICKS - 2202 RCKNSQT - Pixel - 2202 YL - Booska Piccolo - 2202 Zoxea - 24H ft. Busta Flex Lord Kossity 2302 Dika - DLB - 2302 Hyacinthe - Perdu la tête - 2302 Jwles - Argentine - 2302 Kepler - Dans ses bras ft. Gambino La MG - 2302 Kerchak - Sabor 2302 Oumar - Trauma Drill 2 La tess ne meurt jamais - 2302 Ron Brice - Addition ft. Ali - 2302 Routs Wayne - Middle - 2302 S-Tee - FILS DE DIEU FREESTYLE - 2302 Theodore - Okito - 2302 Zamdane - Flouka 2402 Absolem - Dégâts - 2402 BEN plg - Quand les lumières s'éteignent - 2402 Bolémvn - Bobby Shmurda ft. KeBlack - 2402 Bushi - Link Up - 2402 Davinhor - Floko ft. Le Juiice - 2402 eden dillinger - Penser mes plaies - 2402 FAYV - C'est FAYV - 2402 Gambino - TR - 2402 Golgoth - PÈLERINAGE ft. Sheldon - 2402 La Honda 19 - Train de vie - 2402 Liim's - 2 bigo - 2402 Lujipeka - Épilogue ft. Luv Resval - 2402 Sally - PARTOUT OÙ JE VAIS - 2402 Tsew The Kid - Polaroïd 2 Sourire - 2402 Veerus - 5 - 2502 100 Blaze - Leonidas - 2502 1D1R - Beldia - 2502 47MEOW - VIE 2 FOU - 2502 ALP - Débordé - 2502 Barack - 4 anneaux ft. Yaro - 2502 Biffty - Sauce Moula - 2502 Bosh - Téléphone - 2502 Celestino - Pull sept-cinq ft. Waltmann - 2502 DawaMafia - Roi - 2502 DOC OVG - XV BB EKIP ft. Pipsa - 2502 Elias B4C - Mauvaises Herbes - 2502 Empty7 - 2ON - 2502 Fababy - Affranchi - 2502 Frenetik - Shakespeare - 2502 Hornet la Frappe - Pulkra - 2502 Jey Brownie - Melodyne - 2502 Jones Cruipy - BMF - 2502 joysad - Anti stress - 2502 KD - Lyon c'est bandit ft. ZeGuerre - 2502 Kims la Rafale - AU CROMI 1 - 2502 La F - Dead - 2502 Lamatrix - Rookie - 2502 La Peee - Cocaïna ft. Mayo Kima - 2502 Larry - EN PÉPÉ 2 2502 Lrk - Dofé - 2502 Luther - Câlins - 2502 Maska - Démoli - 2502 Nanek - Absent 5 - Célestine - 2502 Norsacce - Phoenix ft. Alpha Wann - 2502 PCL Bachiflow - OK ft. DawaMafia - 2502 Popey - Eve - 2502 Rocca - Depuis le début - 2502 Saf - APDM - 2502 Sale Epoque - FERMETURE ft. DA Uzi OldPee - 2502 SAM - Faux voyous - 2502 Sinik - Cicatrices - 2502 Syen - Moonrock - 2502 T Garcia DJ Assad - Rockstar - 2502 Vegedream - On a lhabitude Ok Many ft. Naps - 2602 Riski - Mésaventures ordinaires - 2702 LIM - Tout va très vite - 2702 LP2.0 - Mentale 2 Batard 1 - 2702 nelick - J'avais juste envie de rapper ft. kofi bæ - 2702 Still Fresh - CONFIANCE - 2702 Youri - Malabar - 2802 Dmh - Quartiers Nord 15 Sentiments - 2802 Gambino La MG - Booska Uuhuh - 2802 OG L'Enf - Requin - 2802 Youri - D3 Mars - 0103 Balafré - Or Argent - 0103 Brulux - Koudjack - 0103 Youri - Voisins - 0203 AMK - Benef - 0203 Lesram - Wesh Enfoiré - 0203 Luv Resval - S2 - 6 ZLM - 0203 Moubarak - KODO Principes - 0203 Sultan - Kikazaru - 0203 Youri - Plaisir - 0203 Youssef Swatt's - Quelques notes suffisent - 0303 Alonzo - TRAFICANTE 0303 AP du 113 - Mirador ft. Denzo - 0303 Beendo Z - C'est comme le soleil - 0303 Henri Bleu - Paradis00 OsloHotel - 0303 Maydo - Comptes - 0303 Nahir - Glock ft. Lacrim - 0303 Nixy Rose - EX 0303 Stos - La tour ft. La Peee - 0303 Youri - Folle - 0403 Achile - Hector - 0403 Chad de la Cour - ENCORE UNE NUIT - 0403 Chad de la Cour - MYSELF - 0403 D. Ace - Lélection des méchants - 0403 Ekoms - Couleur saphir - 0403 Gambino La MG - Reste là ft. Tiakola - 0403 HIM - Le chemin - 0403 Jackmaboy - La rue m'attire 0403 KR Malsain - VARADERO - 0403 La Famax - J'suis en love - 0403 L'As - I.MINOGUE - 0403 Lefa - Terrain miné - 0403 Nakry - Le son du ghetto - 0403 Novy - EAPN - Real Shit - 0403 Sasso L'Allemand - Elle m'a dit je t'aime - 0403 Sicario - Yamanaka ft. Booba - 0403 Squadra - Tout donner ft. SAF - 0403 Youri - NRJ - 0503 Youri - D32 - 0603 Dmh - Quartiers Nord 16 BX - GTA - 0603 LIM - C'est fini - 0603 So La Zone - Ma vie - 0703 Nessbeal - Zone Euro - 0803 Rimkus - Booska Boîte Noire - 0903 A2H - Avec une rose - 0903 A2H - Masterclass - 0903 Allebou - J'essaie - 0903 Araujo - EN BAS - 0903 baby hayabusa - YURI - 0903 Dryssco - Parler - 0903 JNR - 243 ft. Kalash Criminel - 0903 JOHEM - GTO ft. LEXZE - 0903 Kasper 939 - 1st Class - 0903 K.S.A - Mannequin ft. Alpha Wann - 0903 Lacraps - Loi d'la calle - 0903 Noma - Static Shock 0903 Nyda - Charbon - 0903 Rapi Sati - My Men ft. Gazo - 0903 Skia - Lumière Freestyle - 0903 YNG Trvpboy - Je voulais - 0903 Zeu - OPP BLOCK - 1003 AM La Scampia - Jolie poupée ft. Timal - 1003 Brvmsoo - Game Over - 1003 GLK - Sadness, Pt. 2 Voleur - 1003 Le 3ème il - Adieu la Galère ft. Alonzo - 1003 RK - Sachet - 1003 Rsko - 100 mi-temps ft. Gazo - 1003 Upsilon - L - 1103 100 Blaze - D.S.C.P - 1103 8Ruki - Zookies - 1103 Antes Madzes - Bête et méchant - 1103 Benash - Ma Débora - 1103 Coyote Jo Bastard - FAFA ft. DrefGold - 1103 Dala - LVCVV - 1103 Elh Kmer - La douleur - 1103 Falcko - Dernière lettre - 1103 Frenetik - Houston - 1103 Gros Mo - La cité ft. Ratu - 1103 ISK - Snowfall - 1103 James Digger - Top Ten ft. Souffrance Cenza - 1103 KESPAR - Flex - 1103 Laeti - Je ne t'aime plus - 1103 L'Algerino - Sensación - 1103 L'As - II.PMV - 1103 Lonepsi - c'est tous les soirs la même chose - 1103 Mougli - Jungle 3 - 1103 Ritchy Boy - Les 4 fantastiques - 1103 Routs Wayne - Immature - 1103 Serane - 448 ft. Mike Shabb - 1103 Seven Binks - 7 Uzi - 1103 Stony Stone - Step 4 - BABY - 1103 Sysa - Cinco - 1103 White N - NOIR BLANC - 1103 Yaro - Booska Tout Droit - 1103 Younès - VLÀ LES PROBLÈMES ft. Médine - 1303 Cappuccino - La location Remix ft. Kaaris - 1303 Gapman - Wait - 1303 LIM - Ça rend fou ft. Les Microbes - 1303 Saisai - GTA 25 - 1303 Zokush - Rocco Morabito - 1503 313 - Rouge - 1503 Zokush - Maman - 1603 B.B. Jacques - Souvenir d'hiver 1603 BRK - Shooter 4 ft. Negrito - 1603 Josman - Fiesta Interlude - 1603 Josman - Mort ce soir - 1603 Le Croc - SHAWTY - 1603 Nero Dee - Mauvaises idées - 1603 sean - Vide - 1603 Soso Maness - Piranha - 1703 Almas - AKHA AKHA ft. Simba La Rue - 1703 Bekar - Avalanche - 1703 Black Jack - TTC - 1703 Disiz - RENCONTRE ft. Damso - 1703 Green Montana - PARFUM - 1703 HK La Paille - Intro - 1703 Lestin - Précis - 1703 Loud White-B - Rien de moins - 1703 luXe Timeless - FACTS - 1803 Aketo - Dalle de coyote - 1803 Akkai - ValeursPrincipes ft. Klemee MLKWAV - 1803 Captaine Roshi - Régiment - 1803 C.Sen Le Chimiste - Ciel Bleu - 1803 DA Uzi - On se reverra plus ft. Gazo - 1803 F430 - Effet papillon 3 - 1803 Gambino - Marseille à Paname - 1803 Hatik - Salam - 1803 Heezy Lee - Ex Aequo - 1803 Him - Audemars - 1803 Hornet La Frappe - Kawasaki ft. Landy - 1803 ISHA - On sourit pas sur les photos - 1803 Kai du M - Sauvage - 1803 Kanoé - Hiver 3 ft. Fresh LaDouille - 1803 Kerchak - Tantor - 1803 La Kadrilla - Mission 1803 Lemon Haze - Caillera - 1803 Leo SVR - Qu'un temps ft. Croma619 - 1803 L'As - III.APES - 1803 Madrane - Plata - 1803 MIG - 18 mars - 1803 Naps - Sun Valley - 1803 Nyluu - XO - 1803 RD - Villeurbanne - 1803 Saamou Skuu - French Drill 6 ft. La F - 1803 Sadandsolo - Pull up ft. thaHomey - 1803 SAF - BREAK ft. JuL - 1803 Susanoô Allebou - FORCE - 1803 TK - Quitter la terre - 1903 Good Bana - Dose - 1903 Zbig - Buscetta 2003 Bramo - Secteur miné ft. Diddi Trix 2003 CG6 - Tête de casseur 2003 Dawg Sinatra - Salem - 2003 Lyre - Last - 2003 Mécra - Cramé - 2103 Bosh - Himalaya ft. Soolking - 2103 Kronomuzik, Pandrezz Ronare - NOUS Y SOMMES 2103 OMR - 2Z22 ft. Sam's - 2103 rad cartier - Shoot le coeur ft. Joanna - 2103 Tejdeen - JE L'ADMETS JAMAIS - 2203 Gianni - Regarde - 2203 JOHEM - demons partis dans la pénombre. - 2203 Lesram - Booska Pré - 2203 Seyté - Le retour du printemps 2303 Biffty - Majestik - 2303 DrillDiscovery - TOC TOC ft. i300 - 2303 eden dillinger - Ulcère 2303 Emkal - Business - 2303 Heskis - Progrès - 2303 Kepler - Makelélé - 2303 Kima la Rafale - AU CROMI 2 - 2303 Kodes - Avoir être - 2303 Médine - Médine France - 2303 SKIA - LE GOÛT DES SHOOTERS Freestyle - 2303 TIF - .38 - 2303 Uzi - T'abuses ft. Timal ISK - 2403 313 - Soyouz - 2403 Brvmsoo - Shooter ft. Bné 2403 FAYV - Bisou - 2403 FXLL - Job - 2403 HIM - Baby ft. EDGE YZLA - 2403 KR Malsain - Double Dose ft. Alpha Wann - 2403 MLKWAV - YORUBAS - 2403 Oklmava - Cest la cité qui lé-par 1 - 2403 Vin's - Quelque part - 2403 Youssoupha - AMAPIANO - 2503 100 Blaze - Phénoménal ft. Lacrim - 2503 Ajar - Quand tu souffriras - 2503 Alrima - C'est Gâté - 2503 Cikey - Elle - 2503 Dabs - Harmonica - 2503 Deadi - Encore - 2503 Dina - Océan - 2503 Fababy - John Snow - 2503 Frenetik - Thanos Mouvement historique 4 - 2503 GLK - Sadness, Pt. 3 Dalida - 2503 Guy2Bezbar - Beretta - 2503 Jayel - La roue tourne - 2503 KESPAR - Subaru - 2503 Kobo - FUCKED.UP - 2503 Kodes - Nuit - 2503 La F - Dead Remix ft. Slkrack, Zeu, Saamou Skuu, Malty 2BZ, Hayce Lemsi Kanoé - 2503 Larry - EN PÉPÉ 3 - 2503 L'As - IV.TOTAL - 2503 Lous and The Yakuza - Kisé 2503 Lrk - Galactics ft. Bravbus, Olazermi Dinero 2503 Megaski - Full Gucci ft. Popey - 2503 NKP - Rosé - 2503 Norsacce - Heron Preston - 2503 Nouwane - Automatique ft. Fresh LaDouille - 2503 Novy - EAPN 2 - Drill NC 2503 Olazermi - Tiki-Taka 2503 Regasito - Bats toi petit ft. Memsti, Willy Klz, Maxi Jay Coyote Jo Bastard - 2503 Rsko - Problème - 2503 Sasso L'Allemand - J'ai pas le temps 2503 Skaodi - Y'a longtemps ft. Bolémvn - 2503 Thabiti - La Zendaya - 2503 Waltmann - Pusher IV - 2503 Winnterzuko - Heart - 2503 Zbig - DLG 13 - 2503 Zed - Mauvais 2703 Tisco - Paire de TN 2.0 - 2803 Bavaz - Épées Liquides - 2803 Henri Bleu - Pleur - 2803 Le Sid - FAIS ATTENTION !! - 2903 Anas - GTI - 2903 TLZ Clan - Tempête - 3003 Bigor - Mikel Arteta ft. Benab - 3003 D. Ace - Shonen vs Shonen ft. Zoro lFrérot, Volts Face, Ol Kainry, Negrito Senpai Cookiesan - 3003 Lim - Par où commencer - 3003 Niaks - Comparution immédiate - 3003 Prince Waly - Walygator - 3003 Rounhaa - MUSIC SOUNDS BETTER WITH YOU - 3003 Squadra - Baby ft. Leto - 3003 T2R - Marie - 3003 YellowStraps - MERCI ft. Roméo Elvis Swing - 3003 Youka - Je suis dans ça ft. Lybro, SenSey Dieson Samba - 3103 AM La Scampia - Basta - 3103 baby hayabusa - GUALA - 3103 BabySolo33 - LilWitch - 3103 Djado Mado - Sous la pluie - 3103 Kery James - Marianne - 3103 Keroué - KER - 3103 Lesram - Rotation ft. Alpha Wann - 3103 Carbonne - 0 questions - 3103 James Loup - Rien ne va plus 3103 Rousman - Histoire de terrain - 3103 Rsko - Loyal Avril - 0104 4.4.2 - Va bene ft. JuL, Naza, Soolking Tayc - 0104 Black Jack - Mulah ft. Doc OVG - 0104 Celestino - Bobos - 0104 Dadju - Picsou ft. Gazo - 0104 Dau - NO MERCY - 0104 Driver - Buju Banton ft. LMK - 0104 Genezio - Patate - 0104 Hidan - Oni - 0104 ISK - Vérité 5 - 0104 Kalash - Tombolo - 0104 Kemmler - Tout quitter - 0104 L'As - Paradoxe ft. Zamdane - 0104 Laws Babyface - Sexe Monnaie Drogue - 0104 Luni Sacks - R9 ft. Majdon Co - 0104 Mac Seamus - Héritage 0104 Marou Chenko - Mi amor 0104 Tissmey - Grinder - 0104 Walid - 96 - 0204 Houdi - Calmé - 0204 Slim C - Mauvais Move 0304 Salakid - On fait avec - 0404 Amad - Ciudad - 0504 54 - la mer - 0504 Bigflo Oli - Sacré bordel - 0504 Chiloo - Bah ouais - 0504 Moji x Sboy - VAMPIRE - 0504 Slkrack - L'Anneau - 0504 Sto - Jersey Drill 1 - 0604 Bekar - DEHØRS - 0604 Biffty - Histoire - 0604 Gius - INTERLUDE 12 - 0604 HDX - Pompei - 0604 Primero - Trac 0604 N'Seven7 - Drillstyle 01 Bibi Tout - 0604 Vegedream - Intro Lancelot du lac - 0604 Yuri J - Têtes brûlées ft. Okis - 0604 Zacky Le 6 - Lewis Hamilton - 0704 Gazy MP - Freestyle Diez - 0704 Luni - Rouler - 0704 Sirap - Douleur - 0704 Squeezie - Adieu les filles - 0704 sean - Piano Black - 0804 100 Blaze - Coco - 0804 Antes Madzes - Dans ma tête - 0804 Black M - C'est du Foot 2 rue - 0804 Farès - Ruelles - 0804 Favé - Mercedes - 0804 Frenetik - Elikya - 0804 Jok'Air - Big Drip ft. Aron LineMa - 0804 Loveni - Pillz ft. Kunta Aminello - 0804 OldPee - Moneytime ft. Green Montana 0804 Roro La Meute - On vient d'en bas - 0804 Sako - HXGN ft. Brav - 0804 Serane - Cut - 0804 Sheng - Stupéfaite 0804 Vves - VV - 0904 34murphy - sora - 1104 ISHA - Booska Labrador Bleu - 1104 RCKNQST - Nouvelle dose - 1204 FullBaz - CHEATCODES 1204 JNR Slice - Euros North Slice Freestyle 6 - 1204 Lucio Bukowski x Lionel Soulchildren - DESTINS OSSEUX - 1204 luXe Timeless - Glacé - 1304 8ruki - BMF - 1304 Boyya - Maudit - 1304 Houdi - Cauchemar 3 1304 Lyms - Générosité - 1304 Selug - Dernière fois - 1304 Ucyll - Eau salée - 1304 Urde - Petits morceaux - 1404 Bekar - Double Freestyle Mirasierra - 1404 Green Montana - NEYMAR JR ft. SDM - 1404 Junior Bvndo - 6975 ft. ZeGuerre - 1404 KESPAR - Atterris - 1404 San-Nom - Hamingja - 1404 Seth Gueko - Mara Salva ft. GRIBS - 1404 Vin's - Outrage I - 1404 Yome - Hors série 1 - Changer - 1504 Allebou - PINPONGYAANG ft. Susanoô - 1504 Aloïse Sauvage - Focus - 1504 Barack Adama - Grand cru - 1504 Cercle Fermé - Escucha ft. ALP Sofiane - 1504 Dadju - Toko Toko ft. Ronisia - 1504 Demi Portion - Petit prince - 1504 Farlot - Augmentation - 1504 Gambino - Normal - 1504 Glauque - Plan large - 1504 Kany - Chance - 1504 Kerchak - Jane - 1504 KT Gorique - BON MOOD ft. Lil Black - 1504 Kyo Itachi - JJ ft. JeanJass - 1504 LauCarré - En résumé - 1504 Lazzio - EVDCM - 1504 Lorenzo - Catastrophe - 1504 MadeInParis - Sex Remix ft. Eddin - 1504 Nakry - Y'a plus one - 1504 Waltmann - Long Bacon - 1504 Youri - Absences 1704 Di-Meh - Mawashi-geri 1704 Di-Meh - Remontodo - 1804 Heythem - Message - 1904 Dor - Séville Freestyle - 2004 Amad - Dans la zone ft. Steiner Inc - 2004 Dmh - Quartiers Nord 17 Signature - 2004 Gambi - ZAZA - 2004 Lacraps - C'est comme ça - 2004 Moyà - Station - 2104 Davodka - Requiem for a Drill - 2104 Hatik - Finir un texte - 2104 Lonepsi - mon désert - 2104 Loto - Digits - 2104 Max - Antarctique - 2104 Tiakola - M3lo - 2104 Zikxo - Booska'Intemporel - 2204 Achim - Matin midi soir - 2204 Asinine - On voit que moi dans la city - 2204 Axelence - Les mots - 2204 BFG - Shoot ft. Malty 2BZ - 2204 Bilton - ADN - 2204 Bolémvn - Wari - 2204 DIL - Alizé ft. BenZ - 2204 La Cour - DEMON - 2204 Loud - Uber Eats Freestyle 2204 N'seven7 - Drillstyle 02 La popo - 2204 Ritchy Boy - Palababe - 2204 Sokuu - Reste avec moi - 2204 Vegedream - Une équipe - 2204 Vova - Vaisseau - 2304 baby hayabusa - BOZOFLOW - 2304 Jolagreen23 - 23ZERO - 2604 Digistarsamo - Deadpool ft. Retro X - 2604 Lucio Bukowski Nestor Kéa - Matériel Boréal 2604 Lyms - Brisé 2604 Lyms - Loyauté - 2604 Ozkar - Doré - 2704 313 - Ailleurs - 2704 Furlax - RODEO GROOVE ft. Beeby - 2704 Gemen - SATAN 2 - 2704 Houdi - Enchanté - 2704 Keroué - Vésuve - 2704 Primero - Deux deux ft. Roméo Elvis - 2704 Rozzy - Jacquemüs - 2704 Stony Stone - Step 5 - Étoiles - 2804 Zaky - Amène - 2904 Black M - Outfit ft. Dr Bériz 2904 Elams - Monica ft. Flashko - 2904 Emkal - J'la connais, Pt. 1 - 2904 Hunter - Un homme - 2904 Lemon Haze - 9m2 - 2904 Leo - All Day All Night - 2904 MadeInParis - Sex Remix ft. Muni Long - 2904 Magnim - Du Firmament - 2904 Roméo Elvis - QUAND JE MARCHE COMME BEN MAZUÉ - 2904 Shay - DA - 2904 Soprano - Superman n'existe pas ft. Zamdane - 2904 Soso Maness - Crépuscule - 2904 Waïv - Trop méchant - 2904 Youssef Swatt's - Le rap est mort Mai - 0105 Chris 2 Coeur - Focus - 0205 Fiji God - Ultra Focus - 0305 Furax Barbarossa - 26 degrés 5 - 0305 Sysa - SYSA - 0405 Alonzo - PLAQUÉ 13 - 0405 Beendo Z - EDL75 - 0405 Ben.C - BACKWOODS ft. Gouap - 0405 HIBA - Cinq bouteilles 0405 LaFel109 - PAS HARAG 4 - 0405 Lestin - Précis Acoustique 0405 N'Seven7 - Drillstyle 03 Hes dead - 0405 Saamou Skuu - Anodin - 0405 La F - O.J - 0405 Leonis - Toute la night - 0405 mademoiselle lou - Solo 0405 Zidi - Comme d'habitude - 0505 Demi Portion - Légendaire 0505 Dika - Ingérables - 0505 Grems - Futura - 0505 Hyacinthe - Fureur de vivre - 0505 Irko - Carbon - 0505 JOHEM - Ville de bâtard - 0505 Lamatrix - Bad Kongo - 0505 LP2.0 - GTA 26 - 0505 Médine - Saint Modeste - 0505 Realo - Ibiza - 0505 Seth Gueko - Mange tes morts - 0505 Tizzy Miller - Nulle part - 0505 Vin's - Outrage II - 0505 Walk in Paris - Sacrifices ft. Chilla Nemir - 0605 1D1R - Tard la night - 0605 Bakari - SoloBinks 4 Le pacte - 0605 Chily - Bébé Na Bébé ft. Leto - 0605 C.Sen Le Chimiste - La vitre - 0605 Dajak - SABLIER - 0605 DA Uzi - Booska Braves 0605 Friz - O clair 2 la lune - 0605 Furlax - Sensation - 0605 i300 - Tookah 5 - 0605 ISK - El Golaa - 0605 JuL - Ça tourne dans ma tête - 0605 La Cour - EFFP - 0605 Larry - Rose - 0605 Lpee - Michael J. Fox - 0605 Mous-K - Petit frère - 0605 Niaks - La chienneté - 0605 Ouss Riane - Vision 4K ft. Nahir - 0605 Oklmava - C'est la cité qui lé-par 2 - 0605 Sasso L'Allemand - Curs abîmés - 0605 Seven Binks - Fumigèneft. ElGrandeToto - 0605 Sokra - Lozano - 0605 Tiakola - Si j'savais - 0605 TripleGo - Ice - 0605 Waltmann - Comme d'hab ft. Keroué - 0605 yung g - offre ton coeur ! - 0605 Zeu - ZIDANE ft. Venom - 0705 Salem - ... - 0805 baby hayabusa - BOZOFLOW2 - 0805 Douma - Baby Baby ft. Kalash Criminel 0805 SelaS - Courage 0905 AM La Scampia - Booska Fête Triste - 1005 Di-Meh - Promethazine 1005 Djeiz - Butin - 1005 Gianni - Tout en noir - 1005 Luther - LESSGUI - 1005 Timéa - JE TE CHERCHE - 1005 V2 ALMZ - FREESTYLE KSPER 1 - 1105 Amine Farsi - FRAUDE ft. Freeze Corleone - 1105 B.B. Jacques - Odyssée 1105 Calbo - J'écris - 1105 Gazo - CÉLINE 3X - 1105 Hatik - Star du rap - 1105 KT Gorique - HCV hold up ft. Mr Key - 1105 Theodora - Daddy Chocolat - 1105 Werenoi - Balmain - 1105 Yannou JR - Top Boy - 1105 Yanns - Soleil et nanas - 1105 Yanso - Hola Ouais ft. ElGrandeToto - 1105 YG Pablo - Incolore - 1105 Younès - ENTRE NOUS - 1205 Bramsito - God Bless U - 1205 DOR - Ouh Ouh - 1205 Soso Maness - À l'aube ft. Dinos - 1205 Tsew The Kid - Polaroïd 3 - Grosse tête - 1305 AMK - Toutatis ft. Slkrack - 1305 Chiloo - Je ne dors pas - 1305 Dala - FIN ft. Booba 1305 Dehmo - REPEAT - 1305 DJ Hamida - Ma bébé Mi amor ft. SAF - 1305 Doria - On prend tout - 1305 Farès - 0001 - 1305 Gotti Maras - Bumpy - 1305 Graya - La Castellane 5 - 1305 Hunter - Untitled1 - 1305 Jonny Vegas - En vie - 1305 Kemmler - Le Temps ft. Léa Castel - 1305 Kerchak - Tarzan - 1305 Kodes - Jack - 1305 Krilino - Poto Rico 1305 La Peee - 0.4 ft. KaNoé - 1305 L'As - LAMBO ft. DrillDiscovery - 1305 Livaï - THALES ft. Chanje - 1305 menace Santana - Vendredi13mai2022 - 1305 MIG - Vrai Savage - 1305 Omar Syco - Pas changé 1305 OMR - Mouv ft. ZeGuerre - 1305 Relo - PRP Plume Reconnait Plume ft. Sinik, R.E.D.K., Jacky Seth Gueko - 1305 Soolking - Askim ft. Reynmen - 1305 Stupeflip - Dans ton baladeur DTB - 1305 TK - Bisou Omri ft. Zaho Aymane Serhani - 1305 TripleGo - All Night - 1305 Veust - Première classe ft. Alpha Wann - 1305 Walk in Paris - Si tu veux ft. Sopico - 1505 3ARBI - Paname 1505 B-NØM - COCO AÇAÏ - 1505 FrenchCali - Sugar Ray leonard - 1505 Houdi - FPH 0 - 1505 Zeu - JJJJJ - 1605 Udeyfa - Choc générationnel - 1605 ZKR - Booska'méléon - 1705 Bob Marlich - Kyubi - 1705 eden dillinger - 40 mètres ft. Wallace Cleaver - 1705 Naps - La Maxance - 1705 Slkrack - Appel en absence ft. EDGE - 1805 Hakai - GRENADE - 1805 Henri Bleu - Palais de glace 1805 Ivory - Faux frères ft. YL 1805 Junior Bvndo - RDLB - 1805 Kai du M - Batman - 1805 Lamatrix - Malhonnête - 1805 La Rvfleuze - Serrure 1 - 1805 Lybro - Saiyan 2 - 1805 Seth Gueko - Last album - 1805 Smahlo - Trahison ft. Gotti Maras - 1805 Urde - Van der Sar - 1805 Good Bana - Les Humains - 1905 DosPunto - Je meurs avec - 1905 JSX - Shogun - 1905 JuL - Superstar - 1905 Kepler - Rondo Numba Nine ft. Larry - 1905 Keroué - Felice ft. Caballero - 1905 luXe Timeless - Tactiques Block - 1905 Sirap - Seul - 1905 Stavo - Haut risque - 1905 Tiakola - Coucher de soleil - 1905 Yome - Hors série 2 - Pourquoi - 2005 Allebou - Personne - 2005 Amné - Niya - 2005 baby hayabusa - BOZOFLOW3 - 2005 Boub'z - OMAX - 2005 Bigflo Oli - J'étais pas là - 2005 Black Mamba 28 - Cette Shit - 2005 Carbonne - MTP - 2005 Chester - Barré - 2005 Denzo - La rue en V.O 2005 Dinero - Dans ça - 2005 DOC OVG - 1000 ft. Freeze Corleone - 2005 Frenetik - HB Freestyle Season 4 ft. Hardest Bars - 2005 Harley - Sten ft. Genezio Jew Brownie 2005 Koffi Lossa - Streetbi ft. Yaya Krisso - 2005 La F - Vise et tire - 2005 La Honda 19 - Juste en crime - 2005 Malty 2BZ - Wow 2005 N'Seven7 - Gwara 2005 Nubi - S.A.L.E - 2005 REA - Nana - 2005 Réejo - Movie, Yeah Yeah - 2005 Roméo Elvis - MAQUETTE - 2005 SAF - MWAZABOUDJ - 2005 Shtar Academy - Oh la la la ft. Sofiane, Ryan, Perkiz, Nonô Blur - 2005 SLK - OUH OUH OUH ft. Liim's - 2005 Sokuu - Yoshi - 2005 So La Lune - Fin heureuse - 2005 Timal - La 15 GSXR - 2005 TripleGo - Mes pensées - 2005 Youri - Doggy Bag 2005 Youssef Swatt's - Solo - 2005 Zikxo - Déjà mort - 2205 Houdi - FPH 1 - 2205 Zeu - Von Durk ft. Goose28th - 2305 ISK - Booska Racines ft. Nahir, DA Uzi Niaks - 2305 Seka - Pharrell ft. 63OG - 2505 Barack Adama - Baggy ft. Lefa - 2505 Beendo Z - Booska Z - 2505 Di-Meh - Veuve Clicquot ft. Caballero 2505 Don Milli - Millimètre 1 - 2505 Emkal - Jla connais, Pt. 1 Remix ft. Lynda - 2505 Gambi - Paqueta - 2505 Kerchak - Obsessed With Me - 2505 Menavor - Cascade - 2505 N'Seven7 - Paris est magique - 2505 Prince Waly - Avertisseurs Part. II - 2505 Urde - Trempé - 2505 Wallace Cleaver - Armata - 2605 Dracks - Solo 2605 Fello - Tout l'été ft. Dinero - 2605 Novy - EAPN 3 - Johnny Dang - 2605 Pollux - LE MAL EST FAIT - 2605 Soso Maness - Peine de mort - 2605 TripleGo - Summer - 2705 Ateyaba - Finesse - 2705 Béles - EVERYDAY - 2705 Big Ben - C'est mon histoire 1 - 2705 Black Jack OBS - T.M ft. Goulag 2705 BLK 140 - Poppy - 2705 Chilla - Cauchemars - 2705 Dmh - Coeur - 2705 Furax Barbarossa - Brise de mer 2705 Gambino - Plata - 2705 HD La Relève - Mobulu 1 - Milli Milli - 2705 Huntrill - amiri. - 2705 Jeune Lion - AC MILAN - 2705 KronoMuzik, Pandrezz Ronare - Violette Citronelle ft. Alkpote - 2705 Lorage - Oxygène 2705 Michel - Da da da - 2705 Nans - Cagoulés - 2705 Naza - Bibi ft. Negrito - 2705 Nixy Rose - WAKA FLOCKA ft. Sossa Kah - 2705 RCKNSQT - Error 520 - 2705 Rizla - Fanées - 2705 Salimo - Wooh - 2705 SanaNael - Mr Mme ft. Elams - 2705 Seven Binks - Bleu ft. Bolémvn Sasso - 2705 So La Zone - Dans la ville - 2705 SOPA - Fou d'elle 2 - 2705 TK - La tartine - 2705 Uzibinski - Parabellum 2705 Vves - Benzo - 2705 Zalmad - Elle m'prend pour un loss - 2905 3ARBI - Bruce Wayne 2905 Azuul Smith - Mentale - 2905 Elso - Dope 2905 Fababy - C'est toi que j'aime - 2905 Houdi - FPH 2 - 3005 Gazo - MOLLY - </t>
+          <t>Hey yo, that shit catches, Senpaï Olala, Shaz Mon frère c'est l'manager Ma mère elle récupère la money Et mon père il avait peur Maintenant il voit qu'on fait d'la money J'vais au bureau mais c'est pas vraiment un bureau C'est mon boulot mais c'est pas vraiment un boulot Et j'me d'mandais au début Si mélanger la miff, le bif c'était une bonne idée Des mauvais côtés des bons, c'est comme tout Pour l'instant c'est validé, RSDZ calibré C'qu'on a on l'a mérité et c'est tout We do, we do sing till mañana That's why we got the chance It's on family business We do, w do sing till mañana That's why we got the paper Its on family gang gang, gang Pay back all racks no tax just tax I don't want chang Blue prints i'm switch habid too simple Rilès, Younès, okay, ça l'fait Family Business j'encaisse ça m'plaît santé On l'faisait avant l'bénéfice sa mère Et le f'rra pour nos fils bah ouais On l'faisait avant le bénéfice Dans la street, dans la caisse Sans le bif, dans le tieks We do, we do sing till mañana That's why we got the chance It's on family business We do, we do sing till mañana That's why we got the paper Its on family gang gang, gang1</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ENTRE NOUS</t>
+          <t>HARRAGA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous J'veux tout savoir, ne cache plus rien Ce que t'as sur le cur Tu peux le mettre sur le mien Je veux tout savoir si ça t'est utile Entre nous, j'veux plus jamais rien d'futil Je sais que t'es fort ouais Bien plus que moi J'aimerais te porter, rien qu'une fois Je sais qu'au fond, t'as des douleurs Dont tu parles même pas à ta mère Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous Est-ce que c'était glacé Ou au contraire, brûlant comme l'enfer ? Hein ? Est-ce que tu veux qu'j'm'en occupe ? Qu'j'y aille avec mon équipe ? On peut l'faire, on peut l'tuer devant sa mère s'il le faut Je te l'ai dit, pour toi je deviendrais fou Ce qu'il t'a fait, il va le payer x200 Dis-moi go T'es ma go' T'es ma femme Toi et moi, c'est mieux que les films Ce qu'il t'a fait C'est infâme Dis-moi go Dans tes yeux, dans ta voix Je vois, j'entends ce que tu vis Dans ton silence, dans tes bras Je sens, comprends, ce qu'on t'a pris Dis-moi c'qu'il s'est passé Est-ce qu'il t'a menacé ? Dis-moi tout Dis-moi tout Où est-ce que ça s'est passé ? Est-ce qu'il t'a embrassé dans le cou ? Dans le cou Dis-moi c'qui s'est cassé Est-ce que ça s'est tassé après coup ? Après coup Dis-moi c'que tu pensais Même si c'est déplacé entre nous Entre nous</t>
+          <t>Harraga Harraga Harraga Harraga J'habite à Arzew, banlieue de Oran C'est beau l'Algérie mais ici c'est pourri Des barres d'immeubles délabrées Couleur vieux gris délavé La nuit avec mes amis On rêve d'ailleurs on refait la vie Plutôt bon vivant j'aime rigoler Je connais tout le quartier, tout le quartier me connait Je suis diplômé mais j'ai pas de boulot Avec ma famille on vit dans un studio J'aimerais leur offrir un avenir meilleur Un rêve qui me tient à cur Un soir on s'st mis d'accord Avec mes gars on s'est cotisé Pour payr le babor, ce sera le trois A la nuit tombée, à l'entrée du port Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Je suis parti, une nuit d'été Avec mes kheys on s'est endetté Et la famille ? Je ne veux pas l'inquiéter Donc j'ai rien dis et j'ai tout quitté Ma mère croit que je dors chez ma sur En vérité je vais rejoindre le passeur J'ai préféré partir en douceur La nuit du départ, la mer est agitée Tant pis c'est trop tard, on ne peut plus reculer Le passeur a peur on a insisté Je suis monté à bord, puis j'ai prié Deux semaines plus tard, toujours pas de nouvelles Au quartier des rumeurs, on espère un appel Un jour enfin, le téléphone sonne Et c'est mon prénom qui s'affiche sur le phone Yemma tremble elle décroche plein d'espoir Elle a bien fait d'y croire Mais au bout du fil, c'est la police On vient de retrouver le corps de son fils Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit J'ai quitté ma famille, j'ai quitté mes amis, j'ai quitté ma ville Je suis monté à bord, j'ai pris le navire, j'ai perdu la vie1</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FAMILY BUSINESS</t>
+          <t>Huitième Rapport</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hey yo, that shit catches, Senpaï Olala, Shaz Mon frère c'est l'manager Ma mère elle récupère la money Et mon père il avait peur Maintenant il voit qu'on fait d'la money J'vais au bureau mais c'est pas vraiment un bureau C'est mon boulot mais c'est pas vraiment un boulot Et j'me d'mandais au début Si mélanger la miff, le bif c'était une bonne idée Des mauvais côtés des bons, c'est comme tout Pour l'instant c'est validé, RSDZ calibré C'qu'on a on l'a mérité et c'est tout We do, we do sing till mañana That's why we got the chance It's on family business We do, w do sing till mañana That's why we got the paper Its on family gang gang, gang Pay back all racks no tax just tax I don't want chang Blue prints i'm switch habid too simple Rilès, Younès, okay, ça l'fait Family Business j'encaisse ça m'plaît santé On l'faisait avant l'bénéfice sa mère Et le f'rra pour nos fils bah ouais On l'faisait avant le bénéfice Dans la street, dans la caisse Sans le bif, dans le tieks We do, we do sing till mañana That's why we got the chance It's on family business We do, we do sing till mañana That's why we got the paper Its on family gang gang, gang1</t>
+          <t>Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger J'suis attendu comme une phrase en suspens Le rap est mort j'ai la tête du suspect Jrêve de rencontrer les racistes du net Les faire répéter démarrer ltête à tête J'arrive concentré jrepars dans un sourire J'arrive dans cette vie jrepars dans un soupir J'ai des réflexions que jmapplique même pas Comme les citations dans les bio insta Ça y est les majors s'intéressent à moi Mais la question c'est est ce qu'ils m'intéressent ? On travaille sur le projet depuis des mois Dis-moi pourquoi tu ramasserais les pièces ? Viens on s'embrouille si on peut mieux s'entendre Viens on se débrouille on va pas les attendre Me donne pas d'ordres j'ai envie de désobéir On a grandi avec b20ba Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger Les meilleurs adultes ont su restés enfants Mes parents sont venus ils sont restés en France À part en vacances j'ai pas ltemps d'faire du son À part le week-end mais c'est pas suffisant Après l'embrouille j'me remets en question J'attends un peu j'me remets dmes émotions Mon Compte mérite mon attention Cque m'dis ma banque sur mon application Y a des gosses qui meurent pour le coltan Des péchés qu'on ignore qu'on se coltine Ça pue la pisse comme les quais d'seine Le temps passe et on se questionne À quoi pensent toutes ces têtes ? J'ai lvertige quand j'y pense Tous le premier rôle dans même lplan séquence C'est l'huitième rapport J'n'ai plus rien à perdre J'ai sorti le corps reste les pieds dans la merde Nos vies se croisent mais ne se rencontrent pas Nos yeux se toisent mais ne s'regardent pas J'ai plus d'idées donc je fonce dans le tas Comme la fourmi je travaille tout l'été J'me demande si mes amitiés sont solides Ou si la vie n'les a pas éprouvés Et j'me demande si notre amour est torride Ou si on essaye juste de sle prouver La force c'est dfaire cque tu veux Et pas cquon attends de toi Peur de faire du rap qui nparle que de rap Peur de faire du rap qui nparle que de moi On srends compte toujours après du bonheur qu'on avait Donc je suppose qu'aujourd'hui j'suis heureux À la base le son moi jvoulais pas m'y consacrer J'voulais sauver le monde comme les héros Yoon</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HARRAGA</t>
+          <t>IDENTITÉ REMARQUABLE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Harraga Harraga Harraga Harraga J'habite à Arzew, banlieue de Oran C'est beau l'Algérie mais ici c'est pourri Des barres d'immeubles délabrées Couleur vieux gris délavé La nuit avec mes amis On rêve d'ailleurs on refait la vie Plutôt bon vivant j'aime rigoler Je connais tout le quartier, tout le quartier me connait Je suis diplômé mais j'ai pas de boulot Avec ma famille on vit dans un studio J'aimerais leur offrir un avenir meilleur Un rêve qui me tient à cur Un soir on s'st mis d'accord Avec mes gars on s'est cotisé Pour payr le babor, ce sera le trois A la nuit tombée, à l'entrée du port Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Je suis parti, une nuit d'été Avec mes kheys on s'est endetté Et la famille ? Je ne veux pas l'inquiéter Donc j'ai rien dis et j'ai tout quitté Ma mère croit que je dors chez ma sur En vérité je vais rejoindre le passeur J'ai préféré partir en douceur La nuit du départ, la mer est agitée Tant pis c'est trop tard, on ne peut plus reculer Le passeur a peur on a insisté Je suis monté à bord, puis j'ai prié Deux semaines plus tard, toujours pas de nouvelles Au quartier des rumeurs, on espère un appel Un jour enfin, le téléphone sonne Et c'est mon prénom qui s'affiche sur le phone Yemma tremble elle décroche plein d'espoir Elle a bien fait d'y croire Mais au bout du fil, c'est la police On vient de retrouver le corps de son fils Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit Tu sais que la vie me donne pas grand-chose J'attends rarement qu'elle me gratifie Il y a qu'en m'éloignant de la misère Que je peux la trouver magnifique J'ai les yeux rivés vers le ciel Les étoiles font des graffitis La dalle m'a poussé au départ Mais la mer a plus d'appétit J'ai quitté ma famille, j'ai quitté mes amis, j'ai quitté ma ville Je suis monté à bord, j'ai pris le navire, j'ai perdu la vie1</t>
+          <t>Jsuis parti dchez moi, cest ma top line préféré Mes potes en rigolent, faut croire que jen suis fier Jsuis parti dchez moi, sans savoir cque jespérais Jai quitté lécole, jai khedem comme mon père Et quand jbouge pas, je voyage dans ma tête Et on se couche tard mais cest pas la fête Jregarde par la fenêtre, mon frère roule un pet Et jle juge pas, il sait cque jen pense.. Il sait cque jen pense, quest-ce que jfouds en France Jpense à mon enfance, à mon futur fils, à de lappeler fiston jen ai déjà des frissons Parfois jme parle tout seul, je prépare nos discussions Jai fraudé le train, ils ont mis des barrières électriques Paris pour faire mon trou et maintenant jsuis dans le truc J'ai dit frérot à la légère un peu trop Donc maintenant je dois faire le tri J'ai fraudé le métro nos députés connaissent pas le prix J'ai rencontré une meuf c'est peut-être la mère de mes enfants Indécis je suis pas sûr j'ai demandé à maman Elle m'a dit tu le sauras quand c'est elle normalement Mais moi je me pose des questions tout le temps tout le temps Tellement que ma belle elle est partie en courant Et depuis elle me manque et je me demande si je me mens Et je me demande si je me mens Elle est plus là, sa mère, j'entends encore ses rires J'ai besoin d'un sérum C'est pas carré c'est rond Je fais que recommencer c'est ma vie que je te raconte Je fais que romancer Perdu dans mes pensées tu sais très bien que ça va pas À la base, j'suis sympa mais ce soir, je le sens pas Je fais bien plus que 100 pas et les soucis s'empilent 1000 euros le cachet, avant, j'comptais les centimes Au grec et au libanais, au CROUS à la cantine Et je repense à papa s'il te plaît ne part pas Je ne suis pas encore prêt Je crois qu'on sait pas tout dit J'aime plus souffler les bougies depuis que je vois que tu vieillis Depuis que tu prends de l'âge Nouvelle génération Le fils de mon grand frère putain, j'l'aime comme never Je savais pas qu'on pouvait aimer autant, j'te jure Le sourire de mes nièces Quand elles sont dans la pièce et qu'on se réveille ensemble Ma famille est soudée, mon Dieu, faites que ça dure Les appels sur WhatsApp, je crois que nos liens, ils sont purs Faites que rien nous sépare J'ai des projets d'carrière, j'ai des projets d'bonheur Hors de question mon frère que ça bouffe mon honneur On va se dire ce qu'on dit pas Je me souviens, j'étais petit, ça m'a plu dans le pe-ra Il y aura pas de langue de bois On va se parler franchement Les tits-pe sont trix-ma quand ils disent vrai de vrai Mais moi, je sais qu'ils font semblant À l'heure où j'écris ce texte, j'hésite à signer un contrat Entre les uns et les autres, j'entends tout et son contraire Entre le daron et la daronne, j'ai pas manqué de fournitures Entre le tarot et la parole, il manque juste la signature À l'époque j'avais 20 ans et des rêves grands comme une grue Je trouvais les adultes aigris J'aimais pas leur simagrée Je voulais pas le ressembler Taf de bureau, pas question Je préfère être heureux sans blé Je préfère être heureux sans blé Je suis français à ce qu'il paraît Je suis arabe à ce qui paraît Je suis coincé en vérité En vérité je suis le fils de Senouci et Fatiha J'essaie d'apaiser mon cur je récite la Fatiha Y'a ceux qu'ont des excuses et ceux qu'ont charbonné J'ai pas le choix d'être généreux car on m'a grave donné Et le soir je demande à Dieu de me pardonner Si tu kiffes pas renoi tu peux te désabonner Je suis en retard même en visio Je vais percer j'ai des visions Je dis ce que je pense comme un idiot Je tourne ma peine en dérision Je suis pudique dans la vraie vie mais je dévoile tout sur Vevo Je vis ma vie comme une série, c'est pas sûr que j'en sois le héros Faut que j'apprenne à pas répondre quand j'ai pas envie de parler Même si c'est ma daronne Non il vaut mieux la rappeler Faut que j'apprenne à dire non À pas avoir peur de blesser Même si c'est mon poto si c'est mon poto il sait Faut que j'apprenne à quitter Faut que j'apprenne à choisir Faut que j'apprenne à changer Faut que j'apprenne à revenir Et je voulais devenir fort tu sais comme dans les mangas Rester le même peu importe devant quel gars Je me sens bien quand je laisse pas maman tout faire Je suis parti de chez maman car je sentais que j'ai tout fait Et maintenant je me sens mieux Je mets la main la pâte Et parfois, je me sens vieux quand je vois les petits faire du rap Je fais du rap car y a des choses que je dois dire Des choses qui peuvent pas rester dans mes notes Car on peut pas se contenter de dire que des mondanités Je rappe vrai, je rappe fort, c'est toute une mentalité C'est presque une fatalité Parfois devant le gardien tu sais j'hésite à marquer Cet album sera comme un putain de bon film que tu hésites à mater Car tu sais que ça peut te changer mais tu sais pas comment Identité remarquable car je suis pas comme eux Younes Premier album Fin de l'histoire</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Huitième Rapport</t>
+          <t>Interlude</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger J'suis attendu comme une phrase en suspens Le rap est mort j'ai la tête du suspect Jrêve de rencontrer les racistes du net Les faire répéter démarrer ltête à tête J'arrive concentré jrepars dans un sourire J'arrive dans cette vie jrepars dans un soupir J'ai des réflexions que jmapplique même pas Comme les citations dans les bio insta Ça y est les majors s'intéressent à moi Mais la question c'est est ce qu'ils m'intéressent ? On travaille sur le projet depuis des mois Dis-moi pourquoi tu ramasserais les pièces ? Viens on s'embrouille si on peut mieux s'entendre Viens on se débrouille on va pas les attendre Me donne pas d'ordres j'ai envie de désobéir On a grandi avec b20ba Sentiment de plénitude quand j'réalise mes rêves J'arrête les études, j'réalise mes rêves Ça s'discute pas comme les goûts les couleurs On s'dispute pas on spartage nos douleurs Et j'ai peur au volant quand j'ai l'neveu derrière J'crois que c'est ça être responsable mon frère On a tous le pouvoir de rendre heureux les gens De leur rendre le cur un peu plus léger Les meilleurs adultes ont su restés enfants Mes parents sont venus ils sont restés en France À part en vacances j'ai pas ltemps d'faire du son À part le week-end mais c'est pas suffisant Après l'embrouille j'me remets en question J'attends un peu j'me remets dmes émotions Mon Compte mérite mon attention Cque m'dis ma banque sur mon application Y a des gosses qui meurent pour le coltan Des péchés qu'on ignore qu'on se coltine Ça pue la pisse comme les quais d'seine Le temps passe et on se questionne À quoi pensent toutes ces têtes ? J'ai lvertige quand j'y pense Tous le premier rôle dans même lplan séquence C'est l'huitième rapport J'n'ai plus rien à perdre J'ai sorti le corps reste les pieds dans la merde Nos vies se croisent mais ne se rencontrent pas Nos yeux se toisent mais ne s'regardent pas J'ai plus d'idées donc je fonce dans le tas Comme la fourmi je travaille tout l'été J'me demande si mes amitiés sont solides Ou si la vie n'les a pas éprouvés Et j'me demande si notre amour est torride Ou si on essaye juste de sle prouver La force c'est dfaire cque tu veux Et pas cquon attends de toi Peur de faire du rap qui nparle que de rap Peur de faire du rap qui nparle que de moi On srends compte toujours après du bonheur qu'on avait Donc je suppose qu'aujourd'hui j'suis heureux À la base le son moi jvoulais pas m'y consacrer J'voulais sauver le monde comme les héros Yoon</t>
+          <t>La nuque ploie sous une force immense et invisible Elle nous pousse à labsurde, ça en devient risible Smartphone, iPhone, on en devient aphone Ça sonne, jmabonne, ça sonne Jmabonne, jmabonne, jmabonne Ça sonne, ça sonne, ça sonne Ça sonne, ça sonne, ça sonne J'm'affole, ça sonne, ça sonne Massomme, ça sonne, ça sonne Jmabonne, jmisole, jmabonne, jmisole Ça sonne, jmisole, ça sonne, ça sonne Le monde est virtuel</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IDENTITÉ REMARQUABLE</t>
+          <t>INTERLUDE (INSHALLAH ÇA FAIT UN HIT)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jsuis parti dchez moi, cest ma top line préféré Mes potes en rigolent, faut croire que jen suis fier Jsuis parti dchez moi, sans savoir cque jespérais Jai quitté lécole, jai khedem comme mon père Et quand jbouge pas, je voyage dans ma tête Et on se couche tard mais cest pas la fête Jregarde par la fenêtre, mon frère roule un pet Et jle juge pas, il sait cque jen pense.. Il sait cque jen pense, quest-ce que jfouds en France Jpense à mon enfance, à mon futur fils, à de lappeler fiston jen ai déjà des frissons Parfois jme parle tout seul, je prépare nos discussions Jai fraudé le train, ils ont mis des barrières électriques Paris pour faire mon trou et maintenant jsuis dans le truc J'ai dit frérot à la légère un peu trop Donc maintenant je dois faire le tri J'ai fraudé le métro nos députés connaissent pas le prix J'ai rencontré une meuf c'est peut-être la mère de mes enfants Indécis je suis pas sûr j'ai demandé à maman Elle m'a dit tu le sauras quand c'est elle normalement Mais moi je me pose des questions tout le temps tout le temps Tellement que ma belle elle est partie en courant Et depuis elle me manque et je me demande si je me mens Et je me demande si je me mens Elle est plus là, sa mère, j'entends encore ses rires J'ai besoin d'un sérum C'est pas carré c'est rond Je fais que recommencer c'est ma vie que je te raconte Je fais que romancer Perdu dans mes pensées tu sais très bien que ça va pas À la base, j'suis sympa mais ce soir, je le sens pas Je fais bien plus que 100 pas et les soucis s'empilent 1000 euros le cachet, avant, j'comptais les centimes Au grec et au libanais, au CROUS à la cantine Et je repense à papa s'il te plaît ne part pas Je ne suis pas encore prêt Je crois qu'on sait pas tout dit J'aime plus souffler les bougies depuis que je vois que tu vieillis Depuis que tu prends de l'âge Nouvelle génération Le fils de mon grand frère putain, j'l'aime comme never Je savais pas qu'on pouvait aimer autant, j'te jure Le sourire de mes nièces Quand elles sont dans la pièce et qu'on se réveille ensemble Ma famille est soudée, mon Dieu, faites que ça dure Les appels sur WhatsApp, je crois que nos liens, ils sont purs Faites que rien nous sépare J'ai des projets d'carrière, j'ai des projets d'bonheur Hors de question mon frère que ça bouffe mon honneur On va se dire ce qu'on dit pas Je me souviens, j'étais petit, ça m'a plu dans le pe-ra Il y aura pas de langue de bois On va se parler franchement Les tits-pe sont trix-ma quand ils disent vrai de vrai Mais moi, je sais qu'ils font semblant À l'heure où j'écris ce texte, j'hésite à signer un contrat Entre les uns et les autres, j'entends tout et son contraire Entre le daron et la daronne, j'ai pas manqué de fournitures Entre le tarot et la parole, il manque juste la signature À l'époque j'avais 20 ans et des rêves grands comme une grue Je trouvais les adultes aigris J'aimais pas leur simagrée Je voulais pas le ressembler Taf de bureau, pas question Je préfère être heureux sans blé Je préfère être heureux sans blé Je suis français à ce qu'il paraît Je suis arabe à ce qui paraît Je suis coincé en vérité En vérité je suis le fils de Senouci et Fatiha J'essaie d'apaiser mon cur je récite la Fatiha Y'a ceux qu'ont des excuses et ceux qu'ont charbonné J'ai pas le choix d'être généreux car on m'a grave donné Et le soir je demande à Dieu de me pardonner Si tu kiffes pas renoi tu peux te désabonner Je suis en retard même en visio Je vais percer j'ai des visions Je dis ce que je pense comme un idiot Je tourne ma peine en dérision Je suis pudique dans la vraie vie mais je dévoile tout sur Vevo Je vis ma vie comme une série, c'est pas sûr que j'en sois le héros Faut que j'apprenne à pas répondre quand j'ai pas envie de parler Même si c'est ma daronne Non il vaut mieux la rappeler Faut que j'apprenne à dire non À pas avoir peur de blesser Même si c'est mon poto si c'est mon poto il sait Faut que j'apprenne à quitter Faut que j'apprenne à choisir Faut que j'apprenne à changer Faut que j'apprenne à revenir Et je voulais devenir fort tu sais comme dans les mangas Rester le même peu importe devant quel gars Je me sens bien quand je laisse pas maman tout faire Je suis parti de chez maman car je sentais que j'ai tout fait Et maintenant je me sens mieux Je mets la main la pâte Et parfois, je me sens vieux quand je vois les petits faire du rap Je fais du rap car y a des choses que je dois dire Des choses qui peuvent pas rester dans mes notes Car on peut pas se contenter de dire que des mondanités Je rappe vrai, je rappe fort, c'est toute une mentalité C'est presque une fatalité Parfois devant le gardien tu sais j'hésite à marquer Cet album sera comme un putain de bon film que tu hésites à mater Car tu sais que ça peut te changer mais tu sais pas comment Identité remarquable car je suis pas comme eux Younes Premier album Fin de l'histoire</t>
+          <t>Daron rebeu ne pleure pas Daron rebeu ne parle pas Daron rebeu est dans le salon, il regarde la télé, il bouge pas Tu sais moi, je savais pas que j'ferais du pe-ra Nan j'savais pas En plus c'est haram putain de sa mère d'après les prêcheurs d'internet et puis d'après plein d'autre gens Tu sais parfois j'me sens vraiment fatigué Comme ci j'cours après un truc qui sert à rien C'est l'ennui qui me bouge Qui me fait fair des trucs de ouf, putain C'est l'nnui qui me fait courir après le butin Putain, putain, putain, j'cogne ma tête contre l'appuie tête Dón Carlito me répond pas, ça me prend la tête Il devait m'envoyer des prods, putain Comment on va faire pour percer si il m'envoi pas de prods Percer, percer j'y pense depuis l'CP Bercer, bercer par le culte de la célébrité J'suis avec alex et leone au studio On cherche à faire des hit gros ah ah ah Mais moi je sais pas vraiment faire des hits, non Moi je sais que faire du putain de rap, ça mère ouais En plus à ce qu'il parait Il faut pas chercher à en faire Pour faire des hits il faut juste faire ce que t'aime, et après Inshallah ça fait un hit Tant mieux, je vais faire ce que j'aime maintenant Et on verra bien Et si je perce pas, bah C'est peut être pour mon bien J'aime trop ma nana putain je m'y attendais pas Olala ça fausse tous mes plans, putain Je ne vais pas pouvoir me mettre bien Ou peut être que, si enfaite je vais me mettre bien Mes deux parents sont algérien, je suis algérien et je suis français aussi à ce qu'il parait Je sais pas trop</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Interlude</t>
+          <t>J’AIME PLUS LE RAP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La nuque ploie sous une force immense et invisible Elle nous pousse à labsurde, ça en devient risible Smartphone, iPhone, on en devient aphone Ça sonne, jmabonne, ça sonne Jmabonne, jmabonne, jmabonne Ça sonne, ça sonne, ça sonne Ça sonne, ça sonne, ça sonne J'm'affole, ça sonne, ça sonne Massomme, ça sonne, ça sonne Jmabonne, jmisole, jmabonne, jmisole Ça sonne, jmisole, ça sonne, ça sonne Le monde est virtuel</t>
+          <t>Cest mon premier ptêtre mon dernier album Demain jarrête Jaime plus le rap depuis que je sais que la promo sachète Mon premier son, jparlais de mon ex Javais mal au cur, jen ai fait un complexe Jespérais quelle revienne, au moins quelle me comprenne, après lécoute de mon texte ça sappelait Yoon on the moon 1, cétait chaud Elle ma jamais rappelé, mais la vie la kiffé Donc jai continué Jsais plus pourquoi jle fais Jveux partir comme Luffy, après ce morceau tu sauras pourquoi jai fuis Jveux rester moi même mais ya beaucoup trop davis Le but dun label cest quoi à ton avis ? Cest faire de loseille avant tout mon amis après cest aussi à moi jpense de savoir comment me battre pour ce truc là si jy crois vraiment Cest mon premier ptêtre mon dernier album Je suis pas sûr de vouloir continuer De toute façon jai mon contrat qui sarrête Je commence à fatiguer 10 ans que jfais du rap je commence à paniquer 10 ans que jfais du rap je sais plus pourquoi jle fais Sur de rien je sais même pas si jai déjà connu lamour Et vas-y change daccord que je vois si ça me fait de leffet Sur de rien je sais pas si ça mfait de leffet Jai arrêté les études A mon père jai dit tinquiète pas jassume Et cest vrai jassume, jdemande rien Jsuis fière jsuis algérien Jsuis rappeur, jsuis écrivain Jsuis acteur, jsuis comédien Aller ferme ta gueule Arrête de faire crari Les défauts que javais petit sont les mêmes quaujourdhui, ptêtre pire Mama tavais raison Et tavais même raison quand tu me disais que je dirais que tavais raison Je croyais je taffais pas, parce que lécole jaimais pas Aujourdhui jfais ce que jaime et cest le même résultat Jsuis un putain de branleur, la putain de sa mère Ya lheure qui défile, ma vie qui se fout en lair Jai tellement livres à lire, tellement films à voir Tellement villes à vivre, jsuis quau début de lhistoire Jai un album à faire, des projets à accomplir Des textes à tourner puis des textes à écrire Jme sens seul Quand jsuis seul je vois du monde, avec eux jveux être seul Je kiffe les meufs dans la rue et puis les meufs sur insta Je les trouve belles, intéressantes, je les connais même pas Jimagine lhistoire damour quon pourrait vivre à lhôtel Je néglige celles qui sont là et qui maiment, elles Jai plus confiance en moi Jai plus confiance en moi, jai plus confiance en mon art Je crois plus les compliments, je lis les mauvais commentaires Je sais plus comment faire, ma carrière tient quà un fil Et jaime pas les rappeurs conseillés sous mon profil Limpression de stagner, davancer doucement 10 ans que je rappe mais Quai-je fais de tout ce temps ? Jai peur de me lancer, de my mettre vraiment Si jmy mets vraiment bah jpeux rater vraiment Et percer ça veut rien dire Ya toute sorte de publique Si cest que faire des vues, autant faire la pute a cliques Autant faire linfluenceur, des vidéos sur youtube Leur montrer mon life style, jpeux même leur faire une routine Je sais plus trop ce que je cherche Moi je le faisais par besoin Cétait pas pour buzzer Jcrois que tout ça me bousille Je sors mon album et bisous En ce moment jsuis grave busy Jsuis tout le temps sur mon bigo Mais jai limpression de rien faire Jsuis même dans la presse people Jai hâte de jeter mon tel Ça fait 10 pige que jen parle Je métais dit dabord je perce, et ensuite je pars Jaime plus lrap, cest plus de mon âge Je sais que cest des acteurs, je sais que cest des tournages Jaime plus lrap, cest plus de mon âge Je sais que cest des menteurs, je sais que cest des montages Ils ont pas de style, ils ont des stylistes Ils ont pas de bonnes idées nan, ils ont des DA Ils ont pas de flow, ils ont des top liner Ils savent pas ce quils font, on leur dit quoi faire Jaime plus lrap, jveux plus rapper mes problèmes Jaime plus lrap, nan jai envie de les résoudre Jaime plus lrap, cest pas une phrase de vieux con Jaime plus lrap, cétait pas mieux avant Jaime plus lrap, leurs idées leurs méthodes Jaime plus lrap, je préfère écouter des prod Jaime plus lrap, ils mapprennent rien de nouveau Jaime plus lrap, je préfère écouter piano</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INTERLUDE (INSHALLAH ÇA FAIT UN HIT)</t>
+          <t>J’ai traîné</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Daron rebeu ne pleure pas Daron rebeu ne parle pas Daron rebeu est dans le salon, il regarde la télé, il bouge pas Tu sais moi, je savais pas que j'ferais du pe-ra Nan j'savais pas En plus c'est haram putain de sa mère d'après les prêcheurs d'internet et puis d'après plein d'autre gens Tu sais parfois j'me sens vraiment fatigué Comme ci j'cours après un truc qui sert à rien C'est l'ennui qui me bouge Qui me fait fair des trucs de ouf, putain C'est l'nnui qui me fait courir après le butin Putain, putain, putain, j'cogne ma tête contre l'appuie tête Dón Carlito me répond pas, ça me prend la tête Il devait m'envoyer des prods, putain Comment on va faire pour percer si il m'envoi pas de prods Percer, percer j'y pense depuis l'CP Bercer, bercer par le culte de la célébrité J'suis avec alex et leone au studio On cherche à faire des hit gros ah ah ah Mais moi je sais pas vraiment faire des hits, non Moi je sais que faire du putain de rap, ça mère ouais En plus à ce qu'il parait Il faut pas chercher à en faire Pour faire des hits il faut juste faire ce que t'aime, et après Inshallah ça fait un hit Tant mieux, je vais faire ce que j'aime maintenant Et on verra bien Et si je perce pas, bah C'est peut être pour mon bien J'aime trop ma nana putain je m'y attendais pas Olala ça fausse tous mes plans, putain Je ne vais pas pouvoir me mettre bien Ou peut être que, si enfaite je vais me mettre bien Mes deux parents sont algérien, je suis algérien et je suis français aussi à ce qu'il parait Je sais pas trop</t>
+          <t>Dans ma tête c'est bagdad khey Y a que des problèmes Pas d'solutions Pendant qu'je traine l'daron pète les plombs Que fait son fiston Si peu de bonnes nouvelles Où tout cela nous mène On le trouvera nous même Y en a ils font les beaux De la vie moi j'ai tout vu Ce sont des rigolos Aux doutes inattendus J'reste imperturbable Indéboulonnable Inaliénable dans leurs clichés et leurs peurs In-impressionnabls par leurs bureaux leurs odurs Tous des hommes et la camisole on s'la met tout seul Au fil des sommes sans que l'on s'raisonne Et en douceur! J'vois les jaloux jacter après un verre de jack D J'vois mes gars vendre la D des gueushla en acheter... Oui j'ai trainé j'ai trainé j'ai trainé Et j'ai trainé j'ai trainé j'ai trainé Oui j'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai vu, des mecs fêlés La grâce des félins Vas-y fais le, fais le, m'ont dit mes fréros T'as l'phrasé la fougue La forme d'la foudre Donc fais le fais le ! Et moi j'suis àl J'ai peur d'mal agir alors j'agis mal Man J'vis tel un marginal L'âme en peine on a pas la mentale Rien qu'ca m'gene je trouve ça lamentable Wesh ma gueule On a pas la dalh Suffit pas qu'on l'a veuille pour qu'on nous passe la balle On est ni en chien Ni confortables Donc on n'fait rien et ça devient comme d'hab Et je pète un cable l'inaction me tue! Renverse la table laisse tomber le thé! C'est pas ma came les vacances que l'été Booba madame j'ai bien trop écouté Procrastiner C'était ça l'idée Faut s'activer Assez saliver Facilité défaut d'mes qualités Donc pour tilter j'attendais d'paniquer Résultat refré du gachis pur! Maitre de son reflet? c'est archi dur Du gachis pur C'est archi dur J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé Papa est déçu je le lis dans ses yeux Je n'ai pas su réaliser ses vux J'suis bon qu'à remettre les choses à demain J'n'ai jamais pris mon courage à demain J'ai traîne j'ai traîne j'ai perdu mon temps Entraîné entrainé j'ai peur du montant Où tout cela nous mène? On va le trouver D'jours en semaines puis de mois en années</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J’AIME PLUS LE RAP</t>
+          <t>Je me rappelle</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Cest mon premier ptêtre mon dernier album Demain jarrête Jaime plus le rap depuis que je sais que la promo sachète Mon premier son, jparlais de mon ex Javais mal au cur, jen ai fait un complexe Jespérais quelle revienne, au moins quelle me comprenne, après lécoute de mon texte ça sappelait Yoon on the moon 1, cétait chaud Elle ma jamais rappelé, mais la vie la kiffé Donc jai continué Jsais plus pourquoi jle fais Jveux partir comme Luffy, après ce morceau tu sauras pourquoi jai fuis Jveux rester moi même mais ya beaucoup trop davis Le but dun label cest quoi à ton avis ? Cest faire de loseille avant tout mon amis après cest aussi à moi jpense de savoir comment me battre pour ce truc là si jy crois vraiment Cest mon premier ptêtre mon dernier album Je suis pas sûr de vouloir continuer De toute façon jai mon contrat qui sarrête Je commence à fatiguer 10 ans que jfais du rap je commence à paniquer 10 ans que jfais du rap je sais plus pourquoi jle fais Sur de rien je sais même pas si jai déjà connu lamour Et vas-y change daccord que je vois si ça me fait de leffet Sur de rien je sais pas si ça mfait de leffet Jai arrêté les études A mon père jai dit tinquiète pas jassume Et cest vrai jassume, jdemande rien Jsuis fière jsuis algérien Jsuis rappeur, jsuis écrivain Jsuis acteur, jsuis comédien Aller ferme ta gueule Arrête de faire crari Les défauts que javais petit sont les mêmes quaujourdhui, ptêtre pire Mama tavais raison Et tavais même raison quand tu me disais que je dirais que tavais raison Je croyais je taffais pas, parce que lécole jaimais pas Aujourdhui jfais ce que jaime et cest le même résultat Jsuis un putain de branleur, la putain de sa mère Ya lheure qui défile, ma vie qui se fout en lair Jai tellement livres à lire, tellement films à voir Tellement villes à vivre, jsuis quau début de lhistoire Jai un album à faire, des projets à accomplir Des textes à tourner puis des textes à écrire Jme sens seul Quand jsuis seul je vois du monde, avec eux jveux être seul Je kiffe les meufs dans la rue et puis les meufs sur insta Je les trouve belles, intéressantes, je les connais même pas Jimagine lhistoire damour quon pourrait vivre à lhôtel Je néglige celles qui sont là et qui maiment, elles Jai plus confiance en moi Jai plus confiance en moi, jai plus confiance en mon art Je crois plus les compliments, je lis les mauvais commentaires Je sais plus comment faire, ma carrière tient quà un fil Et jaime pas les rappeurs conseillés sous mon profil Limpression de stagner, davancer doucement 10 ans que je rappe mais Quai-je fais de tout ce temps ? Jai peur de me lancer, de my mettre vraiment Si jmy mets vraiment bah jpeux rater vraiment Et percer ça veut rien dire Ya toute sorte de publique Si cest que faire des vues, autant faire la pute a cliques Autant faire linfluenceur, des vidéos sur youtube Leur montrer mon life style, jpeux même leur faire une routine Je sais plus trop ce que je cherche Moi je le faisais par besoin Cétait pas pour buzzer Jcrois que tout ça me bousille Je sors mon album et bisous En ce moment jsuis grave busy Jsuis tout le temps sur mon bigo Mais jai limpression de rien faire Jsuis même dans la presse people Jai hâte de jeter mon tel Ça fait 10 pige que jen parle Je métais dit dabord je perce, et ensuite je pars Jaime plus lrap, cest plus de mon âge Je sais que cest des acteurs, je sais que cest des tournages Jaime plus lrap, cest plus de mon âge Je sais que cest des menteurs, je sais que cest des montages Ils ont pas de style, ils ont des stylistes Ils ont pas de bonnes idées nan, ils ont des DA Ils ont pas de flow, ils ont des top liner Ils savent pas ce quils font, on leur dit quoi faire Jaime plus lrap, jveux plus rapper mes problèmes Jaime plus lrap, nan jai envie de les résoudre Jaime plus lrap, cest pas une phrase de vieux con Jaime plus lrap, cétait pas mieux avant Jaime plus lrap, leurs idées leurs méthodes Jaime plus lrap, je préfère écouter des prod Jaime plus lrap, ils mapprennent rien de nouveau Jaime plus lrap, je préfère écouter piano</t>
+          <t>J'suis cliché comme la sacoche, comme des vacances à Marrakech Pas la langue au fond de ma poche, je crache du feu comme Salamèche On passe nos vies sur téléphones, on vérifie cque mettent les fans Du mal à choisir mes journées, faudrait que jchoisisse ma femme Y'a des gens qujconnais même pas qui font plus pour moi qumes potos Y a des gens que jconnais même plus, pour m'en rappeler, mfaut des photos Et j'suis fan d'une de mes fans, elle est pertinente, elle est fine Jchange de rimes sans préambule, t'as pas vu vnir la parabole J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Un arabe qui fait du rap y'a pas grand chose d'original On sattache puis se sépare comme le cordon ombilical Les années passent comme semaines, les mêmes places sous semelles J'me demande toujours cque j'aime, il serait temps que jm'en rappelle Je partage ce qui me plait, aucune punchline pour meubler Jle fais aussi pour le blé, pour les rebeus, les noirs, les blancs J'écris ctexte en cinq minutes mais cest ltravail de toute une vie Jchoisis mes rimes dans mes notes et j'ai l'impression qutout me va Pour certains, j'suis nul à chier, pour dautres, j'suis super bon Jprends tout ça avec du recul car ils écoutent tous les mêmes sons Tu fais trop dstories à mon goût, graine de café à mon cou Tu veux prouver quoi, ma gueule ? Moi, je n'en fais qu'à ma guise J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Et jvoulais sauver le monde mais là, j'essaye de m'en sortir Entre la mif, le taff, les projets, je sors tôt, je rentre tard Tassumes pas cque taimes vraiment, tu fais en fonction des autres Et j'essaye de faire au mieux, je fais en fonction des nôtres Jme bats contre moi-même, jai pas d'ennemi dans lrap game Jaime les gens qui sassument, on perd de vue les médecines Un délit en entraîne un autre, sans religion, j'vendrais la coke Jsors du taff et je taff, fuck les keufs, vive la caf Toi, tu parles dassisté, cest ton papa qui paye loyer Et je parle des cistes-ra car jen ai déjà côtoyé Jai quitté la lune pour Saturne, j'ai quitté Saturne pour un autre système solaire Jhésite à confier mon futur gosse à leur système scolaire J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J’ai traîné</t>
+          <t>KILOMÈTRE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dans ma tête c'est bagdad khey Y a que des problèmes Pas d'solutions Pendant qu'je traine l'daron pète les plombs Que fait son fiston Si peu de bonnes nouvelles Où tout cela nous mène On le trouvera nous même Y en a ils font les beaux De la vie moi j'ai tout vu Ce sont des rigolos Aux doutes inattendus J'reste imperturbable Indéboulonnable Inaliénable dans leurs clichés et leurs peurs In-impressionnabls par leurs bureaux leurs odurs Tous des hommes et la camisole on s'la met tout seul Au fil des sommes sans que l'on s'raisonne Et en douceur! J'vois les jaloux jacter après un verre de jack D J'vois mes gars vendre la D des gueushla en acheter... Oui j'ai trainé j'ai trainé j'ai trainé Et j'ai trainé j'ai trainé j'ai trainé Oui j'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé J'ai vu, des mecs fêlés La grâce des félins Vas-y fais le, fais le, m'ont dit mes fréros T'as l'phrasé la fougue La forme d'la foudre Donc fais le fais le ! Et moi j'suis àl J'ai peur d'mal agir alors j'agis mal Man J'vis tel un marginal L'âme en peine on a pas la mentale Rien qu'ca m'gene je trouve ça lamentable Wesh ma gueule On a pas la dalh Suffit pas qu'on l'a veuille pour qu'on nous passe la balle On est ni en chien Ni confortables Donc on n'fait rien et ça devient comme d'hab Et je pète un cable l'inaction me tue! Renverse la table laisse tomber le thé! C'est pas ma came les vacances que l'été Booba madame j'ai bien trop écouté Procrastiner C'était ça l'idée Faut s'activer Assez saliver Facilité défaut d'mes qualités Donc pour tilter j'attendais d'paniquer Résultat refré du gachis pur! Maitre de son reflet? c'est archi dur Du gachis pur C'est archi dur J'ai trainé j'ai trainé j'ai trainé eh J'ai trainé j'ai trainé j'ai trainé oh J'ai trainé j'ai trainé j'ai trainé si La paresse est un sport j'suis entrainé entrainé Papa est déçu je le lis dans ses yeux Je n'ai pas su réaliser ses vux J'suis bon qu'à remettre les choses à demain J'n'ai jamais pris mon courage à demain J'ai traîne j'ai traîne j'ai perdu mon temps Entraîné entrainé j'ai peur du montant Où tout cela nous mène? On va le trouver D'jours en semaines puis de mois en années</t>
+          <t>Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jai marché longtemps, rester sur place, ouais ça me réussit peu pendant le confinement Pour me sentir bien, je changeais dadress IP. Les racistes ici me disnt rentre chez toi comme cest ici chez moi. Bah, on est déjà daccord. Jai des objectifs, jai des plans que jélabore On calcule les apports, comme nos ministres et les emplois fictifs cest ma famille dabord La violence est économique, satellite tourne autour de la terre, la terre tourne autour du fric, tout commence par lAfrique. Ils mentent sur les frontières Jai fait v'la d'kilomètres j'ai parcouru le monde comme pour vérifier que la terre est bien ronde. Jsuis passé à Paname, jai chéké la Joconde Jsuis allé à Wahran, jai rencontré mon oncle Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, jai plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh 18 piges, jsuis arrivé en France, javais que mon BAC, ma fougue genau. Jécris 2fik avec un 2 comme le blase de Tupac Shakur genau Jpense au bateau tout les jours que dieu fait en me disant que la vie sera pas facile à bord Jpars taffer au pays qui diffuse Malcolm, avec dans la tête cest ma famille dabord. Une fille blanche apeurée parce quon mange en Lacoste pas ouvert ma gueule comme un alligator Tas un don pour oublier le bien quon tas fait. Moi je manie la plume, toi tu manies la gomme. Ils veulent encore nous mettre une cinquième. Oh non! Du coup, la maman sinquiète. Oh non! Elle multiplie ses cinq prières aller retour berra, jsuis plus le même quhier. Oh non Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, c'est plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Je me rappelle</t>
+          <t>KIRGHIZTAN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>J'suis cliché comme la sacoche, comme des vacances à Marrakech Pas la langue au fond de ma poche, je crache du feu comme Salamèche On passe nos vies sur téléphones, on vérifie cque mettent les fans Du mal à choisir mes journées, faudrait que jchoisisse ma femme Y'a des gens qujconnais même pas qui font plus pour moi qumes potos Y a des gens que jconnais même plus, pour m'en rappeler, mfaut des photos Et j'suis fan d'une de mes fans, elle est pertinente, elle est fine Jchange de rimes sans préambule, t'as pas vu vnir la parabole J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Un arabe qui fait du rap y'a pas grand chose d'original On sattache puis se sépare comme le cordon ombilical Les années passent comme semaines, les mêmes places sous semelles J'me demande toujours cque j'aime, il serait temps que jm'en rappelle Je partage ce qui me plait, aucune punchline pour meubler Jle fais aussi pour le blé, pour les rebeus, les noirs, les blancs J'écris ctexte en cinq minutes mais cest ltravail de toute une vie Jchoisis mes rimes dans mes notes et j'ai l'impression qutout me va Pour certains, j'suis nul à chier, pour dautres, j'suis super bon Jprends tout ça avec du recul car ils écoutent tous les mêmes sons Tu fais trop dstories à mon goût, graine de café à mon cou Tu veux prouver quoi, ma gueule ? Moi, je n'en fais qu'à ma guise J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles Et jvoulais sauver le monde mais là, j'essaye de m'en sortir Entre la mif, le taff, les projets, je sors tôt, je rentre tard Tassumes pas cque taimes vraiment, tu fais en fonction des autres Et j'essaye de faire au mieux, je fais en fonction des nôtres Jme bats contre moi-même, jai pas d'ennemi dans lrap game Jaime les gens qui sassument, on perd de vue les médecines Un délit en entraîne un autre, sans religion, j'vendrais la coke Jsors du taff et je taff, fuck les keufs, vive la caf Toi, tu parles dassisté, cest ton papa qui paye loyer Et je parle des cistes-ra car jen ai déjà côtoyé Jai quitté la lune pour Saturne, j'ai quitté Saturne pour un autre système solaire Jhésite à confier mon futur gosse à leur système scolaire J'me rappelle du 11 septembre, jme rappelle du tsunami Jme rappelle mon ancienne chambre, la finale contre l'Italie J'me rappelle de cqu'elle ma dit Ici, t'es pas chez toi wouldi Tu dois faire mieux que tes amis, oh oui, oh oui J'me rappelle qujai eu dla peine quand elle m'a quitté J'me rappelle qu'elle était belle sans être maquillée J'me rappelle de l'essentiel mais j'me rappelle plus de la veille Car on ssouvient de l'incendie mais on oublie les étincelles</t>
+          <t>Salam aleikoum, aujourd'hui cest le premier enregistrement... Nous sommes le dimanche 3 octobre et je pars au Kirghizistan dans 24 heures... Nani Ca fait dix piges qu'j'suis dedans wow Cest plus qu'un doctorat ouh J'reviens du Kirghizistan wow Sac à dos comme Dora backpack J'vis dans les beaux quartiers Mais dans une chambre de bonne Diplômé d'la Sorbonne mmh C'est pour Papa que j'l'ai fait pour Papa que jlai fait Premier concert booké complet Là j'écris un bouquin je gratte Jécris même pas beaucoup hm hm T'imagins si je bossais ? pah Quand je croise un 2002 hm hm Qui voit qu je suis certifié t'es certifié toi d'ailleurs ? Gros ça le fait grave kiffer hm hm Il sait même pas ce que jfais bolosse Dans ma chambre on est trois on est plein Parfois c'est un peu étroit ça casse les couilles En plus personne nettoie oh non putain Mais y a vue sur les toits oh oui ça va Des fois même on est quatre quatre Dans 14 mètres carrés quatorze C'est vraiment pas carré quatorze Mais c'est comme ça Paris ah, c'est la rue, wesh J'ai fait mes 500 heures wouh Du coup on me doit des e J'appelle l'ANPE allô, brr Je suis un artiste yes J'ai testé le RS6 vroum Je ne suis plus le même Je veux plus être lyriciste Je veux faire de l'oseille vroum File-moi ton 07 allô Y a pas de femme parfaite non Mais je la cherche quand même t'es où ? Du coup j'ai grave d'la peine Diplômé de Paris 8 L'amour ça dure trois ans D'abord c'est les croissants Ensuite c'est décroissant ahahah Wesh mon vieux quoi de neuf quoi ? Là j'suis sur mon album quoi ? J'parle à mon dictaphone ouais Younès t'es fort On m'regarde comme un fou ahahah Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers toutoutou Mais dans une chambre de bonne toutoutou Diplômé d'la Sorbonne C'est pour Papa que j'l'ai fait wow Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers mh Mais dans une chambre de bonne un studio wesh Diplômé d'la Sorbonne hé C'est pour Papa que j'l'ai fait nani You, you, younès là You, you, younès là You, you, younès là Et le ? pour les backs Jour 1 à Bichkek... Je suis arrivé ce matin vers 9 heures à l'hôtel, je suis parti faire un petit tour... Ca m'a permis de constater que j'aime pas Bichkek...</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KILOMÈTRE</t>
+          <t>L’alchimiste</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jai marché longtemps, rester sur place, ouais ça me réussit peu pendant le confinement Pour me sentir bien, je changeais dadress IP. Les racistes ici me disnt rentre chez toi comme cest ici chez moi. Bah, on est déjà daccord. Jai des objectifs, jai des plans que jélabore On calcule les apports, comme nos ministres et les emplois fictifs cest ma famille dabord La violence est économique, satellite tourne autour de la terre, la terre tourne autour du fric, tout commence par lAfrique. Ils mentent sur les frontières Jai fait v'la d'kilomètres j'ai parcouru le monde comme pour vérifier que la terre est bien ronde. Jsuis passé à Paname, jai chéké la Joconde Jsuis allé à Wahran, jai rencontré mon oncle Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, jai plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh 18 piges, jsuis arrivé en France, javais que mon BAC, ma fougue genau. Jécris 2fik avec un 2 comme le blase de Tupac Shakur genau Jpense au bateau tout les jours que dieu fait en me disant que la vie sera pas facile à bord Jpars taffer au pays qui diffuse Malcolm, avec dans la tête cest ma famille dabord. Une fille blanche apeurée parce quon mange en Lacoste pas ouvert ma gueule comme un alligator Tas un don pour oublier le bien quon tas fait. Moi je manie la plume, toi tu manies la gomme. Ils veulent encore nous mettre une cinquième. Oh non! Du coup, la maman sinquiète. Oh non! Elle multiplie ses cinq prières aller retour berra, jsuis plus le même quhier. Oh non Jai fini par rentrer chez moi, la terre est ronde mais personne cuisine comme yemma et je déclare pas, c'est plus bénef, jsuis comme Marine, jsuis QLF Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh Jen ai fait v'la les kilomètres, un smic cest pas un deal honnête, pétard à la bouche, sourire aux lèvres, merlich ça vit quand même, kayen saro ntiro beh</t>
+          <t>Olala, Shaz Jsuis rappeur, jsuis écrivain, jsuis acteur, jsuis comédien Jserais peut être autre chose demain, moi, jveux changer lquotidien Plusieurs cagoules, les écoute pas, tu f'ras cque tu veux, mon grand Moi, si jles avais écouté, jaurais des regrets depuis ltemps Si j'vis de mon art, jpourrais mourir de bonheur Une routine de bonhomme, une routine de maman Et jme souviens, y a trois ans, jsuis parti dchez mes parents Le soir dans lappartement, je rappais doucement Jme demande toujours cque jaime, cque j'veux faire de ma life Ma mâchoire tendue me gêne et jen deviens malade Quand jsuis triste, la haine me fait du charme En somme, quand jsuis seul, je pense à faire du sale Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Le ciel est gris, moi, jsuis aigri, jécris des mots qui deviennent des cris Jrange mon écrin, éteins mon écran, on sourit moins depuis quon est grands À part ça, jsors dun partiel, jme sens seul seul, seul Hamdoullah, jai la santé, cest lessentiel Jsuis indécis, ça en devient indécent, je ne me décide que quand le choix est pressant limite incandescent, jvais pas te faire un dessin ni le langage des signes, gros, jai foiré lessai Foiré lessai, jai pas réussi, les auditions, je suis pas reçu Nique sa mère, on lfera seul, on tombe à terre, on remonte en selle Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KIRGHIZTAN</t>
+          <t>La vie est merveilleuse</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Salam aleikoum, aujourd'hui cest le premier enregistrement... Nous sommes le dimanche 3 octobre et je pars au Kirghizistan dans 24 heures... Nani Ca fait dix piges qu'j'suis dedans wow Cest plus qu'un doctorat ouh J'reviens du Kirghizistan wow Sac à dos comme Dora backpack J'vis dans les beaux quartiers Mais dans une chambre de bonne Diplômé d'la Sorbonne mmh C'est pour Papa que j'l'ai fait pour Papa que jlai fait Premier concert booké complet Là j'écris un bouquin je gratte Jécris même pas beaucoup hm hm T'imagins si je bossais ? pah Quand je croise un 2002 hm hm Qui voit qu je suis certifié t'es certifié toi d'ailleurs ? Gros ça le fait grave kiffer hm hm Il sait même pas ce que jfais bolosse Dans ma chambre on est trois on est plein Parfois c'est un peu étroit ça casse les couilles En plus personne nettoie oh non putain Mais y a vue sur les toits oh oui ça va Des fois même on est quatre quatre Dans 14 mètres carrés quatorze C'est vraiment pas carré quatorze Mais c'est comme ça Paris ah, c'est la rue, wesh J'ai fait mes 500 heures wouh Du coup on me doit des e J'appelle l'ANPE allô, brr Je suis un artiste yes J'ai testé le RS6 vroum Je ne suis plus le même Je veux plus être lyriciste Je veux faire de l'oseille vroum File-moi ton 07 allô Y a pas de femme parfaite non Mais je la cherche quand même t'es où ? Du coup j'ai grave d'la peine Diplômé de Paris 8 L'amour ça dure trois ans D'abord c'est les croissants Ensuite c'est décroissant ahahah Wesh mon vieux quoi de neuf quoi ? Là j'suis sur mon album quoi ? J'parle à mon dictaphone ouais Younès t'es fort On m'regarde comme un fou ahahah Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers toutoutou Mais dans une chambre de bonne toutoutou Diplômé d'la Sorbonne C'est pour Papa que j'l'ai fait wow Ca fait dix piges qu'j'suis dedans dix piges C'est plus qu'un doctorat c'est plus J'reviens du Kirghizistan wow Sac à dos comme Dora sac à dos J'vis dans les beaux quartiers mh Mais dans une chambre de bonne un studio wesh Diplômé d'la Sorbonne hé C'est pour Papa que j'l'ai fait nani You, you, younès là You, you, younès là You, you, younès là Et le ? pour les backs Jour 1 à Bichkek... Je suis arrivé ce matin vers 9 heures à l'hôtel, je suis parti faire un petit tour... Ca m'a permis de constater que j'aime pas Bichkek...</t>
+          <t>Woow, woow Yoon on the Moon La vie est merveilleuse Du fin fond de la Creuse à la beauté de tes yeuz De la cime des arbres à la force des montagnes De l'ingéniosité de lhomme à la perfection de l'animal J'aime tout cque la nature a fait, du couscous au mafé J'aime la cuisine maison, l'odeur d'la cuisson Le frémissement des oignons sur la poêle Le frottement du pinceau sur la toile La puissance d'un sourire, quelle porte va s'ouvrir ? Le parfum, un souvenir qu'on ne voit pas venir La beauté des paupières, de l'esprit, les frontières La vie est merveilleuse, ouais, la vie est merveilleuse Suffit douvrir les yeuz, ouais, suffit douvrir les yeuz Et moi, j'aimerais que tu connaisses ce morceau par cur Quon puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Ya ya ya ya, ya ya ya ya écoute, écoute Ya ya ya ya, ya ya ya ya voilà Ya ya ya ya mes gars sont chauds, ya ya ya ya Ya ya ya ya, ya ya ya ya c'est pas fini, cest pas fini Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Car quand tu chantes mes versets Je me sens heureux, je comprends ma valeur Mon frère le sait, ma mère le sait mais veut pas se l'avouer Mon père le sait, si seulement vous saviez J'suis fait pour la performance, le rythme, la cadence J'veux faire le tour de la France J'suis fait pour l'partage, les tournages, le paquetage Petit nombre au grand âge Car le sourire de mes frères me met du baume au cur Et si la vie t'effraie, viens par-là, mon cur Viens, parle à mon cur, qu'on oublie nos corps Et qu'on chante en chur ce refrain encore Car moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure On est au square, pas à Rio, moi, j'suis de Rouen On traîne entre frérots, on traîne en riant Y a que le Très-Haut qui a le pouvoir de trier J'parle avec brio de c'que j'trouve brillant J'parle de tes yeux, j'parle de ton sourire J'parle de ton rire que personne n'a vu venir J'parle à mes vieux, ils me parlent de leurs souvenirs Tant à se dire avant le dernier soupir Et moi, j'aimerais sourire, gros, juste avant de mourir, ouais Car ça voudrait dire que j'ai trouvé la paix Et moi, j'aimerais, et moi, j'aimerais, et moi, j'aimerais Et moi, j'aimerais que ce son plaise à nos mamans Qu'elles l'écoutent doucement, en chantonnant tendrement Comme elles savent le faire depuis qu'on est tits-pe On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Je ne pose pas, je ne pose pas si le beat m'écure Ça fait Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Ye ne pose pas, ye ne pose pas si le beat m'écure</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>L’alchimiste</t>
+          <t>L’effondrement</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Olala, Shaz Jsuis rappeur, jsuis écrivain, jsuis acteur, jsuis comédien Jserais peut être autre chose demain, moi, jveux changer lquotidien Plusieurs cagoules, les écoute pas, tu f'ras cque tu veux, mon grand Moi, si jles avais écouté, jaurais des regrets depuis ltemps Si j'vis de mon art, jpourrais mourir de bonheur Une routine de bonhomme, une routine de maman Et jme souviens, y a trois ans, jsuis parti dchez mes parents Le soir dans lappartement, je rappais doucement Jme demande toujours cque jaime, cque j'veux faire de ma life Ma mâchoire tendue me gêne et jen deviens malade Quand jsuis triste, la haine me fait du charme En somme, quand jsuis seul, je pense à faire du sale Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Le ciel est gris, moi, jsuis aigri, jécris des mots qui deviennent des cris Jrange mon écrin, éteins mon écran, on sourit moins depuis quon est grands À part ça, jsors dun partiel, jme sens seul seul, seul Hamdoullah, jai la santé, cest lessentiel Jsuis indécis, ça en devient indécent, je ne me décide que quand le choix est pressant limite incandescent, jvais pas te faire un dessin ni le langage des signes, gros, jai foiré lessai Foiré lessai, jai pas réussi, les auditions, je suis pas reçu Nique sa mère, on lfera seul, on tombe à terre, on remonte en selle Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Jfais ça comme si y avait que ça à faire dans ma vie Jécoute la p'tite voix dans ma tête, non, jécoute pas vos avis Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets Je ne peux plus patienter Cette vie-là ma trop tenté Je nai plus peur de mtromper Maman, je nveux pas dregrets</t>
+          <t>Oh lalalalala, cest terrible c'qui est en train d'se passer, cest terrible Cest leffondrement Alex Grox à la prod, Younès au piano On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdviendra humain Fuck les baleins lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Jveux juste un yacht et la meuf qui va avec celle qui va avec le yacht Elle ou une autre tant qula plastique est impec Cest pas mon dos si mes baskets sont faites par des petits nameks chacun ses problèmes La planète va très très bien, cest juste nous qui sommes dans la merde qui sommes dans la mierda Qui sommes dans la mierda ouais ouais, ouais ouais Jveux juste baraque sur la mer, la villa , le jet avec le chauffeur, le pilote Ça marrange quon réchauffe lair, ça marrange, jpayerai moins cher le chauffage, bénéf' Jveux juste faire mon safari, moi aussi, jveux être heureux Si on meurt tous, ça fait rien On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdeviendra humain Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Greta elle casse trop lambiance, si la banquise fond, on sen fout Nous, on vit en France en France nous vivons Ça f'ra plus deau dans la mer pour les vacances plouf Et les ours polaires, ils savent nager, la chance ouf Traîne pas dehors si jpars à la chasse piou touché On sauve pas l'monde en f'sant du tri nan nan nan, les écolos ils sont déprimants ouais ouais La viande, cest plein dnutriments Hmm hmm, moi aussi jveux faire du traîneau Mes ptits enfants, jles connais pas, jvais quand même pas m'battre pour eux Leffondrement et cætera pour moi, cest pour les peureux Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Oh lalalalala, cest terrible ce qui vient d'se passer, cest terrible Alex Grox à la prod, Younès au piano, leffondrement</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La vie est merveilleuse</t>
+          <t>Le grand remplacement</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Woow, woow Yoon on the Moon La vie est merveilleuse Du fin fond de la Creuse à la beauté de tes yeuz De la cime des arbres à la force des montagnes De l'ingéniosité de lhomme à la perfection de l'animal J'aime tout cque la nature a fait, du couscous au mafé J'aime la cuisine maison, l'odeur d'la cuisson Le frémissement des oignons sur la poêle Le frottement du pinceau sur la toile La puissance d'un sourire, quelle porte va s'ouvrir ? Le parfum, un souvenir qu'on ne voit pas venir La beauté des paupières, de l'esprit, les frontières La vie est merveilleuse, ouais, la vie est merveilleuse Suffit douvrir les yeuz, ouais, suffit douvrir les yeuz Et moi, j'aimerais que tu connaisses ce morceau par cur Quon puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Ya ya ya ya, ya ya ya ya écoute, écoute Ya ya ya ya, ya ya ya ya voilà Ya ya ya ya mes gars sont chauds, ya ya ya ya Ya ya ya ya, ya ya ya ya c'est pas fini, cest pas fini Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Ya ya ya ya et moi, j'aimerais, ya ya ya ya et moi, j'aimerais Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Car quand tu chantes mes versets Je me sens heureux, je comprends ma valeur Mon frère le sait, ma mère le sait mais veut pas se l'avouer Mon père le sait, si seulement vous saviez J'suis fait pour la performance, le rythme, la cadence J'veux faire le tour de la France J'suis fait pour l'partage, les tournages, le paquetage Petit nombre au grand âge Car le sourire de mes frères me met du baume au cur Et si la vie t'effraie, viens par-là, mon cur Viens, parle à mon cur, qu'on oublie nos corps Et qu'on chante en chur ce refrain encore Car moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure Et moi, j'aimerais que tu connaisses ce morceau par cur Qu'on puisse chanter ensemble à tue-tête et jusqu'à pas d'heure On est au square, pas à Rio, moi, j'suis de Rouen On traîne entre frérots, on traîne en riant Y a que le Très-Haut qui a le pouvoir de trier J'parle avec brio de c'que j'trouve brillant J'parle de tes yeux, j'parle de ton sourire J'parle de ton rire que personne n'a vu venir J'parle à mes vieux, ils me parlent de leurs souvenirs Tant à se dire avant le dernier soupir Et moi, j'aimerais sourire, gros, juste avant de mourir, ouais Car ça voudrait dire que j'ai trouvé la paix Et moi, j'aimerais, et moi, j'aimerais, et moi, j'aimerais Et moi, j'aimerais que ce son plaise à nos mamans Qu'elles l'écoutent doucement, en chantonnant tendrement Comme elles savent le faire depuis qu'on est tits-pe On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime On vous dira jamais assez comme on vous aime Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Je ne pose pas, je ne pose pas si le beat m'écure Ça fait Terrence à la prod, Rilès à la prod, Kieran à la prod Respecte les beatmakers car tu le sais, mon cur Ye ne pose pas, ye ne pose pas si le beat m'écure</t>
+          <t>Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Le grand remplacement ? Cest ta fille qui me kiffe Qui va m'faire des enfants et ils auront mon pif Jdéboule dans ta vie comme les trottinettes à Paris Jveux largent des Qataris, m'sieur lagent sur ltatami Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants, cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois Tu peux vivre ta vie ou r'garder la leur sur le net Pour une bagarre ou un date, jy vais toujours sans lunettes Jme fais rare comme les blancs à Gare du Nord Éphémère comme la vie dun garde du corps Si jmets replay, le son est bon, sinon, me demande pas Elles sont belles, jen deviens débile, jsuis trop matrixé, gars Quand jte dis je taime, cest toi ou ton pétard Je sais plus, je sais pas pourquoi on sest plu au départ Dans mes rêves, un keuf me shoote, jhésite à bicrave du shit Dans mes rêves, un peu de doute, jhésite pas quand jai des dettes Génération internet, jamais aimé quon me note J'vais percer dans deux minutes, le décollage est imminent Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>L’effondrement</t>
+          <t>Le monde est virtuel</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Oh lalalalala, cest terrible c'qui est en train d'se passer, cest terrible Cest leffondrement Alex Grox à la prod, Younès au piano On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdviendra humain Fuck les baleins lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Jveux juste un yacht et la meuf qui va avec celle qui va avec le yacht Elle ou une autre tant qula plastique est impec Cest pas mon dos si mes baskets sont faites par des petits nameks chacun ses problèmes La planète va très très bien, cest juste nous qui sommes dans la merde qui sommes dans la mierda Qui sommes dans la mierda ouais ouais, ouais ouais Jveux juste baraque sur la mer, la villa , le jet avec le chauffeur, le pilote Ça marrange quon réchauffe lair, ça marrange, jpayerai moins cher le chauffage, bénéf' Jveux juste faire mon safari, moi aussi, jveux être heureux Si on meurt tous, ça fait rien On veut bien sauver la planète mais on veut percer dabord logique On veut sen mettre plein les pockets, ouais quon se mette bien daccord Jai hâte de voir nos te-tés quand largent nvaudra plus rien walou wallon Quand tout se s'ra effondré pt-être quon rdeviendra humain Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Greta elle casse trop lambiance, si la banquise fond, on sen fout Nous, on vit en France en France nous vivons Ça f'ra plus deau dans la mer pour les vacances plouf Et les ours polaires, ils savent nager, la chance ouf Traîne pas dehors si jpars à la chasse piou touché On sauve pas l'monde en f'sant du tri nan nan nan, les écolos ils sont déprimants ouais ouais La viande, cest plein dnutriments Hmm hmm, moi aussi jveux faire du traîneau Mes ptits enfants, jles connais pas, jvais quand même pas m'battre pour eux Leffondrement et cætera pour moi, cest pour les peureux Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Fuck les baleines lalalala, jaime trop lsaumon lalalala Paris-Bruxelles lalalala, jai pris lavion lalalala Oh lalalalala, cest terrible ce qui vient d'se passer, cest terrible Alex Grox à la prod, Younès au piano, leffondrement</t>
+          <t>Le monde est virtuel, la réalité nous échappe Comme Kendrick Lamar, j'en ai marre du Photoshop Et je snap ma vie au lieu de vivre ma vie Je vous donne ma vie mais on s'en bat les claouis On me siffle comme un chien et je rapplique Ah nan, ce sont les notifs de mon appli' Ma liberté fait la taille de mon chargeur portable On est sur la paille, on a la dernière play Si internet disparaît je disparais avec On va pas séparer, on va filmer ouais mec On fait des selfies, on cherche le meilleur profil On veut la wifi, on cherche les meilleurs mobiles Ta mère l'influenceuse, ton père le YouTubeur Tu cherches à faire le buzz même quand ton poto meurt Rester seul avec sa conscience ça sfait presque plus On préfère scroller les tendances sur le fil dactu À quoi bon aller au resto si jai plus de batterie ? Si je peux pas faire de photos pour nourrir ma story ? Bientôt, on fera des gosses pour obtenir plus de likes On fait déjà des gosses pour confectionner nos Nike On sourit pendant le Snap puis arrête de s'amuser Ma vie est un spectacle, mon historique un musée H24 connecté donc j'suis déconnecté Écouteurs vissés, yeux baissés, bouche plissée Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél On le prend sans raison, addictif comme la résine J'alimente mes réseaux, attentif quand ça résonne Le cerveau saccagé, perdu sans la 4G Je poste donc je suis, je te suis donc je sais Jrecommence à vivre quand j'ai fini ma batterie Jrecommence pas ma vie à la fin de la partie Retiens bien bientôt les téléphones seront greffés sur nos mains Tout est programmé comme le destin Cest pas elle qui me manque, cest ses textos On partage ce qu'on vit, est-c'qu'on vit pleinement ? Jinterdis les téléphones à mon enterrement J'suis pas face à mon pote mais face au dos dson portable On détruit lien social à coup de réseau social On sembrouille sur Snap, on discute sur Messenger On sretrouve sur Skype, on srejoint en Uber Youn'</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Le grand remplacement</t>
+          <t>Liaisons dangereuses</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Le grand remplacement ? Cest ta fille qui me kiffe Qui va m'faire des enfants et ils auront mon pif Jdéboule dans ta vie comme les trottinettes à Paris Jveux largent des Qataris, m'sieur lagent sur ltatami Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants, cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois Tu peux vivre ta vie ou r'garder la leur sur le net Pour une bagarre ou un date, jy vais toujours sans lunettes Jme fais rare comme les blancs à Gare du Nord Éphémère comme la vie dun garde du corps Si jmets replay, le son est bon, sinon, me demande pas Elles sont belles, jen deviens débile, jsuis trop matrixé, gars Quand jte dis je taime, cest toi ou ton pétard Je sais plus, je sais pas pourquoi on sest plu au départ Dans mes rêves, un keuf me shoote, jhésite à bicrave du shit Dans mes rêves, un peu de doute, jhésite pas quand jai des dettes Génération internet, jamais aimé quon me note J'vais percer dans deux minutes, le décollage est imminent Jsuis parti dchez mes rons-da sans un rond, gars Cest du pe-ra, pas du reggae, jai décidé dme décider, faire dla musique comme Basidi comme Basidi Comme Basidi comme Basidi, comme Basidi comme Basidi, comme Basidi comme Basidi Elle veut qujlui fasse un bébé puis deux, puis trois Elle veut qujlui dise que je laime, puis que jy crois Jsuis jamais sûr de moi, quoi ? Lamour dure trois ans ? Han, lamour dure deux mois, ouais, lamour dure deux mois Lgrand remplacement, c'est moi, puis eux, puis toi Les grands méchants cest nous, rebeus, renois Moi, perso, ça me va, jpréfère mourir loup-garou Que vivre en villageois, que vivre en villageois</t>
+          <t>Olala, Shaz On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Tu mas déçu comme la neige qui tient pas, pas Je ferai tout pour rendre fier, papa On saime beaucoup, on se parle peu On fait beaucoup sans bou- Quand la weed sera légale, quest-ce quon dira aux dealers en prison ? Quand la vie est inégale, on refait nous-même la répartition On change pas les hommes on shabitue à eux, on peut pas arrêter dun coup la beuh Ils suivent la tendance ils sont pas dans mon camp, jvais les quitter ils vont pas me manquer Chacun ses défis, ses défauts, ses défunts, on est tous le mauvais rappeur de quelquun Tous les jours, je lis qula terre est foutue, tu la trouves jolie mais cest qu'une photo Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Me donne pas damour si cest pour le reprendre, on ma déjà eu, on va pas my reprendre Je donne, je rends, jeu dangereux, je prends, je donne, je rends heureux Nos différences se ressentent, la même histoire quon récite On cherche le bouton reset, pour appuyer, on hésite Quand on srhabille, jme demande si cest la bonne, le ciel nest pas bleu mais la couleur est belle On a mis du temps pour que cela fonctionne, maintenant que ça fonctionne, on va prendre notre temps Les petites coupures pour la haute couture, en cas de coup dur, y aura pas de coupure Au pied du mur, je trouverai la serrure, ici, cest la hess mais cest pas la Syrie Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Le monde est virtuel</t>
+          <t>L’Inspi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Le monde est virtuel, la réalité nous échappe Comme Kendrick Lamar, j'en ai marre du Photoshop Et je snap ma vie au lieu de vivre ma vie Je vous donne ma vie mais on s'en bat les claouis On me siffle comme un chien et je rapplique Ah nan, ce sont les notifs de mon appli' Ma liberté fait la taille de mon chargeur portable On est sur la paille, on a la dernière play Si internet disparaît je disparais avec On va pas séparer, on va filmer ouais mec On fait des selfies, on cherche le meilleur profil On veut la wifi, on cherche les meilleurs mobiles Ta mère l'influenceuse, ton père le YouTubeur Tu cherches à faire le buzz même quand ton poto meurt Rester seul avec sa conscience ça sfait presque plus On préfère scroller les tendances sur le fil dactu À quoi bon aller au resto si jai plus de batterie ? Si je peux pas faire de photos pour nourrir ma story ? Bientôt, on fera des gosses pour obtenir plus de likes On fait déjà des gosses pour confectionner nos Nike On sourit pendant le Snap puis arrête de s'amuser Ma vie est un spectacle, mon historique un musée H24 connecté donc j'suis déconnecté Écouteurs vissés, yeux baissés, bouche plissée Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél Dans mes rêves, rêves, rêves, jcasse mon phone-tél J'me réveille, veille, veille, jtouche mon phone-tél On le prend sans raison, addictif comme la résine J'alimente mes réseaux, attentif quand ça résonne Le cerveau saccagé, perdu sans la 4G Je poste donc je suis, je te suis donc je sais Jrecommence à vivre quand j'ai fini ma batterie Jrecommence pas ma vie à la fin de la partie Retiens bien bientôt les téléphones seront greffés sur nos mains Tout est programmé comme le destin Cest pas elle qui me manque, cest ses textos On partage ce qu'on vit, est-c'qu'on vit pleinement ? Jinterdis les téléphones à mon enterrement J'suis pas face à mon pote mais face au dos dson portable On détruit lien social à coup de réseau social On sembrouille sur Snap, on discute sur Messenger On sretrouve sur Skype, on srejoint en Uber Youn'</t>
+          <t>Waseem à la prod Respecte le beatmaker, je n'pose pas si le beat m'écure Yoon on the Moon, ça fait Yoon on the Moon L'inspi, l'inspi, l'inspi Dans ma tête, c'est Bagdad, khey Y a que des problèmes, pas d'solutions Pendant qu'je traîne, l'daron pète les plombs Ouais, l'daron pète les plombs pendant qu'j'fais du son J'vais jamais percer, j'ai pas l'profil Et j'suis trop vrai pour faire du marketing Et tu m'regardes, t'es qui ? S'il te plaît, reste tranquille S'il te plaît, reste tranquille Moi, j'suis gentil, mais mon poto peut t'kill Ouais, mon poto peut t'kill Mon poto peut t'kill, ouais, mon poto peut t'kill breh, breh Mon poto peut t'kill, ouais, mon poto peut t'kill - Hé, dis-moi Younès, comment tu fais pour avoir de l'inspi comme ça ? C'est grave cool c'que tu fais mais comment tu fais ? T'écris comment tes textes ? Comment tu fais pour avoir de l'inspi ? - L'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça Ouais, l'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça What up, Moon?</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liaisons dangereuses</t>
+          <t>Mes mots</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Olala, Shaz On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Tu mas déçu comme la neige qui tient pas, pas Je ferai tout pour rendre fier, papa On saime beaucoup, on se parle peu On fait beaucoup sans bou- Quand la weed sera légale, quest-ce quon dira aux dealers en prison ? Quand la vie est inégale, on refait nous-même la répartition On change pas les hommes on shabitue à eux, on peut pas arrêter dun coup la beuh Ils suivent la tendance ils sont pas dans mon camp, jvais les quitter ils vont pas me manquer Chacun ses défis, ses défauts, ses défunts, on est tous le mauvais rappeur de quelquun Tous les jours, je lis qula terre est foutue, tu la trouves jolie mais cest qu'une photo Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide Me donne pas damour si cest pour le reprendre, on ma déjà eu, on va pas my reprendre Je donne, je rends, jeu dangereux, je prends, je donne, je rends heureux Nos différences se ressentent, la même histoire quon récite On cherche le bouton reset, pour appuyer, on hésite Quand on srhabille, jme demande si cest la bonne, le ciel nest pas bleu mais la couleur est belle On a mis du temps pour que cela fonctionne, maintenant que ça fonctionne, on va prendre notre temps Les petites coupures pour la haute couture, en cas de coup dur, y aura pas de coupure Au pied du mur, je trouverai la serrure, ici, cest la hess mais cest pas la Syrie Si ma main est tendue, est-c'que tu vas la couper ? Sur un malentendu, on pourrait sécouter On sembrouille pour des broutilles, de grands mots, cest petit À force, on sest tout dit, jcrois même quon sétudie Liaisons dangereuses, humeur vengeresse Sera-t-elle heureuse ? Seulement si je reste Et jlis dans ses yeuz, elle mvoit dans ses rêves Je crois quon samuse sur une corde raide On commence pianissimo et on danse tout doucement et on danse tout doucement, et on danse tout doucement On se sait sans dire un mot, dans nos yeux, cest évident dans nos yeux, c'est évident, dans nos yeux, c'est évident</t>
+          <t>Wooow Yoon on the Moon, ça fait Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Mes mots, mes mots, mes mots Yoon on the Moon, ça fait Yoon on the Moon Les rappeurs sont claqués, j'préfère écouter des instrus, niveau désastreux Ils sont aux pâquerettes, j'suis au niveau des astres Dans l'rap, j'suis l'intrus, t'as kiffé l'intro et c'était que l'entrée Juste après l'entracte, t'inquiète, tu vas manger C'est pas de l'afro trap, c'est du Yoon on the Moon Tu m'appelles, j'réponds ap, j'suis barré sur la lune Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon T'es la copie d'une copie d'une copie, t'es raté La tendance, tu la suis, tu la suis, tu la suis sans jamais l'attraper Oh, où est Juliette ? Je suis Roméo Mieux mieux, j'suis une aventure, un rodéo Ah j'ai rodé, gros, dans divers milieux sociaux Maison d'hiver, maison ghetto J'suis riche de mes khos, tellement riche de mes khos J'suis riche de mes khos, tellement riche de mes khos Et Yoon on the Moon aime les mots Il aime leur sens, il aime leur peau, leur naissance, leur tempo Depuis tit-pe, on fait équipe et si j'ai du biff C'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Depuis tit-pe, on fait équipe et si j'ai du biff Bah, c'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Les mots sont limités, la vie, elle, est illimitée Parfois, on manque de mots donc on parle avec les poings Parfois, on manque de humhum donc on parle avec les tchoins Haha, on la garde celle-là, ah les bâtards ! Mes mots, je vais pas les mâcher, je vais pas les gâcher Hé gros, tu peux bien te fâcher, je vais pas me cacher Mes mots, j'vais les assumer et, si il faut, j'vais les répéter Mes mots, j'vais les assumer et, si il faut, je vais m'excuser Mes mots, j'les note dans des mémos mais je garde en mémoire Que j'dois sincérité comme gage de qualité Mais surtout de santé pour ma mentalité Oui, pour l'intégrité de mon identité-té-té T'es fou, dans le micro, je vais pas vous mytho J'aime les mots, j'aime les lettres, c'est c'qui remplit mon être J'aime mon kho, j'aime mes kheys, c'est c'qui remplit mon âtre Mes mots m'ont mené au rap et c'morceau est mémorable Parfois, par lâcheté, je me mens à moi-même Je n'dis pas les mots donc je mens à ma belle L'inspi' est telle que je reprends mon tél' Pourtant il est tard mais je suis dans mon dél' Le sommeil m'appelle et un il bat de l'aile Le soleil m'appelle, j'me barre avec les kheys... on s'barre ! Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Et quand les mots me font défaut Je dis des mots que je regrette Il m'faut les mots qui me rachètent Mais parfois les mots sont obsolètes Yoon on the Moon, ça fait Yoon on the Moon Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Auteur prudent, auditeur averti Auteur prudent, auditeur averti Auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>L’Inspi</t>
+          <t>Mon temps</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Waseem à la prod Respecte le beatmaker, je n'pose pas si le beat m'écure Yoon on the Moon, ça fait Yoon on the Moon L'inspi, l'inspi, l'inspi Dans ma tête, c'est Bagdad, khey Y a que des problèmes, pas d'solutions Pendant qu'je traîne, l'daron pète les plombs Ouais, l'daron pète les plombs pendant qu'j'fais du son J'vais jamais percer, j'ai pas l'profil Et j'suis trop vrai pour faire du marketing Et tu m'regardes, t'es qui ? S'il te plaît, reste tranquille S'il te plaît, reste tranquille Moi, j'suis gentil, mais mon poto peut t'kill Ouais, mon poto peut t'kill Mon poto peut t'kill, ouais, mon poto peut t'kill breh, breh Mon poto peut t'kill, ouais, mon poto peut t'kill - Hé, dis-moi Younès, comment tu fais pour avoir de l'inspi comme ça ? C'est grave cool c'que tu fais mais comment tu fais ? T'écris comment tes textes ? Comment tu fais pour avoir de l'inspi ? - L'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça Ouais, l'inspi, c'est comme ma mère, j'en profite tant qu'elle est là Dans ma bouche, un goût amer, j'devrais être bien meilleur que ça What up, Moon?</t>
+          <t>Yoon on the Moon J'manie lvers, langue de Molière, j'ai des rimes sous les molaires J'ai du son dans les artères et le rap me désaltère Je npousse pas beaucoup d'haltères, je n'pose pas genou à terre Il en faut peu pour être heureux, il en faut beaucoup pour me satisfaire Rimes en R, paire d'Nike Air, frère, y a R, ça galère On s'enfuit au bord de la mer car l'ennui, c'est le nerf de la guerre Une allumette, une forêt brûle, un mec s'immole, le monde sallume Un mec simmole, le monde s'allume On est conséquences et causes de causes et conséquences Tu causes, y a conséquences, texploses, y a conséquences J'expose tes manigances pendant qu'mes mans dansent Le monde, une immense danse, danse, danse ! J'ai perdu mon temps mais est-ce vraiment mon temps ? Jcrois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Fond d'la classe, tu connais tu connais, tu connais Fac, CP, abonné abonné, abonné J'fais du rap dans l'amphi, avec mots, je m'enfuis car la prof m'ennuie blablabla, blablabla J'suis pas un robot, une machine machine J'les vois comme robots et machines machines Taper en chur sur leur Mac leurs machins machins, hein Où sont passées nos valeurs, le partage, les sourires ? Mais où ? Mais où ? Les gens sont crâneurs, sont à l'heure, ont des têtes à mourir J'ai une vie à nourrir, des rêves à accomplir Gros, j'ai pas le temps de perdre mon temps C'est c'que j'ai d'plus précieux, va falloir que j't'apprécie J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps bien trop souvent Posé sur l'banc dans ma bre-cham, ma che-bran MP3 de ché-bran, t'écoutes sans cher-bron T'as pigé que j'suis bon, c'est pas du ciné non, non Mon temps, j'l'ai passé à l'rapper ouais, ouais Mon temps, j'l'ai passé à l'rapper ouais, ouais Pourtant j'suis toujours pas prêt car, car, car Yoon on the Moon aime les mots et Yoon on the Moon est réglo et Yoon on the Moon manque de courage Ma force, j'la puise dans mon entourage J'ai pas le prochain vers donc dommage À mon temps perdu, je rends hommage rest in peace Des mauvais choix m'ont conduit sur des chemins glissants Ça fait partie de moi, j'suis c'que j'ai fait de mon temps Ah, de mon temps, y avait pas tous ces écrans Notre réseau social, c'était l'moment présent J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Maman, j'suis pressé, mes rêves sont stressés, sé sé sé J'me sens oppressé, à bout de nerfs sont les geôliers Ils vont s'échapper et c'est pas bien joli Geôliers lassés, rêves prisonniers, ils vont tous s'échapper Gros, c'est réel, ça sort pas d'mon écran J'suis la plume de ma vie, kho, mon écrit J'trempe mon doigt dans les larmes, la sueur, le sang Puis l'range dans ma poche, mon écrin Suis-je c'que j'écris ou est-ce que j'écris c'que je suis, tu me suis ? Je t'aime, tu me fuis, c'est plus de mon temps Je t'aime, tu m'aimes, j'reste indifférent... hein, indifférent Yoon on the Moon, mon temps</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mes mots</t>
+          <t>Noire Ironie</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wooow Yoon on the Moon, ça fait Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Mes mots, mes mots, mes mots Yoon on the Moon, ça fait Yoon on the Moon Les rappeurs sont claqués, j'préfère écouter des instrus, niveau désastreux Ils sont aux pâquerettes, j'suis au niveau des astres Dans l'rap, j'suis l'intrus, t'as kiffé l'intro et c'était que l'entrée Juste après l'entracte, t'inquiète, tu vas manger C'est pas de l'afro trap, c'est du Yoon on the Moon Tu m'appelles, j'réponds ap, j'suis barré sur la lune Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon Avec mes khou-ou-ouy, Yoon on the Moo-oo-oon T'es la copie d'une copie d'une copie, t'es raté La tendance, tu la suis, tu la suis, tu la suis sans jamais l'attraper Oh, où est Juliette ? Je suis Roméo Mieux mieux, j'suis une aventure, un rodéo Ah j'ai rodé, gros, dans divers milieux sociaux Maison d'hiver, maison ghetto J'suis riche de mes khos, tellement riche de mes khos J'suis riche de mes khos, tellement riche de mes khos Et Yoon on the Moon aime les mots Il aime leur sens, il aime leur peau, leur naissance, leur tempo Depuis tit-pe, on fait équipe et si j'ai du biff C'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Depuis tit-pe, on fait équipe et si j'ai du biff Bah, c'est moi qui paie c'est Yoon qui paie C'est moi qui paie c'est Yoon qui paie Les mots sont limités, la vie, elle, est illimitée Parfois, on manque de mots donc on parle avec les poings Parfois, on manque de humhum donc on parle avec les tchoins Haha, on la garde celle-là, ah les bâtards ! Mes mots, je vais pas les mâcher, je vais pas les gâcher Hé gros, tu peux bien te fâcher, je vais pas me cacher Mes mots, j'vais les assumer et, si il faut, j'vais les répéter Mes mots, j'vais les assumer et, si il faut, je vais m'excuser Mes mots, j'les note dans des mémos mais je garde en mémoire Que j'dois sincérité comme gage de qualité Mais surtout de santé pour ma mentalité Oui, pour l'intégrité de mon identité-té-té T'es fou, dans le micro, je vais pas vous mytho J'aime les mots, j'aime les lettres, c'est c'qui remplit mon être J'aime mon kho, j'aime mes kheys, c'est c'qui remplit mon âtre Mes mots m'ont mené au rap et c'morceau est mémorable Parfois, par lâcheté, je me mens à moi-même Je n'dis pas les mots donc je mens à ma belle L'inspi' est telle que je reprends mon tél' Pourtant il est tard mais je suis dans mon dél' Le sommeil m'appelle et un il bat de l'aile Le soleil m'appelle, j'me barre avec les kheys... on s'barre ! Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Mes mots, mes mots, mes mots Depuis môme, c'est mes mots, mes mots, mes mots Et quand les mots me font défaut Je dis des mots que je regrette Il m'faut les mots qui me rachètent Mais parfois les mots sont obsolètes Yoon on the Moon, ça fait Yoon on the Moon Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Auteur prudent, auditeur averti Auteur prudent, auditeur averti Auteur prudent, auditeur averti On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance On est conséquences et causes de causes et conséquences J'connais l'poids des mots donc je fais gaffe à c'que j'balance</t>
+          <t>Désabusé je suis Jsouris cest que dlironie Jvous regarde, je ris je ris je ris Jaune ! Je ris je ris je ris Rouge ! Est la rose de mon jardin Rose ! Est le poumon dcet enfant syrien La vraie vie cest pas un manga ! Si y a ggare-ba dégât y aura Dégage, conard Nous oblige pas à foutre en lair la paix quon essaye dinstaurer dans nos veau-cer Le respect se perds à la pelle on le sert ! La force du Lion Et la noblesse du Cerf Vous pouvez être des millions Tant que jai toujours mes frères ! Bande de bouffons ! On est tous dans la même de-mer, on vit tous dans la même demeure et on a tous le mal de mer Jme sens ni dans mon pays, ni sur ma planète Tes à quelques iencli daller bicrave ta plaquette Bah ouais ty penses de plus en plus en ce moment.. Cqui tretiens cest maman ! Lui faire du mal oh bah nan On ne veut pas finir au ballon ! Chez moi jsais pas cqui va pas Jai la haine haine dun apache Wesh, quest ce tu veux quon sattache ? Lamour est un étang Et Jai bu jai bu la tasse Les Rébus rébus magacent Alors parles sah Y a dilemme là On mdit dchoisir cé-fran ou pas Oran ou pas Moi jveux tout lplat ! Cest ça mon choix Tes triste ? Mouche-toi ! Jsuis seul jfais des doigts Si ce nest pas la haine qui mguide là Dis-moi donc qui cest ! Ce nest quune esquisse et Il est temps de mesquiver Pour lodyssée Ça va arriver ! 2 Yoon on the moon Yoon on the moon</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mon temps</t>
+          <t>Non merci</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yoon on the Moon J'manie lvers, langue de Molière, j'ai des rimes sous les molaires J'ai du son dans les artères et le rap me désaltère Je npousse pas beaucoup d'haltères, je n'pose pas genou à terre Il en faut peu pour être heureux, il en faut beaucoup pour me satisfaire Rimes en R, paire d'Nike Air, frère, y a R, ça galère On s'enfuit au bord de la mer car l'ennui, c'est le nerf de la guerre Une allumette, une forêt brûle, un mec s'immole, le monde sallume Un mec simmole, le monde s'allume On est conséquences et causes de causes et conséquences Tu causes, y a conséquences, texploses, y a conséquences J'expose tes manigances pendant qu'mes mans dansent Le monde, une immense danse, danse, danse ! J'ai perdu mon temps mais est-ce vraiment mon temps ? Jcrois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Fond d'la classe, tu connais tu connais, tu connais Fac, CP, abonné abonné, abonné J'fais du rap dans l'amphi, avec mots, je m'enfuis car la prof m'ennuie blablabla, blablabla J'suis pas un robot, une machine machine J'les vois comme robots et machines machines Taper en chur sur leur Mac leurs machins machins, hein Où sont passées nos valeurs, le partage, les sourires ? Mais où ? Mais où ? Les gens sont crâneurs, sont à l'heure, ont des têtes à mourir J'ai une vie à nourrir, des rêves à accomplir Gros, j'ai pas le temps de perdre mon temps C'est c'que j'ai d'plus précieux, va falloir que j't'apprécie J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps bien trop souvent Posé sur l'banc dans ma bre-cham, ma che-bran MP3 de ché-bran, t'écoutes sans cher-bron T'as pigé que j'suis bon, c'est pas du ciné non, non Mon temps, j'l'ai passé à l'rapper ouais, ouais Mon temps, j'l'ai passé à l'rapper ouais, ouais Pourtant j'suis toujours pas prêt car, car, car Yoon on the Moon aime les mots et Yoon on the Moon est réglo et Yoon on the Moon manque de courage Ma force, j'la puise dans mon entourage J'ai pas le prochain vers donc dommage À mon temps perdu, je rends hommage rest in peace Des mauvais choix m'ont conduit sur des chemins glissants Ça fait partie de moi, j'suis c'que j'ai fait de mon temps Ah, de mon temps, y avait pas tous ces écrans Notre réseau social, c'était l'moment présent J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens J'ai perdu mon temps mais est-ce vraiment mon temps ? J'crois bien que le temps passe, qu'il en a rien à foutre des gens Wass, So à la prod Respecte les beatmakers, je n'pose pas si le beat m'écure Maman, j'suis pressé, mes rêves sont stressés, sé sé sé J'me sens oppressé, à bout de nerfs sont les geôliers Ils vont s'échapper et c'est pas bien joli Geôliers lassés, rêves prisonniers, ils vont tous s'échapper Gros, c'est réel, ça sort pas d'mon écran J'suis la plume de ma vie, kho, mon écrit J'trempe mon doigt dans les larmes, la sueur, le sang Puis l'range dans ma poche, mon écrin Suis-je c'que j'écris ou est-ce que j'écris c'que je suis, tu me suis ? Je t'aime, tu me fuis, c'est plus de mon temps Je t'aime, tu m'aimes, j'reste indifférent... hein, indifférent Yoon on the Moon, mon temps</t>
+          <t>- Ah, dans quels jolis draps - Oh, toi, tu vas grogner - Enfin, tu conviendras qu'assassiner toujours la chance passagère devient exagéré - Et bien, oui, jexagère - Ah ! - Mais pour le principe, et pour lexemple aussi, je trouve quil est bon dexagérer ainsi - Mais si tu laissais un peu ton âme mousquetaire, la fortune et la gloire - Et que faudrait-il faire ?! Quest-ce tu voudrais quje fasse ? Prendre un patron ? Ça mtente pas trop Un protecteur puissant ? Nan, gros, on fait pas ça Faire des dédicaces à ceux qui pèsent, devenir lami de ceux qui plaisent Tenir compagnie de ceux du biz, devenir amis juste pour le buzz ? Devenir un bouffon dans lespoir quenfin, ça fasse de leffet ? Avoir un ptit rond qui va mentourer que par intérêt ? Déjeuner avec des bobos, parler pour rien faire des photos Les genoux sales sous le bureau, le ventre usé par la rando Faire moins de rap que de promo, être terrorisé par les journaux Tout pour lClique de Momo ou le JDR de Toto Calculer, avoir peur, être blême Aimer mieux faire une visite quun poème Demander des faveurs, se faire présenter Moi jfais pas du pe-ra pour plaisanter Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Pas dplagiat pas dghostwriter, je sors que cque jécris Et je reste modeste dailleurs, je me dis, mon petit Sois satisfait des fleurs des fruits Même des feuilles, même des feuilles Si cest dans ton jardin à toi Que tu les cueilles, que tu les cueilles Le travail paye jsuis moins sur la paille Mon oseille, y a qu'moi qui le graille Et puis mes kheys avec moi qui bataillent Rilèsundayz Yoon the moon, Wagram Quest ce tu voudrais quje fasse ? Accepter quon mparle mal Quon mprenne de haut pour la maille ? Jfais pas du rap pour quon maime Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Puis, si il advient dun peu triompher par hasard Ne pas être obligé den rien rendre à César Vis à vis de soi-même, en garder le mérite Bref, dédaignant dêtre le lierre parasite Lors même quon nest pas le chêne ou le tilleul Ne pas monter bien haut peut être Mais tout seul</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Noire Ironie</t>
+          <t>NUMBER ONE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Désabusé je suis Jsouris cest que dlironie Jvous regarde, je ris je ris je ris Jaune ! Je ris je ris je ris Rouge ! Est la rose de mon jardin Rose ! Est le poumon dcet enfant syrien La vraie vie cest pas un manga ! Si y a ggare-ba dégât y aura Dégage, conard Nous oblige pas à foutre en lair la paix quon essaye dinstaurer dans nos veau-cer Le respect se perds à la pelle on le sert ! La force du Lion Et la noblesse du Cerf Vous pouvez être des millions Tant que jai toujours mes frères ! Bande de bouffons ! On est tous dans la même de-mer, on vit tous dans la même demeure et on a tous le mal de mer Jme sens ni dans mon pays, ni sur ma planète Tes à quelques iencli daller bicrave ta plaquette Bah ouais ty penses de plus en plus en ce moment.. Cqui tretiens cest maman ! Lui faire du mal oh bah nan On ne veut pas finir au ballon ! Chez moi jsais pas cqui va pas Jai la haine haine dun apache Wesh, quest ce tu veux quon sattache ? Lamour est un étang Et Jai bu jai bu la tasse Les Rébus rébus magacent Alors parles sah Y a dilemme là On mdit dchoisir cé-fran ou pas Oran ou pas Moi jveux tout lplat ! Cest ça mon choix Tes triste ? Mouche-toi ! Jsuis seul jfais des doigts Si ce nest pas la haine qui mguide là Dis-moi donc qui cest ! Ce nest quune esquisse et Il est temps de mesquiver Pour lodyssée Ça va arriver ! 2 Yoon on the moon Yoon on the moon</t>
+          <t>Body count keep it on the low Dont think about it you dont wanna know Imma go where you wanna go Shawty fine make em go wooooh Boys dont cry what they say Nobody I can say Got me feeling this way yeah yeah I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Regarde la money, les embrouilles, je taime Une balade, ton body, ten va pas, je saigne Jai de quoi tfaire kiffer, te sortir dla cité Jaurais beau toublier mais cest toi que jaime Love those electric vibes De retour ce soir ma lova Love your eclectic style Je n'cherche quà taimer comme Sosa I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Tes ma numero uno Jai beau aller voir ailleurs, cest toi qui fait lmeilleur boulot On sembrouille exprès car on aime faire la paix Jai vu de toi quun extrait mais direct ça ma plu Direct ça ma touché, direct ça ma eu Jte quitte bien vite, jte retrouve plus tôt Jsuis amnésique, jpeux tcroiser de nouveau Tes belle à mes yeux qu'importe leurs avis Tu s'ras numéro 2 quand tu port'ras ma fille I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Non merci</t>
+          <t>Paris la nuit</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>- Ah, dans quels jolis draps - Oh, toi, tu vas grogner - Enfin, tu conviendras qu'assassiner toujours la chance passagère devient exagéré - Et bien, oui, jexagère - Ah ! - Mais pour le principe, et pour lexemple aussi, je trouve quil est bon dexagérer ainsi - Mais si tu laissais un peu ton âme mousquetaire, la fortune et la gloire - Et que faudrait-il faire ?! Quest-ce tu voudrais quje fasse ? Prendre un patron ? Ça mtente pas trop Un protecteur puissant ? Nan, gros, on fait pas ça Faire des dédicaces à ceux qui pèsent, devenir lami de ceux qui plaisent Tenir compagnie de ceux du biz, devenir amis juste pour le buzz ? Devenir un bouffon dans lespoir quenfin, ça fasse de leffet ? Avoir un ptit rond qui va mentourer que par intérêt ? Déjeuner avec des bobos, parler pour rien faire des photos Les genoux sales sous le bureau, le ventre usé par la rando Faire moins de rap que de promo, être terrorisé par les journaux Tout pour lClique de Momo ou le JDR de Toto Calculer, avoir peur, être blême Aimer mieux faire une visite quun poème Demander des faveurs, se faire présenter Moi jfais pas du pe-ra pour plaisanter Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Pas dplagiat pas dghostwriter, je sors que cque jécris Et je reste modeste dailleurs, je me dis, mon petit Sois satisfait des fleurs des fruits Même des feuilles, même des feuilles Si cest dans ton jardin à toi Que tu les cueilles, que tu les cueilles Le travail paye jsuis moins sur la paille Mon oseille, y a qu'moi qui le graille Et puis mes kheys avec moi qui bataillent Rilèsundayz Yoon the moon, Wagram Quest ce tu voudrais quje fasse ? Accepter quon mparle mal Quon mprenne de haut pour la maille ? Jfais pas du rap pour quon maime Mais pour chanter rêver rire Être seul, être libre Avoir lil qui regarde bien, la voix qui vibre Mettre quand jveux mon jogging Dire cque jveux sans faire dlooping Personne pour changer mes rimes Personne pour manger mes streams Payer pour faire des vues ? Sucer pour quon me voit ? Rapper dla merde pour leur plaire Laisser de côté tous mes frères Payer pour faire des vues ? Non merci Sucer pour quon me voit ? Non merci Rapper dla merde pour leur plaire Laisser de côté tous mes frères Non merci, non merci Puis, si il advient dun peu triompher par hasard Ne pas être obligé den rien rendre à César Vis à vis de soi-même, en garder le mérite Bref, dédaignant dêtre le lierre parasite Lors même quon nest pas le chêne ou le tilleul Ne pas monter bien haut peut être Mais tout seul</t>
+          <t>Hein Terrence à la prod Yoon on the Moon Paris la nuit Paris, Paris, Paris Paris, Paris, Paris C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées, oh C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées bah non Mais ce jeune ange assoupi sur bouche d'aération pour se réchauffer et oui Mais oui, tu sais, mais oui, tu sais Ces grilles au plancher que, nous, on préfère éviter On s'rend compte d'leur valeur quand on les quitte, donc J'prends soin d'mes frères, j'prends soin d'mon équipe, honte Toi qui préfère le liquide à l'éthique, hmm Dans l'rap, j'ai un profil athlétique, ouf ouf Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit Paris, Paris, Paris, Paris Paris, Paris, Paris, Paris Hein, Paris Qu'des gens seuls sur Paname Paname Pas un bruit dans ma rame tch, tch J'm'assoie bonjour madame bonjour, bonjour Pas d'réponse, j'm'y prends mal Bonjour madame, j'ai dit bonjour madame Blase sur Paname, vraiment blase sur Paname L'innocence de l'enfant, j'aime hein J'me balade dans Paris même hein J'apprécie les Parisiennes hein Toutes ces histoires qui, au final, n'en sont qu'une hein Tous ensemble, c'est comme ça qu'on comble nos lacunes hein Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit, hein Tu connais ou pas le bus de nuit, est-ce que tu l'connais ? Le N02, le N03, le N04, hein ? Cet ange assoupi sur bouche d'aération pour se réchauffer C'qui m'a choqué, c'est qu'on finisse par s'y habituer J'veux pas m'habituer à voir ces jeunes tituber Pas pris de photo, gros, comme dans Safari C'est gravé dans ma tête, kho, à jamais écrit À Paris ou au tieks, oh, la tête est mée-cra Yoon on the Moon</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NUMBER ONE</t>
+          <t>Partiels</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Body count keep it on the low Dont think about it you dont wanna know Imma go where you wanna go Shawty fine make em go wooooh Boys dont cry what they say Nobody I can say Got me feeling this way yeah yeah I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Regarde la money, les embrouilles, je taime Une balade, ton body, ten va pas, je saigne Jai de quoi tfaire kiffer, te sortir dla cité Jaurais beau toublier mais cest toi que jaime Love those electric vibes De retour ce soir ma lova Love your eclectic style Je n'cherche quà taimer comme Sosa I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine Tes ma numero uno Jai beau aller voir ailleurs, cest toi qui fait lmeilleur boulot On sembrouille exprès car on aime faire la paix Jai vu de toi quun extrait mais direct ça ma plu Direct ça ma touché, direct ça ma eu Jte quitte bien vite, jte retrouve plus tôt Jsuis amnésique, jpeux tcroiser de nouveau Tes belle à mes yeux qu'importe leurs avis Tu s'ras numéro 2 quand tu port'ras ma fille I want you to be my number one I want you to be my lover Not my number two, my number one I want you to be my love But she dont need a man She might need more My shawty gon get me numb Oh why me whine</t>
+          <t>Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Ouais, frérot Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais j'me barre à Marseille ciao Assez d'la doudoune, j'veux sortir le marcel Ma copine m'harcèle, j'la prends pour une martienne Jusqu'à c'que les rôles s'inversent Qu'elle pleure comme l'averse ouin, ouin Qu'elle décide de remettre sa veste En vrai, c'est même pas ma hess En vrai, c'est même pas ma hess J'aime ton rire et ta bonne humeur Ton sourire, tes fesses dans c'tailleur D'ailleurs, j't'ai vue danser t'à l'heure T'as du talent sur ces hauts talons T'es ma jument, j'suis ton étalon J'ai saisi tes intentions, ton désir de séduction Mais j'tombe dedans comme un con Ouais, j'tombe dedans comme un pion Au fait, faut qu'j'arrête ce boulot bah ouais À l'école, j'foutais l'dawa, comment être réglo ? J'aime pas la CPE, j'aime toujours pas l'dirlo Il me regarde de haut, veut pas me serrer la pince Il m'prend pour un idiot, attends que le temps passe, j'trace... Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais je n'pense qu'à rapper Mon orientation, gros, je crois que j'ai raté Je n'fais qu'déraper, courir comme dératé J'pense à tous mes rates-pi ayant le doigt levé J'pense à Rilès ayant déjà tout niqué Motherfuck, motherfuck, ça m'remplit de fierté Motherfuck, motherfuck, ça m'remplit de fierté J'suis en partiels mais j'me barre en concert Rejoindre ma mif, mes frères, mes compères 160 sur l'compteur, on dépasse ton père Mes frères boivent la liqueur mais c'est pas du Dom Pér' non Non, c'est pas du Dom Pér' Mais de l'alcool de merde sur un parking de merde ouais, hein Ouais, de l'alcool de merde sur un parking de merde, à la tienne Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Yoon on the Moon, Terrence à la prod Respecte le beatmaker car tu le sais, car tu le sais Je n'pose pas si le beat m'écure</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Paris la nuit</t>
+          <t>Quatrième Rapport</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hein Terrence à la prod Yoon on the Moon Paris la nuit Paris, Paris, Paris Paris, Paris, Paris C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées, oh C'qui m'a choqué à Paname, c'est pas la Tour Eiffel ni les Champs-Élysées bah non Mais ce jeune ange assoupi sur bouche d'aération pour se réchauffer et oui Mais oui, tu sais, mais oui, tu sais Ces grilles au plancher que, nous, on préfère éviter On s'rend compte d'leur valeur quand on les quitte, donc J'prends soin d'mes frères, j'prends soin d'mon équipe, honte Toi qui préfère le liquide à l'éthique, hmm Dans l'rap, j'ai un profil athlétique, ouf ouf Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit Paris, Paris, Paris, Paris Paris, Paris, Paris, Paris Hein, Paris Qu'des gens seuls sur Paname Paname Pas un bruit dans ma rame tch, tch J'm'assoie bonjour madame bonjour, bonjour Pas d'réponse, j'm'y prends mal Bonjour madame, j'ai dit bonjour madame Blase sur Paname, vraiment blase sur Paname L'innocence de l'enfant, j'aime hein J'me balade dans Paris même hein J'apprécie les Parisiennes hein Toutes ces histoires qui, au final, n'en sont qu'une hein Tous ensemble, c'est comme ça qu'on comble nos lacunes hein Que des têtes cramées dans le bus de nuit Travailleurs acharnés, serveurs commis commis, commis Y a qu'les mecs bourrés qui font du bruit font du bruit J'te présente Paris, Paris la nuit Paris la nuit De gare de Lyon à gare du Nord, de place Clichy à porte de Cli' Poto, j'ai visité Paris, Paris la nuit, hein Tu connais ou pas le bus de nuit, est-ce que tu l'connais ? Le N02, le N03, le N04, hein ? Cet ange assoupi sur bouche d'aération pour se réchauffer C'qui m'a choqué, c'est qu'on finisse par s'y habituer J'veux pas m'habituer à voir ces jeunes tituber Pas pris de photo, gros, comme dans Safari C'est gravé dans ma tête, kho, à jamais écrit À Paris ou au tieks, oh, la tête est mée-cra Yoon on the Moon</t>
+          <t>J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Que des chefs-d'uvre à la Tarantino J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Fuck l'industrie, fuck la radio, fuck la télé Faut que j'sois plus speed charbonner comme un intello Que des chefs-d'uvre à la Tarantino Pour le moment, on ne fait que trottiner Le jogging est jdid, la démarche assurée Faire du liquide, mettre bien la surette Principes s'arrêtent quand l'intérêt grandit Facile d'être honnête quand ça change pas ta vie Voiture banalisée et le flic me mate Il me fait chier comme trafic le matin Rilès a du biff donc c'est lui qui paie On faisait des clips sans être équipés Chacun son rythme comme sortie du ciné Chacun son rythme pour trouver dulcinée Si jai pas percé, cest que j'le mérite pas Jvais pas pleurer sur les résultats C'est beau l'amour quand ça dure woo Solide comme une ossature ouais J'ai quitté la Terre pour la Lune ciao Jai quitté la Lune pour Saturne L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore Elle a un boule à faire un accident À ses faveurs j'aimerais accéder J'suis excellent dans mes excès Pardonne-moi si je t'ai vexée Ils font des selfies, cherchent leur meilleur profil Ils cherchent l'amour comme le meilleur profit Adopte un mec sur Tinder Choisis-le comme un Kinder Rapide et efficace comme la 14 T'es lent et tu te la pètes comme un carrosse Ils jurent sur le Coran, finissent pas une BD, merde J'écris des textes et puis, toi, tu danses Poto, on est causes et conséquences J'déchaîne mes vers qui étaient enchaînés Ce que j'peux pas dire, bah, je vais le rapper Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le... vive le rap ! Vive le... vive le rap ! Alors vive le... vive le rap ! Vive le... vive le rap !</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Partiels</t>
+          <t>Quel bail</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yoon on the Moon Yoon on the Moon, ça fait Yoon on the Moon Ouais, frérot Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais j'me barre à Marseille ciao Assez d'la doudoune, j'veux sortir le marcel Ma copine m'harcèle, j'la prends pour une martienne Jusqu'à c'que les rôles s'inversent Qu'elle pleure comme l'averse ouin, ouin Qu'elle décide de remettre sa veste En vrai, c'est même pas ma hess En vrai, c'est même pas ma hess J'aime ton rire et ta bonne humeur Ton sourire, tes fesses dans c'tailleur D'ailleurs, j't'ai vue danser t'à l'heure T'as du talent sur ces hauts talons T'es ma jument, j'suis ton étalon J'ai saisi tes intentions, ton désir de séduction Mais j'tombe dedans comme un con Ouais, j'tombe dedans comme un pion Au fait, faut qu'j'arrête ce boulot bah ouais À l'école, j'foutais l'dawa, comment être réglo ? J'aime pas la CPE, j'aime toujours pas l'dirlo Il me regarde de haut, veut pas me serrer la pince Il m'prend pour un idiot, attends que le temps passe, j'trace... Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal J'suis en partiels mais je n'pense qu'à rapper Mon orientation, gros, je crois que j'ai raté Je n'fais qu'déraper, courir comme dératé J'pense à tous mes rates-pi ayant le doigt levé J'pense à Rilès ayant déjà tout niqué Motherfuck, motherfuck, ça m'remplit de fierté Motherfuck, motherfuck, ça m'remplit de fierté J'suis en partiels mais j'me barre en concert Rejoindre ma mif, mes frères, mes compères 160 sur l'compteur, on dépasse ton père Mes frères boivent la liqueur mais c'est pas du Dom Pér' non Non, c'est pas du Dom Pér' Mais de l'alcool de merde sur un parking de merde ouais, hein Ouais, de l'alcool de merde sur un parking de merde, à la tienne Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Dans ma tête, c'est la guerre, dans ma tête, c'est Bagdad Mais, moi, j'habite boulevard Port-Royal, Port-Royal, Port-Royal Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Y a quatre militaires en bas d'chez oim Et y a un hôtel quatre étoiles, quatre étoiles, quatre étoiles Yoon on the Moon, Terrence à la prod Respecte le beatmaker car tu le sais, car tu le sais Je n'pose pas si le beat m'écure</t>
+          <t>Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Lucas est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Tu veux savoir cest quoi les bails ? Jsuis entre deux mondes et jai trop la dalle Elle est sur la ligne, jai pas poussé la balle, le repas est prêt, jai pas posé la table J'viens dSeine-Maritime et personne marrêtera, d'la salle du coin à la Kindarena Jreçois pas dprod donc j'vais les chercher, les beatmakers, gros, je vais les faire chier Jfaisais de la musique dans mon coin et y avait des gens qui smoquaient Ils seront jamais dans mon camp mais maintenant, cest mes copains Kinkinkin, trop des barres, tiens, tiens, tiens, jprends un vélo Uber Facture, acteur, la vie drappeur, jvois plus ma mif, quelle vie dbâtard Baskets toutes neuves, vieux manteau Moi, jfais lson, toi, les commentaires Retournée dans la lulu, jvais pas mendier sur Ulule Jsuis à Paris comme au boulot, à Rouen comme à la maison chez moi Embrouille entre potos, jsuis du côté de la raison Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Carlo est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Je suis pas riche, jai un peu plus de maille, si jfais pas gaffe, je retombe sur la paille Jfais plus lservice, jfais plus la caisse, dix euros dlheure, cest plus la peine Cent pompes par jour comme Saitama, il tfait la cour comme sil taimait Lactivité entraîne lactivité, inspire-toi mais faut pas imiter Les journées sont longues, les nuits sont courtes, les projets sont épicés Plein les poches, Médicament, le son est déguisé Ça sent la percée, oui, je laperçois et moi, perso, je ne suce personne Jrappe ce que je vis, jfais ce que je veux, jrappe dans lTGV, tu mas déjà vu Studio, photos, interviews, contrat, stylo, intérêts Jtire mon épingle du jeu, jmène la danse comme le DJ Nabil Anis, rue Mouffetard, chicha ethay, jrentre tard Jmontre peu, je fais beaucoup, dplus en plus fort comme Goku Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Leone est au courant Il est pas là, il est retard hahaha Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Premier Rapport</t>
+          <t>REBEU DES PAVILLONS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4 Comme le lion dans notre jardin pleuri zoo remembre les nénuphars de son Nil Ariuz oubliera-t-il Arion ou Boghas les pares de gambes des Marmarazalles de la Marmenière ? ce peut être, quà toutes versens en plein noyen tvintige ait-on posté sigil vat dans notre brève imbuste, le bassiégé se larrèva tranquil i solement de ces lililiths des chants indévoiléees qui l'avaient défait, parties depuis âge, et sans reconnaître les créatriches attentives qui le veillent, et y à leur ester. Fooi, fooi, chamermiselles ! Zeepyzoepy, gars de larcins ! Zijnzijn, Zijnzijn ! Ce peut être, vimoustons hâte se le te déclareer te, qu'il a remiré ? pressentu ? les champs au chaud et les chaumes au gruau où n'est-ce Ysit ? corne de blé l'or, shemu et shauni. Ce peut être, quy havons dopacique une bititte dore lau courante de notre bonne vicipalité de vante nous le savions, que de son vu profond de haute mer n'a vu pas vice oftebien au large mais fichu du bon temps, dedans son shamanah patriarcal, brodesteynation 'sus la citie Terrilby ! Terrilby ! hé conscieux des ennemis, roi bille pied à létrier dun cheval blanc dans une usine à Finglas, il pria, assis en anxieuse assiette con tu nette douée moué à tout bout une épieure suave dyeux bouilles !, pendant cette agonie trois shellofait dheures de silence, ex profundis malorum, et fit naître avec défeinte charité que sa merveille de mot blesse un englès jusqu'aux dents qui, nomené Nash de Girahash, irait par vieux tout dans le larmant monde sur son ventre marbré la rage, les grippons genoucessaires ! pour lait mielque, musique ou des misuselles mariées pourrait, grâce à de la bénévolence providentielle qui haït l'astucerie des prudences, se déployer dans le premier dune dynastie distinguée de postérieurs à lui, 4.076 connemaras à face noire pas du bercail mais enfants çaïnés de hson hsérail, la plus obsettante de ses idées pace référence à ses douze louvepassions prédamanantes étant la formation, comme dans les climes plus quarancés, où la Prairison de Miel a l'hôte friendelé et la Montagne de Joile fait des réceptions de santé, d'une strate truement criminelle, Ham se craque les crèches dyoeufs, éliminant par là beaucoup de délinquance décousue de toutes les classes et masses avec une décasualisation directement dérivative sigarius sic! vindicat urbes terrorum sicre ! et ainsi, pour marque, une banque tal si artre, l'obédience des citoyens abilite lygiène oliste. Nnant gode. Laissons se lasser là atterrées théories et quon reprenne assiette ici. Ouis ici. C'est gode à gain. Le cercueil de teck, panneaux de verre Puf ajustés, pieds juste à l'est, devait se rentourner plus tard, et palant pitant près du porpus, effecter matériellement la cause. Re ça, lièvre, cest le signe haut bas-rondel. Un nombre quelconque d'organismes publics conservateurs, à travers un certain nombre de comités de sélection et autre ayant pouvoir d'ajouter à leur nombre, avant de se voter eux-mêmes et lui-même, ville, port et garnison, par une résolution adaptée et appropriée, suivant une ordonnance de corte de la gronduette, en dehors une fois pour toutes de l'existence complotie, à titre de forsçue, que toi maateskippé tu puisses couper rebattre un neuw paquet de klartes, ont fait de lui, tandis que persistait son corps encore, leur présent d'une fosse temporaire dans la moyelte du meilleur motif du Lough Neagh, qui était alors autant demandé parmi les misonésiens que l'île de Man parmi les limniphobes. Vachte vien ! C'était même un sakerry sac de nuds, après que le formaître de Fianna avait pris sa poignée, enrichie de bois anciens et de douces dudutches débilines mid lesquelles il y avait un vieux tertre et un vec à truite, vainie vaine de ses bas osiers une saillie bavaillie avec n'importe quel Guyer ou Gautier qui l'onglerait comme le fit Izaak au chatouillis de sa canne et agarder ses eaux de ses saulantes eaux de et là maintenant brune tourpierre clapotante que leur cuilte guirle luigèrement sur sa forme somnolulutante ! Pourtehu gît son geste ultime à la wrath du Sponge Dieu, tel l'inice maudice Hun dans le lit de son treubleu Denuloù. Beste. Cet emphyrée vase doive bien souterrain, ou taupe paradis était probablement aussi une môle inversion d'un phallopharos, avait l'intention d'entretenir des récoltes de blé et ringembrer l'activité touristique son architechte, Mgr Peurelachâsse, ayant été obcécité à moins 4.077 qu'il ne pétrifeigne toujours un telévène tandis que les contractants MM T.A. Birquette et L.O. Duohalles étaient rendus invulnérablement vénérables tête en l'ouest, notre mistre icônostructeur, Castelvilainous, ouvertement damné et blastiqué au moyen d'hydromine, système, Sowan et Beltigne, explosé à partir d'un poteau de bombardement T.N.T. réinventé jusqu'ohé onze et trente pauses à vent circiter à poupriboord de sa thorpette aérienne, Auton Dynamon, mis en contact du champ de mines expectant par des boites d'ammoniac amélioré amarrées à son plat-bord blindé écusonné, et fusionnées en cables de trébuche, glissant dans le tolset et jouant depuis le château de pilotage jusqu'en bas des boites de fusibles des batteries de sol, toutes aussi différentes que des clocks de clés puisqu'il semble que personne n'avait la même heure de barbe, certains disant qu'à leur Oorlog il était neuf heures moins Sygstryggs, mais ils étaient plus nombreux à soutenir avec le Ryan vogt qu'il était Dane de fife heures. Lui, après ça, à chaack fois que sa bavardessie commençait à lui fuir, et que son rude abois était toutement rauque et, courbette après courbette, il s'en approchait puisseron, épargne drapait soigneusement le résultat en ferro-ciment avec des briques et du mortier imputrescibles, fassé au fossé, et se retirait derrière l'heptarchie de ses tourettes, la beauchamp, bavarde, belle taur au lion, la blanche, la garde-robe et sanglante, de manière si encourageant insteppez-vous tous, sil vous blifte, coiffes ! le public d'utiles conseils additionnels avec dhoofd offralignes qui étaient velhoudées en ladycantes te huur comme l'Union des Eleveurs, la Guilde des Marchands de l'Agrafe et, a.u.c. lui présenter avec une pompe funébrale, au delà et au dessus de ça, une plaque de pierre avec l'allocution habituelle de valédiction à Mac Pelan, un exemple joliment vocablé d'adamélégie falsignifiante. Nous avons fait les nôtres en gohelle avec toi, Heer Herewhippit, ça débordonne, godille ! Mais allons de t' tous à bord houle la là ! Cercueils dexposition, linceuls, chèpes de bière à dire bon vente, urnes cinéraires, cuivrettes à forte traîne, châsses à priser, bacs à chouchebine, vases lacrimaux, houdres doses, riques deau bécrée, braque-midèles, zootes en sac pour êtalusture, incluint des opjets de santé en rauques vourstes et des varcres potées matthieundries à la fléchouve et en cette matière, javel aussi, n'importe roi de bric au brac inhumationnaire pour l'ornement de sa glace stone, honophreum, mette cise treins de konditiens, suivrait naturellement, halas, dans le cours ordinaire, permettant à ce vandeline si vihte tourdumondier, 4.078 si den tels lui passaient, de vivre tout tranquillechéluiment les jours préséniles de sa vie d'opulence, nague ère ancienne de crépitude, lénience élastée du délai des lentes, jusquà un stage estoffrant, chassant le lamentin tout en temps hypnos chilia eonion ! léthéallé entre explosion et réexplosion Donnaurwatteur ! Hunderthunder ! de grosse kope à mégopode, embaumé, de grand âge, riche de mort anticipée. Mais attends que soit servie l'assaumognation de Zeit, essor après déclin. Blitza de là par un gond de tonnerre dans le bleu, connaissant les vers appâts des poinçombres de la déshabitationnice, enterré en se terrant dans Gehinnon, pour proliférer à travers tout son Unterwealth, veine à veine, sheol om sheol, et revisiter notre Sidéria d'Utilitarios de la croûte supérieure, le divin, l'amasseur caché propagutant son progeniem plutorpopulaire de pots, poêles, pincettes et puintes de lémise en bide au pays à lachat boute du pays, espure voie avant les spores vouées. L'autre offensive de pring temps source les hauts d'Abraham est peut-être survenue tout-à-fait par accidence, Foutaroncier car Breedabrooda l'avait à la longue présuadé de s'avoir être comme septuplement enterré comme le Cian meurtré à Finntown, s'il n'y avait pas eu trois monades dans son caveau d'eau quelles milices et chevauchées alors et quels serments du jus dappel d'aard fritille au vin spuit ! quand la portrifaction, dreyfussée comme toujours, commença à rampe, rampe, ramper, les garçons parcheminent. Un hoodenwinkel entôla le signal et dune carte de blessédiction offrit le flot. Pourquoi le patrizien lui fit-il des scares avec ses grontins ? Parce que les druives muscataient à la porte. Pour les deux camps celtibères concédant dès l'abord pour l'argument que les hommes des deux côtés en Nouvelle Irlande du Sud et Vetera Uladh, faces de pile ou hommes blumes, pendant le ferment Avec le Pape ou Sur le Pape, avaient, à maures ou lettes près, des idées grandioses, groncédées toutes les conditions, pauvres cons et mor dives, chacun, bien sûr, sur la pure doffensive puisque les éternels étaient hiboujours de leur côté à chaque fois, étaient attraites au si leur Black Bottom de Bellona, autrefois la Valse Laine Blanche Ohiboh, si déscrimé, décrajolé et débilesytoi ! certains par désir d'une nourriture convenable en leur jeunesse, d'autres déjà pris à l'acte ghonorable de trancher des carrières pour la famille et graveurs en conjonction, et, si elle était sez émaciée, la personne garrottée pouvait avoir suggéré à toute personne dont elle 4.079 avait pris le jambe, la platitude étant impliquée dans l'obscurité, vigoterie de basse cirque, voire, émêmement, le premier vieux boucot de lui-même en sa chair, pâle whigissumus incarnadiné, lorque mis en faussevue par le silétaittel guigui sur la colline car le sentiment avait librement suffisamment circulé parmi son opposition qu'en hibernant autant Massa Egodu, qui, avant cette mi zone de vie, avait été connu de jours barmicides, dit cook, entre soupes et douceurs, pour sortir toute sa longueur de truite arc en ciel et de taertes atta tarn comme pas d'homme né de femme, mouais pourrait, comme le grand brèbe à crête, dévorer ses trois-vingt dix blattes par jour de vie, ouais, et autant de fretin menu à la minute grande ingrédience, puisse Gibet l'étrangler ! nourrissait, comme le saumon de son échelle dalpalade tout ce temps de totalité secrètement et par sucage nourrri de sa propre graisse mal placée. Les dames nont pas dédaigné ces times pagïens irpassés de la première cité appelée du plus ignotial Danadune quand une rame était un ami embesoin demport, ainsi que le font les perce-oreilles à leurs morts, leur humus usgourdà la boule de terre où mormaalement nous allons calmement nous décliner, notre legs inconnu. Les Vénus étaient esclaffement temptatrices, les vulcains pouffamment éruptieux et dans le monde féminiment grand flein de frocs ficulaient folages. Fait est, chaque humaine inyone tu aimais chaque prémidi ou apré comme lui ôter son simple poinçon, ou une égale paire diceux, lugog! Lugodou ! et prie prettiment avec lui ou même avec eui chaquil à son goût, longuissant de la luque, tapette et petassant le ruban et prenant la pire pette de tout. Tip ! È s vouerait à Wells et s vaincrait ses vux mais comment le daim savrait où è s marierait ! Arbeur, bout de contreperte, caravane, drain ? Coche, charroi, brouette, tombereau ? Cathe LeFort, une veuve Tiptip ! elle nous lane gueulerie de peinture, dans une installation en duriodréâma, luante et très viduelle, d'un vieux plan dépoté comme elle nez savait, un cottage home chez soi en pierre elvan avec des crottes de cocottes, de puints qui se poussent, des tétoninis de minous, des brinlesorcières pourris, de la vordure suppurante et des balles de bougres, sinon pire, y envoyant des germes salmofarieux en jubilant à travers des carreaux clatés en mimorceaux la Veuve LeFort, alors, comme son perce faible sétait tourné vers le mur Tiptiptip !, faisait le plus clair du ramassage des ordures dane lor digne des jours du bon Roi Ham lExlaffe bien que son maigre brossein nettoyé mais avec parcimonie et son constat nu donne à lire que, comme il n'y avait pas de bas-côtés macadamisés 4.080 on ces vieilles nuits nékropolitaines in, à lexterception dun sentier pathonier, la Chaussée de Bryant, bordé de voie rapuide, trèfle blanc et oseille qu'un bois sait, qui s'arrêta, étant battu, là où le plaignant avait été frappé, elle laissait par terre, comme les ramasseurs d'ordures qui veulent être ramasseur d'ordures le doivent, son taddéchet près de la Serpentine dans le Parc Phornix qui de son temps s'appelait Sacrevenir de Puits Fine, mais fut plus tard tautaubaptlotté Purge à Pat, ce danger fit du cercle au bois de cher w'où de l'artifeucier oh blaherty s'est bague nutté des castelmallards et ah pour archer l'étonne turc, partout avec des empreintes de pied fossiles, des marques de bottes, des signes de doigts, des entailles d'épaules, des bols à braies, a.d.s. ont tous été retracé successivement par la plus enveloupante description. Quel temps droit plus subtil en ce fonde qu'un tel castrament ventrembloup pour veut cacher un llibhre des brandemains des hommes de Thor ou une lettre d'amour, désespiscemment sienne, qui serait de la concupiscence pour Ma, que quand là les urrections eurent fin, qu'ici où coursemença la race et par quatre mains de préscience le premier babil de réconcilement est mis dans son dernier berceau d'hume suite hume. Fais ton renvoi ! N'en fais pas plus ! Passe donc le pioche de l'égard au marmot ! O manité ainsi sous est-elle ! Pour ouhir le Tout plus haut sprachait pour les krishniens comme pour le propagana fidies et ses aigles nuptiaux aiguisaient leur bec de proie et chaque homme morphyl parmi nous, pome par pome, retombe dans ce terrine comme c'était que ce soit, dit il ! Et c'est comme si où Agni araflammait et Mithra monestait et Shiva tuait comme mayamutras les eaux obluviales que notre mémoire noarchique ont retirées, en bobine chez oreille ça me, à quelque torcheprêtre timbrement hâtif gâchif, fana flamine, pupille du vent qui alluma le feu étendu dans le bois qu'éclaire Jove, à son gros mot, Posidoine du Fluctuaire ! Lavaisse cette sang dite pierre comme elle est ! Qu'est-ce tu fais ton sale mélanjoué et son gros blocarbre tout en haut de ton chemin ? Glisse autour, toi, par la rare de chez les ministres ! Et toi, reprends ce baril où tu l'as eu, chez Mac Shane, et fais la route que ta vieille a prise, le Route d'Enterhach de Guer ! Et bouilledu ! Quel bouillonnement pour partir, les trajets de quat'sous, toute une école qui s'escampe, les écharpes flottant en choeurpe derrière, toutes les petites pirlipettes ! Issy-la-Chapelle ! Y a t il des lucains, s'il vous plait ? 4.081 Oui, la viabilité des vicinaux, si elle est invisible, est invincible. Et nous ne transpassons pas sur hses cors non plus. Regarde tout ce plotsch ! Fluminien ! Si c'était la marche d'Hannibal, c'est le travail d'Hercule. Et un amungri millier d'inémancipés ont esclavé la voie. Le mausolée est derrière nous O Adgigasta multipopulipater ! et cest des miles en bornes dans leur chidemilias qui se faultrent le long de la trame pistraquée de Brahm et Anton Hermès ! Per omnibus séculaire psychalarum. Amain. Mais le passé nous a fait ce présent d'une rhedarhoute. Ainsi mor bouhar O'Connell ! Bien que pluviomilé, t'es rhinomulé. Et s'il est pas un Romeo tu peux scaloper ton chapeau. Sommessusdessous dans le fanum de Saint Fiacre ! Halte ! C'était raide près du ça va là-hou , évidemment dans cet endroit disoludé au froid buchan, rupestrique alors, ressurfacé qui est maintenant, que Luttrell se vendit si Lautrill s'achèta, en selle de la passe Brennan ore Place Malpas ? à des verstes et des verstes de la vraie civilisation, pas là où ses rèves sommant leurs traumes font halte Ben êtré ! Ben ather ! mais là que la vive terre outrejuse se marait au wilde, pré salé au flot, que l'attacleur, un gros patiron, bien que sous médium et entre couleurs avec un véritable cran natif, s'engagea contre l'Adversaire qui avait plus en son il qu'il y avait moins à sa jambe mais que, par égard pour le pillage, il méprit dans la pluie forte pour Oglethorpe ou quelque autre gugus, aparremment Parr, avec qui l'uf nid de poule sans teue ni quête portait quelque ressemblance Michelangiolesque, en faisant usage de langages sacrilégiés au défet qu'il challengerait leurs hémosphores pour les exterminer mais qu'il arracherait à coup de canonnises la vie du f u b r et l'allongerait contritement aussi malin que le b r aurait dit ses f ues prières du soir, trois pas très noiseterres et un couplet de jueux sales umaris tout est sacré pour un sacreur, femme à barbe ou homme-nourrice en même temps pour bien ficher à faire enflément geint sortir les diabéliers de lui, prenant holstensiblement une barre oblongue qu'il avait et avec laquelle d'habitude il cassait les meubles il brose le stick sur lui. L'incident de frinterne se prérépéta. La paire quilzéétaient Nippoluono s'engageant contre Wei-Ling-Taou ou de Razzkias essayant de reconnoistre le général Boukeleff, man peut pas dire, lutta apairement pendant un temps considérable, le berceau se balançant équallement vers l'un 4.082 et opposément de l'autre selon sa loi de capture et de recapture, sous les règles Toutes Griffes de Dents autour du garde-livre, se battant comme jamais navet pourpre et type ruhré chouédois, Servieux Secrementé du Zèle Divin ! et tt à leur mélée le grand glas qui avait ouvert son boulu bol pour biller pitié, dit au mineur qui portait le ver terme maniable pour la distillerie portable qui consistait de trois cuves, deux jarres et plusieurs bouteilles bien qu'exprès nous ne disions rien du raide, les deux parties ayant un intérêt dans les spirites Laisse-moi y aller, Pauthine ! Je té connais à peine. Plus tard, après la pause solstitielle de refraichaircement, le même homme ou un lui différent et plus jeune du même jambon demanda en vermiculaire avec une moue mache michine oggrible Offa, est-ce qu'on a prendu à toi six victolios quinze en pigeon, dire il moi, grogranga, par dix piqué-poquetés à des mois déquatris d'arrière côté ? Il y eut badun collidabantre de plus et de sévariés essais pour convertir pendant la meilleure part d'une heure et intenant une affaire boisie sous la forme d'une tissure nous reconnaissons tout de suite notre vieil ami Ned de tant de lettres villotemporées tomba de l'intruseur, qui, aussi coincé que le chat là à la souris là dans le tube là de lorgue de léglise du christ là, l'imnage de Fille Nuée Pensive floue-t-elle sur eux le jeune et léger charme, en rubans et couettes ? sur quoi devint amical et, sans le dire, sa chemise à déchirer, à savoir le requis, plaissant les casse-têtes tout de côté, si son compagnon de change toujours attaché à l'invention de sa boîte de force, avec une ténacité corrobrimant leurs droits ténitoriaux mutuels, se trouva avoir la monnaie de pille d'un crampon de dix livres à l'instant, abrouillant quavec hap de chance, il le repaierait les six vics et plus, vois tu, de ce que pour ce que fut pris pour l'homme des chantillons en Yuni ou Yuly dernier, me suis-tu, Captine ? A ceci l'autre, Billi la Boule, qui à ça s'était motussé maule en collé car il était l'hésitence charriant à l'excelcisme répliqua plutôt amusé Vouvou vous seriez peut-être grossièrement surpris, Hill, d'apprendre que, comme ça arrive, je n'ai honnêtement rien de tel que le lieu, aise la leste chance d'un craquelon étamé où que ce soit sur moi pour le mohomoment mais je crois que je peux voir ma route, comme tu le suggères, que ce soit le Yur de Noël ou Yuddanfest et on devient folle noix, fiston, toi 4.083 quand ça lapine chevu du chapelier, piston, moi de t'avancer quelque chose comme quatre et sept sous entre tours et atours, que tu pourrais aussi bien avoir, par jeunes baches, pour t'en fournir de J.J. et S. Il y eut un menu silence avant le réallumage du feu de la mémoire et alors. Cur au vif ! Qui au tout premier vent de gay gaieté et se dressèrcent oreilles de mèche en perruches d'émouchoir, le flingueur affamé, rose surprise, devint étrangement calme et carrément juira tous ses larsons porsennels que l'épinier du sheol se ramifierait sur son Sheophone d'élyse à la lux apointlex mais il lui irait bien quelque solaire marxer fort mon mot, car un éclat du vieux Silex, dans la glossière Nichtienne qui pourvoit à des racines aprioriques aux tongues apostériorieuses c'est nat langue dans tous les peccaptions du monde et on pourrait aussi bellement aller faire un kish à ses sprogues que manquer de certifier si que la bellotrophie a précédemment éludé quelques vies ça a été quel conchuse comme une jarrade, à quoi, un coquettable et y faisant une remarxe languedoillée, apparaissant avoir bien plus haut plaisir que tongue peut conter à cette ouverture de toute une vie et l'avant-goût des perles mères du Banc de Dun et le garçon à laver qu'il pouvait se le nourrir à la Vache Ruadh de Tallaght et puis dedans la Brave Femme de Ringsend et après àdans l'Inn à Conway de Rochenoire et, premier à choir, tout ce foutoir, où l'appétit serait du plus affuné, atte, fête de funéraille faite de fun fané réel, à l' Adam et Eve sur Quantity Street par la grâce de la reine gibière Tailte, de son vu et testament petit gars du fond du sud, tu es stunnant ! J'te reconnaitrais partout, Declaney, laisse moi te dire en toute vérité si tu es dans ou hors la lexinction de la vie et qui diable d'autre, que ta pioche blanche soit dans la bonne partie osée ! Goalball j'ai frappé cette nuit des nuits à lumière de jour à la mort déjoue, saperglotte ! Chapeau, t'as bu bulle aigrette challemande, pour graver l'incruste au soleil couchant ! Il crachut dans son faust qhachtion il se topa le meilleur cru pardun il poucha sa pioche faire tip tappe et il s'émit à langue à l'aise. Et, avec une poule française ou le portefolailleum de hâtes et de loisirs, sur le point de continuer ça, la bizarre mixture exchangea la pax en embrasse ou poghue puxy comme ça se pratique entre frères du même sein, hillelulia, killelulia, allenaloi, et ayant ratifié devant le dieu du jour leur trève torgane que des rapetisseurs ont schmalkalé le traictygne au cognac, tournant le détroit méniel de son fez 4.084 en direction de Moscas, il se débarrassa d'abord de quelques mismillats et hourouchous partit par levance avec une jurbulance tubulaire à un cours de taureau dessus le pont au dos d'âne, crachant ses dents enroutecinées, avec les sept et quatre en impeau d'anois et leur batte à hurler humorale ou une autre arme incertaine de lignum vitae, mais si rhuminiscente à jamais d'une poupe de toboggan, récupérée pour garder quelque rendez-vous à cueillir le corbeau avec quelques rialtos rivaux n'importent où entre le Piridge et la Plittle Horne tandis que ce pauvre delaney, qu'ils ont laissé au long avec le pare-feu confédéré derrière et qui bien que balbluffé, en arborait merveilleusement toute la maraville avec tout un nombre de contusiums de la taille d'une prune, plus un coccyx meurtri alasalah, partout sur lui, rapporta l'occurance du mieux qu'il put, à l'époustouffle du labo entier, faisant le salut militaire à la bannière des Paddys comme l'O'Daffy pour son exilice, dans l'espoir justifiable que, en révision d'homain le plus nobil du dérivatif immensément sitisfactuaire du conclusium, quelque lotion ou fomentation de têtes de pavot seraient jennéreusement exhibée aux parties, au poste de garde le plus proche de la Venelle du Vicaire, la surface blanche de sa face toute couverte de sang mamellien en croix rouge diagonale non fatale comme preuve positive du sérieux de son caractère et qu'il saignait en légitime défiance étanche-le ! des narines, des lèvres, du pavillon et du palais, tandis que les épines cheveux du chopelier il te les repoussait de la tête de knout , Colt, bien qu'autrement sa santé prise en tout sembla se mettre au passable comme il se révéla du plus fortuné que pas un des deux cent six os et cinq cent un muscles de son corso était un casse la cavale à cause qu'elle lavait clavaché. Quoi elle ? Alors maintenant, laissant la cendre s'y prendre, faite de braune de muscle et de bronze pour bouter le natif terrestre et de cristal de roche pour briser la gélatine mais se réchauffant au ver et à mesure à nos épargnes pour le retour aux eaux modres à tant de lieues de la rive et de la pierre de Dublin à olympiader même jusqu'à la onzième dynastie pour atteindre ce téreintedusime Hamlaugh et à la question de l'obtention illégale par osseux un paraflamme percé et d'un garde feu baratin s'écolte alors le point encore plus saillant des penchants politiches et des poursuites en ville de notre grand-bière, El Don De Dunelli, que son bâteau fonce à s'enfoncer 4.085 dans le boutil de la riviére et que tous ses crew oisiers s'ensouchent bloqués dans le fourre tout des mers ! qui, quand dans le noir de votre ongle de pied, monsieur, d'être pris par erreur en embuscade par l'un des uddahveddahs, et aussi près qu'à n'y rien faire, mdame, de perdre la main par cas haut quand le fâcheux cmentufais avec Pierre le Peintre réclamé pour l'enquiller, pratiquait régulièrement la première des libertés primaires et imprescriptibles du sujet pacifique en circulant soyez Britiches, les gars, jusqu'à votre baleine de panse et lâchez une chance au chopain ! le long de l'une de nos trafahrtières semitaires improhibennièmes, ouvertes à buggies et bécanes, pour marcher, sur la route du Parc Wellington, avec la canivette ou le cancanostrum du quaker sous son auxtre et son alpenstuc dans sa main rouge, un exercice hautement recommandé, ou, numéro deux de nos acta legitima plebeia, sur le bord attention à la dérobade d'un homme quand il veut! d'une prise de place sur un siège public, à quoi, sauf pour Butt par le plus esterne mais tout va à l'ouest! des ponts de bassin noir, comme protestation publique et vice naturlique, sans intention d'ennuyer non plus, étant louangé avec plein de grâces pour la tourterelle dénuée de rage et le boaconstrictor ceint de frayeur et d'autant plus bien bravement tout ravi, ce qu'il était, d'avoir le temps qu'il fait pour les autres. Mais pour revenir à l'atlantique et à la Phénicie Propre. Comme si ça ne devait pas être assez pour qui que ce soit mais peu de place, et encore, avait été frayée pour résoudre l'énigme du crime à ne pas être quand on est un enfant de Maam, Le Roi Festé, d'une famille depuis longtemps honorablement associée aux industries de la plume et du goudron, qui fit une allocution au vieux Mayo plomanche des Saxons au cur d'un district où la bibine avait une réputation affreuse, fut subséquemment revighourrah au Vieux Bailey pour les calendes de Mars, sous l'accusation montée de manière incompatible sous ses deux aspects de chaque point de vue équinoxieux, la quête d'un gars étant de l'autre la séquelle personne c'est vu dire, faire voler des chapapeaux sortant de sa silhoupette et matiérant des fesses parmimmondeste ses forces sur le champ. Oyeh ! Oyeh ! Quand le prisonnier, trampé méthulé, apparut en cale sèche, de manière appatente ambrosiauréalisé, comme la Karikature en Korduroy de Kersse, portant, à côté de taches, des accrocs et des pièces, sa chemise de combat, bretelles de paille, suroît et des pensalponses tirebouchonnées de policier, tout tiré du vrai comme il avait exprès déchiré toutes ses commandes en cymtrymanx dans le marmotemps, 4.086 déposant pour son exution avec toutes les fluors sparolsemées de la vocabulerie royale irlandaise la façon dont toute la suinte tripiézite paddierrejactemartin et tout le sulficte de cuypras était tombé de lui quatzi sans pouvoir en rendre compte comme les chrystallisations d'Alum sur Eveille tandis qu'il essayait d'en se taquer le feu à lui tout cell, en feacht il ruisselait comme il y trouva à sefficeler pour un poêlon commaltement car il avait fear de la frède pluyie la couronne a fait la tentative P.C. Robort de montrer que Roy, elois Crobar, autrefois connu comme Meleky, incarnant un garçon ramoneur, frotta quelque poix de l'animée luviale puitourbière su'sa face, ses ploues et sa puche, avec une clane tourfe comme meilleur moyen de se déguiser et s'en fut à la foire de la chatigorie blanc moyen au Gué de Boue un jour à Thor, feishtes à Pieur et Pôle, sous les noms mal assumés de Fest au Roi Ty et Rabroc choisis par lui et Anthoine dans un annuard tulifainique, et dit l'elléguante, avec un porc pédigré sans certificat et une hyacinthe. Ils étaient sur cette mer là vers la plaine d'Ir neuf cent neuvante neuf ans et ils n'ont jamais ciré de fente ou cessé de paddyauger régulièrement jusqu'à ce qu'ils mettent à terre leurs deux égos et un trifoirien, parmad chameau et bourricot, barbe grise et nourrisson, de la tempête de boue. Le rassemblement convoqué par les Ouraganisations Anglo-culturelles et Prépostorales, pour aider le gadouilleux irlandais à regarder son frère Dane en face et y assistait grâce à Larry un grand nombre de gens, de christies et totems de juifs, au despit du déluge, était distinctement de la sorte dispersière quand le ventredieubriqué dont il ne pouvait rien tirer de bon, après faire le coq de la bois menade à travers quelques reprises battues pour la fraiche mangea un peu de l'adoreille, la pille ayant vendu plus tard le gentilchon qui paye loyer à cause qu'elle, sur de Francie, c'est-à-dire, mangeait tout un côté de sa à l'animal souille, sur une Rue de lutte, Qui Sta Troia, afin de s'acquitter, hisse sa relique, six doublonnes quinze de ses arriérés, c'est pas au vilain que pige-gargouille fait rente. Une preuve remarquable en anon été donnée, antan, par un témoin optotorhinolaryngologique, que les vissés à la chapelle wesleyenne soupçonnaient d'être un curé de compagne tenant passinoir en feuillées laïques, au situat de GOG 0, Cabinet Médical, qui, sur lupon de reposer sa patène riz vert de paix et ayant été doux d'un coût prévenu quyawne baille pas sur le gril, 4.087 sourit il avait eu un bon coup de tampon en se séparant de Mme Molroe le matin et fit remarquer à son éliciteur sous ses moustaccents morses dédindonnedieu! qu'il dormait en toute bonafides et qu'il serait là pour commémorer complotement le shlinq novembre, chapeaudanlalice, O rudi, qui, avec les jiboulées de Junon et les dates décaulent de lanxiété, allait, plaise au Faiseur de pluie, aux décembes dans les éphémérides de l'histoire profane, toutes un avec Tournay, Yetsoslay et Temorah, et une chose qui frapperait porchiculièrement un personne douée de pouvoirs observationnels si amèrement éprouvés que Sam, âme et Mouffette, bien que leur ny ait pas de raisonner pourquoi, la chose frappante à son sujet était qu'il était patrifié de voir, entendre, goûter et sentir, à son moment de la nuit, comment Hyacinthe O'Donnell, licencié en arts, décrit dans le calendrier comme un malaxeur et un peintre en mots, avec une part de sivispacem une fourche à fumier selon le gaèl tact sur le pré de la foire à vingt quatre heures sonnantes qui étaient attendues la bullycassidy qui friedhoffre ! pour mettre à sac et à souk, suriner et sassiner d'une seule main deux autres des vieux rois, Jayi fix du Grandvent et Rugis O'Crian, Junior, tous deux enfants de change, non lucalisés, sans adresse ni communicables, entre lui et qui, toujours depuis les vallopes avant la Mise de Louise, du mauvais sang existait sur le terrain de la bourse où te se repasse largent du boer sur le boef pource qu'il avait d'abord partagé ses cheveux de bavour polmaire en deux, ou parce qu'ils avaient renardé la rosée andt fourmissant six gars là à souper sur une grouse dans une novelette, ou parce qu'ils ne pouvaient pas dire massé muet et gourd moussu. Les litispendants, dit-il, congsistes et donauds, rois des arans et les dalkeys, rois de boue et de tory, même le roi dieu bouc de Killorglin, furent aiguillonnés par leurs supporteurs sous la forme de femmes bettières à la chevelure tendue à larc d'une rougeur Carrothagénuine, agitant des pettises cramoisies et criant du haut de la tour d'Isod. Il y eut des cris sortant des trapus dans le prétoire et des macdublines sur le naquielletré de aie tête au bang de Banagher, Mick, sieur ! Prodouise O'Donnier. Aa! Exhibez ses reliques! Bu! Pousez le ton que mor ! Donnez à la lèvre l'esse! Mais ça se déjute en Cour de Scène obscure de l'Hommemort à travers le contre-interrogatoire du testis cémenteur que quand et où ce schlass des schlass l'embuche arbripartite avait été déposé pour dire en gros débit, autour de demi heures entre crépuscle en aube, 4.088 en Heure Mouillenne Européique de Canalea</t>
+          <t>Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart J'ai grandi parmi des blancs Il y a peu d'arabe dans ma classe Au début je m'en bas la race Peu à peu ça prend de la place On me regarde différemment On me pousse à jouer un rôle, inconsciemment Adolescent s'construit dans le regard des gens Et on me regarde comme un méchant Ok, je vais leur en donner J'ai passé moitié de ma vie à jouer un rôle, l'autre moitié à l'abandonner J'vois qu'ils ont peur et je compte pas les rassurer Non, j'compte même à m'en amuser Quitte à risquer d'oublier Qui je suis Plus je grandi, plus je sens mon âme s'user Mes amis c'est ceux qui m'parle vraiment Moi pas à l'arabe et ça se voit carrément Alors je fais l'tri, je choisi Moi c'est les gens que j'étudie Un regard dans son regard, on s'est tout dit J'me souviens j'avais honte auprès des miens L'impression d'être trop bien quand eux galère Aujourd'hui je me rencontre que c'était rien qu'une zone pavillonnaire Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Plus tard j'ai fait la paix avec moi même J'ai compris, j'suis qui j'suis Personne d'autre vie ma vie Et ça c'est précieux Ça s'apprécie, ouais C'est chacun sa mission Rebeu des pavillons et puis j'ai déménagé Sur paname, porte de cli, Port-Royal J'voulais faire comme mon daron Donc j'suis venu sans un rond J'ai charbonné sans arrêt Et j'connais des gens d'la rue J'en connais qui mange dans le marais Parfois c'est les même d'ailleurs C'est ça qui me fait bien marrer Quand on surprend l'adversaire, feinte de corp, passement de jambe Transversale, changement de coté Ils sont tout déboussolé quant ils voient Younes sans jogging Parler mieux que Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Donc j'me suis pris pour un voyou avec ma gueule d'arabe, ouais J'ai volé, j'ai vendu, j'ai trainé en bande car c'est ce que font les gueules d'arabe Fallait bien que j'm'y essaie C'était mon rôle, c'était dans tous leurs regards J'me suis battu, j'aimais même pas la bagarre À part en dernier recours J'arrive en retard en cours Elle m'parle comme ci j'étais le gérant du four Tu m'as enfermé dans un rôle, mais j'ai trouvé les clefs Sur leur télé ça pue ça mère, j'suis venu crever l'écran Tu peux être ce que tu veux, sans renier qui tu es Devenir sois même c'est long ma gueule C'est pour ça qu'on vit longtemps Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Quatrième Rapport</t>
+          <t>Rentre dans le Cercle - Saison 2 : Épisode 8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Que des chefs-d'uvre à la Tarantino J'suis avec mes scarlas, jsuis avec mes bandits Ta pute me parle pas, le succès me fait bander En totale indé du mardi au lundi Toute la journée, mes rêves viennent me hanter Fuck l'industrie, fuck la radio, fuck la télé Faut que j'sois plus speed charbonner comme un intello Que des chefs-d'uvre à la Tarantino Pour le moment, on ne fait que trottiner Le jogging est jdid, la démarche assurée Faire du liquide, mettre bien la surette Principes s'arrêtent quand l'intérêt grandit Facile d'être honnête quand ça change pas ta vie Voiture banalisée et le flic me mate Il me fait chier comme trafic le matin Rilès a du biff donc c'est lui qui paie On faisait des clips sans être équipés Chacun son rythme comme sortie du ciné Chacun son rythme pour trouver dulcinée Si jai pas percé, cest que j'le mérite pas Jvais pas pleurer sur les résultats C'est beau l'amour quand ça dure woo Solide comme une ossature ouais J'ai quitté la Terre pour la Lune ciao Jai quitté la Lune pour Saturne L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore L'époque est révolue, mon esprit évolue Bien sûr que je t'en ai voulu J'ai brisé son cur mais je désire son corps Donc on y est encore Elle a un boule à faire un accident À ses faveurs j'aimerais accéder J'suis excellent dans mes excès Pardonne-moi si je t'ai vexée Ils font des selfies, cherchent leur meilleur profil Ils cherchent l'amour comme le meilleur profit Adopte un mec sur Tinder Choisis-le comme un Kinder Rapide et efficace comme la 14 T'es lent et tu te la pètes comme un carrosse Ils jurent sur le Coran, finissent pas une BD, merde J'écris des textes et puis, toi, tu danses Poto, on est causes et conséquences J'déchaîne mes vers qui étaient enchaînés Ce que j'peux pas dire, bah, je vais le rapper Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le rap vive le rap ! C'est le rapport numéro 4 Alors vive le... vive le rap ! Vive le... vive le rap ! Alors vive le... vive le rap ! Vive le... vive le rap !</t>
+          <t>J'suis dans mes dièses, j'apporte la dose On sait qui dort, on sait qui mène la danse J'rallume mon teh, du bon matos Négro, t'étais pas là quand j'étais broke J'suis dans l'airport, j'te tolère pas Ma grand-mère pense que j'suis en lère-ga Niquez vos mères tous ceux qui commèrent sale J'suis en colère, gars, tu me connais pas Ta meuf est douce, elle veut droit dans sa fouf' J'vois tous mes p'tits qui jump dans la fosse J'suis dans ma trix-ma, pardon, ma puce J'me sens comme Banner, j'me sens comme Bruce, hey, hey, hey, hey J'suis dans le Uber, ils sont dans l'bus J'm'en occupe plus tard, gros, là, j'suis busy J'veux faire du bif et là, j'en veux plus Chose promise, chose due, j''prends l'cro-mi, j'pose dur Beaucoup d'thos-my dans c'truc codé', taga, j'pense plus J'suis dans mon bendo, j'attends la paye J'dois faire des euros, des dollars, hey Ils font que du copiercoller J'suis pas dans le bon pays, slay, slay J'ai mis la nitro, t'as calé Vrai négro martiniquais, sénégalais, hey Oui, tout est beau, tout est carré, hey Toi, t'étais pas prêt, à c'qu'il paraît Viens pas ici pour comparer T'inquiète pas, le succès, j'vais m'l'accaparer J'vise que le top 1, comprendra qui pourra J'oublie pas les fils de putain qu'on parlé, slay J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine, hein J'essaie de bien m'entourer, mettre de côté les J'vois la réussite comme un Grec j'sais qu'à la fin, ils voudront tous un bout Que des jaloux, des hypocrites, hein, zerma, ça débite mais gratte des oints-j Moi, fils d'immigré, toi, fils de tain-p', négro, y a du boulot, j'retrousse mes manches Pas d'ces négros à franges, j'côtoie des négros étranges D'ici, y a l'étranger, mais ici, y a les tranchées, le sang tout Négro, pas d'tête-à-tête, que des métaux Tu t'couches tard, les condés te lèvent tôt T'es venu trop tard, j'suis parti trop tôt Fais des doha et je baise tout au micro Nitro, trop de-spi, c'qui nous ralenti, c'est l'shit et la beuh Pas d'mytho auprès d'nous, pas d'p'tits cons qui pensent la rue On a à peu près tout tout tout tout vu, ils diront qu'ils ont tout tout tout tout fait Change de flow, t'as reconnu l'équipe hein, CE45, c'est chaud, ça brille, hein J'ai commencé l'rap à treize piges, à peu près, j'donnais d'jà des vertiges Des phases qui causent des litiges, rien à foutre j'suis qu'un môme un peu révolté Un môme un peu révolté qui s'envoie les flics à force de ballon au pied Un môme un peu révolté qui s'envoie les flics à force de parler de hockey ? J'fais que progresser, allez suivre, écoutez, j'vais régresser Sont morts dans le me-fil, ont le trou d'balle ouvert comme un muffin J'y rentre mon cross et ma gova, j'y rentre mon cross et mon gova Han, ok J'suis pas venu gratter, j'suis venu prendre des sous J'y suis p't-être y aller fort, j'reviens prendre beaucoup J'y vais car j'connais l'domaine, devant y a l'artiste, derrière les Sangoku Jaloux enviant quantité, normal, l'artiste est d'qualité T'as pas idée, c'est inné, moi-même, j'suis pas conscient en vérité J'suis partout sauf dans les partouzes, j'mets mes mains partout comme un cleptomane Et j't'avoue que si j'trouve la recette, j'vais pas réfléchir dix ans, je prendrai tout Nécessité nous pousse dans l'délit, malheureusement, trop souvent cause des dégâts Nécessité nous pousse dans l'délit, j'suis bon comme Messi, ils veulent faire la Evra Et pour en arriver là, il a fallu uvrer, pourtant, j'suis pas arrivé De Paris à Evreux, la ppe-fra m'a sommé, j'devais déjà atteindre le sommet Ralenti par quelques fils de pute, j'ai pa-pa-pa-pa-paniqué Ralenti par quelques fils de pute, j'ai dû m'é-m'é-m'é-m'équiper Et j'suis revenu avec des sons lourds Et des sons lourds qui sortent du four J'ai dû taffer, j'ai dû taffer J'ai dû taffer, j'vais quitter la zone J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine sentiments entiers sont coupés en deux Y a un plan, on est plein On s'aime, on se haït, on s'lave, on se salit mais on gratte mieux à deux Du plaisir au désir, t'es tenté d'nous trahir Avant ça, Judas La chance est partie, j'sais pas si elle va revenir Là, j'suis en D1, j'khalass le baveux Le dada, le dada, le taga, la beuh-beuh, du pollen dans l' Dans la merde, on s'balade, ouais, t'es où ? T'es pas là On attend des parloirs pour caler l'écho J'rentre dans la mêlée sous et , ça fait ra, ra, ra Les nous , tu tires plus à Phuket Nous, sur un coup d'tête, on monte au braco 32, j'suis à Alicante, gros traficante rentre dans la chambre, qui fait la danse du ventre La street me manque mais j'ai pas envie de rentrer Rosé, caliente, passement de jambes Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Passé glacé, pas assez brassé Je souris, j'suis fâché, j'fais l'tour du pâté Par le million, appâté, solide comme Guette mon gang, que des battants, pour faire la guerre, on est partants Les anciens, ils m'ont tout dit, moi, si j'te l'dis, on a tout fait Cur de ice, la suite au frais Je sors de la violence si j'rentre en prison Viens pas m'casser les couilles, poilu comme un bison Refait comme les seins d'ta mère si j'touche un million J'm'arrête, j'redémarre, starter, stop dans leur fion J'ai pas l'temps pour leurs conneries, j'lis les commentaires, ils m'font gole-ri sur Paris, j'ai autant d'likes qu'il y a d'grains dans mon bol de riz Hé, poussez-vous, ouais, nique ta mère et c'est tout Hein, viens pas pompez mon flow, han, la rue, la vraie, c'est nous Les BACqueux ont les ch'veux longs comme Tito, ouais Non, bats les couilles, khey, d'assumer les coups R8 V10 posé sur les roues, khey, dose Je casse la baraque, tu t'es cassé l'cul dans mon ADN, on retrouve la rue J'suis en mode éco', j'suis à gyro chargé, j'te vois plus disparu Je compte les paires, je compte les gains, ça tourne en rond comme une grosse ampèrée Si j't'ai choqué, je peux rien faire, c'est pas fait pour toi, retourne faire tes manif' On voit pas un mec sous la pluie mais on voit un mec qui a pris d'la poudre T'es bouché comme ta tuyauterie, j'rappe, j't'éblouis, appelle-moi la foudre Tu me vois, tu bouges plus comme une photo, j'suis un DZ, couleur choco Je mange des putain de resto comme dans la vie de tous les jours, hé ouais, mon gros J'rappe les images plus que la télé, khey, dose J'dis la vérité, j'suis pas iTélé, hein, khey, dose Un coup de canon pour les éclairer, han, khey, dose T'as laissé l'pilon pour les voies ferrées, khey, dose Putain, c'est chaud pour moi, ma belle, si t'as des flammes dans les yeux Ah ouais, j'assume pas, mon cur est bre-som, le tien est mieux J'suis perdu dans mes choix donc c'est Uber qui va dire adieu J'ai pas dormi dans la soie, j'vaux plus cher, j'suis capricieux J'me fais pas recale parce que j'vais pas en boîte On n'est pas potes, t'es là que pour les snaps Superficiels comme les hommes et les sapes Artificiel comme le taf à la fac Si le monde va vite, c'est qu'on est tous pressés Si tu paniques, c'est que t'es trop stressé J'prends du recul pour aller de l'avant Petit, recule, tu pourrais te faire laver Quand j'pars en couilles, mes gars me rassurent Quand j'pars à ied-p, ils me ramènent en voiture On a fait du mal, on va pas s'en vanter On a du vécu alors pourquoi s'inventer ? T'effaces l'historique, t'effaces pas tes péchés Toujours en retard, j'fais que me dépêcher Tu fais le fou car t'espères qu'on sépare On sait tout mais tu crois qu'on sait pas J'lui envoie des mots doux même si c'est démodé J'évite les on-dit et les soirées mondaines J'bois pas d'alcool, j'fume pas de beuh Ça, c'est ma vie, toi, fais comme tu veux J'suis sur tes côtes, c'est que j'suis à tes côtés On peut répéter, répéter, répéter Mais on entend que ce qu'on peut écouter Voilà pourquoi les profs sont dégoûtés Pavé dans la mare ou goutte d'eau dans la mer T'apprécies le caviar quand t'as goûté la merde On est causes de conséquences Tout est écrit, même les coïncidences J'me laisse aller comme descente en vélo Tenue de soirée, j'mets jogging en velours J'aime pas les keufs, négro, c'est culturel Mais j'fais effort comme intellectuel On est différents mais on se respecte En cas de différend, y a pas de spectacle J'vois pas mes potes une semaine, ils me manquent Aujourd'hui du foot, demain de la pétanque J'rêvais de voler et, maintenant, j'ai le vertige J'ai le droit de voler quand ils refusent le partage J'suis un grand rappeur mais j'suis le seul à le savoir Partage ton plat et il change de saveur J'ai qu'une parole mais plusieurs langages J'ai qu'une daronne et elle prend de l'âge Milliers de rêves et parfois j'paresse Milliers de kheys et parfois j'parais seul Depuis Rilès, gros, j'ai plein de notifs Des gens me parlent mais j'connais le motif On devient séduisant quand on fait ce qui nous plait Tu gagnes ou t'apprends, tu peux jamais te louper Pourquoi remettre à demain ce qu'on peut faire tout de suite ? Pourquoi remettre à quelqu'un ce qu'on peut faire tout seul ? L'ai-je échappé belle ou s'est-elle échappée ? On se faisait courser, mon pote s'est fait chopé Dans ma te-tê, j'ai des questions qui fusent Comme pour un feu d'artifice La médiocrité je refuse Comme un père avec son fils J'veux reconnaissance, moi, j'veux pas être connu Y a une différence, est-ce que tu la connais ? On te prend pas au sérieux quand t'es un rappeur Moi, j'suis chercheur, c'est mon premier rapport Yoon on the Moon, hein C'est du pe-ra, pas un sketch et j'rentre dans le Cercle comme un switch, frère, breh !</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quel bail</t>
+          <t>Septième Rapport</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Lucas est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Tu veux savoir cest quoi les bails ? Jsuis entre deux mondes et jai trop la dalle Elle est sur la ligne, jai pas poussé la balle, le repas est prêt, jai pas posé la table J'viens dSeine-Maritime et personne marrêtera, d'la salle du coin à la Kindarena Jreçois pas dprod donc j'vais les chercher, les beatmakers, gros, je vais les faire chier Jfaisais de la musique dans mon coin et y avait des gens qui smoquaient Ils seront jamais dans mon camp mais maintenant, cest mes copains Kinkinkin, trop des barres, tiens, tiens, tiens, jprends un vélo Uber Facture, acteur, la vie drappeur, jvois plus ma mif, quelle vie dbâtard Baskets toutes neuves, vieux manteau Moi, jfais lson, toi, les commentaires Retournée dans la lulu, jvais pas mendier sur Ulule Jsuis à Paris comme au boulot, à Rouen comme à la maison chez moi Embrouille entre potos, jsuis du côté de la raison Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Carlo est au courant Jmonte dans lauto, jle check et il me dit en démarrant Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Je suis pas riche, jai un peu plus de maille, si jfais pas gaffe, je retombe sur la paille Jfais plus lservice, jfais plus la caisse, dix euros dlheure, cest plus la peine Cent pompes par jour comme Saitama, il tfait la cour comme sil taimait Lactivité entraîne lactivité, inspire-toi mais faut pas imiter Les journées sont longues, les nuits sont courtes, les projets sont épicés Plein les poches, Médicament, le son est déguisé Ça sent la percée, oui, je laperçois et moi, perso, je ne suce personne Jrappe ce que je vis, jfais ce que je veux, jrappe dans lTGV, tu mas déjà vu Studio, photos, interviews, contrat, stylo, intérêts Jtire mon épingle du jeu, jmène la danse comme le DJ Nabil Anis, rue Mouffetard, chicha ethay, jrentre tard Jmontre peu, je fais beaucoup, dplus en plus fort comme Goku Un jour, jrentrais chez moi, jétais plutôt dbonne humeur Je v'nais dfrauder le train sans mfaire péter par les leurs Donc jarrive à la gare de Rouen, mon pote Leone est au courant Il est pas là, il est retard hahaha Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning Wesh mon reuf, cest quoi les bails ? Facture, acteur, la vie drappeur Wesh mon reuf, cest quoi les bails ? Jvois plus ma mif, quelle vie dbâtard Wesh mon reuf, cest quoi les bails ? Train, RDV, casting Wesh mon reuf, cest quoi les bails ? Tournage, rétro-planning</t>
+          <t>007 j'arrive comme un headshot On mentend mieux que toi-même quand je chuchote 5 dans l'auto 5 dans la couchette On aide ta daronne a porter la poussette Lavenir est vague je surfe dessus Jsuis pas prêt à tout pour faire des sous Jveux rester décent, lciel fait des dessins Cest le Seigneur là-haut qui nous envoie des signes Jreviens plus fort après période de doute Jai trop la dalh comme après match de foot On gagnera, sans faire de faute On gardera, serrés nos futs Jattends rien des autres pour ne pas être déçu Plus j'fais des fautes plus je deviens précis Jattends rien des autres le reste c du bonus Jlis juste mes notes le reste cest du tonus On pense pas à écrire on écrit ce qu'on pense J'fais le bien le mal et le tout se compense Jai choisi la banque j'ai choisi mes complices Jvais voir ma tante jlui fais plaiz quand je passe On na pas raté l'école mais l'école nous a raté Pas intéressé donc j'suis parti rapper Jsuis super fort et j'fais même pas exprès Tu kiff les rapports, cest qu'un extrait ! Quand j'étais petit Jvoulais faire les grands Maintenant que j'suis grand Jvoudrais faire comme les petits Lproblème cest que jveux tout faire en même temps Mais en même temps cest ma force aussi Jvous remercie pour rentre dans lcercle Prochaine étape on fait Colors show Tu veux la suite tiens lrapport 7 On brûle les étapes car on est trop chaud Les rues sont vides comme à l'heure du ftor Les vainqueurs écrivent et racontent l'histoire Toutes sorte de bolide Jpars faire une ballade Toutes sortes de bobines de Rouen à Panam Ma meuf et mon ex seraient de très bonnes copines j'ai des copains kabyles et des copains habiles Jaime quand l'ascenseur est la quand j'arrive Quand on sconnait bien et que tu mraconte ta ive Jaime pas les hipster, ni Hollister Jaime pas lépicier, ni les contrôleurs Jaime les mangas, les lire à la Fnac Jaime quand mes gars, mappellent à la fenêtre Jaime le rap, jaime la campagne Jaime pas la fac encore moins la comptable Jfais plaisir comme de largent dans des vieilles poches Bizarrement j'suis distant avec mes proches Pour que ça me tombe dessus, jme suis mis en dessous J'suis moche comme Jay z où est Beyoncé ? Jsuis dans lnégatif la moitié de l'année Quand j'suis actif jle fais pas qu'à moitié Jai mouillé le maillot, jai séché les cours Jai lavé la prod, puis je l'ai plié Le bon pera, cest comme l'amour La forme qui attire, le fond qui fait rester</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>REBEU DES PAVILLONS</t>
+          <t>Sixième Rapport</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart J'ai grandi parmi des blancs Il y a peu d'arabe dans ma classe Au début je m'en bas la race Peu à peu ça prend de la place On me regarde différemment On me pousse à jouer un rôle, inconsciemment Adolescent s'construit dans le regard des gens Et on me regarde comme un méchant Ok, je vais leur en donner J'ai passé moitié de ma vie à jouer un rôle, l'autre moitié à l'abandonner J'vois qu'ils ont peur et je compte pas les rassurer Non, j'compte même à m'en amuser Quitte à risquer d'oublier Qui je suis Plus je grandi, plus je sens mon âme s'user Mes amis c'est ceux qui m'parle vraiment Moi pas à l'arabe et ça se voit carrément Alors je fais l'tri, je choisi Moi c'est les gens que j'étudie Un regard dans son regard, on s'est tout dit J'me souviens j'avais honte auprès des miens L'impression d'être trop bien quand eux galère Aujourd'hui je me rencontre que c'était rien qu'une zone pavillonnaire Rebeu des pavillons j'ai grandi dans une belle maison Hamdoullah, mes parents été au charbon, ils ont rempli la mission J'en suis fier, quand j'étais petit pourtant je me suis posé des questions C'est bizarre, qu'est c'que j'fous tranquille ici quand tous mes congénères sont dans le tier-quart Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Plus tard j'ai fait la paix avec moi même J'ai compris, j'suis qui j'suis Personne d'autre vie ma vie Et ça c'est précieux Ça s'apprécie, ouais C'est chacun sa mission Rebeu des pavillons et puis j'ai déménagé Sur paname, porte de cli, Port-Royal J'voulais faire comme mon daron Donc j'suis venu sans un rond J'ai charbonné sans arrêt Et j'connais des gens d'la rue J'en connais qui mange dans le marais Parfois c'est les même d'ailleurs C'est ça qui me fait bien marrer Quand on surprend l'adversaire, feinte de corp, passement de jambe Transversale, changement de coté Ils sont tout déboussolé quant ils voient Younes sans jogging Parler mieux que Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Donc j'me suis pris pour un voyou avec ma gueule d'arabe, ouais J'ai volé, j'ai vendu, j'ai trainé en bande car c'est ce que font les gueules d'arabe Fallait bien que j'm'y essaie C'était mon rôle, c'était dans tous leurs regards J'me suis battu, j'aimais même pas la bagarre À part en dernier recours J'arrive en retard en cours Elle m'parle comme ci j'étais le gérant du four Tu m'as enfermé dans un rôle, mais j'ai trouvé les clefs Sur leur télé ça pue ça mère, j'suis venu crever l'écran Tu peux être ce que tu veux, sans renier qui tu es Devenir sois même c'est long ma gueule C'est pour ça qu'on vit longtemps Avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille Ouais, avant j'étais mignon, mais c'était le bac à sable Puis ils m'ont pris pour un voyou avec ma gueule d'arabe Mes parents sont venues en France, ils étaient sur la paille Aujourd'hui je fais la musique et en plus j'fais de la maille</t>
+          <t>J'suis rentré dans l'cle-cer comme une feuille dans l'classeur C'est devenu facile disons que c'est naturel C'était diffcile on m'disait là tu rêves J'vends des tee shirts j'vends des cd Y a que pour mes projets que j'suis assidu Même budget serré tu peux faire une série Faut rester serein, croire en ses rêves J'mordille tes seins comme si j'voulais du lait On aura d'la peine une fois sortis du lit C'est quand rien ne va plus que j'ai envie de l'appeler Quand rien ne va plus j'ai envie d'rapper J'veux pas perdre ma vie avant même de mourir J'crois en mes rêves j'suis resté téméraire Taff de bureau j'en ai trop peu l'envie J'suis infidèle j'veux que tromper l'ennui Attendre la fin d'lannée Pour moi c'est pas la vie J'me fous d'la fin d'l'année Pour moi c'est l'début d'ma vie Tu me donne pas envie comme les fruits dans l'métro Chacun sa vie c'est pas chronométré On n'se choisit pas à la couleur de peau Mes amis ont des valeurs du respect J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires Pas de mariage mais on bouge en cortège Plein de messages donc on bouge à carthage Ouvre les volets j'aime la lumière du jour J'vais m'en aller loin d'ces gens qui font genre J'préfère parler seul que parler avec toi Bloqué sur le seuil on passera par les toits On fait tout nous même on est autodidacte Pas besoin de ton prof pas besoin de la fac Je fous le zbeul comme un geste technique Réalisé par un nouveau dans l'équipe Depuis qu'ils font carrières ils sont à chié Répondent à la demande du marché J'parle pas d'un problème avant qu'il soit réglé J'tavance de la 3em je saurais si t'es réglo Je prends pas de drogue qu'elle soit dur ou douce Qu'elle vienne du Maroc ou d'Europe de l'Est Et les sites pornos nous ont volés l'amour Après l'amour j'ai ce goût amer Du coup elle pleure Elle pensait me plaire Passer les pleurs Il faut panser nos plaies J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Rentre dans le Cercle - Saison 2 : Épisode 8</t>
+          <t>Subliminal</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>J'suis dans mes dièses, j'apporte la dose On sait qui dort, on sait qui mène la danse J'rallume mon teh, du bon matos Négro, t'étais pas là quand j'étais broke J'suis dans l'airport, j'te tolère pas Ma grand-mère pense que j'suis en lère-ga Niquez vos mères tous ceux qui commèrent sale J'suis en colère, gars, tu me connais pas Ta meuf est douce, elle veut droit dans sa fouf' J'vois tous mes p'tits qui jump dans la fosse J'suis dans ma trix-ma, pardon, ma puce J'me sens comme Banner, j'me sens comme Bruce, hey, hey, hey, hey J'suis dans le Uber, ils sont dans l'bus J'm'en occupe plus tard, gros, là, j'suis busy J'veux faire du bif et là, j'en veux plus Chose promise, chose due, j''prends l'cro-mi, j'pose dur Beaucoup d'thos-my dans c'truc codé', taga, j'pense plus J'suis dans mon bendo, j'attends la paye J'dois faire des euros, des dollars, hey Ils font que du copiercoller J'suis pas dans le bon pays, slay, slay J'ai mis la nitro, t'as calé Vrai négro martiniquais, sénégalais, hey Oui, tout est beau, tout est carré, hey Toi, t'étais pas prêt, à c'qu'il paraît Viens pas ici pour comparer T'inquiète pas, le succès, j'vais m'l'accaparer J'vise que le top 1, comprendra qui pourra J'oublie pas les fils de putain qu'on parlé, slay J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine, hein J'essaie de bien m'entourer, mettre de côté les J'vois la réussite comme un Grec j'sais qu'à la fin, ils voudront tous un bout Que des jaloux, des hypocrites, hein, zerma, ça débite mais gratte des oints-j Moi, fils d'immigré, toi, fils de tain-p', négro, y a du boulot, j'retrousse mes manches Pas d'ces négros à franges, j'côtoie des négros étranges D'ici, y a l'étranger, mais ici, y a les tranchées, le sang tout Négro, pas d'tête-à-tête, que des métaux Tu t'couches tard, les condés te lèvent tôt T'es venu trop tard, j'suis parti trop tôt Fais des doha et je baise tout au micro Nitro, trop de-spi, c'qui nous ralenti, c'est l'shit et la beuh Pas d'mytho auprès d'nous, pas d'p'tits cons qui pensent la rue On a à peu près tout tout tout tout vu, ils diront qu'ils ont tout tout tout tout fait Change de flow, t'as reconnu l'équipe hein, CE45, c'est chaud, ça brille, hein J'ai commencé l'rap à treize piges, à peu près, j'donnais d'jà des vertiges Des phases qui causent des litiges, rien à foutre j'suis qu'un môme un peu révolté Un môme un peu révolté qui s'envoie les flics à force de ballon au pied Un môme un peu révolté qui s'envoie les flics à force de parler de hockey ? J'fais que progresser, allez suivre, écoutez, j'vais régresser Sont morts dans le me-fil, ont le trou d'balle ouvert comme un muffin J'y rentre mon cross et ma gova, j'y rentre mon cross et mon gova Han, ok J'suis pas venu gratter, j'suis venu prendre des sous J'y suis p't-être y aller fort, j'reviens prendre beaucoup J'y vais car j'connais l'domaine, devant y a l'artiste, derrière les Sangoku Jaloux enviant quantité, normal, l'artiste est d'qualité T'as pas idée, c'est inné, moi-même, j'suis pas conscient en vérité J'suis partout sauf dans les partouzes, j'mets mes mains partout comme un cleptomane Et j't'avoue que si j'trouve la recette, j'vais pas réfléchir dix ans, je prendrai tout Nécessité nous pousse dans l'délit, malheureusement, trop souvent cause des dégâts Nécessité nous pousse dans l'délit, j'suis bon comme Messi, ils veulent faire la Evra Et pour en arriver là, il a fallu uvrer, pourtant, j'suis pas arrivé De Paris à Evreux, la ppe-fra m'a sommé, j'devais déjà atteindre le sommet Ralenti par quelques fils de pute, j'ai pa-pa-pa-pa-paniqué Ralenti par quelques fils de pute, j'ai dû m'é-m'é-m'é-m'équiper Et j'suis revenu avec des sons lourds Et des sons lourds qui sortent du four J'ai dû taffer, j'ai dû taffer J'ai dû taffer, j'vais quitter la zone J'vais quitter la zone mais pas comme un rejeté J'm'en vais chercher le trône et l'ramener au quartier Mon rap en dit long, à c'qu'il paraît, je sais pas rapper Moi, je dis Non, non, n'ayez pas la haine sentiments entiers sont coupés en deux Y a un plan, on est plein On s'aime, on se haït, on s'lave, on se salit mais on gratte mieux à deux Du plaisir au désir, t'es tenté d'nous trahir Avant ça, Judas La chance est partie, j'sais pas si elle va revenir Là, j'suis en D1, j'khalass le baveux Le dada, le dada, le taga, la beuh-beuh, du pollen dans l' Dans la merde, on s'balade, ouais, t'es où ? T'es pas là On attend des parloirs pour caler l'écho J'rentre dans la mêlée sous et , ça fait ra, ra, ra Les nous , tu tires plus à Phuket Nous, sur un coup d'tête, on monte au braco 32, j'suis à Alicante, gros traficante rentre dans la chambre, qui fait la danse du ventre La street me manque mais j'ai pas envie de rentrer Rosé, caliente, passement de jambes Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Tchiki tchiki mais dans deux jours, j'décampe, et j'étais gang Passé glacé, pas assez brassé Je souris, j'suis fâché, j'fais l'tour du pâté Par le million, appâté, solide comme Guette mon gang, que des battants, pour faire la guerre, on est partants Les anciens, ils m'ont tout dit, moi, si j'te l'dis, on a tout fait Cur de ice, la suite au frais Je sors de la violence si j'rentre en prison Viens pas m'casser les couilles, poilu comme un bison Refait comme les seins d'ta mère si j'touche un million J'm'arrête, j'redémarre, starter, stop dans leur fion J'ai pas l'temps pour leurs conneries, j'lis les commentaires, ils m'font gole-ri sur Paris, j'ai autant d'likes qu'il y a d'grains dans mon bol de riz Hé, poussez-vous, ouais, nique ta mère et c'est tout Hein, viens pas pompez mon flow, han, la rue, la vraie, c'est nous Les BACqueux ont les ch'veux longs comme Tito, ouais Non, bats les couilles, khey, d'assumer les coups R8 V10 posé sur les roues, khey, dose Je casse la baraque, tu t'es cassé l'cul dans mon ADN, on retrouve la rue J'suis en mode éco', j'suis à gyro chargé, j'te vois plus disparu Je compte les paires, je compte les gains, ça tourne en rond comme une grosse ampèrée Si j't'ai choqué, je peux rien faire, c'est pas fait pour toi, retourne faire tes manif' On voit pas un mec sous la pluie mais on voit un mec qui a pris d'la poudre T'es bouché comme ta tuyauterie, j'rappe, j't'éblouis, appelle-moi la foudre Tu me vois, tu bouges plus comme une photo, j'suis un DZ, couleur choco Je mange des putain de resto comme dans la vie de tous les jours, hé ouais, mon gros J'rappe les images plus que la télé, khey, dose J'dis la vérité, j'suis pas iTélé, hein, khey, dose Un coup de canon pour les éclairer, han, khey, dose T'as laissé l'pilon pour les voies ferrées, khey, dose Putain, c'est chaud pour moi, ma belle, si t'as des flammes dans les yeux Ah ouais, j'assume pas, mon cur est bre-som, le tien est mieux J'suis perdu dans mes choix donc c'est Uber qui va dire adieu J'ai pas dormi dans la soie, j'vaux plus cher, j'suis capricieux J'me fais pas recale parce que j'vais pas en boîte On n'est pas potes, t'es là que pour les snaps Superficiels comme les hommes et les sapes Artificiel comme le taf à la fac Si le monde va vite, c'est qu'on est tous pressés Si tu paniques, c'est que t'es trop stressé J'prends du recul pour aller de l'avant Petit, recule, tu pourrais te faire laver Quand j'pars en couilles, mes gars me rassurent Quand j'pars à ied-p, ils me ramènent en voiture On a fait du mal, on va pas s'en vanter On a du vécu alors pourquoi s'inventer ? T'effaces l'historique, t'effaces pas tes péchés Toujours en retard, j'fais que me dépêcher Tu fais le fou car t'espères qu'on sépare On sait tout mais tu crois qu'on sait pas J'lui envoie des mots doux même si c'est démodé J'évite les on-dit et les soirées mondaines J'bois pas d'alcool, j'fume pas de beuh Ça, c'est ma vie, toi, fais comme tu veux J'suis sur tes côtes, c'est que j'suis à tes côtés On peut répéter, répéter, répéter Mais on entend que ce qu'on peut écouter Voilà pourquoi les profs sont dégoûtés Pavé dans la mare ou goutte d'eau dans la mer T'apprécies le caviar quand t'as goûté la merde On est causes de conséquences Tout est écrit, même les coïncidences J'me laisse aller comme descente en vélo Tenue de soirée, j'mets jogging en velours J'aime pas les keufs, négro, c'est culturel Mais j'fais effort comme intellectuel On est différents mais on se respecte En cas de différend, y a pas de spectacle J'vois pas mes potes une semaine, ils me manquent Aujourd'hui du foot, demain de la pétanque J'rêvais de voler et, maintenant, j'ai le vertige J'ai le droit de voler quand ils refusent le partage J'suis un grand rappeur mais j'suis le seul à le savoir Partage ton plat et il change de saveur J'ai qu'une parole mais plusieurs langages J'ai qu'une daronne et elle prend de l'âge Milliers de rêves et parfois j'paresse Milliers de kheys et parfois j'parais seul Depuis Rilès, gros, j'ai plein de notifs Des gens me parlent mais j'connais le motif On devient séduisant quand on fait ce qui nous plait Tu gagnes ou t'apprends, tu peux jamais te louper Pourquoi remettre à demain ce qu'on peut faire tout de suite ? Pourquoi remettre à quelqu'un ce qu'on peut faire tout seul ? L'ai-je échappé belle ou s'est-elle échappée ? On se faisait courser, mon pote s'est fait chopé Dans ma te-tê, j'ai des questions qui fusent Comme pour un feu d'artifice La médiocrité je refuse Comme un père avec son fils J'veux reconnaissance, moi, j'veux pas être connu Y a une différence, est-ce que tu la connais ? On te prend pas au sérieux quand t'es un rappeur Moi, j'suis chercheur, c'est mon premier rapport Yoon on the Moon, hein C'est du pe-ra, pas un sketch et j'rentre dans le Cercle comme un switch, frère, breh !</t>
+          <t>Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai les deux yeux sur la route, jai une main sur le volant Jai mis dcôté mes doutes, je viens de quitter Rouen Jai grandi dans quartier aisé puis jsuis parti de la maison Sur mes rêves, jai misé, le futur me donnera raison Pour eux, jsuis un rebeu, pour ma mère, jsuis un rubis Pour eux, jsuis amoureux, moi, je pense que cest une lubie Jaime quand tout lmonde dort, que jpilote, la musique pour copilote Jaime quand jme réveille, quon arrive, la tête encore pleine de rêves Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai une main sur le volant, jai les deux yeux sur le rivage Une main qui fend le vent, dans le rétro, y a mon village Avec mon kho dans lauto, on se balade, cest lété On vit lmoment présent, on mange du poisson braisé Ma sur, cest la meilleure, cest mon frère qui me la dit Ma mère, cest mon trésor, mon père en connaît le prix Mon pote, cest mon reuf, mon reuf, cest ma famille Ma meuf, cest ma meuf et cest ma meilleure amie Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime par message subliminal</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Septième Rapport</t>
+          <t>Terminus</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>007 j'arrive comme un headshot On mentend mieux que toi-même quand je chuchote 5 dans l'auto 5 dans la couchette On aide ta daronne a porter la poussette Lavenir est vague je surfe dessus Jsuis pas prêt à tout pour faire des sous Jveux rester décent, lciel fait des dessins Cest le Seigneur là-haut qui nous envoie des signes Jreviens plus fort après période de doute Jai trop la dalh comme après match de foot On gagnera, sans faire de faute On gardera, serrés nos futs Jattends rien des autres pour ne pas être déçu Plus j'fais des fautes plus je deviens précis Jattends rien des autres le reste c du bonus Jlis juste mes notes le reste cest du tonus On pense pas à écrire on écrit ce qu'on pense J'fais le bien le mal et le tout se compense Jai choisi la banque j'ai choisi mes complices Jvais voir ma tante jlui fais plaiz quand je passe On na pas raté l'école mais l'école nous a raté Pas intéressé donc j'suis parti rapper Jsuis super fort et j'fais même pas exprès Tu kiff les rapports, cest qu'un extrait ! Quand j'étais petit Jvoulais faire les grands Maintenant que j'suis grand Jvoudrais faire comme les petits Lproblème cest que jveux tout faire en même temps Mais en même temps cest ma force aussi Jvous remercie pour rentre dans lcercle Prochaine étape on fait Colors show Tu veux la suite tiens lrapport 7 On brûle les étapes car on est trop chaud Les rues sont vides comme à l'heure du ftor Les vainqueurs écrivent et racontent l'histoire Toutes sorte de bolide Jpars faire une ballade Toutes sortes de bobines de Rouen à Panam Ma meuf et mon ex seraient de très bonnes copines j'ai des copains kabyles et des copains habiles Jaime quand l'ascenseur est la quand j'arrive Quand on sconnait bien et que tu mraconte ta ive Jaime pas les hipster, ni Hollister Jaime pas lépicier, ni les contrôleurs Jaime les mangas, les lire à la Fnac Jaime quand mes gars, mappellent à la fenêtre Jaime le rap, jaime la campagne Jaime pas la fac encore moins la comptable Jfais plaisir comme de largent dans des vieilles poches Bizarrement j'suis distant avec mes proches Pour que ça me tombe dessus, jme suis mis en dessous J'suis moche comme Jay z où est Beyoncé ? Jsuis dans lnégatif la moitié de l'année Quand j'suis actif jle fais pas qu'à moitié Jai mouillé le maillot, jai séché les cours Jai lavé la prod, puis je l'ai plié Le bon pera, cest comme l'amour La forme qui attire, le fond qui fait rester</t>
+          <t>Ouais Ouais Younes Instru Don Carlito Et la voiture démarre, jsuis sur un classico écoute Instru Don Carlito, et la voiture démarre Jsuis sur un classico jme prépare au départ Place à quatre au fond du bus, benef Personne sassoit La mort le terminus poto tout le monde descend Jfais des clips, jdonne le clap, jlis des tweets Pas de quotas dans mon équipe que des braves brefs Toute la nuit sur mon tel mes yeux sont devenus violets Tu fais le lion sur ton tel dans la vraie vie tu miaulais Parfois joublie les gens me rappellent à quoi je leur fais penser Jaime bien passer pour un con ensuite les faire danser Jrêve toute la journée la nuit jréalise mes rêves Zenith complet jme demande ce qui marrive Cest facile de dénoncer cest difficile de comprendre Facile de renoncer plus difficile de reprendre Ya des chauffards sur les ponts et sous les ponts ya plein de clochard Dans le mal ya du bon et dans lbon ya plein dconnards Chez moi tout le monde sembrouille pour diriger la maison Le cur, la tête, les coups wesh dis-moi qui a raison Les adultes cest juste des enfants ayant pris de lâge Et on shabitue à tout surtout aux privilèges Jvoulais jeter mon tel jen ai acheté un autre Ouais bien joué Younes maintenant ten a deux Je sais cqui mfait du bien, au final jle fais pas Jfais crari jmen bats les reins, au fond ça mtouche un peu On peut vivre ensemble mais on meurt seuls Jte laisse sur ces pensées jai fini lmorceau Déjà huit piges quon a passé le bac Des potes seuls, des potes ont des gosses Jsuis rentré, jvois mes gars, ma miff Les années passent ya rien de neuf Elle me manque cest triste mais la fierté fait rage Et on aime prendre des risques tracés dans les virages Ya toujours rien de neuf Lintelligence ouais cest pas savoir nan Cest ce que tu fais ouais quand tu sais pas Et le silence hen cest pas se taire nan Cest écouter ouais ce que tu dis pas Younes</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sixième Rapport</t>
+          <t>TOUT COMPTE FÉE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>J'suis rentré dans l'cle-cer comme une feuille dans l'classeur C'est devenu facile disons que c'est naturel C'était diffcile on m'disait là tu rêves J'vends des tee shirts j'vends des cd Y a que pour mes projets que j'suis assidu Même budget serré tu peux faire une série Faut rester serein, croire en ses rêves J'mordille tes seins comme si j'voulais du lait On aura d'la peine une fois sortis du lit C'est quand rien ne va plus que j'ai envie de l'appeler Quand rien ne va plus j'ai envie d'rapper J'veux pas perdre ma vie avant même de mourir J'crois en mes rêves j'suis resté téméraire Taff de bureau j'en ai trop peu l'envie J'suis infidèle j'veux que tromper l'ennui Attendre la fin d'lannée Pour moi c'est pas la vie J'me fous d'la fin d'l'année Pour moi c'est l'début d'ma vie Tu me donne pas envie comme les fruits dans l'métro Chacun sa vie c'est pas chronométré On n'se choisit pas à la couleur de peau Mes amis ont des valeurs du respect J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires Pas de mariage mais on bouge en cortège Plein de messages donc on bouge à carthage Ouvre les volets j'aime la lumière du jour J'vais m'en aller loin d'ces gens qui font genre J'préfère parler seul que parler avec toi Bloqué sur le seuil on passera par les toits On fait tout nous même on est autodidacte Pas besoin de ton prof pas besoin de la fac Je fous le zbeul comme un geste technique Réalisé par un nouveau dans l'équipe Depuis qu'ils font carrières ils sont à chié Répondent à la demande du marché J'parle pas d'un problème avant qu'il soit réglé J'tavance de la 3em je saurais si t'es réglo Je prends pas de drogue qu'elle soit dur ou douce Qu'elle vienne du Maroc ou d'Europe de l'Est Et les sites pornos nous ont volés l'amour Après l'amour j'ai ce goût amer Du coup elle pleure Elle pensait me plaire Passer les pleurs Il faut panser nos plaies J'ai des choses à dire Et des choses à faire On a des choses à bea3 Mais c'est pas tes affaires J'suis au rapport 5 J'écris le numéro 6 Le rap est devenu simple J'ai trouvé la notice</t>
+          <t>Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie, mon amoureuse Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Ell est verte là, où on l'arros On est plus ensemble dpuis un bout de temps Alors pourquoi j'ai l'impression de te tromper quand je parle à une autre que toi? J'continuais de chercher un truc que j'avais déjà trouvé J'voulais l'amour, le grand le vrai il était au bout de mon nez On s'est séparé plein de fois, mais c'était jamais la fin Quand ça a été la fin, on a continué de se séparer plein de fois Ça m'rend fou depuis qu'elle a fui je parle à des filles dont je me fous J'sais plus ce que j'fais, je roule à fond, peur de la fin Y'a comme un feu qui brûle en moi mais qui s'éteint Et c'est pas une bonne nouvelle non, non Et c'est pas une bonne nouvelle non Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là, où on l'arrose Tous comptes faits Ouais tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse ouais j'la rends pas heureuse Elle dit que j'la rends pas heureuse Elle dit que j'la rends pas heureuse non, mon amoureuse non j'la rends pas heureuse, non Et l'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là où on l'arrose ouais j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs Ou plus de fleurs Non elle est verte là où on l'arrose elle est verte là où on l'arrose Tous comptes faits les comptes de fée... Tous comptes fait les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs, plus de fleurs Elle est verte là, où on l'arrose ouais Tous comptes faits, tous comptes faits, les comptes de fée c'est pas tout rose1</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Subliminal</t>
+          <t>Troisième Rapport</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai les deux yeux sur la route, jai une main sur le volant Jai mis dcôté mes doutes, je viens de quitter Rouen Jai grandi dans quartier aisé puis jsuis parti de la maison Sur mes rêves, jai misé, le futur me donnera raison Pour eux, jsuis un rebeu, pour ma mère, jsuis un rubis Pour eux, jsuis amoureux, moi, je pense que cest une lubie Jaime quand tout lmonde dort, que jpilote, la musique pour copilote Jaime quand jme réveille, quon arrive, la tête encore pleine de rêves Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime en subliminal Jai une main sur le volant, jai les deux yeux sur le rivage Une main qui fend le vent, dans le rétro, y a mon village Avec mon kho dans lauto, on se balade, cest lété On vit lmoment présent, on mange du poisson braisé Ma sur, cest la meilleure, cest mon frère qui me la dit Ma mère, cest mon trésor, mon père en connaît le prix Mon pote, cest mon reuf, mon reuf, cest ma famille Ma meuf, cest ma meuf et cest ma meilleure amie Papa dit pas grand chose, Maman voudrait que j'lui parle Moi, jme livre à p'tites doses et sur des notes de guitare Mon père mappelle, on sdit rien de spécial On sdit je taime par message subliminal</t>
+          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi le taré qui a salit le rap Quest-ce que je men bats les couilles de leur saloperie de soirées de merde Moi jveux que les petits bicravent de la drogue même à cet enfoiré de maire La liberté cest quune statue, pour lobserver je fume une plaquette H24 sur le rain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Donne un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el hanout Dahwa cest ça qui fait le goût Khouya, demande à mon soce Baroud On se barre où cet été ha des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer du zbars Ou à sembrouiller avec ces batards de hessess qui nous font ié-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tar-bas Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, Je finis par WOOGATAGA Dans les constructions élevées Le juge d'instruction il t'fait bé-tom L'maton bah il est pas là pour trelever Frisson, incitation à la revendé civile Voyous victime qui dit lagaffe d'avoir fait c'big deal Hachiche en nne-to Siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff Surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kheief, on s'la kiffe Dès qu'ya les stup on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics M'annoncent de l'argent Jrêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chef, hormis celui d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre à 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'a Biff Tannen J'irais voir l'orphelin j'lui dirais c'est pas ta mère c'est tanneurs Malheur! Faut juste une balle car nan On nest pas des mecs qui tractent! Golf R32, pneu qui bloque, vitesse brisée par la lenteur des mecs qui trottent Les mains qui tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les contron Les millions nous les compterons Ne m'écouterons que les siste-gro patron formés sur le goudron On invite les loups garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sait tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connue canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte J'pourrais être ton père, rien à perdre Quand ça braque faut qu'sa raque shab le tabac tah auber Quand faut être franc jsuis céfran Mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon quà fermer la porte de ma cellule Demain c'est loin demain c'est nul Sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune D'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Hollande bah comptez pas sur lui Demain dès l'aube à l'heure où blanchi la campagne on partira Où ça ? Oh pas très loin car pour l'instant ya pas d'dirhams Si t'a pas tu mendieras Si t'aime pas tu mentiras Des nouvelles tu m'en diras J'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a voler tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, ma profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécire Donc ma vie crotte ah putin dsa mère Et c'est chaud ahahaha WOOGATAGA On dit qu'jsuis trop deuss car ma bécane est débridée Les premiers parloirs, jmentrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre ou on n'fait pousser que dla beuh-er J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais dû m'taire lorsque le juge s'est mis à m'parler Il ma demandé est-ce que tu fumes ? J'lui ai dis plus que Bob Marley Younes, RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces batards, les matons, jouent les mafieux srab les rital 3 mojitos, j'suis khayif Jlâche une porteuse vers le matard, dis-lui elle décoffre dans ma guitare J'ressors du mitard, baffe le gradé fait demi-tour 45jours au marché dFleury crois moi Les carottes sont chères Si t'en mange une jte dis cheh Pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu jte donne 3petits et jte dis gère Demande à mon pote Souris on rêve tous dun monde meilleur Jme sens comme une fourmi quand jvois la grandeur du Seigneur Jsuis comme la chèvre de monsieur Seguin dehwa jkifferai gambadé Jaimerai toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que lchameau il critique le dromadaire Jai lil du tigre, et autour du cou jai ma panthère Cest Mister Y.O tu connais la suite Là jsuis au Sofitel tigresse tu connais ma suite Toi pourquoi tu fais lours ? Pourquoi thiberne ? Pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Jsuis dans ma grotte et comme Sopra jsuis la colombe et le corbeau Jleur ai dit cque jvoulais, que du platine et que de lor gros Dans lpeu-ra jai létiquette du traficanté Mais jme sens chez moi comme un serpent a Kaimana Grande Tout ce que jsais, cest quil faut briser les chaines Que vaut mieux rester en chien que de se comporté comme une chienne Face aux hyènes faut être un loup, on nest pas né dans un chou Face aux renards faut être lun de nous, Hougata zoo A lécole jmarchai tordu mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre OK dehwa jtinforme quà Paris cest pire quà Atlanta Sort un 11.43 tu fais courir les mecs par 30 ah Hougataga ils ont boycotté mon son Si sa marche ap dans lrap jai plus dun litron dans l'4 motion Bref jemmerde la France parce quelle écoute pas mes écrits Parce quelle ma appris que lignorance était lplus beau des mépris La, si on nique létat cest parce quils mont envoyé en son-pri Donc armé dun gros Beretta on est venu reprendre ce quil nous prit Akhi quil aille niquer leurs mères les enfants dla république Et ouais men fous dêtre vulgaire tant qujsuis suivi par mon public Nique tout le gouvernement parce quils sont là pour étouffé le talent Jle crie ouvertement quils aillent donc niquer leurs mamans La liberté elle donne pas rencart à leau chaude Et ouais un immigré au placard cest comme un trou dballe aux chiottes Jparchoque pour les braves et jleurs big up celle-ci Demande à Lass pour ldedicassé jai pas attendu quil signe à Chelsea Jsuis un dces MC qui a vendu dla gue-dro Quand jprends lmicro bah jsuis obligé dfaire du pe-pro Jsuis pas clodo mais avant den faire jen ai bu des tonneaux Jen suis devenu alcolo hé venait pas mparler Conio Sah Antonio Montana moi jrap comme Sosa Jme verrai bien à Punta Cana eh ouais jrêve que dlehssa Abderrazak el merhaoui avec un visa pour lrap français Men bas les klaouis, men fou dsavoir cque vous penser Le micro jlesquinte, jle baise NoTime Records Ta l'brelan j'te sors une quinte, tu veux t'pendre, j'te sors une corde Quand jprends lvolant cest pas pour jouer au badminton Wesh petite barrette de merde te compare pas avec la demi-tonne Dehwa pour lprochain clip faudra Paris Hilton Ouais histoire quelle mtaille une pipe parce que jsuis un peu comme Bill Clinton Fuck toutes les matonnes appelez-moi Don Corleone Jgarde la tête sur les épaules même quand jai trop picolé Ljuge cest quun batard, le proc cest juste un pd Jsuis présumé coupable donc cest pas innocent qujai plaidé Hougataga rien na foutre hépépép Pour moi lpeu-ra cest comme le foot quand jprends lstylo jécris avec mes ieds-p Ca fait fin dcrochet passement djambes suivi dun grand pont Marche pas sur lherbe elle sfume grand con retire tes crampons Nique les jambons ouais, la rue et le card-pla cest parallèle Moi quand jcroise un porc, jlui rappelle quil est pas halal Quand l'étau se resserre t'es comme un veau-cer dans le crâne d'un Doberman On veut pas voir le docteur Leserman nan nous on a besoin d'un barman Quand on va au parloir et qu'on voit Casper on devient tout pâle man Quand y a pas de pilons et bah y a pas de mal à s'faire une Pal-Mall Pour se rincer l'il on fonce à l'infirmerie, on va voir les petites infirmières on prémédite nos fourberies Moi j'fais t'miniques j'ai mal aux dents elles m'prescrivent des Efferalgan J'croise Halim, on s'tapent des barres en s'demandant on sortira quand A force de m'chercher des nois' un jour la chef en verra le gland Elle goutera ma viennoise, elle criera Oh putain c'est grand, oh c'est bon, oh c'est cool, j'veux plus que le temps s'écoule J'lui répondrai Salope, fuck aller, baisse toi, et bouffe moi les couilles Woogataga nique sa mère leur justice, j'fume le taga mais je sniff pas pour être speed moi juste je tise Parlez pas de ma rue et parlez pas de mon enfer, parlez pas de ma vie nan parlez pas de mon affaire Les frères c'est pas de ma faute si toutes leurs meufs elles veulent me ré-sse C'est parce quelles savent qu'avec oi-m à l'hôtel ça va pas néhèss Elles connaissent l'animal dahwa elles connaissent le palmarès J'représente Rébeval et qu'est-ce que j'kiff me faire lehèss Moi il me faut de l'oseille c'est à peu près tout ce qui m'intéresse J'suis faya j'plane dans les airs, j'côtoie qu'des extra-terrestres J'représente pas les suceurs, qu'veulent des bites et des caresses Moi j'rap pour les connaisseurs pour Bazou, Siabou et Karéx Les pieds encrés sur le pavé j'ai l'impression de faire du sur-place Il m'arrive que des trucs de taré j'ai l'air d'un mec perdu sur Mars Faut que j'me surpasse, là j'suis en train d'observer les terriens J'considérais les mecs comme mes frères et jai vu que pour eux j'n'étais rien Maintenant que je sais que ça les instruit j'parle plus du tout avec les cons Pour éviter de péter les plombs, bah il vaut mieux couper les ponts J'préfère être seul avec ma mère que d'être guidé par 10 blondes Après avoir côtoyé la merde, t'inquiètes j'sais qui sont les bons Au hebs les frères tenez bon y a que les matons qui restent là-bas La liberté elle est bandante tu m'crois pas caresse la barre Ahaha Woogataga faut quil sbarre tous ses batards Faudra bien que j'm'empare du rap dahwa il sera jamais trop tard Gamberge d'un mec au mitard parti pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défauts de 6.35 faut pas finir déjanté Crew de 9.1.6.3.5, 42 Rue de la Fonce-dé On dit que l'amitié elle est sacrée ha, moi elle m'a trop déçu, donc maintenant même mon meilleur pote si y a hèja j'lui tire dessus Pour bien gagner sa vie ouai j'crois faut s'ouet au travail Mais quand c'est oi-t qui sert de cible bah c'est l'Etat qui t'rafale Passionné par la sique-mu j'y ai consacré tout mon temps J'sais que quand on s'pisse dessus bah on n'a pas chaud très longtemps J'fais du boucan même au card-pla les concurrents ils ont les boules J'préfère jeuner avec les corbeaux que d'picorer avec les poules Un zdéh fuck Marlboro Light, j'réponds à Skyrock qui m'appelle J'ai déjà rappé toute la night j'pourrai freestylé toute ma peine Ma belle nan c'est pas oi-t c'est les autres que j'traite de pute Maintenant quand ça frappe à ma porte c'est plus les keufs c'est quand y a un but Ca lève l'illeton ça m'dit Wesh You alors comment va la famille ? Et ta besoin de rien c'est bon ? J'répond Non ci-mer Manny, j'ai du shit, des feuille, des clopes, ma peau sent le Giorgio Armani J'ai tellement les crocs dahwa qu'elles sont cariées mes canines Si j'avais écouté la conseillère j'aurai fait d'la mécanique Taffer tout le mois pour 200 ? Jpréfère dire à l'Etat Nique ta Grand-mère la salope et laisse-moi dans ma lulle-cé Héssess ferme la porte batard toi-même tu sais Ok même si tes broliqué bah tu vas tfaire niquer Eh poto là jsors ma teille donc faut rappliquer Jrêve que dliasse, de grosse caisse, de Audemars Piguet Niveau gonzesses jai les mêmes goûts que Gérard Piquet 2003 au D4 avec Bigdil de Barbès Dans la grotte sa sfume des gros zbar On spète le crâne dès lsbah Cest la que jrencontre Lacrim en promenade au shtar Donc mine de rien sa fait 10 piges, trinquons à la vie de star Toujours le même Sono, Idris, Iam, ?? ou Bachir On parle pas on préfère agir Pour nous butez faudra lGIR Le G.I.R ouais, le Groupe dIntervention Régional Gueh même le G.I.G.N, gueh même le Front National Eh gros next Younes Men bas les cokhoness Moi jrap 20 minutes en Show Case Jgagne de quoi macheter une Rolex Eh gros laisse tombé ils sont pas à Manhattan les expert Ils sont dans le zoo à côté de Bazoo en train dse lé-rou des zdéh A cout de rasoir fuck demain on réglera ça ce soir La concurrence jlui ai tellement mise quelle peut même plus sassoir Jgarde la pèche, pas le citron mais jte lâche des rimes amer Dans tous ce bas monde ya que lImam qui a le droit de faire pleurer ma mère Cest vrai qule succès monte à la tête Mais faut pas se prendre pour jsais pas qui Deux ou trois quets-pa de cigarettes Une ou deux quette-pla de paki Comme dit Nessbeal mieux perdre la vue que la raison Rêve de changer dhorizon Marre des barreaux de prison Faut faire plaisir à la Mama lui offrir une belle maison Jtransfert au FC Ketama à la prochaine saison Jai niqué lRap Game dehwa, jlui ai fait perdre ses os Demande pas à Khider ou à Ferrara ce quil ferait avec une paire de ciseaux Ok cest le Zoogata Yougata wesh mon suisse Tous les jours sa frôle la cour dassise Normal que nos reufs mincisse Niveau détude catastrophique on a tous un Bac -6 Ya trop de Vodka dans loasis donc nos haltères moisisse Moi cest Mister jarrive tout de suite jprends lnuméro dta miss Eh vient pas mfatigué lcrane si un dmes shab tla mise Big la miff tranquille jarrive et jaugmente la mise De Fabio Lucci à chez Gucci, in sha Allah jpartirai en Kamis Là jfume toujours du cannabis Jbaise toujours la police A lheure ou tout es meu-fer, faut quand même quon salcoolise La vérité sa crève lil donc les 3eineur agonise Vu quon reste vrai toujours le même le con a pas besoin quon vise Educateur dla street moi tu mécoute tu passes le BAFA Jai du sang sur les bras va Dehwa jrap pour les braves Hoogata Yougata What mutherfucka A3mel lkhir yanssah a3mal lchar ytfakar Jsuis dans mon quartier jgalère jregarde en lair Jsuis en train de cogité jsuis défoncé sa mère Jarrive chargé une porteuse à Tanger Apres mon passage au terfé bah il treste plus grand chose à manger Jroule un zdéh pour me perché Et rejoindre létoile du Bergé Cest plus de couilles que jai nan cest des gros oeufs de Fabergé Jsuis overbooké ok Zoogataga Jai appris une chose chez Ruquier, cest lmot rutabaga Jrêve que de pouvoir et comme vous avez pu le voir Bah lrap français cest pas vraiment ltruc teh Audrey Pulvar Mon point commun avec Natasha cest mes chico de devant Sauf que moi même sans mes 32 dents bah jleur fait du rentre dedans Attend eh bien sûr que lavenir est inquiétant Pour des barrettes ils nous mettent 8 huit ans Wesh monsieur lPrésident dites leurs bien que Jreprésente les 3arbi le négeuz moi Jsuis plus riche queux donc pourquoi jirai fouiller leurs keu-ss Eux ils sont en pleine crise moi jsuis en plein dans les 30 glorieuse Mais jsais que ma liberté bah elle vaut pas grand chose à leur yeu-z Demande à Lacrim quand jétais à lécole cétait pour gratter les remises de peine Du dispatching au disque de platine Dla fiche de recherche à la fiche de paye Jai pété tous les barrages mais je nai jamais été odieux Comment idolâtrer la vache quand lunivers est à Dieu Dites leurs bien que men bas les couilles de leurs baratin Là jsuis en promenade troisième tour khabta dans un bar à timpe Nique létat cest chméta ils rêvent que de nous foutre dans la de-mer Donc jvais mbranler et même cracher sur leur putin de système de merde Woogata kha tfou Rap teh les fous Qui préfère sacheter une raffleuse que de faire du Kung-fu La Mecque jsuis de ceux qui sbaissent et qui tousse mec Allah y 3efou Jte lai déjà dit on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez nous pour quon sarrête Les 3eineur m'ont trop à l'il dites-leur d'niqué leurs mères les chouettes Moi jm'occupe d'la vodka vous hougataga gardez la Schweppes Eh psss, daprès mon entourage Je reste un brave et cest pour ça quil mencourage Apres la pluie ya pas le beau temps ya lorage Cest vrai que les ptits ont hardcord on était pareil à leur âge A deux sur un scooteur on vivait que de vol à larrache Puis on a connu la crave-bi on a vite tourné la page On sest mis a coupé des barrettes Ensuite à vendre des plaquettes Puis dla coke et de galettes Jusquà ce que les keufs nous arrêtent Un jour jétais dans l19 Le lendemain un hessess fermait ma porte Un soir jetais avec une meuf Le lendemain elle était avec mon pote La vie cest dur Pas de plainte nous tout ce quon porte cest des flingue Et ya pas de vice de procédure gros cest la loi de la jungle Cest pas de ma faute dehwa jcrois bien que jsuis taré de naissance Jme reconnais pas moi-même des fois jsuis ravi de faire ma connaissance Et quand jpart au chtar bah tinquiete pas que jreçois des mandats Et jai toujours la frappe tah le Hollanda et teh Belhanda Jsuis khabta Zoogataga sous ma véranda Et jglisse mes doigts dans les cheveux teh Esméralda Jemmerde lEtat, jemmerde les stups, jemmerde les gendarmes Trafiquant de rime, trafiquant de stup ou trafiquant darmes Je suis comment vous dites paranoïaque ouais Men bas les yeu-k madame la juge baraniyék Tayah sa3dek jte lavais dit qujavais de projets Là jgraille des brochettes jinsulte ta mère et jtouche des gros chèques Jmachète des trucs qui valent cher tient rien quavant-hier Jme suis acheter 3 4 t-shirt jai dépensé ton salaire Jme suis roulé un gros zdéh Puis jai repensé à la misère à cet été à cet hiver Alicante au Val dIsère Au mitard teh la Santé, les promenades en camembert Au mitard teh Fleury quand jrevois les toilettes jme dis beurk Ah les batard comment ils ont pu me faire ça Ils mlon mise jleur ai remise Hoogata vise et versa Ye zeh obligé de se faire remarqué Obligé de se faire embarqué et hop déféré au parquet Direction les grillages bon trêves denfantillage Yeah i speak a little english mother fucking biatch Ouald el kehba what you gonna do ?! Ok jcontinue tout doux Jre big up le rot Mamadou Ok yougata yougata gangst to gangst Tu connais la musique celui qui veux m'test je le baise ah1</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Terminus</t>
+          <t>TROIS PETITS CHATS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ouais Ouais Younes Instru Don Carlito Et la voiture démarre, jsuis sur un classico écoute Instru Don Carlito, et la voiture démarre Jsuis sur un classico jme prépare au départ Place à quatre au fond du bus, benef Personne sassoit La mort le terminus poto tout le monde descend Jfais des clips, jdonne le clap, jlis des tweets Pas de quotas dans mon équipe que des braves brefs Toute la nuit sur mon tel mes yeux sont devenus violets Tu fais le lion sur ton tel dans la vraie vie tu miaulais Parfois joublie les gens me rappellent à quoi je leur fais penser Jaime bien passer pour un con ensuite les faire danser Jrêve toute la journée la nuit jréalise mes rêves Zenith complet jme demande ce qui marrive Cest facile de dénoncer cest difficile de comprendre Facile de renoncer plus difficile de reprendre Ya des chauffards sur les ponts et sous les ponts ya plein de clochard Dans le mal ya du bon et dans lbon ya plein dconnards Chez moi tout le monde sembrouille pour diriger la maison Le cur, la tête, les coups wesh dis-moi qui a raison Les adultes cest juste des enfants ayant pris de lâge Et on shabitue à tout surtout aux privilèges Jvoulais jeter mon tel jen ai acheté un autre Ouais bien joué Younes maintenant ten a deux Je sais cqui mfait du bien, au final jle fais pas Jfais crari jmen bats les reins, au fond ça mtouche un peu On peut vivre ensemble mais on meurt seuls Jte laisse sur ces pensées jai fini lmorceau Déjà huit piges quon a passé le bac Des potes seuls, des potes ont des gosses Jsuis rentré, jvois mes gars, ma miff Les années passent ya rien de neuf Elle me manque cest triste mais la fierté fait rage Et on aime prendre des risques tracés dans les virages Ya toujours rien de neuf Lintelligence ouais cest pas savoir nan Cest ce que tu fais ouais quand tu sais pas Et le silence hen cest pas se taire nan Cest écouter ouais ce que tu dis pas Younes</t>
+          <t>Laisse tomber mon frère, ils étaient complètement chauds... Moi j'ai cru qu'on allait mourir hein ! 'fin, moi j'ai vraiment cru, moi dans ma tête ma première truc c'était on va mourir.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, ouh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Le motard est derrière, nous dans la clairière Allô sergent j'ai deux p'tits chats dans l'viseur Ils sont chargés, l mec changeait sont chargeur Ds moustaches de blédard, un bigot, un pétard Ouais c'est pas des blagueurs J'les prends en filoche Là j'suis au feu rouge On prend le vieux pont direction le cinoche.. J'suis à 50 mètres derrière eux, voiture rouge, deux individus armés, je répète Ok bien reçu, garde-les en visu les lâche pas d'une semelle On va s'les faire pour commencer la semaine Ok les gars on y va on a deux p'tits chats armés dans la ville, on va s'les faire ! On démarre, fourgon Ok, c'est bon Opération Petits chatons On démarre, fourgon Ok, c'est bon Opération Petits chatons Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Ça y est, on y va On sort les guitares On s'fait les p'tits chats La mort ou l'mitard Let's go on descend x2 Toi ferme ta gueule, lève les mains et ferme ta gueule Il est où ton gun, un faux mouvement je dégaine, okay ? C'est un faux, vous me faites peur ! Tirez pas, c'est un faux ! Ça c'est pas un faux, m'prends pas pour un fou J'connais mon métier, j'suis gardien de la paix Deux suspects en joue Y'en a un troisième, un chaton tout noir ! Trois p'tits chats, sans clichés, ils feront même pas le JT Une bavure policière, ils seront couverts, nique sa mère ! Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça..</t>
         </is>
       </c>
     </row>
@@ -1308,61 +1308,10 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOUT COMPTE FÉE</t>
+          <t>V’LÀ LES PROBLÈMES</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie, mon amoureuse Tous comptes faits, les comptes de fée, c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Ell est verte là, où on l'arros On est plus ensemble dpuis un bout de temps Alors pourquoi j'ai l'impression de te tromper quand je parle à une autre que toi? J'continuais de chercher un truc que j'avais déjà trouvé J'voulais l'amour, le grand le vrai il était au bout de mon nez On s'est séparé plein de fois, mais c'était jamais la fin Quand ça a été la fin, on a continué de se séparer plein de fois Ça m'rend fou depuis qu'elle a fui je parle à des filles dont je me fous J'sais plus ce que j'fais, je roule à fond, peur de la fin Y'a comme un feu qui brûle en moi mais qui s'éteint Et c'est pas une bonne nouvelle non, non Et c'est pas une bonne nouvelle non Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là, où on l'arrose Tous comptes faits Ouais tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse ouais j'la rends pas heureuse Elle dit que j'la rends pas heureuse Elle dit que j'la rends pas heureuse non, mon amoureuse non j'la rends pas heureuse, non Et l'herbe n'est pas plus verte ailleurs Et elle n'a pas plus de saveurs Ou plus de fleurs Elle est verte là où on l'arrose ouais j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Tous comptes faits les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle m'dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs Ou plus de fleurs Non elle est verte là où on l'arrose elle est verte là où on l'arrose Tous comptes faits les comptes de fée... Tous comptes fait les comptes de fée c'est pas tout rose Elle est partie mon amoureuse Elle dit que j'la rends pas heureuse L'herbe n'est pas plus verte ailleurs Elle n'a pas plus de saveurs, plus de fleurs Elle est verte là, où on l'arrose ouais Tous comptes faits, tous comptes faits, les comptes de fée c'est pas tout rose1</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Younès Boucif</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Troisième Rapport</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Jarrive dans le Game en claquette comme Tarek à Stalingrad Jai les mains crades tu me connais, cest moi le taré qui a salit le rap Quest-ce que je men bats les couilles de leur saloperie de soirées de merde Moi jveux que les petits bicravent de la drogue même à cet enfoiré de maire La liberté cest quune statue, pour lobserver je fume une plaquette H24 sur le rain-té, représente ceux que les chtars guettent Moi jsuis un magicien, ouais, je fais deux pizzas avec une baguette Donne un oignon, un poivron, du thon et je te fais une gamelle presque parfaite Jallais oublier, passe lHarissa, ouais, et un peu de Rass el hanout Dahwa cest ça qui fait le goût Khouya, demande à mon soce Baroud On se barre où cet été ha des barres, nulle part On reste au chtar comme des hmar, toute la journée à fumer du zbars Ou à sembrouiller avec ces batards de hessess qui nous font ié-ch Si jen croise un au bord dune falaise, dabord je le tarte ensuite je le tèje Ah hou mon gars mon gars mon gars ta brah nique leurs mères ces petits tar-bas Eux tout ce quils méritent cest de la hagra Comment leur pardonner ces fois où ils ont fait pleurer nos mères Il est douloureux le malheur, pourtant le bonheur est éphémère Ok fuck le commissaire, je rap la misère, je représente ris-Pa Men fous si ça rime pas, Je finis par WOOGATAGA Dans les constructions élevées Le juge d'instruction il t'fait bé-tom L'maton bah il est pas là pour trelever Frisson, incitation à la revendé civile Voyous victime qui dit lagaffe d'avoir fait c'big deal Hachiche en nne-to Siste-gro remplit que d'mitos Ah putain ! Marre des hôpitaux et de leur comicos On picole devant l'biff Surtout pas de ke-co dans notre pif Cogitant en tirant sur un gros spliff On kheief, on s'la kiffe Dès qu'ya les stup on s'active Nique la politique demain c'est loin et il m'reste qu'un p'tit stick J'suis trop mystique les pronostics M'annoncent de l'argent Jrêvais d'un palais mais pas d'être guidé par un darme-gen En marchant serré poings liés direction chez l'juge J'ai pas d'chef, hormis celui d'inculpation coke shit J'réfléchis, contrairement à tous ceux qu'ont du mal J'me rends compte que tous les soirs j'rentre à 5 heures du mat' C'est alors, que j'me dis ah ouais au fait, demain c'est tout à l'heure Si j'retourne vers l'futur j'vole Almanach qu'a Biff Tannen J'irais voir l'orphelin j'lui dirais c'est pas ta mère c'est tanneurs Malheur! Faut juste une balle car nan On nest pas des mecs qui tractent! Golf R32, pneu qui bloque, vitesse brisée par la lenteur des mecs qui trottent Les mains qui tremblent au placard car on s'roule pas un pilon quille-tran Au micro on aime les contron Les millions nous les compterons Ne m'écouterons que les siste-gro patron formés sur le goudron On invite les loups garous à s'transformer sous les coups d'crosse Absent au procès, c'est la meilleure des procédures Gros sait tu que vendre la mort ça rapporte mieux que d'grosses études La lassitude de cette vie j'lai connue canon sur la tête J'ai vu qu'après la pluie il y a l'orage qui annonce la tempête Courage tapette ! J'cours à ta perte J'pourrais être ton père, rien à perdre Quand ça braque faut qu'sa raque shab le tabac tah auber Quand faut être franc jsuis céfran Mais j'ai pas une gueule à m'appeler Bertrand J'nique ta mère-grand même si elle sait faire un bon café T'es bon quà fermer la porte de ma cellule Demain c'est loin demain c'est nul Sans pécule les cantines s'annulent J'ai vu plus d'un croissant d'lune D'ailleurs j'ai mis une croix sur l'urne A la douane les passeurs luttent Hollande bah comptez pas sur lui Demain dès l'aube à l'heure où blanchi la campagne on partira Où ça ? Oh pas très loin car pour l'instant ya pas d'dirhams Si t'a pas tu mendieras Si t'aime pas tu mentiras Des nouvelles tu m'en diras J'ai l'ticket pour l'prochain tirage C'est toi qui raque c'est moi l'pirate qui a voler tous vos trésors Rébeval Ramponeau servez perlo avant 13h Dans cette vie d'chien, ma profession serait dresseur Très chère la nuit est longue j'ai cru voir les jours se rétrécire Donc ma vie crotte ah putin dsa mère Et c'est chaud ahahaha WOOGATAGA On dit qu'jsuis trop deuss car ma bécane est débridée Les premiers parloirs, jmentrainais à caler des briquets La cervelle flinguée, du cimetière j'serai le plus friqué Une célébrité tout le temps en état d'ébriété Propriétaire d'une terre ou on n'fait pousser que dla beuh-er J'flirtais avec la de-mer puis j'ai opté pour l'adultère J'aurais dû m'taire lorsque le juge s'est mis à m'parler Il ma demandé est-ce que tu fumes ? J'lui ai dis plus que Bob Marley Younes, RG m'reconnaissent, à croire qu'ils n'ont pas d'Harley Ces batards, les matons, jouent les mafieux srab les rital 3 mojitos, j'suis khayif Jlâche une porteuse vers le matard, dis-lui elle décoffre dans ma guitare J'ressors du mitard, baffe le gradé fait demi-tour 45jours au marché dFleury crois moi Les carottes sont chères Si t'en mange une jte dis cheh Pendant qu'tu chies moi j'digère, mec Si t'as pas d'parlu jte donne 3petits et jte dis gère Demande à mon pote Souris on rêve tous dun monde meilleur Jme sens comme une fourmi quand jvois la grandeur du Seigneur Jsuis comme la chèvre de monsieur Seguin dehwa jkifferai gambadé Jaimerai toucher lhorizon mais les fenêtres sont barricadées Jai entendu dire que lchameau il critique le dromadaire Jai lil du tigre, et autour du cou jai ma panthère Cest Mister Y.O tu connais la suite Là jsuis au Sofitel tigresse tu connais ma suite Toi pourquoi tu fais lours ? Pourquoi thiberne ? Pourquoi tu dors trop ? Même une abeille quand elle vit que dans sa ruche elle finit claustro Jsuis dans ma grotte et comme Sopra jsuis la colombe et le corbeau Jleur ai dit cque jvoulais, que du platine et que de lor gros Dans lpeu-ra jai létiquette du traficanté Mais jme sens chez moi comme un serpent a Kaimana Grande Tout ce que jsais, cest quil faut briser les chaines Que vaut mieux rester en chien que de se comporté comme une chienne Face aux hyènes faut être un loup, on nest pas né dans un chou Face aux renards faut être lun de nous, Hougata zoo A lécole jmarchai tordu mais jétais pas mauvais élève Dans la rue jétais la tortue puis jai dépassé le lièvre OK dehwa jtinforme quà Paris cest pire quà Atlanta Sort un 11.43 tu fais courir les mecs par 30 ah Hougataga ils ont boycotté mon son Si sa marche ap dans lrap jai plus dun litron dans l'4 motion Bref jemmerde la France parce quelle écoute pas mes écrits Parce quelle ma appris que lignorance était lplus beau des mépris La, si on nique létat cest parce quils mont envoyé en son-pri Donc armé dun gros Beretta on est venu reprendre ce quil nous prit Akhi quil aille niquer leurs mères les enfants dla république Et ouais men fous dêtre vulgaire tant qujsuis suivi par mon public Nique tout le gouvernement parce quils sont là pour étouffé le talent Jle crie ouvertement quils aillent donc niquer leurs mamans La liberté elle donne pas rencart à leau chaude Et ouais un immigré au placard cest comme un trou dballe aux chiottes Jparchoque pour les braves et jleurs big up celle-ci Demande à Lass pour ldedicassé jai pas attendu quil signe à Chelsea Jsuis un dces MC qui a vendu dla gue-dro Quand jprends lmicro bah jsuis obligé dfaire du pe-pro Jsuis pas clodo mais avant den faire jen ai bu des tonneaux Jen suis devenu alcolo hé venait pas mparler Conio Sah Antonio Montana moi jrap comme Sosa Jme verrai bien à Punta Cana eh ouais jrêve que dlehssa Abderrazak el merhaoui avec un visa pour lrap français Men bas les klaouis, men fou dsavoir cque vous penser Le micro jlesquinte, jle baise NoTime Records Ta l'brelan j'te sors une quinte, tu veux t'pendre, j'te sors une corde Quand jprends lvolant cest pas pour jouer au badminton Wesh petite barrette de merde te compare pas avec la demi-tonne Dehwa pour lprochain clip faudra Paris Hilton Ouais histoire quelle mtaille une pipe parce que jsuis un peu comme Bill Clinton Fuck toutes les matonnes appelez-moi Don Corleone Jgarde la tête sur les épaules même quand jai trop picolé Ljuge cest quun batard, le proc cest juste un pd Jsuis présumé coupable donc cest pas innocent qujai plaidé Hougataga rien na foutre hépépép Pour moi lpeu-ra cest comme le foot quand jprends lstylo jécris avec mes ieds-p Ca fait fin dcrochet passement djambes suivi dun grand pont Marche pas sur lherbe elle sfume grand con retire tes crampons Nique les jambons ouais, la rue et le card-pla cest parallèle Moi quand jcroise un porc, jlui rappelle quil est pas halal Quand l'étau se resserre t'es comme un veau-cer dans le crâne d'un Doberman On veut pas voir le docteur Leserman nan nous on a besoin d'un barman Quand on va au parloir et qu'on voit Casper on devient tout pâle man Quand y a pas de pilons et bah y a pas de mal à s'faire une Pal-Mall Pour se rincer l'il on fonce à l'infirmerie, on va voir les petites infirmières on prémédite nos fourberies Moi j'fais t'miniques j'ai mal aux dents elles m'prescrivent des Efferalgan J'croise Halim, on s'tapent des barres en s'demandant on sortira quand A force de m'chercher des nois' un jour la chef en verra le gland Elle goutera ma viennoise, elle criera Oh putain c'est grand, oh c'est bon, oh c'est cool, j'veux plus que le temps s'écoule J'lui répondrai Salope, fuck aller, baisse toi, et bouffe moi les couilles Woogataga nique sa mère leur justice, j'fume le taga mais je sniff pas pour être speed moi juste je tise Parlez pas de ma rue et parlez pas de mon enfer, parlez pas de ma vie nan parlez pas de mon affaire Les frères c'est pas de ma faute si toutes leurs meufs elles veulent me ré-sse C'est parce quelles savent qu'avec oi-m à l'hôtel ça va pas néhèss Elles connaissent l'animal dahwa elles connaissent le palmarès J'représente Rébeval et qu'est-ce que j'kiff me faire lehèss Moi il me faut de l'oseille c'est à peu près tout ce qui m'intéresse J'suis faya j'plane dans les airs, j'côtoie qu'des extra-terrestres J'représente pas les suceurs, qu'veulent des bites et des caresses Moi j'rap pour les connaisseurs pour Bazou, Siabou et Karéx Les pieds encrés sur le pavé j'ai l'impression de faire du sur-place Il m'arrive que des trucs de taré j'ai l'air d'un mec perdu sur Mars Faut que j'me surpasse, là j'suis en train d'observer les terriens J'considérais les mecs comme mes frères et jai vu que pour eux j'n'étais rien Maintenant que je sais que ça les instruit j'parle plus du tout avec les cons Pour éviter de péter les plombs, bah il vaut mieux couper les ponts J'préfère être seul avec ma mère que d'être guidé par 10 blondes Après avoir côtoyé la merde, t'inquiètes j'sais qui sont les bons Au hebs les frères tenez bon y a que les matons qui restent là-bas La liberté elle est bandante tu m'crois pas caresse la barre Ahaha Woogataga faut quil sbarre tous ses batards Faudra bien que j'm'empare du rap dahwa il sera jamais trop tard Gamberge d'un mec au mitard parti pour faire plusieurs jours Se revoyant la veille au prétoire et deux jours avant dans la cour Fourchette à défauts de 6.35 faut pas finir déjanté Crew de 9.1.6.3.5, 42 Rue de la Fonce-dé On dit que l'amitié elle est sacrée ha, moi elle m'a trop déçu, donc maintenant même mon meilleur pote si y a hèja j'lui tire dessus Pour bien gagner sa vie ouai j'crois faut s'ouet au travail Mais quand c'est oi-t qui sert de cible bah c'est l'Etat qui t'rafale Passionné par la sique-mu j'y ai consacré tout mon temps J'sais que quand on s'pisse dessus bah on n'a pas chaud très longtemps J'fais du boucan même au card-pla les concurrents ils ont les boules J'préfère jeuner avec les corbeaux que d'picorer avec les poules Un zdéh fuck Marlboro Light, j'réponds à Skyrock qui m'appelle J'ai déjà rappé toute la night j'pourrai freestylé toute ma peine Ma belle nan c'est pas oi-t c'est les autres que j'traite de pute Maintenant quand ça frappe à ma porte c'est plus les keufs c'est quand y a un but Ca lève l'illeton ça m'dit Wesh You alors comment va la famille ? Et ta besoin de rien c'est bon ? J'répond Non ci-mer Manny, j'ai du shit, des feuille, des clopes, ma peau sent le Giorgio Armani J'ai tellement les crocs dahwa qu'elles sont cariées mes canines Si j'avais écouté la conseillère j'aurai fait d'la mécanique Taffer tout le mois pour 200 ? Jpréfère dire à l'Etat Nique ta Grand-mère la salope et laisse-moi dans ma lulle-cé Héssess ferme la porte batard toi-même tu sais Ok même si tes broliqué bah tu vas tfaire niquer Eh poto là jsors ma teille donc faut rappliquer Jrêve que dliasse, de grosse caisse, de Audemars Piguet Niveau gonzesses jai les mêmes goûts que Gérard Piquet 2003 au D4 avec Bigdil de Barbès Dans la grotte sa sfume des gros zbar On spète le crâne dès lsbah Cest la que jrencontre Lacrim en promenade au shtar Donc mine de rien sa fait 10 piges, trinquons à la vie de star Toujours le même Sono, Idris, Iam, ?? ou Bachir On parle pas on préfère agir Pour nous butez faudra lGIR Le G.I.R ouais, le Groupe dIntervention Régional Gueh même le G.I.G.N, gueh même le Front National Eh gros next Younes Men bas les cokhoness Moi jrap 20 minutes en Show Case Jgagne de quoi macheter une Rolex Eh gros laisse tombé ils sont pas à Manhattan les expert Ils sont dans le zoo à côté de Bazoo en train dse lé-rou des zdéh A cout de rasoir fuck demain on réglera ça ce soir La concurrence jlui ai tellement mise quelle peut même plus sassoir Jgarde la pèche, pas le citron mais jte lâche des rimes amer Dans tous ce bas monde ya que lImam qui a le droit de faire pleurer ma mère Cest vrai qule succès monte à la tête Mais faut pas se prendre pour jsais pas qui Deux ou trois quets-pa de cigarettes Une ou deux quette-pla de paki Comme dit Nessbeal mieux perdre la vue que la raison Rêve de changer dhorizon Marre des barreaux de prison Faut faire plaisir à la Mama lui offrir une belle maison Jtransfert au FC Ketama à la prochaine saison Jai niqué lRap Game dehwa, jlui ai fait perdre ses os Demande pas à Khider ou à Ferrara ce quil ferait avec une paire de ciseaux Ok cest le Zoogata Yougata wesh mon suisse Tous les jours sa frôle la cour dassise Normal que nos reufs mincisse Niveau détude catastrophique on a tous un Bac -6 Ya trop de Vodka dans loasis donc nos haltères moisisse Moi cest Mister jarrive tout de suite jprends lnuméro dta miss Eh vient pas mfatigué lcrane si un dmes shab tla mise Big la miff tranquille jarrive et jaugmente la mise De Fabio Lucci à chez Gucci, in sha Allah jpartirai en Kamis Là jfume toujours du cannabis Jbaise toujours la police A lheure ou tout es meu-fer, faut quand même quon salcoolise La vérité sa crève lil donc les 3eineur agonise Vu quon reste vrai toujours le même le con a pas besoin quon vise Educateur dla street moi tu mécoute tu passes le BAFA Jai du sang sur les bras va Dehwa jrap pour les braves Hoogata Yougata What mutherfucka A3mel lkhir yanssah a3mal lchar ytfakar Jsuis dans mon quartier jgalère jregarde en lair Jsuis en train de cogité jsuis défoncé sa mère Jarrive chargé une porteuse à Tanger Apres mon passage au terfé bah il treste plus grand chose à manger Jroule un zdéh pour me perché Et rejoindre létoile du Bergé Cest plus de couilles que jai nan cest des gros oeufs de Fabergé Jsuis overbooké ok Zoogataga Jai appris une chose chez Ruquier, cest lmot rutabaga Jrêve que de pouvoir et comme vous avez pu le voir Bah lrap français cest pas vraiment ltruc teh Audrey Pulvar Mon point commun avec Natasha cest mes chico de devant Sauf que moi même sans mes 32 dents bah jleur fait du rentre dedans Attend eh bien sûr que lavenir est inquiétant Pour des barrettes ils nous mettent 8 huit ans Wesh monsieur lPrésident dites leurs bien que Jreprésente les 3arbi le négeuz moi Jsuis plus riche queux donc pourquoi jirai fouiller leurs keu-ss Eux ils sont en pleine crise moi jsuis en plein dans les 30 glorieuse Mais jsais que ma liberté bah elle vaut pas grand chose à leur yeu-z Demande à Lacrim quand jétais à lécole cétait pour gratter les remises de peine Du dispatching au disque de platine Dla fiche de recherche à la fiche de paye Jai pété tous les barrages mais je nai jamais été odieux Comment idolâtrer la vache quand lunivers est à Dieu Dites leurs bien que men bas les couilles de leurs baratin Là jsuis en promenade troisième tour khabta dans un bar à timpe Nique létat cest chméta ils rêvent que de nous foutre dans la de-mer Donc jvais mbranler et même cracher sur leur putin de système de merde Woogata kha tfou Rap teh les fous Qui préfère sacheter une raffleuse que de faire du Kung-fu La Mecque jsuis de ceux qui sbaissent et qui tousse mec Allah y 3efou Jte lai déjà dit on cotise tous pour la retraite à Clairvaux Ils nous mettent des peines de pédophiles pour des histoires de barrettes Autant vendre de la cocaïne butez nous pour quon sarrête Les 3eineur m'ont trop à l'il dites-leur d'niqué leurs mères les chouettes Moi jm'occupe d'la vodka vous hougataga gardez la Schweppes Eh psss, daprès mon entourage Je reste un brave et cest pour ça quil mencourage Apres la pluie ya pas le beau temps ya lorage Cest vrai que les ptits ont hardcord on était pareil à leur âge A deux sur un scooteur on vivait que de vol à larrache Puis on a connu la crave-bi on a vite tourné la page On sest mis a coupé des barrettes Ensuite à vendre des plaquettes Puis dla coke et de galettes Jusquà ce que les keufs nous arrêtent Un jour jétais dans l19 Le lendemain un hessess fermait ma porte Un soir jetais avec une meuf Le lendemain elle était avec mon pote La vie cest dur Pas de plainte nous tout ce quon porte cest des flingue Et ya pas de vice de procédure gros cest la loi de la jungle Cest pas de ma faute dehwa jcrois bien que jsuis taré de naissance Jme reconnais pas moi-même des fois jsuis ravi de faire ma connaissance Et quand jpart au chtar bah tinquiete pas que jreçois des mandats Et jai toujours la frappe tah le Hollanda et teh Belhanda Jsuis khabta Zoogataga sous ma véranda Et jglisse mes doigts dans les cheveux teh Esméralda Jemmerde lEtat, jemmerde les stups, jemmerde les gendarmes Trafiquant de rime, trafiquant de stup ou trafiquant darmes Je suis comment vous dites paranoïaque ouais Men bas les yeu-k madame la juge baraniyék Tayah sa3dek jte lavais dit qujavais de projets Là jgraille des brochettes jinsulte ta mère et jtouche des gros chèques Jmachète des trucs qui valent cher tient rien quavant-hier Jme suis acheter 3 4 t-shirt jai dépensé ton salaire Jme suis roulé un gros zdéh Puis jai repensé à la misère à cet été à cet hiver Alicante au Val dIsère Au mitard teh la Santé, les promenades en camembert Au mitard teh Fleury quand jrevois les toilettes jme dis beurk Ah les batard comment ils ont pu me faire ça Ils mlon mise jleur ai remise Hoogata vise et versa Ye zeh obligé de se faire remarqué Obligé de se faire embarqué et hop déféré au parquet Direction les grillages bon trêves denfantillage Yeah i speak a little english mother fucking biatch Ouald el kehba what you gonna do ?! Ok jcontinue tout doux Jre big up le rot Mamadou Ok yougata yougata gangst to gangst Tu connais la musique celui qui veux m'test je le baise ah1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Younès Boucif</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>TROIS PETITS CHATS</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Laisse tomber mon frère, ils étaient complètement chauds... Moi j'ai cru qu'on allait mourir hein ! 'fin, moi j'ai vraiment cru, moi dans ma tête ma première truc c'était on va mourir.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, ouh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Le motard est derrière, nous dans la clairière Allô sergent j'ai deux p'tits chats dans l'viseur Ils sont chargés, l mec changeait sont chargeur Ds moustaches de blédard, un bigot, un pétard Ouais c'est pas des blagueurs J'les prends en filoche Là j'suis au feu rouge On prend le vieux pont direction le cinoche.. J'suis à 50 mètres derrière eux, voiture rouge, deux individus armés, je répète Ok bien reçu, garde-les en visu les lâche pas d'une semelle On va s'les faire pour commencer la semaine Ok les gars on y va on a deux p'tits chats armés dans la ville, on va s'les faire ! On démarre, fourgon Ok, c'est bon Opération Petits chatons On démarre, fourgon Ok, c'est bon Opération Petits chatons Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Ça y est, on y va On sort les guitares On s'fait les p'tits chats La mort ou l'mitard Let's go on descend x2 Toi ferme ta gueule, lève les mains et ferme ta gueule Il est où ton gun, un faux mouvement je dégaine, okay ? C'est un faux, vous me faites peur ! Tirez pas, c'est un faux ! Ça c'est pas un faux, m'prends pas pour un fou J'connais mon métier, j'suis gardien de la paix Deux suspects en joue Y'en a un troisième, un chaton tout noir ! Trois p'tits chats, sans clichés, ils feront même pas le JT Une bavure policière, ils seront couverts, nique sa mère ! Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça.. Trois p'tits chats, dans le benks, se baladent avec un gun Deux rebeus, un renoi, roh c'est suspect tout ça..</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Younès Boucif</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>V’LÀ LES PROBLÈMES</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>Ouh, ouh Ah Oh, oh V'là les problèmes Younès fois Médine LH, Rouen, RILESUNDAYZ, Din Records V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus t Franciscopolis Oui J'étais tit-pe, j'écoutais Médine, aujourd'hui, on feat ensemble Bsahtek C'que je dis pas, j'en fais des comptines, ensuite, on les chante ensemble Sale Éric Zemmour, c'est un hmar mais qu'est-ce qu'il parle bien Masha'Allah J'peux pas m'empêcher d'être fier qu'il soit Algérien Vrai visage de l'homme est dans l'anonymat, le moins bon d'entre nous, c'est p't-être le meilleur Capable du pire et du mieux comme Twitter, j'viens faire mon trou comme les boules au billard Sale Des choses qu'on t'apprend que tu comprends plus tard, ils font pas des punchlines mais des blagues Carambar Dans la cabine, antivol au cutter, on n'aime pas les Arabes à part ceux du Qatar Pah-pah-pah-pah J'ai croisé un flic, il était sympa, ça m'a fait bizarre Ça m'a fait tout drôle Il voulait ma carte et un autographe sur sa matraque Dis WAllah J'ai croisé Médine, j'lui ai dit Salam, il m'a dit Bonsoir Nhar Sheitan Putain, y a Younès, t'es chaud pour un feat ? On verra plus tard Ah l'bâtard V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus et Franciscopolis Oui J'suis rassuré depuis qu'j'ai su Ouh que l'Père Noël est noir comme Jésus Ah ouais J'suis beau comme un Arabe qui s'accuse Oh, comme une Algérienne qui s'excuse Okay Les fes-keu ont remonté ma puce Han, j'l'avais mise au nom de Bismuth Merde Quand le français perd sa beauté Oui, c'est tous les autres qu'il défigure Han Demande à ton gosse de dessiner Hein un terroriste ou bien un méchant Méchant, méchant Y a de fortes probabilités Hein pour que le personnage me ressemble Merde Mais le taureau n's'fatigue pas d'porter ses cornes Jamais, jamais Et la nièce de Ben Laden vote Donald Trump No, oh my God Plus rien n'm'étonne, mes diplômes, c'est l'top album J'rentre en cure de désintoxe pour vendre aux clickos plus de doses Ouh J'couperai pas la PlayStation même quand Cheez Nan perdra les eaux V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, cut, j'rappe a capella Gang, gang Je viens rendre fiers ma ville et mon grand-frère Adil V'là les problèmes V'là les problèmes, v'là les caméras V'là les caméras Cut la prod', mec Cut, j'rappe a capella J'rappe a capella Je viens rendre fiers ma ville et mon p'tit-frère Naim Ici, c'est Rotomagus et Franciscopolis Ouh, ouh Younès, Médine, Borat Azamat Younès, Médine, Borat Azamat Médine, Younès, chorba, crème fraîche Le rrain-te reste ouvert de Jumu'ah à Chabbat Han, la vache Mont-Saint', Maromme, Rouen, LH Tou-tou-tou-touh Je n'accuse personne mais c'est tout d'même curieux Ah ouais ? Bien, mec</t>
         </is>
